--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1170">
   <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4296,23 +4296,6 @@
   </si>
   <si>
     <r>
-      <t>Vces</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Vdsmax(V)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>F</t>
     </r>
     <r>
@@ -4925,34 +4908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Icnom</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Idcon(A)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-100℃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SiC-MOSFET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6404,6 +6359,48 @@
   </si>
   <si>
     <t>Vf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGBT-Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiC-Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max(V)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Imax</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(A)-100℃</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7325,7 +7322,7 @@
   <dimension ref="A1:AG544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K540" sqref="K540"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7370,16 +7367,16 @@
         <v>167</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>978</v>
+        <v>1168</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>1048</v>
+        <v>1169</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>5</v>
@@ -7415,48 +7412,48 @@
         <v>165</v>
       </c>
       <c r="U1" s="45" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V1" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="W1" s="32" t="s">
         <v>995</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="32" t="s">
         <v>996</v>
       </c>
-      <c r="X1" s="32" t="s">
-        <v>997</v>
-      </c>
       <c r="Y1" s="52" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Z1" s="52" t="s">
         <v>1046</v>
       </c>
-      <c r="Z1" s="52" t="s">
-        <v>1047</v>
-      </c>
       <c r="AA1" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB1" s="52" t="s">
         <v>1042</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AC1" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="AC1" s="52" t="s">
+      <c r="AD1" s="52" t="s">
         <v>1044</v>
       </c>
-      <c r="AD1" s="52" t="s">
-        <v>1045</v>
-      </c>
       <c r="AE1" s="45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AG1" s="45" t="s">
         <v>1079</v>
-      </c>
-      <c r="AF1" s="58" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AG1" s="45" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>451</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>455</v>
@@ -7608,7 +7605,7 @@
         <v>453</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>163</v>
+        <v>1167</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>168</v>
@@ -7741,7 +7738,7 @@
     </row>
     <row r="6" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>66</v>
@@ -7801,13 +7798,13 @@
     </row>
     <row r="7" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>163</v>
@@ -7855,7 +7852,7 @@
     </row>
     <row r="8" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>155</v>
@@ -7909,7 +7906,7 @@
     </row>
     <row r="9" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>156</v>
@@ -7963,13 +7960,13 @@
     </row>
     <row r="10" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>163</v>
@@ -8017,7 +8014,7 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>158</v>
@@ -8071,7 +8068,7 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>159</v>
@@ -8125,7 +8122,7 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>154</v>
@@ -10115,7 +10112,7 @@
     </row>
     <row r="58" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>646</v>
@@ -10278,7 +10275,7 @@
     </row>
     <row r="61" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>649</v>
@@ -10456,7 +10453,7 @@
     </row>
     <row r="65" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>653</v>
@@ -10547,16 +10544,16 @@
     <row r="67" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="30" t="s">
         <v>981</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>982</v>
       </c>
       <c r="F67" s="30">
         <v>1200</v>
@@ -10634,7 +10631,7 @@
     </row>
     <row r="69" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>656</v>
@@ -10690,7 +10687,7 @@
         <v>162</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F70" s="30">
         <v>1200</v>
@@ -10724,7 +10721,7 @@
     </row>
     <row r="71" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>657</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="75" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>661</v>
@@ -11036,7 +11033,7 @@
     </row>
     <row r="78" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>664</v>
@@ -12930,7 +12927,7 @@
     </row>
     <row r="121" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B121" s="43" t="s">
         <v>152</v>
@@ -13090,10 +13087,10 @@
     </row>
     <row r="124" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>150</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="132" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B132" s="40" t="s">
         <v>676</v>
@@ -13612,7 +13609,7 @@
         <v>412</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>162</v>
+        <v>1166</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>168</v>
@@ -13898,7 +13895,7 @@
     </row>
     <row r="140" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="43" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>683</v>
@@ -14086,7 +14083,7 @@
     <row r="144" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39"/>
       <c r="B144" s="33" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C144" s="30" t="s">
         <v>150</v>
@@ -15296,7 +15293,7 @@
     </row>
     <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C170" s="30" t="s">
         <v>150</v>
@@ -15471,7 +15468,7 @@
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>714</v>
@@ -16007,10 +16004,10 @@
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B186" s="44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C186" s="30" t="s">
         <v>150</v>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="195" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>734</v>
@@ -16859,7 +16856,7 @@
     </row>
     <row r="205" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B205" s="44" t="s">
         <v>744</v>
@@ -16999,7 +16996,7 @@
     </row>
     <row r="208" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="43" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B208" s="44" t="s">
         <v>747</v>
@@ -17095,7 +17092,7 @@
     </row>
     <row r="210" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="43" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B210" s="44" t="s">
         <v>749</v>
@@ -17191,7 +17188,7 @@
     </row>
     <row r="212" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="43" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B212" s="44" t="s">
         <v>751</v>
@@ -20074,7 +20071,7 @@
         <v>450</v>
       </c>
       <c r="B274" s="40" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C274" s="41" t="s">
         <v>150</v>
@@ -22774,7 +22771,7 @@
     </row>
     <row r="362" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="30" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>820</v>
@@ -22786,7 +22783,7 @@
         <v>162</v>
       </c>
       <c r="E362" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F362" s="30">
         <v>1200</v>
@@ -23926,7 +23923,7 @@
     </row>
     <row r="388" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B388" s="44" t="s">
         <v>478</v>
@@ -25034,10 +25031,10 @@
     </row>
     <row r="413" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B413" s="40" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C413" s="30" t="s">
         <v>150</v>
@@ -25086,7 +25083,7 @@
     </row>
     <row r="414" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="39" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B414" s="33" t="s">
         <v>470</v>
@@ -25285,7 +25282,7 @@
     </row>
     <row r="418" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="41" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B418" s="33" t="s">
         <v>464</v>
@@ -25454,7 +25451,7 @@
     </row>
     <row r="421" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>456</v>
@@ -28992,16 +28989,16 @@
         <v>450</v>
       </c>
       <c r="B535" s="51" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C535" s="51" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D535" s="51" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E535" s="51" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F535" s="60">
         <v>1700</v>
@@ -29076,16 +29073,16 @@
         <v>450</v>
       </c>
       <c r="B536" s="51" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C536" s="51" t="s">
         <v>1036</v>
       </c>
-      <c r="C536" s="51" t="s">
-        <v>1037</v>
-      </c>
       <c r="D536" s="51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E536" s="51" t="s">
         <v>1040</v>
-      </c>
-      <c r="E536" s="51" t="s">
-        <v>1041</v>
       </c>
       <c r="F536" s="60">
         <v>1700</v>
@@ -29160,16 +29157,16 @@
         <v>450</v>
       </c>
       <c r="B537" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C537" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D537" s="51" t="s">
         <v>1039</v>
       </c>
-      <c r="C537" s="51" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D537" s="51" t="s">
+      <c r="E537" s="51" t="s">
         <v>1040</v>
-      </c>
-      <c r="E537" s="51" t="s">
-        <v>1041</v>
       </c>
       <c r="F537" s="60">
         <v>1700</v>
@@ -29241,19 +29238,19 @@
     </row>
     <row r="538" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A538" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B538" s="61" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C538" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D538" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E538" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H538" s="51"/>
       <c r="R538" s="1">
@@ -29268,19 +29265,19 @@
     </row>
     <row r="539" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A539" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B539" s="61" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C539" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D539" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E539" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R539" s="1">
         <v>847.45</v>
@@ -29294,19 +29291,19 @@
     </row>
     <row r="540" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A540" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B540" s="61" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C540" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D540" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E540" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R540" s="62">
         <v>1155.92</v>
@@ -29320,19 +29317,19 @@
     </row>
     <row r="541" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A541" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B541" s="61" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C541" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D541" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E541" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R541" s="62">
         <v>1271.42</v>
@@ -29346,19 +29343,19 @@
     </row>
     <row r="542" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A542" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B542" s="61" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C542" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D542" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E542" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R542" s="62">
         <v>1339.58</v>
@@ -29372,19 +29369,19 @@
     </row>
     <row r="543" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A543" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B543" s="61" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C543" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D543" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E543" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R543" s="62">
         <v>2686.87</v>
@@ -29398,19 +29395,19 @@
     </row>
     <row r="544" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A544" s="61" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B544" s="61" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C544" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D544" s="61" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E544" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R544" s="62">
         <v>2875.53</v>
@@ -30216,16 +30213,16 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -30258,7 +30255,7 @@
         <v>413</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -30287,7 +30284,7 @@
         <v>413</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -30328,7 +30325,7 @@
         <v>413</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -30369,7 +30366,7 @@
         <v>413</v>
       </c>
       <c r="M5" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -30407,7 +30404,7 @@
         <v>413</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -30439,10 +30436,10 @@
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" s="57" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -30472,10 +30469,10 @@
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
       <c r="L8" s="57" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -30509,10 +30506,10 @@
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
       <c r="L9" s="57" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -30546,10 +30543,10 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="57" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -30581,10 +30578,10 @@
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
       <c r="L11" s="57" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="M11" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -30616,7 +30613,7 @@
         <v>67</v>
       </c>
       <c r="M12" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -30645,7 +30642,7 @@
         <v>67</v>
       </c>
       <c r="M13" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -30686,7 +30683,7 @@
         <v>67</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -30727,7 +30724,7 @@
         <v>67</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -30765,7 +30762,7 @@
         <v>67</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -30797,7 +30794,7 @@
         <v>519</v>
       </c>
       <c r="M17" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -30826,7 +30823,7 @@
         <v>519</v>
       </c>
       <c r="M18" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -30867,7 +30864,7 @@
         <v>519</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -30908,7 +30905,7 @@
         <v>519</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -30946,7 +30943,7 @@
         <v>519</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -30978,7 +30975,7 @@
         <v>646</v>
       </c>
       <c r="M22" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -31007,7 +31004,7 @@
         <v>646</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -31048,7 +31045,7 @@
         <v>646</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -31089,7 +31086,7 @@
         <v>646</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -31127,7 +31124,7 @@
         <v>646</v>
       </c>
       <c r="M26" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -31159,7 +31156,7 @@
         <v>66</v>
       </c>
       <c r="M27" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -31188,7 +31185,7 @@
         <v>66</v>
       </c>
       <c r="M28" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -31223,7 +31220,7 @@
         <v>66</v>
       </c>
       <c r="M29" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -31258,7 +31255,7 @@
         <v>66</v>
       </c>
       <c r="M30" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -31290,7 +31287,7 @@
         <v>66</v>
       </c>
       <c r="M31" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -31322,7 +31319,7 @@
         <v>71</v>
       </c>
       <c r="M32" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -31351,7 +31348,7 @@
         <v>71</v>
       </c>
       <c r="M33" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -31392,7 +31389,7 @@
         <v>71</v>
       </c>
       <c r="M34" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -31433,7 +31430,7 @@
         <v>71</v>
       </c>
       <c r="M35" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -31471,7 +31468,7 @@
         <v>71</v>
       </c>
       <c r="M36" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -31503,7 +31500,7 @@
         <v>151</v>
       </c>
       <c r="M37" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -31532,7 +31529,7 @@
         <v>151</v>
       </c>
       <c r="M38" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -31573,7 +31570,7 @@
         <v>151</v>
       </c>
       <c r="M39" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -31614,7 +31611,7 @@
         <v>151</v>
       </c>
       <c r="M40" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -31652,7 +31649,7 @@
         <v>151</v>
       </c>
       <c r="M41" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -31684,7 +31681,7 @@
         <v>152</v>
       </c>
       <c r="M42" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -31713,7 +31710,7 @@
         <v>152</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -31754,7 +31751,7 @@
         <v>152</v>
       </c>
       <c r="M44" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -31795,7 +31792,7 @@
         <v>152</v>
       </c>
       <c r="M45" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -31833,7 +31830,7 @@
         <v>152</v>
       </c>
       <c r="M46" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -31862,10 +31859,10 @@
         <v>-2.28495E-11</v>
       </c>
       <c r="L47" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -31891,10 +31888,10 @@
         <v>-1.06864E-11</v>
       </c>
       <c r="L48" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M48" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -31926,10 +31923,10 @@
         <v>-9.0533700000000004E-13</v>
       </c>
       <c r="L49" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M49" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -31961,10 +31958,10 @@
         <v>-7.96941E-11</v>
       </c>
       <c r="L50" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M50" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -31993,10 +31990,10 @@
         <v>-1.48796E-11</v>
       </c>
       <c r="L51" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M51" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -32028,7 +32025,7 @@
         <v>153</v>
       </c>
       <c r="M52" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -32057,7 +32054,7 @@
         <v>153</v>
       </c>
       <c r="M53" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -32092,7 +32089,7 @@
         <v>153</v>
       </c>
       <c r="M54" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -32127,7 +32124,7 @@
         <v>153</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -32159,7 +32156,7 @@
         <v>153</v>
       </c>
       <c r="M56" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -32191,7 +32188,7 @@
         <v>155</v>
       </c>
       <c r="M57" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -32220,7 +32217,7 @@
         <v>155</v>
       </c>
       <c r="M58" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -32255,7 +32252,7 @@
         <v>155</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -32290,7 +32287,7 @@
         <v>155</v>
       </c>
       <c r="M60" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -32322,7 +32319,7 @@
         <v>155</v>
       </c>
       <c r="M61" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -32354,7 +32351,7 @@
         <v>156</v>
       </c>
       <c r="M62" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -32383,7 +32380,7 @@
         <v>156</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -32418,7 +32415,7 @@
         <v>156</v>
       </c>
       <c r="M64" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -32453,7 +32450,7 @@
         <v>156</v>
       </c>
       <c r="M65" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -32485,7 +32482,7 @@
         <v>156</v>
       </c>
       <c r="M66" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -32517,7 +32514,7 @@
         <v>157</v>
       </c>
       <c r="M67" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -32546,7 +32543,7 @@
         <v>157</v>
       </c>
       <c r="M68" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -32581,7 +32578,7 @@
         <v>157</v>
       </c>
       <c r="M69" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -32616,7 +32613,7 @@
         <v>157</v>
       </c>
       <c r="M70" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -32648,7 +32645,7 @@
         <v>157</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -32680,7 +32677,7 @@
         <v>158</v>
       </c>
       <c r="M72" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -32709,7 +32706,7 @@
         <v>158</v>
       </c>
       <c r="M73" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -32744,7 +32741,7 @@
         <v>158</v>
       </c>
       <c r="M74" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -32779,7 +32776,7 @@
         <v>158</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -32811,7 +32808,7 @@
         <v>158</v>
       </c>
       <c r="M76" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -32843,7 +32840,7 @@
         <v>159</v>
       </c>
       <c r="M77" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -32872,7 +32869,7 @@
         <v>159</v>
       </c>
       <c r="M78" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -32907,7 +32904,7 @@
         <v>159</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -32942,7 +32939,7 @@
         <v>159</v>
       </c>
       <c r="M80" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -32974,7 +32971,7 @@
         <v>159</v>
       </c>
       <c r="M81" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -33006,7 +33003,7 @@
         <v>154</v>
       </c>
       <c r="M82" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -33035,7 +33032,7 @@
         <v>154</v>
       </c>
       <c r="M83" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -33070,7 +33067,7 @@
         <v>154</v>
       </c>
       <c r="M84" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -33105,7 +33102,7 @@
         <v>154</v>
       </c>
       <c r="M85" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -33137,7 +33134,7 @@
         <v>154</v>
       </c>
       <c r="M86" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -33169,7 +33166,7 @@
         <v>498</v>
       </c>
       <c r="M87" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -33198,7 +33195,7 @@
         <v>498</v>
       </c>
       <c r="M88" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -33239,7 +33236,7 @@
         <v>498</v>
       </c>
       <c r="M89" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -33280,7 +33277,7 @@
         <v>498</v>
       </c>
       <c r="M90" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -33318,7 +33315,7 @@
         <v>498</v>
       </c>
       <c r="M91" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -33350,7 +33347,7 @@
         <v>456</v>
       </c>
       <c r="M92" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -33379,7 +33376,7 @@
         <v>456</v>
       </c>
       <c r="M93" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -33420,7 +33417,7 @@
         <v>456</v>
       </c>
       <c r="M94" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -33461,7 +33458,7 @@
         <v>456</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -33499,7 +33496,7 @@
         <v>456</v>
       </c>
       <c r="M96" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -33531,7 +33528,7 @@
         <v>688</v>
       </c>
       <c r="M97" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -33560,7 +33557,7 @@
         <v>688</v>
       </c>
       <c r="M98" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -33601,7 +33598,7 @@
         <v>688</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -33642,7 +33639,7 @@
         <v>688</v>
       </c>
       <c r="M100" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -33680,7 +33677,7 @@
         <v>688</v>
       </c>
       <c r="M101" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -33712,7 +33709,7 @@
         <v>466</v>
       </c>
       <c r="M102" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -33741,7 +33738,7 @@
         <v>466</v>
       </c>
       <c r="M103" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -33782,7 +33779,7 @@
         <v>466</v>
       </c>
       <c r="M104" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -33823,7 +33820,7 @@
         <v>466</v>
       </c>
       <c r="M105" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -33861,7 +33858,7 @@
         <v>466</v>
       </c>
       <c r="M106" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -33893,7 +33890,7 @@
         <v>464</v>
       </c>
       <c r="M107" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -33922,7 +33919,7 @@
         <v>464</v>
       </c>
       <c r="M108" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -33963,7 +33960,7 @@
         <v>464</v>
       </c>
       <c r="M109" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -34004,7 +34001,7 @@
         <v>464</v>
       </c>
       <c r="M110" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -34042,7 +34039,7 @@
         <v>464</v>
       </c>
       <c r="M111" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -34074,7 +34071,7 @@
         <v>451</v>
       </c>
       <c r="M112" s="53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -34106,7 +34103,7 @@
         <v>451</v>
       </c>
       <c r="M113" s="53" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -34147,7 +34144,7 @@
         <v>451</v>
       </c>
       <c r="M114" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -34188,7 +34185,7 @@
         <v>451</v>
       </c>
       <c r="M115" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -34223,7 +34220,7 @@
         <v>451</v>
       </c>
       <c r="M116" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -34255,7 +34252,7 @@
         <v>452</v>
       </c>
       <c r="M117" s="53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -34287,7 +34284,7 @@
         <v>452</v>
       </c>
       <c r="M118" s="58" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -34328,7 +34325,7 @@
         <v>452</v>
       </c>
       <c r="M119" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -34369,7 +34366,7 @@
         <v>452</v>
       </c>
       <c r="M120" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -34404,7 +34401,7 @@
         <v>452</v>
       </c>
       <c r="M121" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -34436,7 +34433,7 @@
         <v>455</v>
       </c>
       <c r="M122" s="53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -34468,7 +34465,7 @@
         <v>455</v>
       </c>
       <c r="M123" s="58" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -34509,7 +34506,7 @@
         <v>455</v>
       </c>
       <c r="M124" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -34550,7 +34547,7 @@
         <v>455</v>
       </c>
       <c r="M125" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -34585,7 +34582,7 @@
         <v>455</v>
       </c>
       <c r="M126" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -34617,7 +34614,7 @@
         <v>454</v>
       </c>
       <c r="M127" s="53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -34649,7 +34646,7 @@
         <v>454</v>
       </c>
       <c r="M128" s="58" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -34690,7 +34687,7 @@
         <v>454</v>
       </c>
       <c r="M129" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -34731,7 +34728,7 @@
         <v>454</v>
       </c>
       <c r="M130" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -34766,7 +34763,7 @@
         <v>454</v>
       </c>
       <c r="M131" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -34795,10 +34792,10 @@
         <v>-2.00572E-8</v>
       </c>
       <c r="L132" s="53" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M132" s="53" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -34827,10 +34824,10 @@
         <v>-1.08587E-7</v>
       </c>
       <c r="L133" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M133" s="53" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -34859,10 +34856,10 @@
         <v>-7.9799999999999992E-3</v>
       </c>
       <c r="L134" s="53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M134" s="53" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -34891,10 +34888,10 @@
         <v>-4.8463900000000002E-11</v>
       </c>
       <c r="L135" s="54" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M135" s="53" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -34920,10 +34917,10 @@
         <v>-8.6541700000000005E-11</v>
       </c>
       <c r="L136" s="54" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="M136" s="52" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -34961,10 +34958,10 @@
         <v>17.220645568168798</v>
       </c>
       <c r="L137" s="54" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M137" s="52" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -35002,10 +34999,10 @@
         <v>27.518241706595202</v>
       </c>
       <c r="L138" s="54" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M138" s="52" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -35040,10 +35037,10 @@
         <v>19.773019999999999</v>
       </c>
       <c r="L139" s="54" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M139" s="52" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -35081,10 +35078,10 @@
         <v>321</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>69</v>
@@ -35096,7 +35093,7 @@
         <v>389</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>371</v>
@@ -35108,7 +35105,7 @@
         <v>390</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -35116,7 +35113,7 @@
         <v>388</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D33" si="0">PI()*POWER(H2/2,2)*10</f>
@@ -35148,7 +35145,7 @@
         <v>387</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="0"/>
@@ -35208,7 +35205,7 @@
         <v>384</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -35268,7 +35265,7 @@
         <v>383</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -35300,7 +35297,7 @@
         <v>382</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -35360,7 +35357,7 @@
         <v>380</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -35419,7 +35416,7 @@
         <v>378</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -35478,7 +35475,7 @@
         <v>376</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -35564,7 +35561,7 @@
         <v>373</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -35596,7 +35593,7 @@
         <v>372</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -35628,7 +35625,7 @@
         <v>368</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -35660,7 +35657,7 @@
         <v>367</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -35692,7 +35689,7 @@
         <v>366</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -35751,7 +35748,7 @@
         <v>364</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
@@ -35783,7 +35780,7 @@
         <v>363</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
@@ -35842,7 +35839,7 @@
         <v>361</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="0"/>
@@ -35928,7 +35925,7 @@
         <v>358</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="0"/>
@@ -35987,7 +35984,7 @@
         <v>356</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="0"/>
@@ -36208,7 +36205,7 @@
         <v>348</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="3"/>
@@ -36294,7 +36291,7 @@
         <v>345</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="3"/>
@@ -36326,7 +36323,7 @@
         <v>344</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="3"/>
@@ -36358,7 +36355,7 @@
         <v>343</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="3"/>
@@ -36390,7 +36387,7 @@
         <v>342</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="3"/>
@@ -36474,7 +36471,7 @@
         <v>339</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="3"/>
@@ -36506,7 +36503,7 @@
         <v>338</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="3"/>
@@ -36538,7 +36535,7 @@
         <v>337</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="3"/>
@@ -36570,7 +36567,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="3"/>
@@ -36630,7 +36627,7 @@
         <v>334</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" si="3"/>
@@ -36662,10 +36659,10 @@
         <v>391</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D54" s="7">
         <f>PI()*POWER(H54/2,2)*10*K54</f>
@@ -36693,10 +36690,10 @@
         <v>391</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ref="D55:D128" si="6">PI()*POWER(H55/2,2)*10*K55</f>
@@ -36724,10 +36721,10 @@
         <v>391</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="6"/>
@@ -36755,10 +36752,10 @@
         <v>391</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" si="6"/>
@@ -36786,10 +36783,10 @@
         <v>391</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="6"/>
@@ -36817,10 +36814,10 @@
         <v>391</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="6"/>
@@ -36848,10 +36845,10 @@
         <v>391</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="6"/>
@@ -36879,10 +36876,10 @@
         <v>391</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="6"/>
@@ -36910,10 +36907,10 @@
         <v>391</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" si="6"/>
@@ -36941,10 +36938,10 @@
         <v>391</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" si="6"/>
@@ -36972,10 +36969,10 @@
         <v>391</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="6"/>
@@ -37003,10 +37000,10 @@
         <v>391</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="6"/>
@@ -37034,10 +37031,10 @@
         <v>391</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="6"/>
@@ -37065,10 +37062,10 @@
         <v>391</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="6"/>
@@ -37096,10 +37093,10 @@
         <v>391</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="6"/>
@@ -37127,10 +37124,10 @@
         <v>391</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="6"/>
@@ -37158,10 +37155,10 @@
         <v>391</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" si="6"/>
@@ -37189,10 +37186,10 @@
         <v>391</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="6"/>
@@ -37220,10 +37217,10 @@
         <v>391</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="6"/>
@@ -37251,10 +37248,10 @@
         <v>391</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="6"/>
@@ -37282,10 +37279,10 @@
         <v>391</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="6"/>
@@ -37313,10 +37310,10 @@
         <v>391</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="6"/>
@@ -37344,10 +37341,10 @@
         <v>391</v>
       </c>
       <c r="B76" s="63" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="6"/>
@@ -37375,10 +37372,10 @@
         <v>391</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="6"/>
@@ -37406,10 +37403,10 @@
         <v>391</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="6"/>
@@ -37437,10 +37434,10 @@
         <v>391</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="6"/>
@@ -37468,10 +37465,10 @@
         <v>391</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="6"/>
@@ -37499,10 +37496,10 @@
         <v>391</v>
       </c>
       <c r="B81" s="63" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="6"/>
@@ -37530,10 +37527,10 @@
         <v>391</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" si="6"/>
@@ -37561,10 +37558,10 @@
         <v>391</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="6"/>
@@ -37592,10 +37589,10 @@
         <v>391</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="6"/>
@@ -37623,10 +37620,10 @@
         <v>391</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="6"/>
@@ -37654,10 +37651,10 @@
         <v>391</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="6"/>
@@ -37685,10 +37682,10 @@
         <v>391</v>
       </c>
       <c r="B87" s="63" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="6"/>
@@ -37716,10 +37713,10 @@
         <v>391</v>
       </c>
       <c r="B88" s="63" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" si="6"/>
@@ -37747,10 +37744,10 @@
         <v>391</v>
       </c>
       <c r="B89" s="63" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="6"/>
@@ -37778,10 +37775,10 @@
         <v>391</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" si="6"/>
@@ -37809,10 +37806,10 @@
         <v>391</v>
       </c>
       <c r="B91" s="63" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="6"/>
@@ -37840,10 +37837,10 @@
         <v>391</v>
       </c>
       <c r="B92" s="63" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="6"/>
@@ -37871,10 +37868,10 @@
         <v>391</v>
       </c>
       <c r="B93" s="63" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="6"/>
@@ -37902,10 +37899,10 @@
         <v>391</v>
       </c>
       <c r="B94" s="63" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="6"/>
@@ -37933,10 +37930,10 @@
         <v>391</v>
       </c>
       <c r="B95" s="63" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="6"/>
@@ -37964,10 +37961,10 @@
         <v>391</v>
       </c>
       <c r="B96" s="63" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="6"/>
@@ -37995,10 +37992,10 @@
         <v>391</v>
       </c>
       <c r="B97" s="63" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="6"/>
@@ -38026,10 +38023,10 @@
         <v>391</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="6"/>
@@ -38057,10 +38054,10 @@
         <v>391</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" si="6"/>
@@ -38088,10 +38085,10 @@
         <v>391</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="6"/>
@@ -38119,10 +38116,10 @@
         <v>391</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="6"/>
@@ -38147,10 +38144,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B102" s="66" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="6"/>
@@ -38175,10 +38172,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" s="66" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="6"/>
@@ -38203,10 +38200,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B104" s="66" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="6"/>
@@ -38231,10 +38228,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B105" s="66" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" si="6"/>
@@ -38259,10 +38256,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" s="66" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="6"/>
@@ -38287,10 +38284,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B107" s="66" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="6"/>
@@ -38315,10 +38312,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B108" s="66" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="6"/>
@@ -38343,10 +38340,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B109" s="66" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="6"/>
@@ -38371,10 +38368,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B110" s="66" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="6"/>
@@ -38399,10 +38396,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B111" s="66" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" si="6"/>
@@ -38427,10 +38424,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B112" s="66" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="6"/>
@@ -38455,10 +38452,10 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="66" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="6"/>
@@ -38483,10 +38480,10 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="66" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="6"/>
@@ -38511,10 +38508,10 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="66" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="6"/>
@@ -38539,10 +38536,10 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="66" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="6"/>
@@ -38567,10 +38564,10 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="66" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="6"/>
@@ -38595,10 +38592,10 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="66" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="6"/>
@@ -38623,10 +38620,10 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" si="6"/>
@@ -38651,10 +38648,10 @@
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="66" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="6"/>
@@ -38679,10 +38676,10 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="66" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="6"/>
@@ -38707,10 +38704,10 @@
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="66" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="6"/>
@@ -38735,10 +38732,10 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="66" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" si="6"/>
@@ -38763,10 +38760,10 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="66" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="6"/>
@@ -38791,10 +38788,10 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="66" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="6"/>
@@ -38819,10 +38816,10 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="66" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="6"/>
@@ -38847,10 +38844,10 @@
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="66" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="6"/>
@@ -38875,10 +38872,10 @@
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="66" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="6"/>
@@ -39028,7 +39025,7 @@
         <v>331</v>
       </c>
       <c r="Y1" s="58" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -42054,16 +42051,16 @@
         <v>407</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
@@ -42121,7 +42118,7 @@
         <v>166</v>
       </c>
       <c r="X40" s="60" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="4"/>
@@ -42133,16 +42130,16 @@
         <v>407</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
@@ -42200,7 +42197,7 @@
         <v>166</v>
       </c>
       <c r="X41" s="60" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="4"/>
@@ -42267,19 +42264,19 @@
         <v>165</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K1" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>995</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="M1" s="45" t="s">
         <v>996</v>
       </c>
-      <c r="M1" s="45" t="s">
-        <v>997</v>
-      </c>
       <c r="N1" s="48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -42371,7 +42368,7 @@
         <v>405</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C4" s="7">
         <v>800</v>
@@ -42749,7 +42746,7 @@
         <v>405</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="7">
         <v>700</v>
@@ -42858,7 +42855,7 @@
         <v>405</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="7">
         <v>2000</v>
@@ -42900,7 +42897,7 @@
         <v>405</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C17" s="7">
         <v>2000</v>
@@ -42939,7 +42936,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C18" s="7">
         <v>2000</v>
@@ -42975,10 +42972,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C19" s="7">
         <v>2000</v>
@@ -43020,7 +43017,7 @@
         <v>405</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="7">
         <v>2000</v>
@@ -43059,7 +43056,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C21" s="7">
         <v>2000</v>
@@ -43098,7 +43095,7 @@
         <v>405</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C22" s="7">
         <v>2000</v>
@@ -43137,7 +43134,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C23" s="7">
         <v>2000</v>
@@ -43176,7 +43173,7 @@
         <v>405</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C24" s="7">
         <v>2000</v>
@@ -43215,10 +43212,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C25" s="7">
         <v>2000</v>
@@ -43260,7 +43257,7 @@
         <v>405</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C26" s="7">
         <v>2000</v>
@@ -43302,7 +43299,7 @@
         <v>405</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C27" s="7">
         <v>2000</v>
@@ -43341,10 +43338,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C28" s="7">
         <v>2000</v>
@@ -43383,7 +43380,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C29" s="7">
         <v>2000</v>
@@ -43422,7 +43419,7 @@
         <v>405</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C30" s="7">
         <v>2000</v>
@@ -43464,7 +43461,7 @@
         <v>405</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C31" s="7">
         <v>2000</v>
@@ -43506,7 +43503,7 @@
         <v>405</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C32" s="7">
         <v>2000</v>
@@ -43548,7 +43545,7 @@
         <v>405</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C33" s="7">
         <v>2000</v>
@@ -43590,7 +43587,7 @@
         <v>405</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C34" s="7">
         <v>2000</v>
@@ -43635,7 +43632,7 @@
         <v>405</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C35" s="7">
         <v>2000</v>
@@ -43680,7 +43677,7 @@
         <v>405</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C36" s="7">
         <v>2000</v>
@@ -43725,7 +43722,7 @@
         <v>405</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C37" s="7">
         <v>2000</v>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Capacitor!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$537</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$607</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1237">
   <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5060,10 +5060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ND104N18K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ND171N18K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6375,23 +6371,6 @@
   </si>
   <si>
     <r>
-      <t>Imax</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(A)-100℃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>S</t>
     </r>
     <r>
@@ -6457,6 +6436,231 @@
       <t>HF</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ND104N18K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD44-08N1B</t>
+  </si>
+  <si>
+    <t>MDD142-08N1</t>
+  </si>
+  <si>
+    <t>MDD26-08N1B</t>
+  </si>
+  <si>
+    <t>MDD56-08N1B</t>
+  </si>
+  <si>
+    <t>MDD172-08N1</t>
+  </si>
+  <si>
+    <t>MDD95-08N1B</t>
+  </si>
+  <si>
+    <t>MDD72-08N1B</t>
+  </si>
+  <si>
+    <t>MDD26-12N1B</t>
+  </si>
+  <si>
+    <t>MDD310-12N1</t>
+  </si>
+  <si>
+    <t>MDD312-12N1</t>
+  </si>
+  <si>
+    <t>MDD172-12N1</t>
+  </si>
+  <si>
+    <t>MDD72-12N1B</t>
+  </si>
+  <si>
+    <t>MDD255-12N1</t>
+  </si>
+  <si>
+    <t>MDD142-12N1</t>
+  </si>
+  <si>
+    <t>MDD95-12N1B</t>
+  </si>
+  <si>
+    <t>MDD56-12N1B</t>
+  </si>
+  <si>
+    <t>MDD44-12N1B</t>
+  </si>
+  <si>
+    <t>MDD26-14N1B</t>
+  </si>
+  <si>
+    <t>MDD56-14N1B</t>
+  </si>
+  <si>
+    <t>MDD44-14N1B</t>
+  </si>
+  <si>
+    <t>MDD95-14N1B</t>
+  </si>
+  <si>
+    <t>MDD172-14N1</t>
+  </si>
+  <si>
+    <t>MDD142-14N1</t>
+  </si>
+  <si>
+    <t>MDD200-14N1</t>
+  </si>
+  <si>
+    <t>MDD310-14N1</t>
+  </si>
+  <si>
+    <t>MDD255-14N1</t>
+  </si>
+  <si>
+    <t>MDD312-14N1</t>
+  </si>
+  <si>
+    <t>MDD312-16N1</t>
+  </si>
+  <si>
+    <t>MDD95-16N1B</t>
+  </si>
+  <si>
+    <t>MDD310-16N1</t>
+  </si>
+  <si>
+    <t>MDD26-16N1B</t>
+  </si>
+  <si>
+    <t>MDD255-16N1</t>
+  </si>
+  <si>
+    <t>MDD56-16N1B</t>
+  </si>
+  <si>
+    <t>MDD72-16N1B</t>
+  </si>
+  <si>
+    <t>MDD172-16N1</t>
+  </si>
+  <si>
+    <t>MDD200-16N1</t>
+  </si>
+  <si>
+    <t>MDD44-16N1B</t>
+  </si>
+  <si>
+    <t>MDD142-16N1</t>
+  </si>
+  <si>
+    <t>MDD44-18N1B</t>
+  </si>
+  <si>
+    <t>MDD56-18N1B</t>
+  </si>
+  <si>
+    <t>MDD312-18N1</t>
+  </si>
+  <si>
+    <t>MDD172-18N1</t>
+  </si>
+  <si>
+    <t>MDD95-18N1B</t>
+  </si>
+  <si>
+    <t>MDD26-18N1B</t>
+  </si>
+  <si>
+    <t>MDD200-18N1</t>
+  </si>
+  <si>
+    <t>MDD950-18N1W</t>
+  </si>
+  <si>
+    <t>MDD600-18N1</t>
+  </si>
+  <si>
+    <t>MDD72-18N1B</t>
+  </si>
+  <si>
+    <t>MDD142-18N1</t>
+  </si>
+  <si>
+    <t>MDD310-18N1</t>
+  </si>
+  <si>
+    <t>MDD255-18N1</t>
+  </si>
+  <si>
+    <t>MDD255-20N1</t>
+  </si>
+  <si>
+    <t>MDD310-20N1</t>
+  </si>
+  <si>
+    <t>MDD312-20N1</t>
+  </si>
+  <si>
+    <t>MDD255-22N1</t>
+  </si>
+  <si>
+    <t>MDD200-22N1</t>
+  </si>
+  <si>
+    <t>MDD310-22N1</t>
+  </si>
+  <si>
+    <t>MDD312-22N1</t>
+  </si>
+  <si>
+    <t>MDD600-22N1</t>
+  </si>
+  <si>
+    <t>MDD95-22N1B</t>
+  </si>
+  <si>
+    <r>
+      <t>Imax</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(A)-Tc=100℃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diode-Module (No Vf curve)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD72-14N1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD950-14N1W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD95-20N1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6634,7 +6838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6830,6 +7034,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7378,10 +7588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AG544"/>
+  <dimension ref="A1:AG607"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q545" sqref="Q545:Q606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7389,12 +7599,11 @@
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
@@ -7403,9 +7612,9 @@
     <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7426,10 +7635,10 @@
         <v>167</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>1166</v>
+        <v>1232</v>
       </c>
       <c r="H1" s="51" t="s">
         <v>1049</v>
@@ -7501,13 +7710,13 @@
         <v>1041</v>
       </c>
       <c r="AE1" s="43" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AF1" s="56" t="s">
         <v>1074</v>
       </c>
-      <c r="AF1" s="56" t="s">
+      <c r="AG1" s="43" t="s">
         <v>1075</v>
-      </c>
-      <c r="AG1" s="43" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -7664,7 +7873,7 @@
         <v>453</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>168</v>
@@ -7795,7 +8004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>990</v>
       </c>
@@ -7855,7 +8064,7 @@
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
     </row>
-    <row r="7" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>990</v>
       </c>
@@ -7909,7 +8118,7 @@
       <c r="V7" s="28"/>
       <c r="W7" s="28"/>
     </row>
-    <row r="8" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>990</v>
       </c>
@@ -7963,7 +8172,7 @@
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
     </row>
-    <row r="9" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>990</v>
       </c>
@@ -8017,7 +8226,7 @@
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
     </row>
-    <row r="10" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>990</v>
       </c>
@@ -8071,7 +8280,7 @@
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
     </row>
-    <row r="11" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>990</v>
       </c>
@@ -8125,7 +8334,7 @@
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>990</v>
       </c>
@@ -8179,7 +8388,7 @@
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
     </row>
-    <row r="13" spans="1:33" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>990</v>
       </c>
@@ -10169,7 +10378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>1004</v>
       </c>
@@ -10332,7 +10541,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
         <v>983</v>
       </c>
@@ -10510,7 +10719,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
         <v>983</v>
       </c>
@@ -10688,7 +10897,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
         <v>983</v>
       </c>
@@ -10778,7 +10987,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
         <v>983</v>
       </c>
@@ -10956,7 +11165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
         <v>983</v>
       </c>
@@ -11090,7 +11299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="41" t="s">
         <v>983</v>
       </c>
@@ -12984,7 +13193,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="41" t="s">
         <v>986</v>
       </c>
@@ -13144,7 +13353,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28" t="s">
         <v>986</v>
       </c>
@@ -13561,7 +13770,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="41" t="s">
         <v>983</v>
       </c>
@@ -13668,7 +13877,7 @@
         <v>412</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E134" s="35" t="s">
         <v>168</v>
@@ -13952,7 +14161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="41" t="s">
         <v>997</v>
       </c>
@@ -15525,7 +15734,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="41" t="s">
         <v>983</v>
       </c>
@@ -16061,7 +16270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="41" t="s">
         <v>983</v>
       </c>
@@ -16465,7 +16674,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="41" t="s">
         <v>983</v>
       </c>
@@ -16913,7 +17122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="41" t="s">
         <v>983</v>
       </c>
@@ -17053,7 +17262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="41" t="s">
         <v>1002</v>
       </c>
@@ -17149,7 +17358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="41" t="s">
         <v>1001</v>
       </c>
@@ -17245,7 +17454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="41" t="s">
         <v>998</v>
       </c>
@@ -22828,7 +23037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="28" t="s">
         <v>984</v>
       </c>
@@ -23980,7 +24189,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="37" t="s">
         <v>987</v>
       </c>
@@ -25088,7 +25297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="37" t="s">
         <v>983</v>
       </c>
@@ -25140,7 +25349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="37" t="s">
         <v>988</v>
       </c>
@@ -25339,7 +25548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="39" t="s">
         <v>1005</v>
       </c>
@@ -25508,7 +25717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="44" t="s">
         <v>1006</v>
       </c>
@@ -29300,7 +29509,7 @@
         <v>983</v>
       </c>
       <c r="B538" s="59" t="s">
-        <v>1067</v>
+        <v>1170</v>
       </c>
       <c r="C538" s="58" t="s">
         <v>150</v>
@@ -29327,7 +29536,7 @@
         <v>983</v>
       </c>
       <c r="B539" s="59" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C539" s="58" t="s">
         <v>150</v>
@@ -29353,7 +29562,7 @@
         <v>983</v>
       </c>
       <c r="B540" s="59" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C540" s="58" t="s">
         <v>150</v>
@@ -29379,7 +29588,7 @@
         <v>983</v>
       </c>
       <c r="B541" s="59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C541" s="58" t="s">
         <v>150</v>
@@ -29405,7 +29614,7 @@
         <v>983</v>
       </c>
       <c r="B542" s="59" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C542" s="58" t="s">
         <v>150</v>
@@ -29431,7 +29640,7 @@
         <v>983</v>
       </c>
       <c r="B543" s="59" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C543" s="58" t="s">
         <v>150</v>
@@ -29457,7 +29666,7 @@
         <v>983</v>
       </c>
       <c r="B544" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C544" s="58" t="s">
         <v>150</v>
@@ -29478,12 +29687,3321 @@
         <v>166</v>
       </c>
     </row>
+    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D545" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E545" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F545" s="1">
+        <v>800</v>
+      </c>
+      <c r="G545" s="1">
+        <v>36</v>
+      </c>
+      <c r="I545" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O545" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q545" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R545" s="1">
+        <v>109.67</v>
+      </c>
+      <c r="S545" s="1">
+        <v>100</v>
+      </c>
+      <c r="T545" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U545" s="59">
+        <f>V545*W545*X545/1000000</f>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V545" s="1">
+        <v>92</v>
+      </c>
+      <c r="W545" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X545" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D546" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E546" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F546" s="1">
+        <v>800</v>
+      </c>
+      <c r="G546" s="1">
+        <v>59</v>
+      </c>
+      <c r="I546" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="O546" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q546" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R546" s="1">
+        <v>118.31</v>
+      </c>
+      <c r="S546" s="1">
+        <v>100</v>
+      </c>
+      <c r="T546" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U546" s="59">
+        <f t="shared" ref="U546:U607" si="9">V546*W546*X546/1000000</f>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V546" s="1">
+        <v>92</v>
+      </c>
+      <c r="W546" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X546" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D547" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E547" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F547" s="1">
+        <v>800</v>
+      </c>
+      <c r="G547" s="1">
+        <v>71</v>
+      </c>
+      <c r="I547" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O547" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q547" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R547" s="1">
+        <v>122.64</v>
+      </c>
+      <c r="S547" s="1">
+        <v>100</v>
+      </c>
+      <c r="T547" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U547" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V547" s="1">
+        <v>92</v>
+      </c>
+      <c r="W547" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X547" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D548" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E548" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F548" s="1">
+        <v>800</v>
+      </c>
+      <c r="G548" s="1">
+        <v>99</v>
+      </c>
+      <c r="I548" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="O548" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q548" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R548" s="1">
+        <v>148.57</v>
+      </c>
+      <c r="S548" s="1">
+        <v>100</v>
+      </c>
+      <c r="T548" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U548" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V548" s="1">
+        <v>92</v>
+      </c>
+      <c r="W548" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X548" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D549" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E549" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F549" s="1">
+        <v>800</v>
+      </c>
+      <c r="G549" s="1">
+        <v>120</v>
+      </c>
+      <c r="I549" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O549" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q549" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R549" s="1">
+        <v>156.37</v>
+      </c>
+      <c r="S549" s="1">
+        <v>100</v>
+      </c>
+      <c r="T549" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U549" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V549" s="1">
+        <v>92</v>
+      </c>
+      <c r="W549" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X549" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D550" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E550" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F550" s="1">
+        <v>800</v>
+      </c>
+      <c r="G550" s="1">
+        <v>165</v>
+      </c>
+      <c r="I550" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O550" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q550" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R550" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="S550" s="1">
+        <v>100</v>
+      </c>
+      <c r="T550" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U550" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V550" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W550" s="1">
+        <v>34</v>
+      </c>
+      <c r="X550" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D551" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E551" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F551" s="1">
+        <v>800</v>
+      </c>
+      <c r="G551" s="1">
+        <v>190</v>
+      </c>
+      <c r="I551" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O551" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q551" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R551" s="1">
+        <v>241.03</v>
+      </c>
+      <c r="S551" s="1">
+        <v>100</v>
+      </c>
+      <c r="T551" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U551" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V551" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W551" s="1">
+        <v>34</v>
+      </c>
+      <c r="X551" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D552" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E552" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F552" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G552" s="1">
+        <v>36</v>
+      </c>
+      <c r="I552" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O552" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q552" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R552" s="1">
+        <v>114.54</v>
+      </c>
+      <c r="S552" s="1">
+        <v>100</v>
+      </c>
+      <c r="T552" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U552" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V552" s="1">
+        <v>92</v>
+      </c>
+      <c r="W552" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X552" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D553" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E553" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F553" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G553" s="1">
+        <v>59</v>
+      </c>
+      <c r="I553" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="O553" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q553" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R553" s="1">
+        <v>115.85</v>
+      </c>
+      <c r="S553" s="1">
+        <v>100</v>
+      </c>
+      <c r="T553" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U553" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V553" s="1">
+        <v>92</v>
+      </c>
+      <c r="W553" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X553" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D554" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E554" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F554" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G554" s="1">
+        <v>71</v>
+      </c>
+      <c r="I554" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O554" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q554" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R554" s="1">
+        <v>128.81</v>
+      </c>
+      <c r="S554" s="1">
+        <v>100</v>
+      </c>
+      <c r="T554" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U554" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V554" s="1">
+        <v>92</v>
+      </c>
+      <c r="W554" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X554" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D555" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E555" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F555" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G555" s="1">
+        <v>99</v>
+      </c>
+      <c r="I555" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="O555" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q555" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R555" s="1">
+        <v>155.97</v>
+      </c>
+      <c r="S555" s="1">
+        <v>100</v>
+      </c>
+      <c r="T555" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U555" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V555" s="1">
+        <v>92</v>
+      </c>
+      <c r="W555" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X555" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D556" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E556" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F556" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G556" s="1">
+        <v>120</v>
+      </c>
+      <c r="I556" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O556" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q556" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R556" s="1">
+        <v>164.23</v>
+      </c>
+      <c r="S556" s="1">
+        <v>100</v>
+      </c>
+      <c r="T556" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U556" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V556" s="1">
+        <v>92</v>
+      </c>
+      <c r="W556" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X556" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D557" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E557" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F557" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G557" s="1">
+        <v>165</v>
+      </c>
+      <c r="I557" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O557" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q557" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R557" s="1">
+        <v>239.1</v>
+      </c>
+      <c r="S557" s="1">
+        <v>100</v>
+      </c>
+      <c r="T557" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U557" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V557" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W557" s="1">
+        <v>34</v>
+      </c>
+      <c r="X557" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D558" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E558" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F558" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G558" s="1">
+        <v>190</v>
+      </c>
+      <c r="I558" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O558" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q558" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R558" s="1">
+        <v>253.14</v>
+      </c>
+      <c r="S558" s="1">
+        <v>100</v>
+      </c>
+      <c r="T558" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U558" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V558" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W558" s="1">
+        <v>34</v>
+      </c>
+      <c r="X558" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D559" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E559" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F559" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G559" s="1">
+        <v>270</v>
+      </c>
+      <c r="I559" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O559" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q559" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R559" s="1">
+        <v>666.21</v>
+      </c>
+      <c r="S559" s="1">
+        <v>100</v>
+      </c>
+      <c r="T559" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U559" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V559" s="1">
+        <v>115</v>
+      </c>
+      <c r="W559" s="1">
+        <v>50</v>
+      </c>
+      <c r="X559" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D560" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E560" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F560" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G560" s="1">
+        <v>300</v>
+      </c>
+      <c r="I560" s="1">
+        <v>1</v>
+      </c>
+      <c r="O560" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q560" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R560" s="1">
+        <v>545.5</v>
+      </c>
+      <c r="S560" s="1">
+        <v>100</v>
+      </c>
+      <c r="T560" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U560" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V560" s="1">
+        <v>116</v>
+      </c>
+      <c r="W560" s="1">
+        <v>60</v>
+      </c>
+      <c r="X560" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D561" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E561" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F561" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G561" s="1">
+        <v>310</v>
+      </c>
+      <c r="I561" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O561" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q561" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R561" s="1">
+        <v>699.39</v>
+      </c>
+      <c r="S561" s="1">
+        <v>100</v>
+      </c>
+      <c r="T561" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U561" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V561" s="1">
+        <v>115</v>
+      </c>
+      <c r="W561" s="1">
+        <v>50</v>
+      </c>
+      <c r="X561" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D562" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E562" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F562" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G562" s="1">
+        <v>36</v>
+      </c>
+      <c r="I562" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O562" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q562" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R562" s="1">
+        <v>120.02</v>
+      </c>
+      <c r="S562" s="1">
+        <v>100</v>
+      </c>
+      <c r="T562" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U562" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V562" s="1">
+        <v>92</v>
+      </c>
+      <c r="W562" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X562" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D563" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E563" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F563" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G563" s="1">
+        <v>59</v>
+      </c>
+      <c r="I563" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="O563" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q563" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R563" s="1">
+        <v>121.41</v>
+      </c>
+      <c r="S563" s="1">
+        <v>100</v>
+      </c>
+      <c r="T563" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U563" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V563" s="1">
+        <v>92</v>
+      </c>
+      <c r="W563" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X563" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D564" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E564" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F564" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G564" s="1">
+        <v>71</v>
+      </c>
+      <c r="I564" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O564" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q564" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R564" s="1">
+        <v>134.91</v>
+      </c>
+      <c r="S564" s="1">
+        <v>100</v>
+      </c>
+      <c r="T564" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U564" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V564" s="1">
+        <v>92</v>
+      </c>
+      <c r="W564" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X564" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B565" s="65" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D565" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E565" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F565" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G565" s="1">
+        <v>99</v>
+      </c>
+      <c r="I565" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="O565" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q565" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R565" s="1">
+        <v>163.38999999999999</v>
+      </c>
+      <c r="S565" s="1">
+        <v>108</v>
+      </c>
+      <c r="T565" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U565" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V565" s="1">
+        <v>92</v>
+      </c>
+      <c r="W565" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X565" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D566" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E566" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F566" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G566" s="1">
+        <v>120</v>
+      </c>
+      <c r="I566" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O566" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q566" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R566" s="1">
+        <v>171.95</v>
+      </c>
+      <c r="S566" s="1">
+        <v>100</v>
+      </c>
+      <c r="T566" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U566" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V566" s="1">
+        <v>92</v>
+      </c>
+      <c r="W566" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X566" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D567" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E567" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F567" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G567" s="1">
+        <v>165</v>
+      </c>
+      <c r="I567" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O567" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q567" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R567" s="1">
+        <v>250.44</v>
+      </c>
+      <c r="S567" s="1">
+        <v>100</v>
+      </c>
+      <c r="T567" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U567" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V567" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W567" s="1">
+        <v>34</v>
+      </c>
+      <c r="X567" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D568" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E568" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F568" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G568" s="1">
+        <v>190</v>
+      </c>
+      <c r="I568" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O568" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q568" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R568" s="1">
+        <v>265.27</v>
+      </c>
+      <c r="S568" s="1">
+        <v>100</v>
+      </c>
+      <c r="T568" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U568" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V568" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W568" s="1">
+        <v>34</v>
+      </c>
+      <c r="X568" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D569" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E569" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F569" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G569" s="1">
+        <v>224</v>
+      </c>
+      <c r="I569" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="O569" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q569" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R569" s="1">
+        <v>374.63</v>
+      </c>
+      <c r="S569" s="1">
+        <v>100</v>
+      </c>
+      <c r="T569" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U569" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V569" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W569" s="1">
+        <v>34</v>
+      </c>
+      <c r="X569" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D570" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E570" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F570" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G570" s="1">
+        <v>270</v>
+      </c>
+      <c r="I570" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O570" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q570" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R570" s="1">
+        <v>697.85</v>
+      </c>
+      <c r="S570" s="1">
+        <v>100</v>
+      </c>
+      <c r="T570" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U570" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V570" s="1">
+        <v>115</v>
+      </c>
+      <c r="W570" s="1">
+        <v>50</v>
+      </c>
+      <c r="X570" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="571" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D571" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E571" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F571" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G571" s="1">
+        <v>300</v>
+      </c>
+      <c r="I571" s="1">
+        <v>1</v>
+      </c>
+      <c r="O571" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q571" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R571" s="1">
+        <v>571.42999999999995</v>
+      </c>
+      <c r="S571" s="1">
+        <v>100</v>
+      </c>
+      <c r="T571" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U571" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V571" s="1">
+        <v>116</v>
+      </c>
+      <c r="W571" s="1">
+        <v>60</v>
+      </c>
+      <c r="X571" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D572" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E572" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F572" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G572" s="1">
+        <v>310</v>
+      </c>
+      <c r="I572" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O572" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q572" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R572" s="1">
+        <v>732.51</v>
+      </c>
+      <c r="S572" s="1">
+        <v>100</v>
+      </c>
+      <c r="T572" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U572" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V572" s="1">
+        <v>115</v>
+      </c>
+      <c r="W572" s="1">
+        <v>50</v>
+      </c>
+      <c r="X572" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="573" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B573" s="65" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D573" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E573" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F573" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Q573" s="1"/>
+      <c r="R573" s="66">
+        <v>2714</v>
+      </c>
+      <c r="S573" s="1">
+        <v>25</v>
+      </c>
+      <c r="T573" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U573" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D574" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E574" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F574" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G574" s="1">
+        <v>36</v>
+      </c>
+      <c r="I574" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O574" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q574" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R574" s="1">
+        <v>117.7</v>
+      </c>
+      <c r="S574" s="1">
+        <v>100</v>
+      </c>
+      <c r="T574" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U574" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V574" s="1">
+        <v>92</v>
+      </c>
+      <c r="W574" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X574" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D575" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E575" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F575" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G575" s="1">
+        <v>59</v>
+      </c>
+      <c r="I575" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="O575" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q575" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R575" s="1">
+        <v>126.96</v>
+      </c>
+      <c r="S575" s="1">
+        <v>100</v>
+      </c>
+      <c r="T575" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U575" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V575" s="1">
+        <v>92</v>
+      </c>
+      <c r="W575" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X575" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D576" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E576" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F576" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G576" s="1">
+        <v>71</v>
+      </c>
+      <c r="I576" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O576" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q576" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R576" s="1">
+        <v>140.93</v>
+      </c>
+      <c r="S576" s="1">
+        <v>100</v>
+      </c>
+      <c r="T576" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U576" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V576" s="1">
+        <v>92</v>
+      </c>
+      <c r="W576" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X576" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D577" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E577" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F577" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G577" s="1">
+        <v>99</v>
+      </c>
+      <c r="I577" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="O577" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q577" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R577" s="1">
+        <v>170.8</v>
+      </c>
+      <c r="S577" s="1">
+        <v>100</v>
+      </c>
+      <c r="T577" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U577" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V577" s="1">
+        <v>92</v>
+      </c>
+      <c r="W577" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X577" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D578" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E578" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F578" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G578" s="1">
+        <v>120</v>
+      </c>
+      <c r="I578" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O578" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q578" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R578" s="1">
+        <v>179.82</v>
+      </c>
+      <c r="S578" s="1">
+        <v>100</v>
+      </c>
+      <c r="T578" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U578" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V578" s="1">
+        <v>92</v>
+      </c>
+      <c r="W578" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X578" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D579" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E579" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F579" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G579" s="1">
+        <v>165</v>
+      </c>
+      <c r="I579" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O579" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q579" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R579" s="1">
+        <v>261.87</v>
+      </c>
+      <c r="S579" s="1">
+        <v>100</v>
+      </c>
+      <c r="T579" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U579" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V579" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W579" s="1">
+        <v>34</v>
+      </c>
+      <c r="X579" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D580" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E580" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F580" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G580" s="1">
+        <v>190</v>
+      </c>
+      <c r="I580" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O580" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q580" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R580" s="1">
+        <v>277.22000000000003</v>
+      </c>
+      <c r="S580" s="1">
+        <v>100</v>
+      </c>
+      <c r="T580" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U580" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V580" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W580" s="1">
+        <v>34</v>
+      </c>
+      <c r="X580" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D581" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E581" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F581" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G581" s="1">
+        <v>224</v>
+      </c>
+      <c r="I581" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="O581" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q581" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R581" s="1">
+        <v>391.6</v>
+      </c>
+      <c r="S581" s="1">
+        <v>100</v>
+      </c>
+      <c r="T581" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U581" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V581" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W581" s="1">
+        <v>34</v>
+      </c>
+      <c r="X581" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D582" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E582" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F582" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G582" s="1">
+        <v>270</v>
+      </c>
+      <c r="I582" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O582" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q582" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R582" s="1">
+        <v>725.71</v>
+      </c>
+      <c r="S582" s="1">
+        <v>100</v>
+      </c>
+      <c r="T582" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U582" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V582" s="1">
+        <v>115</v>
+      </c>
+      <c r="W582" s="1">
+        <v>50</v>
+      </c>
+      <c r="X582" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D583" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E583" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F583" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G583" s="1">
+        <v>300</v>
+      </c>
+      <c r="I583" s="1">
+        <v>1</v>
+      </c>
+      <c r="O583" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q583" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R583" s="1">
+        <v>597.22</v>
+      </c>
+      <c r="S583" s="1">
+        <v>100</v>
+      </c>
+      <c r="T583" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U583" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V583" s="1">
+        <v>116</v>
+      </c>
+      <c r="W583" s="1">
+        <v>60</v>
+      </c>
+      <c r="X583" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D584" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E584" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F584" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G584" s="1">
+        <v>310</v>
+      </c>
+      <c r="I584" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O584" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q584" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R584" s="1">
+        <v>749.95</v>
+      </c>
+      <c r="S584" s="1">
+        <v>100</v>
+      </c>
+      <c r="T584" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U584" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V584" s="1">
+        <v>115</v>
+      </c>
+      <c r="W584" s="1">
+        <v>50</v>
+      </c>
+      <c r="X584" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D585" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E585" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F585" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G585" s="1">
+        <v>36</v>
+      </c>
+      <c r="I585" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O585" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q585" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R585" s="1">
+        <v>122.8</v>
+      </c>
+      <c r="S585" s="1">
+        <v>100</v>
+      </c>
+      <c r="T585" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U585" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V585" s="1">
+        <v>92</v>
+      </c>
+      <c r="W585" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X585" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D586" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E586" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F586" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G586" s="1">
+        <v>59</v>
+      </c>
+      <c r="I586" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="O586" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q586" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R586" s="1">
+        <v>132.36000000000001</v>
+      </c>
+      <c r="S586" s="1">
+        <v>100</v>
+      </c>
+      <c r="T586" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U586" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V586" s="1">
+        <v>92</v>
+      </c>
+      <c r="W586" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X586" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D587" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E587" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F587" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G587" s="1">
+        <v>71</v>
+      </c>
+      <c r="I587" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O587" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q587" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R587" s="1">
+        <v>147.1</v>
+      </c>
+      <c r="S587" s="1">
+        <v>100</v>
+      </c>
+      <c r="T587" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U587" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V587" s="1">
+        <v>92</v>
+      </c>
+      <c r="W587" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X587" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D588" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E588" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F588" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G588" s="1">
+        <v>99</v>
+      </c>
+      <c r="I588" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="O588" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q588" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R588" s="1">
+        <v>178.2</v>
+      </c>
+      <c r="S588" s="1">
+        <v>100</v>
+      </c>
+      <c r="T588" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U588" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V588" s="1">
+        <v>92</v>
+      </c>
+      <c r="W588" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X588" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D589" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E589" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F589" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G589" s="1">
+        <v>120</v>
+      </c>
+      <c r="I589" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O589" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q589" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R589" s="1">
+        <v>187.63</v>
+      </c>
+      <c r="S589" s="1">
+        <v>100</v>
+      </c>
+      <c r="T589" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U589" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V589" s="1">
+        <v>92</v>
+      </c>
+      <c r="W589" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X589" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D590" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E590" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F590" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G590" s="1">
+        <v>165</v>
+      </c>
+      <c r="I590" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="O590" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q590" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R590" s="1">
+        <v>273.20999999999998</v>
+      </c>
+      <c r="S590" s="1">
+        <v>100</v>
+      </c>
+      <c r="T590" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U590" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V590" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W590" s="1">
+        <v>34</v>
+      </c>
+      <c r="X590" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D591" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E591" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F591" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G591" s="1">
+        <v>190</v>
+      </c>
+      <c r="I591" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O591" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q591" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R591" s="1">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="S591" s="1">
+        <v>100</v>
+      </c>
+      <c r="T591" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U591" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V591" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W591" s="1">
+        <v>34</v>
+      </c>
+      <c r="X591" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D592" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E592" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F592" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G592" s="1">
+        <v>224</v>
+      </c>
+      <c r="I592" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="O592" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q592" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R592" s="1">
+        <v>408.66</v>
+      </c>
+      <c r="S592" s="1">
+        <v>100</v>
+      </c>
+      <c r="T592" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U592" s="59">
+        <f t="shared" si="9"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V592" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W592" s="1">
+        <v>34</v>
+      </c>
+      <c r="X592" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D593" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E593" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F593" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G593" s="1">
+        <v>270</v>
+      </c>
+      <c r="I593" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O593" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q593" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R593" s="1">
+        <v>749.02</v>
+      </c>
+      <c r="S593" s="1">
+        <v>100</v>
+      </c>
+      <c r="T593" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U593" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V593" s="1">
+        <v>115</v>
+      </c>
+      <c r="W593" s="1">
+        <v>50</v>
+      </c>
+      <c r="X593" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D594" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E594" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F594" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G594" s="1">
+        <v>300</v>
+      </c>
+      <c r="I594" s="1">
+        <v>1</v>
+      </c>
+      <c r="O594" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q594" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R594" s="1">
+        <v>622.99</v>
+      </c>
+      <c r="S594" s="1">
+        <v>100</v>
+      </c>
+      <c r="T594" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U594" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V594" s="1">
+        <v>116</v>
+      </c>
+      <c r="W594" s="1">
+        <v>60</v>
+      </c>
+      <c r="X594" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D595" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E595" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F595" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G595" s="1">
+        <v>310</v>
+      </c>
+      <c r="I595" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O595" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q595" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R595" s="1">
+        <v>786.38</v>
+      </c>
+      <c r="S595" s="1">
+        <v>100</v>
+      </c>
+      <c r="T595" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U595" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V595" s="1">
+        <v>115</v>
+      </c>
+      <c r="W595" s="1">
+        <v>50</v>
+      </c>
+      <c r="X595" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="596" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B596" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D596" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E596" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F596" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q596" s="1"/>
+      <c r="R596" s="60">
+        <v>1733.75</v>
+      </c>
+      <c r="S596" s="1">
+        <v>50</v>
+      </c>
+      <c r="T596" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U596" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B597" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D597" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E597" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F597" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q597" s="1"/>
+      <c r="R597" s="60">
+        <v>2755.29</v>
+      </c>
+      <c r="S597" s="1">
+        <v>25</v>
+      </c>
+      <c r="T597" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U597" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B598" s="65" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D598" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E598" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F598" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G598" s="1">
+        <v>120</v>
+      </c>
+      <c r="I598" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O598" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q598" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R598" s="60">
+        <v>203.21</v>
+      </c>
+      <c r="S598" s="1">
+        <v>100</v>
+      </c>
+      <c r="T598" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U598" s="59">
+        <f t="shared" si="9"/>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V598" s="1">
+        <v>92</v>
+      </c>
+      <c r="W598" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X598" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D599" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E599" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F599" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G599" s="1">
+        <v>270</v>
+      </c>
+      <c r="I599" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O599" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q599" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R599" s="1">
+        <v>811.15</v>
+      </c>
+      <c r="S599" s="1">
+        <v>100</v>
+      </c>
+      <c r="T599" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U599" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V599" s="1">
+        <v>115</v>
+      </c>
+      <c r="W599" s="1">
+        <v>50</v>
+      </c>
+      <c r="X599" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D600" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E600" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F600" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G600" s="1">
+        <v>300</v>
+      </c>
+      <c r="I600" s="1">
+        <v>1</v>
+      </c>
+      <c r="O600" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q600" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R600" s="1">
+        <v>674.54</v>
+      </c>
+      <c r="S600" s="1">
+        <v>100</v>
+      </c>
+      <c r="T600" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U600" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V600" s="1">
+        <v>116</v>
+      </c>
+      <c r="W600" s="1">
+        <v>60</v>
+      </c>
+      <c r="X600" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D601" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E601" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F601" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G601" s="1">
+        <v>310</v>
+      </c>
+      <c r="I601" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O601" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q601" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R601" s="1">
+        <v>851.51</v>
+      </c>
+      <c r="S601" s="1">
+        <v>100</v>
+      </c>
+      <c r="T601" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U601" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V601" s="1">
+        <v>115</v>
+      </c>
+      <c r="W601" s="1">
+        <v>50</v>
+      </c>
+      <c r="X601" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D602" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E602" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F602" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G602" s="1">
+        <v>120</v>
+      </c>
+      <c r="I602" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O602" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="Q602" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R602" s="1">
+        <v>218.96</v>
+      </c>
+      <c r="S602" s="1">
+        <v>100</v>
+      </c>
+      <c r="T602" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U602" s="59">
+        <f>V602*W602*X602/1000000</f>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V602" s="1">
+        <v>92</v>
+      </c>
+      <c r="W602" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="X602" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D603" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E603" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F603" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G603" s="1">
+        <v>224</v>
+      </c>
+      <c r="I603" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="O603" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q603" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R603" s="1">
+        <v>462.38</v>
+      </c>
+      <c r="S603" s="1">
+        <v>100</v>
+      </c>
+      <c r="T603" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U603" s="59">
+        <f>V603*W603*X603/1000000</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V603" s="1">
+        <v>115</v>
+      </c>
+      <c r="W603" s="1">
+        <v>50</v>
+      </c>
+      <c r="X603" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D604" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E604" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F604" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G604" s="1">
+        <v>270</v>
+      </c>
+      <c r="I604" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="O604" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q604" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R604" s="1">
+        <v>873.28</v>
+      </c>
+      <c r="S604" s="1">
+        <v>100</v>
+      </c>
+      <c r="T604" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U604" s="59">
+        <f>V604*W604*X604/1000000</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V604" s="1">
+        <v>115</v>
+      </c>
+      <c r="W604" s="1">
+        <v>50</v>
+      </c>
+      <c r="X604" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D605" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E605" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F605" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G605" s="1">
+        <v>300</v>
+      </c>
+      <c r="I605" s="1">
+        <v>1</v>
+      </c>
+      <c r="O605" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q605" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R605" s="1">
+        <v>726.17</v>
+      </c>
+      <c r="S605" s="1">
+        <v>100</v>
+      </c>
+      <c r="T605" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U605" s="59">
+        <f t="shared" si="9"/>
+        <v>0.22272</v>
+      </c>
+      <c r="V605" s="1">
+        <v>116</v>
+      </c>
+      <c r="W605" s="1">
+        <v>60</v>
+      </c>
+      <c r="X605" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D606" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E606" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F606" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G606" s="1">
+        <v>310</v>
+      </c>
+      <c r="I606" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O606" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q606" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R606" s="1">
+        <v>916.81</v>
+      </c>
+      <c r="S606" s="1">
+        <v>100</v>
+      </c>
+      <c r="T606" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U606" s="59">
+        <f t="shared" si="9"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V606" s="1">
+        <v>115</v>
+      </c>
+      <c r="W606" s="1">
+        <v>50</v>
+      </c>
+      <c r="X606" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="607" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B607" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D607" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E607" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F607" s="1">
+        <v>2200</v>
+      </c>
+      <c r="R607" s="1">
+        <v>1820.42</v>
+      </c>
+      <c r="S607" s="1">
+        <v>50</v>
+      </c>
+      <c r="T607" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="U607" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X537">
+  <autoFilter ref="A1:X607">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Y"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A1:X534">
@@ -30314,7 +33832,7 @@
         <v>413</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -30343,7 +33861,7 @@
         <v>413</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -30384,7 +33902,7 @@
         <v>413</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -30425,7 +33943,7 @@
         <v>413</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -30463,7 +33981,7 @@
         <v>413</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -30498,7 +34016,7 @@
         <v>1053</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -30531,7 +34049,7 @@
         <v>1053</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -30568,7 +34086,7 @@
         <v>1054</v>
       </c>
       <c r="M9" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -30605,7 +34123,7 @@
         <v>1054</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -30640,7 +34158,7 @@
         <v>1055</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -30672,7 +34190,7 @@
         <v>67</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -30701,7 +34219,7 @@
         <v>67</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -30742,7 +34260,7 @@
         <v>67</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -30783,7 +34301,7 @@
         <v>67</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -30821,7 +34339,7 @@
         <v>67</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -30853,7 +34371,7 @@
         <v>519</v>
       </c>
       <c r="M17" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -30882,7 +34400,7 @@
         <v>519</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -30923,7 +34441,7 @@
         <v>519</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -30964,7 +34482,7 @@
         <v>519</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -31002,7 +34520,7 @@
         <v>519</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -31034,7 +34552,7 @@
         <v>646</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -31063,7 +34581,7 @@
         <v>646</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -31104,7 +34622,7 @@
         <v>646</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -31145,7 +34663,7 @@
         <v>646</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -31183,7 +34701,7 @@
         <v>646</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -31215,7 +34733,7 @@
         <v>66</v>
       </c>
       <c r="M27" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -31244,7 +34762,7 @@
         <v>66</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -31279,7 +34797,7 @@
         <v>66</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -31314,7 +34832,7 @@
         <v>66</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -31346,7 +34864,7 @@
         <v>66</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -31378,7 +34896,7 @@
         <v>71</v>
       </c>
       <c r="M32" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -31407,7 +34925,7 @@
         <v>71</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -31448,7 +34966,7 @@
         <v>71</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -31489,7 +35007,7 @@
         <v>71</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -31527,7 +35045,7 @@
         <v>71</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -31559,7 +35077,7 @@
         <v>151</v>
       </c>
       <c r="M37" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -31588,7 +35106,7 @@
         <v>151</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -31629,7 +35147,7 @@
         <v>151</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -31670,7 +35188,7 @@
         <v>151</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -31708,7 +35226,7 @@
         <v>151</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -31740,7 +35258,7 @@
         <v>152</v>
       </c>
       <c r="M42" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -31769,7 +35287,7 @@
         <v>152</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -31810,7 +35328,7 @@
         <v>152</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -31851,7 +35369,7 @@
         <v>152</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -31889,7 +35407,7 @@
         <v>152</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -31921,7 +35439,7 @@
         <v>979</v>
       </c>
       <c r="M47" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -31950,7 +35468,7 @@
         <v>979</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -31985,7 +35503,7 @@
         <v>979</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -32020,7 +35538,7 @@
         <v>979</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -32052,7 +35570,7 @@
         <v>979</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -32084,7 +35602,7 @@
         <v>153</v>
       </c>
       <c r="M52" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -32113,7 +35631,7 @@
         <v>153</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -32148,7 +35666,7 @@
         <v>153</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -32183,7 +35701,7 @@
         <v>153</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -32215,7 +35733,7 @@
         <v>153</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -32247,7 +35765,7 @@
         <v>155</v>
       </c>
       <c r="M57" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -32276,7 +35794,7 @@
         <v>155</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -32311,7 +35829,7 @@
         <v>155</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -32346,7 +35864,7 @@
         <v>155</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -32378,7 +35896,7 @@
         <v>155</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -32410,7 +35928,7 @@
         <v>156</v>
       </c>
       <c r="M62" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -32439,7 +35957,7 @@
         <v>156</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -32474,7 +35992,7 @@
         <v>156</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -32509,7 +36027,7 @@
         <v>156</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -32541,7 +36059,7 @@
         <v>156</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -32573,7 +36091,7 @@
         <v>157</v>
       </c>
       <c r="M67" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -32602,7 +36120,7 @@
         <v>157</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -32637,7 +36155,7 @@
         <v>157</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -32672,7 +36190,7 @@
         <v>157</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -32704,7 +36222,7 @@
         <v>157</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -32736,7 +36254,7 @@
         <v>158</v>
       </c>
       <c r="M72" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -32765,7 +36283,7 @@
         <v>158</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -32800,7 +36318,7 @@
         <v>158</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -32835,7 +36353,7 @@
         <v>158</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -32867,7 +36385,7 @@
         <v>158</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -32899,7 +36417,7 @@
         <v>159</v>
       </c>
       <c r="M77" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -32928,7 +36446,7 @@
         <v>159</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -32963,7 +36481,7 @@
         <v>159</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -32998,7 +36516,7 @@
         <v>159</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -33030,7 +36548,7 @@
         <v>159</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -33062,7 +36580,7 @@
         <v>154</v>
       </c>
       <c r="M82" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -33091,7 +36609,7 @@
         <v>154</v>
       </c>
       <c r="M83" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -33126,7 +36644,7 @@
         <v>154</v>
       </c>
       <c r="M84" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -33161,7 +36679,7 @@
         <v>154</v>
       </c>
       <c r="M85" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -33193,7 +36711,7 @@
         <v>154</v>
       </c>
       <c r="M86" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -33225,7 +36743,7 @@
         <v>498</v>
       </c>
       <c r="M87" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -33254,7 +36772,7 @@
         <v>498</v>
       </c>
       <c r="M88" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -33295,7 +36813,7 @@
         <v>498</v>
       </c>
       <c r="M89" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -33336,7 +36854,7 @@
         <v>498</v>
       </c>
       <c r="M90" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -33374,7 +36892,7 @@
         <v>498</v>
       </c>
       <c r="M91" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -33406,7 +36924,7 @@
         <v>456</v>
       </c>
       <c r="M92" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -33435,7 +36953,7 @@
         <v>456</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -33476,7 +36994,7 @@
         <v>456</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -33517,7 +37035,7 @@
         <v>456</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -33555,7 +37073,7 @@
         <v>456</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -33587,7 +37105,7 @@
         <v>688</v>
       </c>
       <c r="M97" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -33616,7 +37134,7 @@
         <v>688</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -33657,7 +37175,7 @@
         <v>688</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -33698,7 +37216,7 @@
         <v>688</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -33736,7 +37254,7 @@
         <v>688</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -33768,7 +37286,7 @@
         <v>466</v>
       </c>
       <c r="M102" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -33797,7 +37315,7 @@
         <v>466</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -33838,7 +37356,7 @@
         <v>466</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -33879,7 +37397,7 @@
         <v>466</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -33917,7 +37435,7 @@
         <v>466</v>
       </c>
       <c r="M106" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -33949,7 +37467,7 @@
         <v>464</v>
       </c>
       <c r="M107" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -33978,7 +37496,7 @@
         <v>464</v>
       </c>
       <c r="M108" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -34019,7 +37537,7 @@
         <v>464</v>
       </c>
       <c r="M109" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -34060,7 +37578,7 @@
         <v>464</v>
       </c>
       <c r="M110" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -34098,7 +37616,7 @@
         <v>464</v>
       </c>
       <c r="M111" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -34130,7 +37648,7 @@
         <v>451</v>
       </c>
       <c r="M112" s="51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -34162,7 +37680,7 @@
         <v>451</v>
       </c>
       <c r="M113" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -34203,7 +37721,7 @@
         <v>451</v>
       </c>
       <c r="M114" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -34244,7 +37762,7 @@
         <v>451</v>
       </c>
       <c r="M115" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -34279,7 +37797,7 @@
         <v>451</v>
       </c>
       <c r="M116" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -34311,7 +37829,7 @@
         <v>452</v>
       </c>
       <c r="M117" s="51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -34343,7 +37861,7 @@
         <v>452</v>
       </c>
       <c r="M118" s="56" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -34384,7 +37902,7 @@
         <v>452</v>
       </c>
       <c r="M119" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -34425,7 +37943,7 @@
         <v>452</v>
       </c>
       <c r="M120" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -34460,7 +37978,7 @@
         <v>452</v>
       </c>
       <c r="M121" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -34492,7 +38010,7 @@
         <v>455</v>
       </c>
       <c r="M122" s="51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -34524,7 +38042,7 @@
         <v>455</v>
       </c>
       <c r="M123" s="56" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -34565,7 +38083,7 @@
         <v>455</v>
       </c>
       <c r="M124" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -34606,7 +38124,7 @@
         <v>455</v>
       </c>
       <c r="M125" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -34641,7 +38159,7 @@
         <v>455</v>
       </c>
       <c r="M126" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -34673,7 +38191,7 @@
         <v>454</v>
       </c>
       <c r="M127" s="51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -34705,7 +38223,7 @@
         <v>454</v>
       </c>
       <c r="M128" s="56" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -34746,7 +38264,7 @@
         <v>454</v>
       </c>
       <c r="M129" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -34787,7 +38305,7 @@
         <v>454</v>
       </c>
       <c r="M130" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -34822,7 +38340,7 @@
         <v>454</v>
       </c>
       <c r="M131" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -34854,7 +38372,7 @@
         <v>1034</v>
       </c>
       <c r="M132" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -34886,7 +38404,7 @@
         <v>1032</v>
       </c>
       <c r="M133" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -34918,7 +38436,7 @@
         <v>1035</v>
       </c>
       <c r="M134" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -34950,7 +38468,7 @@
         <v>1045</v>
       </c>
       <c r="M135" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -34979,7 +38497,7 @@
         <v>1048</v>
       </c>
       <c r="M136" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -35020,7 +38538,7 @@
         <v>1045</v>
       </c>
       <c r="M137" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -35061,7 +38579,7 @@
         <v>1045</v>
       </c>
       <c r="M138" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -35099,7 +38617,7 @@
         <v>1045</v>
       </c>
       <c r="M139" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -35152,7 +38670,7 @@
         <v>389</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1" s="46" t="s">
         <v>371</v>
@@ -35164,7 +38682,7 @@
         <v>390</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -36718,10 +40236,10 @@
         <v>391</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D54" s="7">
         <f>PI()*POWER(H54/2,2)*10*K54</f>
@@ -36749,10 +40267,10 @@
         <v>391</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ref="D55:D128" si="6">PI()*POWER(H55/2,2)*10*K55</f>
@@ -36780,10 +40298,10 @@
         <v>391</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="6"/>
@@ -36811,10 +40329,10 @@
         <v>391</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" si="6"/>
@@ -36842,10 +40360,10 @@
         <v>391</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="6"/>
@@ -36873,10 +40391,10 @@
         <v>391</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="6"/>
@@ -36904,10 +40422,10 @@
         <v>391</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="6"/>
@@ -36935,10 +40453,10 @@
         <v>391</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="6"/>
@@ -36966,10 +40484,10 @@
         <v>391</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" si="6"/>
@@ -36997,10 +40515,10 @@
         <v>391</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" si="6"/>
@@ -37028,10 +40546,10 @@
         <v>391</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="6"/>
@@ -37059,10 +40577,10 @@
         <v>391</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="6"/>
@@ -37090,10 +40608,10 @@
         <v>391</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="6"/>
@@ -37121,10 +40639,10 @@
         <v>391</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="6"/>
@@ -37152,10 +40670,10 @@
         <v>391</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="6"/>
@@ -37183,10 +40701,10 @@
         <v>391</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="6"/>
@@ -37214,10 +40732,10 @@
         <v>391</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" si="6"/>
@@ -37245,10 +40763,10 @@
         <v>391</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="6"/>
@@ -37276,10 +40794,10 @@
         <v>391</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="6"/>
@@ -37307,10 +40825,10 @@
         <v>391</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="6"/>
@@ -37338,10 +40856,10 @@
         <v>391</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="6"/>
@@ -37369,10 +40887,10 @@
         <v>391</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="6"/>
@@ -37400,10 +40918,10 @@
         <v>391</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="6"/>
@@ -37431,10 +40949,10 @@
         <v>391</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="6"/>
@@ -37462,10 +40980,10 @@
         <v>391</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="6"/>
@@ -37493,10 +41011,10 @@
         <v>391</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="6"/>
@@ -37524,10 +41042,10 @@
         <v>391</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="6"/>
@@ -37555,10 +41073,10 @@
         <v>391</v>
       </c>
       <c r="B81" s="61" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="6"/>
@@ -37586,10 +41104,10 @@
         <v>391</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" si="6"/>
@@ -37617,10 +41135,10 @@
         <v>391</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="6"/>
@@ -37648,10 +41166,10 @@
         <v>391</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="6"/>
@@ -37679,10 +41197,10 @@
         <v>391</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="6"/>
@@ -37710,10 +41228,10 @@
         <v>391</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="6"/>
@@ -37741,10 +41259,10 @@
         <v>391</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="6"/>
@@ -37772,10 +41290,10 @@
         <v>391</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" si="6"/>
@@ -37803,10 +41321,10 @@
         <v>391</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="6"/>
@@ -37834,10 +41352,10 @@
         <v>391</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" si="6"/>
@@ -37865,10 +41383,10 @@
         <v>391</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="6"/>
@@ -37896,10 +41414,10 @@
         <v>391</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="6"/>
@@ -37927,10 +41445,10 @@
         <v>391</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="6"/>
@@ -37958,10 +41476,10 @@
         <v>391</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="6"/>
@@ -37989,10 +41507,10 @@
         <v>391</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="6"/>
@@ -38020,10 +41538,10 @@
         <v>391</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="6"/>
@@ -38051,10 +41569,10 @@
         <v>391</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="6"/>
@@ -38082,10 +41600,10 @@
         <v>391</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="6"/>
@@ -38113,10 +41631,10 @@
         <v>391</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" si="6"/>
@@ -38144,10 +41662,10 @@
         <v>391</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="6"/>
@@ -38175,10 +41693,10 @@
         <v>391</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="6"/>
@@ -38203,10 +41721,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B102" s="64" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="6"/>
@@ -38231,10 +41749,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" s="64" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="6"/>
@@ -38259,10 +41777,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B104" s="64" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="6"/>
@@ -38287,10 +41805,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B105" s="64" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" si="6"/>
@@ -38315,10 +41833,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" s="64" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="6"/>
@@ -38343,10 +41861,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B107" s="64" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="6"/>
@@ -38371,10 +41889,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B108" s="64" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="6"/>
@@ -38399,10 +41917,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B109" s="64" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="6"/>
@@ -38427,10 +41945,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B110" s="64" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="6"/>
@@ -38455,10 +41973,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B111" s="64" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" si="6"/>
@@ -38483,10 +42001,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B112" s="64" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="6"/>
@@ -38511,10 +42029,10 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="64" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="6"/>
@@ -38539,10 +42057,10 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="64" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="6"/>
@@ -38567,10 +42085,10 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="64" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="6"/>
@@ -38595,10 +42113,10 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="64" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="6"/>
@@ -38623,10 +42141,10 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="64" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="6"/>
@@ -38651,10 +42169,10 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="64" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="6"/>
@@ -38679,10 +42197,10 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="64" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" si="6"/>
@@ -38707,10 +42225,10 @@
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="64" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="6"/>
@@ -38735,10 +42253,10 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="64" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="6"/>
@@ -38763,10 +42281,10 @@
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="64" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="6"/>
@@ -38791,10 +42309,10 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="64" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" si="6"/>
@@ -38819,10 +42337,10 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="64" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="6"/>
@@ -38847,10 +42365,10 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="64" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="6"/>
@@ -38875,10 +42393,10 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="64" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="6"/>
@@ -38903,10 +42421,10 @@
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="64" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="6"/>
@@ -38931,10 +42449,10 @@
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="64" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="6"/>
@@ -42275,7 +45793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -42345,7 +45863,7 @@
         <v>392</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D2" s="7">
         <v>900</v>
@@ -42391,7 +45909,7 @@
         <v>401</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D3" s="7">
         <v>700</v>
@@ -42437,7 +45955,7 @@
         <v>1026</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D4" s="7">
         <v>800</v>
@@ -42483,7 +46001,7 @@
         <v>400</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D5" s="7">
         <v>700</v>
@@ -42529,7 +46047,7 @@
         <v>402</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D6" s="7">
         <v>900</v>
@@ -42575,7 +46093,7 @@
         <v>395</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D7" s="7">
         <v>900</v>
@@ -42621,7 +46139,7 @@
         <v>393</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D8" s="7">
         <v>900</v>
@@ -42667,7 +46185,7 @@
         <v>403</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D9" s="7">
         <v>700</v>
@@ -42713,7 +46231,7 @@
         <v>397</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D10" s="7">
         <v>700</v>
@@ -42759,7 +46277,7 @@
         <v>398</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D11" s="7">
         <v>700</v>
@@ -42805,7 +46323,7 @@
         <v>399</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D12" s="7">
         <v>900</v>
@@ -42851,7 +46369,7 @@
         <v>1025</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D13" s="7">
         <v>700</v>
@@ -42897,7 +46415,7 @@
         <v>396</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D14" s="7">
         <v>1100</v>
@@ -42941,7 +46459,7 @@
         <v>406</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D15" s="7">
         <v>800</v>
@@ -42977,7 +46495,7 @@
         <v>1010</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D16" s="7">
         <v>2000</v>
@@ -43023,7 +46541,7 @@
         <v>1011</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D17" s="7">
         <v>2000</v>
@@ -43067,7 +46585,7 @@
         <v>1012</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D18" s="7">
         <v>2000</v>
@@ -43111,7 +46629,7 @@
         <v>1013</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D19" s="7">
         <v>2000</v>
@@ -43157,7 +46675,7 @@
         <v>1008</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D20" s="7">
         <v>2000</v>
@@ -43201,7 +46719,7 @@
         <v>1014</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D21" s="7">
         <v>2000</v>
@@ -43245,7 +46763,7 @@
         <v>1009</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D22" s="7">
         <v>2000</v>
@@ -43289,7 +46807,7 @@
         <v>1015</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D23" s="7">
         <v>2000</v>
@@ -43333,7 +46851,7 @@
         <v>1016</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D24" s="7">
         <v>2000</v>
@@ -43379,7 +46897,7 @@
         <v>1017</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D25" s="7">
         <v>2000</v>
@@ -43425,7 +46943,7 @@
         <v>1027</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D26" s="7">
         <v>2000</v>
@@ -43471,7 +46989,7 @@
         <v>1018</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D27" s="7">
         <v>2000</v>
@@ -43517,7 +47035,7 @@
         <v>1019</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D28" s="7">
         <v>2000</v>
@@ -43561,7 +47079,7 @@
         <v>1020</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D29" s="7">
         <v>2000</v>
@@ -43605,7 +47123,7 @@
         <v>1021</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D30" s="7">
         <v>2000</v>
@@ -43651,7 +47169,7 @@
         <v>1022</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D31" s="7">
         <v>2000</v>
@@ -43697,7 +47215,7 @@
         <v>1023</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D32" s="7">
         <v>2000</v>
@@ -43743,7 +47261,7 @@
         <v>1024</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D33" s="7">
         <v>2000</v>
@@ -43789,7 +47307,7 @@
         <v>1028</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D34" s="7">
         <v>2000</v>
@@ -43837,7 +47355,7 @@
         <v>1031</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D35" s="7">
         <v>2000</v>
@@ -43885,7 +47403,7 @@
         <v>1030</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D36" s="7">
         <v>2000</v>
@@ -43933,7 +47451,7 @@
         <v>1029</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D37" s="7">
         <v>2000</v>
@@ -43981,7 +47499,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D38" s="7">
         <v>1500</v>
@@ -44025,7 +47543,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D39" s="7">
         <v>1500</v>
@@ -44069,7 +47587,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D40" s="7">
         <v>1500</v>
@@ -44113,7 +47631,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="1">
         <v>1500</v>
@@ -44157,7 +47675,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D42" s="1">
         <v>1500</v>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Capacitor!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$681</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$683</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4824" uniqueCount="1317">
   <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6399,10 +6399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDD44-08N1B</t>
   </si>
   <si>
@@ -6575,9 +6571,6 @@
   </si>
   <si>
     <t>MDD312-22N1</t>
-  </si>
-  <si>
-    <t>MDD600-22N1</t>
   </si>
   <si>
     <t>MDD95-22N1B</t>
@@ -6600,10 +6593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diode-Module (No Vf curve)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDD72-14N1B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6881,7 +6870,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEE75-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEE250-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEO450-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEE75-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEE250-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEO450-12DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diode-Module (No Vf&amp;Err)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diode-Module (No Err)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7828,10 +7849,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AG681"/>
+  <dimension ref="A1:AG683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K541" sqref="K541"/>
+      <selection activeCell="E683" sqref="E683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7878,7 +7899,7 @@
         <v>1156</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H1" s="58" t="s">
         <v>1048</v>
@@ -29658,7 +29679,7 @@
         <v>166</v>
       </c>
       <c r="U535" s="60">
-        <f t="shared" ref="U535:U566" si="9">V535*W535*X535/1000000</f>
+        <f t="shared" ref="U535:U537" si="9">V535*W535*X535/1000000</f>
         <v>1.9832802799999998E-3</v>
       </c>
       <c r="V535" s="7">
@@ -29878,18 +29899,18 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="538" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B538" s="60" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C538" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D538" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E538" s="60" t="s">
         <v>168</v>
@@ -29928,7 +29949,7 @@
         <v>166</v>
       </c>
       <c r="U538" s="60">
-        <f>V538*W538*X538/1000000</f>
+        <f t="shared" ref="U538:U569" si="10">V538*W538*X538/1000000</f>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V538" s="7">
@@ -29950,18 +29971,18 @@
       <c r="AF538" s="7"/>
       <c r="AG538" s="7"/>
     </row>
-    <row r="539" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B539" s="60" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C539" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D539" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E539" s="60" t="s">
         <v>168</v>
@@ -30000,7 +30021,7 @@
         <v>166</v>
       </c>
       <c r="U539" s="60">
-        <f>V539*W539*X539/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V539" s="7">
@@ -30022,18 +30043,18 @@
       <c r="AF539" s="7"/>
       <c r="AG539" s="7"/>
     </row>
-    <row r="540" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B540" s="60" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C540" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D540" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E540" s="60" t="s">
         <v>168</v>
@@ -30072,7 +30093,7 @@
         <v>166</v>
       </c>
       <c r="U540" s="60">
-        <f>V540*W540*X540/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V540" s="7">
@@ -30094,18 +30115,18 @@
       <c r="AF540" s="7"/>
       <c r="AG540" s="7"/>
     </row>
-    <row r="541" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B541" s="61" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C541" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D541" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E541" s="60" t="s">
         <v>168</v>
@@ -30144,7 +30165,7 @@
         <v>166</v>
       </c>
       <c r="U541" s="60">
-        <f>V541*W541*X541/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V541" s="7">
@@ -30166,18 +30187,18 @@
       <c r="AF541" s="7"/>
       <c r="AG541" s="7"/>
     </row>
-    <row r="542" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B542" s="60" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C542" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D542" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E542" s="60" t="s">
         <v>168</v>
@@ -30216,7 +30237,7 @@
         <v>166</v>
       </c>
       <c r="U542" s="60">
-        <f>V542*W542*X542/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V542" s="7">
@@ -30238,18 +30259,18 @@
       <c r="AF542" s="7"/>
       <c r="AG542" s="7"/>
     </row>
-    <row r="543" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B543" s="61" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C543" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D543" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E543" s="60" t="s">
         <v>168</v>
@@ -30288,7 +30309,7 @@
         <v>166</v>
       </c>
       <c r="U543" s="60">
-        <f>V543*W543*X543/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V543" s="7">
@@ -30310,18 +30331,18 @@
       <c r="AF543" s="7"/>
       <c r="AG543" s="7"/>
     </row>
-    <row r="544" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B544" s="60" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C544" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D544" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E544" s="60" t="s">
         <v>168</v>
@@ -30360,7 +30381,7 @@
         <v>166</v>
       </c>
       <c r="U544" s="60">
-        <f>V544*W544*X544/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V544" s="7">
@@ -30382,18 +30403,18 @@
       <c r="AF544" s="7"/>
       <c r="AG544" s="7"/>
     </row>
-    <row r="545" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B545" s="60" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C545" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D545" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E545" s="60" t="s">
         <v>168</v>
@@ -30432,7 +30453,7 @@
         <v>166</v>
       </c>
       <c r="U545" s="60">
-        <f>V545*W545*X545/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V545" s="7">
@@ -30454,18 +30475,18 @@
       <c r="AF545" s="7"/>
       <c r="AG545" s="7"/>
     </row>
-    <row r="546" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B546" s="61" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C546" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D546" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E546" s="60" t="s">
         <v>168</v>
@@ -30504,7 +30525,7 @@
         <v>166</v>
       </c>
       <c r="U546" s="60">
-        <f>V546*W546*X546/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V546" s="7">
@@ -30526,18 +30547,18 @@
       <c r="AF546" s="7"/>
       <c r="AG546" s="7"/>
     </row>
-    <row r="547" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B547" s="60" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C547" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D547" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E547" s="60" t="s">
         <v>168</v>
@@ -30576,7 +30597,7 @@
         <v>166</v>
       </c>
       <c r="U547" s="60">
-        <f>V547*W547*X547/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V547" s="7">
@@ -30598,18 +30619,18 @@
       <c r="AF547" s="7"/>
       <c r="AG547" s="7"/>
     </row>
-    <row r="548" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B548" s="60" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C548" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D548" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E548" s="60" t="s">
         <v>168</v>
@@ -30648,7 +30669,7 @@
         <v>166</v>
       </c>
       <c r="U548" s="60">
-        <f>V548*W548*X548/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V548" s="7">
@@ -30670,18 +30691,18 @@
       <c r="AF548" s="7"/>
       <c r="AG548" s="7"/>
     </row>
-    <row r="549" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A549" s="61" t="s">
-        <v>449</v>
+    <row r="549" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B549" s="60" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C549" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D549" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E549" s="60" t="s">
         <v>168</v>
@@ -30720,7 +30741,7 @@
         <v>166</v>
       </c>
       <c r="U549" s="60">
-        <f>V549*W549*X549/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="V549" s="7">
@@ -30742,18 +30763,18 @@
       <c r="AF549" s="7"/>
       <c r="AG549" s="7"/>
     </row>
-    <row r="550" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B550" s="60" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C550" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D550" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E550" s="60" t="s">
         <v>168</v>
@@ -30792,7 +30813,7 @@
         <v>166</v>
       </c>
       <c r="U550" s="60">
-        <f>V550*W550*X550/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V550" s="7">
@@ -30814,18 +30835,18 @@
       <c r="AF550" s="7"/>
       <c r="AG550" s="7"/>
     </row>
-    <row r="551" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B551" s="60" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C551" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D551" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E551" s="60" t="s">
         <v>168</v>
@@ -30864,7 +30885,7 @@
         <v>166</v>
       </c>
       <c r="U551" s="60">
-        <f>V551*W551*X551/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V551" s="7">
@@ -30886,18 +30907,18 @@
       <c r="AF551" s="7"/>
       <c r="AG551" s="7"/>
     </row>
-    <row r="552" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B552" s="60" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C552" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D552" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E552" s="60" t="s">
         <v>168</v>
@@ -30936,7 +30957,7 @@
         <v>166</v>
       </c>
       <c r="U552" s="60">
-        <f>V552*W552*X552/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V552" s="7">
@@ -30958,18 +30979,18 @@
       <c r="AF552" s="7"/>
       <c r="AG552" s="7"/>
     </row>
-    <row r="553" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B553" s="60" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C553" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D553" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E553" s="60" t="s">
         <v>168</v>
@@ -31008,7 +31029,7 @@
         <v>166</v>
       </c>
       <c r="U553" s="60">
-        <f>V553*W553*X553/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V553" s="7">
@@ -31030,18 +31051,18 @@
       <c r="AF553" s="7"/>
       <c r="AG553" s="7"/>
     </row>
-    <row r="554" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B554" s="61" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C554" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D554" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E554" s="60" t="s">
         <v>168</v>
@@ -31080,7 +31101,7 @@
         <v>166</v>
       </c>
       <c r="U554" s="60">
-        <f>V554*W554*X554/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V554" s="7">
@@ -31102,18 +31123,18 @@
       <c r="AF554" s="7"/>
       <c r="AG554" s="7"/>
     </row>
-    <row r="555" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B555" s="60" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C555" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D555" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E555" s="60" t="s">
         <v>168</v>
@@ -31152,7 +31173,7 @@
         <v>166</v>
       </c>
       <c r="U555" s="60">
-        <f>V555*W555*X555/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.30475000000000002</v>
       </c>
       <c r="V555" s="7">
@@ -31174,18 +31195,18 @@
       <c r="AF555" s="7"/>
       <c r="AG555" s="7"/>
     </row>
-    <row r="556" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B556" s="60" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C556" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D556" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E556" s="60" t="s">
         <v>168</v>
@@ -31224,7 +31245,7 @@
         <v>166</v>
       </c>
       <c r="U556" s="60">
-        <f>V556*W556*X556/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V556" s="7">
@@ -31246,18 +31267,18 @@
       <c r="AF556" s="7"/>
       <c r="AG556" s="7"/>
     </row>
-    <row r="557" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B557" s="61" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C557" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D557" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E557" s="60" t="s">
         <v>168</v>
@@ -31296,7 +31317,7 @@
         <v>166</v>
       </c>
       <c r="U557" s="60">
-        <f>V557*W557*X557/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V557" s="7">
@@ -31318,18 +31339,18 @@
       <c r="AF557" s="7"/>
       <c r="AG557" s="7"/>
     </row>
-    <row r="558" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B558" s="60" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C558" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D558" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E558" s="60" t="s">
         <v>168</v>
@@ -31368,7 +31389,7 @@
         <v>166</v>
       </c>
       <c r="U558" s="60">
-        <f>V558*W558*X558/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.30475000000000002</v>
       </c>
       <c r="V558" s="7">
@@ -31390,18 +31411,18 @@
       <c r="AF558" s="7"/>
       <c r="AG558" s="7"/>
     </row>
-    <row r="559" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B559" s="61" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C559" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D559" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E559" s="60" t="s">
         <v>168</v>
@@ -31440,7 +31461,7 @@
         <v>166</v>
       </c>
       <c r="U559" s="60">
-        <f>V559*W559*X559/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V559" s="7">
@@ -31462,18 +31483,18 @@
       <c r="AF559" s="7"/>
       <c r="AG559" s="7"/>
     </row>
-    <row r="560" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B560" s="61" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C560" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D560" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E560" s="60" t="s">
         <v>168</v>
@@ -31512,7 +31533,7 @@
         <v>166</v>
       </c>
       <c r="U560" s="60">
-        <f>V560*W560*X560/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V560" s="7">
@@ -31534,18 +31555,18 @@
       <c r="AF560" s="7"/>
       <c r="AG560" s="7"/>
     </row>
-    <row r="561" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B561" s="60" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C561" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D561" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E561" s="60" t="s">
         <v>168</v>
@@ -31584,7 +31605,7 @@
         <v>166</v>
       </c>
       <c r="U561" s="60">
-        <f>V561*W561*X561/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V561" s="7">
@@ -31606,18 +31627,18 @@
       <c r="AF561" s="7"/>
       <c r="AG561" s="7"/>
     </row>
-    <row r="562" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B562" s="61" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C562" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D562" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E562" s="60" t="s">
         <v>168</v>
@@ -31656,7 +31677,7 @@
         <v>166</v>
       </c>
       <c r="U562" s="60">
-        <f>V562*W562*X562/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V562" s="7">
@@ -31678,18 +31699,18 @@
       <c r="AF562" s="7"/>
       <c r="AG562" s="7"/>
     </row>
-    <row r="563" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B563" s="60" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C563" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D563" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E563" s="60" t="s">
         <v>168</v>
@@ -31728,7 +31749,7 @@
         <v>166</v>
       </c>
       <c r="U563" s="60">
-        <f>V563*W563*X563/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V563" s="7">
@@ -31750,18 +31771,18 @@
       <c r="AF563" s="7"/>
       <c r="AG563" s="7"/>
     </row>
-    <row r="564" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B564" s="60" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C564" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D564" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E564" s="60" t="s">
         <v>168</v>
@@ -31800,7 +31821,7 @@
         <v>166</v>
       </c>
       <c r="U564" s="60">
-        <f>V564*W564*X564/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V564" s="7">
@@ -31822,18 +31843,18 @@
       <c r="AF564" s="7"/>
       <c r="AG564" s="7"/>
     </row>
-    <row r="565" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B565" s="60" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C565" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D565" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E565" s="60" t="s">
         <v>168</v>
@@ -31872,7 +31893,7 @@
         <v>166</v>
       </c>
       <c r="U565" s="60">
-        <f>V565*W565*X565/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V565" s="7">
@@ -31894,18 +31915,18 @@
       <c r="AF565" s="7"/>
       <c r="AG565" s="7"/>
     </row>
-    <row r="566" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B566" s="61" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C566" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D566" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E566" s="60" t="s">
         <v>168</v>
@@ -31941,10 +31962,10 @@
         <v>2</v>
       </c>
       <c r="T566" s="61" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="U566" s="60">
-        <f>V566*W566*X566/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V566" s="7">
@@ -31966,18 +31987,18 @@
       <c r="AF566" s="7"/>
       <c r="AG566" s="7"/>
     </row>
-    <row r="567" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B567" s="60" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C567" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D567" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E567" s="60" t="s">
         <v>168</v>
@@ -32016,7 +32037,7 @@
         <v>166</v>
       </c>
       <c r="U567" s="60">
-        <f>V567*W567*X567/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V567" s="7">
@@ -32038,18 +32059,18 @@
       <c r="AF567" s="7"/>
       <c r="AG567" s="7"/>
     </row>
-    <row r="568" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B568" s="60" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C568" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D568" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E568" s="60" t="s">
         <v>168</v>
@@ -32088,7 +32109,7 @@
         <v>166</v>
       </c>
       <c r="U568" s="60">
-        <f>V568*W568*X568/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V568" s="7">
@@ -32110,18 +32131,18 @@
       <c r="AF568" s="7"/>
       <c r="AG568" s="7"/>
     </row>
-    <row r="569" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B569" s="61" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C569" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D569" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E569" s="60" t="s">
         <v>168</v>
@@ -32160,7 +32181,7 @@
         <v>166</v>
       </c>
       <c r="U569" s="60">
-        <f>V569*W569*X569/1000000</f>
+        <f t="shared" si="10"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V569" s="7">
@@ -32182,18 +32203,18 @@
       <c r="AF569" s="7"/>
       <c r="AG569" s="7"/>
     </row>
-    <row r="570" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B570" s="60" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C570" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D570" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E570" s="60" t="s">
         <v>168</v>
@@ -32232,7 +32253,7 @@
         <v>166</v>
       </c>
       <c r="U570" s="60">
-        <f>V570*W570*X570/1000000</f>
+        <f t="shared" ref="U570:U601" si="11">V570*W570*X570/1000000</f>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V570" s="7">
@@ -32254,18 +32275,18 @@
       <c r="AF570" s="7"/>
       <c r="AG570" s="7"/>
     </row>
-    <row r="571" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B571" s="60" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C571" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D571" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E571" s="60" t="s">
         <v>168</v>
@@ -32304,7 +32325,7 @@
         <v>166</v>
       </c>
       <c r="U571" s="60">
-        <f>V571*W571*X571/1000000</f>
+        <f t="shared" si="11"/>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V571" s="7">
@@ -32326,18 +32347,18 @@
       <c r="AF571" s="7"/>
       <c r="AG571" s="7"/>
     </row>
-    <row r="572" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B572" s="60" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C572" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D572" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E572" s="60" t="s">
         <v>168</v>
@@ -32376,7 +32397,7 @@
         <v>166</v>
       </c>
       <c r="U572" s="60">
-        <f>V572*W572*X572/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V572" s="7">
@@ -32398,18 +32419,18 @@
       <c r="AF572" s="7"/>
       <c r="AG572" s="7"/>
     </row>
-    <row r="573" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B573" s="61" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C573" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D573" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E573" s="60" t="s">
         <v>168</v>
@@ -32448,7 +32469,7 @@
         <v>166</v>
       </c>
       <c r="U573" s="60">
-        <f>V573*W573*X573/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V573" s="7">
@@ -32470,18 +32491,18 @@
       <c r="AF573" s="7"/>
       <c r="AG573" s="7"/>
     </row>
-    <row r="574" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B574" s="60" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C574" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D574" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E574" s="60" t="s">
         <v>168</v>
@@ -32520,7 +32541,7 @@
         <v>166</v>
       </c>
       <c r="U574" s="60">
-        <f>V574*W574*X574/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.30475000000000002</v>
       </c>
       <c r="V574" s="7">
@@ -32542,18 +32563,18 @@
       <c r="AF574" s="7"/>
       <c r="AG574" s="7"/>
     </row>
-    <row r="575" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B575" s="61" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C575" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D575" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E575" s="60" t="s">
         <v>168</v>
@@ -32592,7 +32613,7 @@
         <v>166</v>
       </c>
       <c r="U575" s="60">
-        <f>V575*W575*X575/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V575" s="7">
@@ -32614,18 +32635,18 @@
       <c r="AF575" s="7"/>
       <c r="AG575" s="7"/>
     </row>
-    <row r="576" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B576" s="60" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C576" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D576" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E576" s="60" t="s">
         <v>168</v>
@@ -32664,7 +32685,7 @@
         <v>166</v>
       </c>
       <c r="U576" s="60">
-        <f>V576*W576*X576/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.30475000000000002</v>
       </c>
       <c r="V576" s="7">
@@ -32686,18 +32707,18 @@
       <c r="AF576" s="7"/>
       <c r="AG576" s="7"/>
     </row>
-    <row r="577" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B577" s="60" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C577" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D577" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E577" s="60" t="s">
         <v>168</v>
@@ -32736,7 +32757,7 @@
         <v>166</v>
       </c>
       <c r="U577" s="60">
-        <f>V577*W577*X577/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V577" s="7">
@@ -32758,18 +32779,18 @@
       <c r="AF577" s="7"/>
       <c r="AG577" s="7"/>
     </row>
-    <row r="578" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B578" s="61" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C578" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D578" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E578" s="60" t="s">
         <v>168</v>
@@ -32808,7 +32829,7 @@
         <v>166</v>
       </c>
       <c r="U578" s="60">
-        <f>V578*W578*X578/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V578" s="7">
@@ -32830,18 +32851,18 @@
       <c r="AF578" s="7"/>
       <c r="AG578" s="7"/>
     </row>
-    <row r="579" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B579" s="60" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C579" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D579" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E579" s="60" t="s">
         <v>168</v>
@@ -32880,7 +32901,7 @@
         <v>166</v>
       </c>
       <c r="U579" s="60">
-        <f>V579*W579*X579/1000000</f>
+        <f t="shared" si="11"/>
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="V579" s="7">
@@ -32902,18 +32923,18 @@
       <c r="AF579" s="7"/>
       <c r="AG579" s="7"/>
     </row>
-    <row r="580" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B580" s="60" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C580" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D580" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E580" s="60" t="s">
         <v>168</v>
@@ -32952,7 +32973,7 @@
         <v>166</v>
       </c>
       <c r="U580" s="60">
-        <f>V580*W580*X580/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V580" s="7">
@@ -32974,18 +32995,18 @@
       <c r="AF580" s="7"/>
       <c r="AG580" s="7"/>
     </row>
-    <row r="581" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B581" s="61" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C581" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D581" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E581" s="60" t="s">
         <v>168</v>
@@ -33024,7 +33045,7 @@
         <v>166</v>
       </c>
       <c r="U581" s="60">
-        <f>V581*W581*X581/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V581" s="7">
@@ -33046,18 +33067,18 @@
       <c r="AF581" s="7"/>
       <c r="AG581" s="7"/>
     </row>
-    <row r="582" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B582" s="60" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C582" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D582" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E582" s="60" t="s">
         <v>168</v>
@@ -33096,7 +33117,7 @@
         <v>166</v>
       </c>
       <c r="U582" s="60">
-        <f>V582*W582*X582/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V582" s="7">
@@ -33118,18 +33139,18 @@
       <c r="AF582" s="7"/>
       <c r="AG582" s="7"/>
     </row>
-    <row r="583" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B583" s="60" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C583" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D583" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E583" s="60" t="s">
         <v>168</v>
@@ -33168,7 +33189,7 @@
         <v>166</v>
       </c>
       <c r="U583" s="60">
-        <f>V583*W583*X583/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V583" s="7">
@@ -33190,18 +33211,18 @@
       <c r="AF583" s="7"/>
       <c r="AG583" s="7"/>
     </row>
-    <row r="584" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B584" s="60" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C584" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D584" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E584" s="60" t="s">
         <v>168</v>
@@ -33240,7 +33261,7 @@
         <v>166</v>
       </c>
       <c r="U584" s="60">
-        <f>V584*W584*X584/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V584" s="7">
@@ -33262,18 +33283,18 @@
       <c r="AF584" s="7"/>
       <c r="AG584" s="7"/>
     </row>
-    <row r="585" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B585" s="60" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C585" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D585" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E585" s="60" t="s">
         <v>168</v>
@@ -33312,7 +33333,7 @@
         <v>166</v>
       </c>
       <c r="U585" s="60">
-        <f>V585*W585*X585/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V585" s="7">
@@ -33334,18 +33355,18 @@
       <c r="AF585" s="7"/>
       <c r="AG585" s="7"/>
     </row>
-    <row r="586" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B586" s="60" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C586" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D586" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E586" s="60" t="s">
         <v>168</v>
@@ -33384,7 +33405,7 @@
         <v>166</v>
       </c>
       <c r="U586" s="60">
-        <f>V586*W586*X586/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V586" s="7">
@@ -33406,18 +33427,18 @@
       <c r="AF586" s="7"/>
       <c r="AG586" s="7"/>
     </row>
-    <row r="587" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="60" t="s">
-        <v>449</v>
+        <v>985</v>
       </c>
       <c r="B587" s="60" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C587" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D587" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E587" s="60" t="s">
         <v>168</v>
@@ -33456,7 +33477,7 @@
         <v>166</v>
       </c>
       <c r="U587" s="60">
-        <f>V587*W587*X587/1000000</f>
+        <f t="shared" si="11"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="V587" s="7">
@@ -33479,17 +33500,15 @@
       <c r="AG587" s="7"/>
     </row>
     <row r="588" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A588" s="63"/>
       <c r="B588" s="55" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C588" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D588" s="63" t="s">
-        <v>1224</v>
+      <c r="D588" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E588" s="55" t="s">
         <v>1036</v>
@@ -33508,22 +33527,20 @@
         <v>166</v>
       </c>
       <c r="U588" s="55">
-        <f t="shared" ref="U588:U598" si="10">V588*W588*X588/1000000</f>
+        <f t="shared" ref="U588:U598" si="12">V588*W588*X588/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A589" s="63"/>
       <c r="B589" s="55" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C589" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D589" s="63" t="s">
-        <v>1224</v>
+      <c r="D589" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E589" s="55" t="s">
         <v>1036</v>
@@ -33542,22 +33559,20 @@
         <v>166</v>
       </c>
       <c r="U589" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A590" s="63"/>
       <c r="B590" s="55" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C590" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D590" s="63" t="s">
-        <v>1224</v>
+      <c r="D590" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E590" s="55" t="s">
         <v>1036</v>
@@ -33577,22 +33592,20 @@
         <v>166</v>
       </c>
       <c r="U590" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A591" s="63"/>
       <c r="B591" s="55" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C591" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D591" s="63" t="s">
-        <v>1224</v>
+      <c r="D591" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E591" s="55" t="s">
         <v>1036</v>
@@ -33611,22 +33624,20 @@
         <v>166</v>
       </c>
       <c r="U591" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A592" s="63"/>
       <c r="B592" s="55" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C592" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D592" s="63" t="s">
-        <v>1224</v>
+      <c r="D592" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E592" s="55" t="s">
         <v>1036</v>
@@ -33646,22 +33657,20 @@
         <v>166</v>
       </c>
       <c r="U592" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A593" s="63"/>
       <c r="B593" s="55" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C593" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D593" s="63" t="s">
-        <v>1224</v>
+      <c r="D593" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E593" s="55" t="s">
         <v>1036</v>
@@ -33680,22 +33689,20 @@
         <v>166</v>
       </c>
       <c r="U593" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A594" s="63"/>
       <c r="B594" s="55" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C594" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D594" s="63" t="s">
-        <v>1224</v>
+      <c r="D594" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E594" s="55" t="s">
         <v>1036</v>
@@ -33714,22 +33721,20 @@
         <v>166</v>
       </c>
       <c r="U594" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A595" s="63"/>
       <c r="B595" s="55" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C595" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D595" s="63" t="s">
-        <v>1224</v>
+      <c r="D595" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E595" s="55" t="s">
         <v>1036</v>
@@ -33748,22 +33753,20 @@
         <v>166</v>
       </c>
       <c r="U595" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A596" s="63"/>
       <c r="B596" s="55" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C596" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D596" s="63" t="s">
-        <v>1224</v>
+      <c r="D596" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E596" s="55" t="s">
         <v>1036</v>
@@ -33787,17 +33790,15 @@
       </c>
     </row>
     <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A597" s="63"/>
       <c r="B597" s="55" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C597" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D597" s="63" t="s">
-        <v>1224</v>
+      <c r="D597" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E597" s="55" t="s">
         <v>1036</v>
@@ -33816,22 +33817,20 @@
         <v>166</v>
       </c>
       <c r="U597" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A598" s="63"/>
       <c r="B598" s="55" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C598" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D598" s="63" t="s">
-        <v>1224</v>
+      <c r="D598" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E598" s="55" t="s">
         <v>1036</v>
@@ -33850,22 +33849,20 @@
         <v>166</v>
       </c>
       <c r="U598" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A599" s="63"/>
       <c r="B599" s="55" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C599" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D599" s="63" t="s">
-        <v>1224</v>
+      <c r="D599" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E599" s="55" t="s">
         <v>1036</v>
@@ -33884,22 +33881,20 @@
         <v>166</v>
       </c>
       <c r="U599" s="55">
-        <f t="shared" ref="U599:U618" si="11">V599*W599*X599/1000000</f>
+        <f t="shared" ref="U599:U618" si="13">V599*W599*X599/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A600" s="63"/>
       <c r="B600" s="55" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C600" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D600" s="63" t="s">
-        <v>1224</v>
+      <c r="D600" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E600" s="55" t="s">
         <v>1036</v>
@@ -33923,17 +33918,15 @@
       </c>
     </row>
     <row r="601" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A601" s="63"/>
       <c r="B601" s="55" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C601" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D601" s="63" t="s">
-        <v>1224</v>
+      <c r="D601" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E601" s="55" t="s">
         <v>1036</v>
@@ -33952,22 +33945,20 @@
         <v>166</v>
       </c>
       <c r="U601" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A602" s="63"/>
       <c r="B602" s="55" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C602" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D602" s="63" t="s">
-        <v>1224</v>
+      <c r="D602" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E602" s="55" t="s">
         <v>1036</v>
@@ -33986,22 +33977,20 @@
         <v>166</v>
       </c>
       <c r="U602" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A603" s="63"/>
       <c r="B603" s="55" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C603" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D603" s="63" t="s">
-        <v>1224</v>
+      <c r="D603" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E603" s="55" t="s">
         <v>1036</v>
@@ -34020,22 +34009,20 @@
         <v>166</v>
       </c>
       <c r="U603" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A604" s="63"/>
       <c r="B604" s="55" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C604" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D604" s="63" t="s">
-        <v>1224</v>
+      <c r="D604" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E604" s="55" t="s">
         <v>1036</v>
@@ -34054,22 +34041,20 @@
         <v>166</v>
       </c>
       <c r="U604" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A605" s="63"/>
       <c r="B605" s="55" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C605" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D605" s="63" t="s">
-        <v>1224</v>
+      <c r="D605" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E605" s="55" t="s">
         <v>1036</v>
@@ -34088,22 +34073,20 @@
         <v>166</v>
       </c>
       <c r="U605" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A606" s="63"/>
       <c r="B606" s="55" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C606" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D606" s="63" t="s">
-        <v>1224</v>
+      <c r="D606" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E606" s="55" t="s">
         <v>1036</v>
@@ -34122,22 +34105,20 @@
         <v>166</v>
       </c>
       <c r="U606" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A607" s="63"/>
       <c r="B607" s="55" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C607" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D607" s="63" t="s">
-        <v>1224</v>
+      <c r="D607" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E607" s="55" t="s">
         <v>1036</v>
@@ -34156,22 +34137,20 @@
         <v>166</v>
       </c>
       <c r="U607" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A608" s="63"/>
       <c r="B608" s="55" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C608" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D608" s="63" t="s">
-        <v>1224</v>
+      <c r="D608" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E608" s="55" t="s">
         <v>1036</v>
@@ -34190,22 +34169,20 @@
         <v>166</v>
       </c>
       <c r="U608" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A609" s="63"/>
       <c r="B609" s="55" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C609" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D609" s="63" t="s">
-        <v>1224</v>
+      <c r="D609" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E609" s="55" t="s">
         <v>1036</v>
@@ -34224,22 +34201,20 @@
         <v>166</v>
       </c>
       <c r="U609" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A610" s="63"/>
       <c r="B610" s="55" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C610" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D610" s="63" t="s">
-        <v>1224</v>
+      <c r="D610" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E610" s="55" t="s">
         <v>1036</v>
@@ -34263,17 +34238,15 @@
       </c>
     </row>
     <row r="611" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A611" s="63"/>
       <c r="B611" s="55" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C611" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D611" s="63" t="s">
-        <v>1224</v>
+      <c r="D611" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E611" s="55" t="s">
         <v>1036</v>
@@ -34297,17 +34270,15 @@
       </c>
     </row>
     <row r="612" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A612" s="63"/>
       <c r="B612" s="55" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C612" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D612" s="63" t="s">
-        <v>1224</v>
+      <c r="D612" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E612" s="55" t="s">
         <v>1036</v>
@@ -34326,22 +34297,20 @@
         <v>166</v>
       </c>
       <c r="U612" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A613" s="63"/>
       <c r="B613" s="55" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C613" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D613" s="63" t="s">
-        <v>1224</v>
+      <c r="D613" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E613" s="55" t="s">
         <v>1036</v>
@@ -34360,22 +34329,20 @@
         <v>166</v>
       </c>
       <c r="U613" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A614" s="63"/>
       <c r="B614" s="55" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C614" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D614" s="63" t="s">
-        <v>1224</v>
+      <c r="D614" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E614" s="55" t="s">
         <v>1036</v>
@@ -34394,22 +34361,20 @@
         <v>166</v>
       </c>
       <c r="U614" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A615" s="63"/>
       <c r="B615" s="55" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C615" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D615" s="63" t="s">
-        <v>1224</v>
+      <c r="D615" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E615" s="55" t="s">
         <v>1036</v>
@@ -34428,22 +34393,20 @@
         <v>166</v>
       </c>
       <c r="U615" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A616" s="63"/>
       <c r="B616" s="55" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C616" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D616" s="63" t="s">
-        <v>1224</v>
+      <c r="D616" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E616" s="55" t="s">
         <v>1036</v>
@@ -34462,22 +34425,20 @@
         <v>166</v>
       </c>
       <c r="U616" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A617" s="63"/>
       <c r="B617" s="55" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C617" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D617" s="63" t="s">
-        <v>1224</v>
+      <c r="D617" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E617" s="55" t="s">
         <v>1036</v>
@@ -34496,22 +34457,20 @@
         <v>166</v>
       </c>
       <c r="U617" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="63" t="s">
-        <v>1311</v>
-      </c>
+      <c r="A618" s="63"/>
       <c r="B618" s="55" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C618" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D618" s="63" t="s">
-        <v>1224</v>
+      <c r="D618" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E618" s="55" t="s">
         <v>1036</v>
@@ -34530,22 +34489,22 @@
         <v>166</v>
       </c>
       <c r="U618" s="55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A619" s="7" t="s">
-        <v>1162</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B619" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C619" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D619" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E619" s="60" t="s">
         <v>168</v>
@@ -34606,18 +34565,18 @@
       <c r="AF619" s="7"/>
       <c r="AG619" s="7"/>
     </row>
-    <row r="620" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A620" s="7" t="s">
+    <row r="620" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="60" t="s">
+        <v>985</v>
+      </c>
+      <c r="B620" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="B620" s="7" t="s">
-        <v>1163</v>
       </c>
       <c r="C620" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D620" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E620" s="60" t="s">
         <v>168</v>
@@ -34656,7 +34615,7 @@
         <v>166</v>
       </c>
       <c r="U620" s="60">
-        <f t="shared" ref="U620:U681" si="12">V620*W620*X620/1000000</f>
+        <f t="shared" ref="U620:U680" si="14">V620*W620*X620/1000000</f>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V620" s="7">
@@ -34678,18 +34637,18 @@
       <c r="AF620" s="7"/>
       <c r="AG620" s="7"/>
     </row>
-    <row r="621" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A621" s="7" t="s">
-        <v>1162</v>
+    <row r="621" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B621" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C621" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D621" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E621" s="60" t="s">
         <v>168</v>
@@ -34728,7 +34687,7 @@
         <v>166</v>
       </c>
       <c r="U621" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V621" s="7">
@@ -34750,18 +34709,18 @@
       <c r="AF621" s="7"/>
       <c r="AG621" s="7"/>
     </row>
-    <row r="622" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A622" s="7" t="s">
-        <v>1162</v>
+    <row r="622" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C622" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D622" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E622" s="60" t="s">
         <v>168</v>
@@ -34800,7 +34759,7 @@
         <v>166</v>
       </c>
       <c r="U622" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V622" s="7">
@@ -34822,18 +34781,18 @@
       <c r="AF622" s="7"/>
       <c r="AG622" s="7"/>
     </row>
-    <row r="623" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A623" s="7" t="s">
-        <v>1162</v>
+    <row r="623" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C623" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D623" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E623" s="60" t="s">
         <v>168</v>
@@ -34872,7 +34831,7 @@
         <v>166</v>
       </c>
       <c r="U623" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V623" s="7">
@@ -34894,18 +34853,18 @@
       <c r="AF623" s="7"/>
       <c r="AG623" s="7"/>
     </row>
-    <row r="624" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A624" s="7" t="s">
-        <v>1162</v>
+    <row r="624" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C624" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D624" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E624" s="60" t="s">
         <v>168</v>
@@ -34944,7 +34903,7 @@
         <v>166</v>
       </c>
       <c r="U624" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V624" s="7">
@@ -34966,18 +34925,18 @@
       <c r="AF624" s="7"/>
       <c r="AG624" s="7"/>
     </row>
-    <row r="625" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A625" s="7" t="s">
-        <v>1162</v>
+    <row r="625" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C625" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D625" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E625" s="60" t="s">
         <v>168</v>
@@ -35016,7 +34975,7 @@
         <v>166</v>
       </c>
       <c r="U625" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V625" s="7">
@@ -35038,18 +34997,18 @@
       <c r="AF625" s="7"/>
       <c r="AG625" s="7"/>
     </row>
-    <row r="626" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A626" s="7" t="s">
-        <v>1162</v>
+    <row r="626" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C626" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D626" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E626" s="60" t="s">
         <v>168</v>
@@ -35088,7 +35047,7 @@
         <v>166</v>
       </c>
       <c r="U626" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V626" s="7">
@@ -35110,18 +35069,18 @@
       <c r="AF626" s="7"/>
       <c r="AG626" s="7"/>
     </row>
-    <row r="627" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A627" s="7" t="s">
-        <v>1162</v>
+    <row r="627" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C627" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D627" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E627" s="60" t="s">
         <v>168</v>
@@ -35160,7 +35119,7 @@
         <v>166</v>
       </c>
       <c r="U627" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V627" s="7">
@@ -35182,18 +35141,18 @@
       <c r="AF627" s="7"/>
       <c r="AG627" s="7"/>
     </row>
-    <row r="628" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A628" s="7" t="s">
-        <v>1162</v>
+    <row r="628" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C628" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D628" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E628" s="60" t="s">
         <v>168</v>
@@ -35232,7 +35191,7 @@
         <v>166</v>
       </c>
       <c r="U628" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V628" s="7">
@@ -35254,18 +35213,18 @@
       <c r="AF628" s="7"/>
       <c r="AG628" s="7"/>
     </row>
-    <row r="629" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A629" s="7" t="s">
-        <v>1162</v>
+    <row r="629" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C629" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D629" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E629" s="60" t="s">
         <v>168</v>
@@ -35304,7 +35263,7 @@
         <v>166</v>
       </c>
       <c r="U629" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V629" s="7">
@@ -35326,18 +35285,18 @@
       <c r="AF629" s="7"/>
       <c r="AG629" s="7"/>
     </row>
-    <row r="630" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A630" s="7" t="s">
-        <v>1162</v>
+    <row r="630" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C630" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D630" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E630" s="60" t="s">
         <v>168</v>
@@ -35376,7 +35335,7 @@
         <v>166</v>
       </c>
       <c r="U630" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V630" s="7">
@@ -35398,18 +35357,18 @@
       <c r="AF630" s="7"/>
       <c r="AG630" s="7"/>
     </row>
-    <row r="631" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A631" s="7" t="s">
-        <v>1162</v>
+    <row r="631" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C631" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D631" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E631" s="60" t="s">
         <v>168</v>
@@ -35448,7 +35407,7 @@
         <v>166</v>
       </c>
       <c r="U631" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V631" s="7">
@@ -35470,18 +35429,18 @@
       <c r="AF631" s="7"/>
       <c r="AG631" s="7"/>
     </row>
-    <row r="632" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A632" s="7" t="s">
-        <v>1162</v>
+    <row r="632" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C632" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D632" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E632" s="60" t="s">
         <v>168</v>
@@ -35520,7 +35479,7 @@
         <v>166</v>
       </c>
       <c r="U632" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V632" s="7">
@@ -35542,18 +35501,18 @@
       <c r="AF632" s="7"/>
       <c r="AG632" s="7"/>
     </row>
-    <row r="633" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A633" s="7" t="s">
-        <v>1162</v>
+    <row r="633" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B633" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C633" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D633" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E633" s="60" t="s">
         <v>168</v>
@@ -35592,7 +35551,7 @@
         <v>166</v>
       </c>
       <c r="U633" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V633" s="7">
@@ -35614,18 +35573,18 @@
       <c r="AF633" s="7"/>
       <c r="AG633" s="7"/>
     </row>
-    <row r="634" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A634" s="7" t="s">
-        <v>1162</v>
+    <row r="634" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C634" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D634" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E634" s="60" t="s">
         <v>168</v>
@@ -35664,7 +35623,7 @@
         <v>166</v>
       </c>
       <c r="U634" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V634" s="7">
@@ -35686,18 +35645,18 @@
       <c r="AF634" s="7"/>
       <c r="AG634" s="7"/>
     </row>
-    <row r="635" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A635" s="7" t="s">
-        <v>1162</v>
+    <row r="635" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D635" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E635" s="60" t="s">
         <v>168</v>
@@ -35736,7 +35695,7 @@
         <v>166</v>
       </c>
       <c r="U635" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V635" s="7">
@@ -35758,18 +35717,18 @@
       <c r="AF635" s="7"/>
       <c r="AG635" s="7"/>
     </row>
-    <row r="636" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A636" s="7" t="s">
-        <v>1162</v>
+    <row r="636" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D636" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E636" s="60" t="s">
         <v>168</v>
@@ -35808,7 +35767,7 @@
         <v>166</v>
       </c>
       <c r="U636" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V636" s="7">
@@ -35830,18 +35789,18 @@
       <c r="AF636" s="7"/>
       <c r="AG636" s="7"/>
     </row>
-    <row r="637" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A637" s="7" t="s">
-        <v>1162</v>
+    <row r="637" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C637" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D637" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E637" s="60" t="s">
         <v>168</v>
@@ -35880,7 +35839,7 @@
         <v>166</v>
       </c>
       <c r="U637" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V637" s="7">
@@ -35902,18 +35861,18 @@
       <c r="AF637" s="7"/>
       <c r="AG637" s="7"/>
     </row>
-    <row r="638" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A638" s="7" t="s">
-        <v>1162</v>
+    <row r="638" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C638" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D638" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E638" s="60" t="s">
         <v>168</v>
@@ -35952,7 +35911,7 @@
         <v>166</v>
       </c>
       <c r="U638" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V638" s="7">
@@ -35974,18 +35933,18 @@
       <c r="AF638" s="7"/>
       <c r="AG638" s="7"/>
     </row>
-    <row r="639" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A639" s="7" t="s">
-        <v>449</v>
+    <row r="639" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B639" s="61" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C639" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D639" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E639" s="60" t="s">
         <v>168</v>
@@ -36024,7 +35983,7 @@
         <v>166</v>
       </c>
       <c r="U639" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V639" s="7">
@@ -36046,18 +36005,18 @@
       <c r="AF639" s="7"/>
       <c r="AG639" s="7"/>
     </row>
-    <row r="640" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A640" s="7" t="s">
-        <v>1162</v>
+    <row r="640" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C640" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D640" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E640" s="60" t="s">
         <v>168</v>
@@ -36096,7 +36055,7 @@
         <v>166</v>
       </c>
       <c r="U640" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V640" s="7">
@@ -36118,18 +36077,18 @@
       <c r="AF640" s="7"/>
       <c r="AG640" s="7"/>
     </row>
-    <row r="641" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A641" s="7" t="s">
-        <v>1162</v>
+    <row r="641" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C641" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D641" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E641" s="60" t="s">
         <v>168</v>
@@ -36168,7 +36127,7 @@
         <v>166</v>
       </c>
       <c r="U641" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V641" s="7">
@@ -36190,18 +36149,18 @@
       <c r="AF641" s="7"/>
       <c r="AG641" s="7"/>
     </row>
-    <row r="642" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A642" s="7" t="s">
-        <v>1162</v>
+    <row r="642" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C642" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D642" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E642" s="60" t="s">
         <v>168</v>
@@ -36240,7 +36199,7 @@
         <v>166</v>
       </c>
       <c r="U642" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V642" s="7">
@@ -36262,18 +36221,18 @@
       <c r="AF642" s="7"/>
       <c r="AG642" s="7"/>
     </row>
-    <row r="643" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A643" s="7" t="s">
-        <v>1162</v>
+    <row r="643" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C643" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D643" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E643" s="60" t="s">
         <v>168</v>
@@ -36312,7 +36271,7 @@
         <v>166</v>
       </c>
       <c r="U643" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V643" s="7">
@@ -36334,18 +36293,18 @@
       <c r="AF643" s="7"/>
       <c r="AG643" s="7"/>
     </row>
-    <row r="644" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A644" s="7" t="s">
-        <v>1162</v>
+    <row r="644" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C644" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D644" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E644" s="60" t="s">
         <v>168</v>
@@ -36384,7 +36343,7 @@
         <v>166</v>
       </c>
       <c r="U644" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V644" s="7">
@@ -36406,18 +36365,18 @@
       <c r="AF644" s="7"/>
       <c r="AG644" s="7"/>
     </row>
-    <row r="645" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A645" s="7" t="s">
-        <v>1162</v>
+    <row r="645" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C645" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D645" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E645" s="60" t="s">
         <v>168</v>
@@ -36456,7 +36415,7 @@
         <v>166</v>
       </c>
       <c r="U645" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V645" s="7">
@@ -36478,18 +36437,18 @@
       <c r="AF645" s="7"/>
       <c r="AG645" s="7"/>
     </row>
-    <row r="646" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A646" s="7" t="s">
-        <v>1162</v>
+    <row r="646" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C646" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D646" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E646" s="60" t="s">
         <v>168</v>
@@ -36528,7 +36487,7 @@
         <v>166</v>
       </c>
       <c r="U646" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V646" s="7">
@@ -36552,13 +36511,13 @@
     </row>
     <row r="647" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B647" s="61" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D647" s="63" t="s">
-        <v>1224</v>
+      <c r="D647" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E647" s="55" t="s">
         <v>168</v>
@@ -36577,22 +36536,22 @@
         <v>166</v>
       </c>
       <c r="U647" s="55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A648" s="7" t="s">
-        <v>1162</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C648" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D648" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E648" s="60" t="s">
         <v>168</v>
@@ -36631,7 +36590,7 @@
         <v>166</v>
       </c>
       <c r="U648" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V648" s="7">
@@ -36653,18 +36612,18 @@
       <c r="AF648" s="7"/>
       <c r="AG648" s="7"/>
     </row>
-    <row r="649" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A649" s="7" t="s">
-        <v>1162</v>
+    <row r="649" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C649" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D649" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E649" s="60" t="s">
         <v>168</v>
@@ -36703,7 +36662,7 @@
         <v>166</v>
       </c>
       <c r="U649" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V649" s="7">
@@ -36725,18 +36684,18 @@
       <c r="AF649" s="7"/>
       <c r="AG649" s="7"/>
     </row>
-    <row r="650" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A650" s="7" t="s">
-        <v>1162</v>
+    <row r="650" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C650" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D650" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E650" s="60" t="s">
         <v>168</v>
@@ -36775,7 +36734,7 @@
         <v>166</v>
       </c>
       <c r="U650" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V650" s="7">
@@ -36797,18 +36756,18 @@
       <c r="AF650" s="7"/>
       <c r="AG650" s="7"/>
     </row>
-    <row r="651" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A651" s="7" t="s">
-        <v>1162</v>
+    <row r="651" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B651" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C651" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D651" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E651" s="60" t="s">
         <v>168</v>
@@ -36847,7 +36806,7 @@
         <v>166</v>
       </c>
       <c r="U651" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V651" s="7">
@@ -36869,18 +36828,18 @@
       <c r="AF651" s="7"/>
       <c r="AG651" s="7"/>
     </row>
-    <row r="652" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A652" s="7" t="s">
-        <v>1162</v>
+    <row r="652" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C652" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D652" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E652" s="60" t="s">
         <v>168</v>
@@ -36919,7 +36878,7 @@
         <v>166</v>
       </c>
       <c r="U652" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V652" s="7">
@@ -36941,18 +36900,18 @@
       <c r="AF652" s="7"/>
       <c r="AG652" s="7"/>
     </row>
-    <row r="653" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A653" s="7" t="s">
-        <v>1162</v>
+    <row r="653" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C653" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D653" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E653" s="60" t="s">
         <v>168</v>
@@ -36991,7 +36950,7 @@
         <v>166</v>
       </c>
       <c r="U653" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V653" s="7">
@@ -37013,18 +36972,18 @@
       <c r="AF653" s="7"/>
       <c r="AG653" s="7"/>
     </row>
-    <row r="654" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A654" s="7" t="s">
-        <v>1162</v>
+    <row r="654" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C654" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D654" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E654" s="60" t="s">
         <v>168</v>
@@ -37063,7 +37022,7 @@
         <v>166</v>
       </c>
       <c r="U654" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V654" s="7">
@@ -37085,18 +37044,18 @@
       <c r="AF654" s="7"/>
       <c r="AG654" s="7"/>
     </row>
-    <row r="655" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A655" s="7" t="s">
-        <v>1162</v>
+    <row r="655" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C655" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D655" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E655" s="60" t="s">
         <v>168</v>
@@ -37135,7 +37094,7 @@
         <v>166</v>
       </c>
       <c r="U655" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V655" s="7">
@@ -37157,18 +37116,18 @@
       <c r="AF655" s="7"/>
       <c r="AG655" s="7"/>
     </row>
-    <row r="656" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A656" s="7" t="s">
-        <v>1162</v>
+    <row r="656" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C656" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D656" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E656" s="60" t="s">
         <v>168</v>
@@ -37207,7 +37166,7 @@
         <v>166</v>
       </c>
       <c r="U656" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V656" s="7">
@@ -37229,18 +37188,18 @@
       <c r="AF656" s="7"/>
       <c r="AG656" s="7"/>
     </row>
-    <row r="657" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A657" s="7" t="s">
-        <v>1162</v>
+    <row r="657" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C657" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D657" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E657" s="60" t="s">
         <v>168</v>
@@ -37279,7 +37238,7 @@
         <v>166</v>
       </c>
       <c r="U657" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V657" s="7">
@@ -37301,18 +37260,18 @@
       <c r="AF657" s="7"/>
       <c r="AG657" s="7"/>
     </row>
-    <row r="658" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A658" s="7" t="s">
-        <v>1162</v>
+    <row r="658" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D658" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E658" s="60" t="s">
         <v>168</v>
@@ -37351,7 +37310,7 @@
         <v>166</v>
       </c>
       <c r="U658" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V658" s="7">
@@ -37373,18 +37332,18 @@
       <c r="AF658" s="7"/>
       <c r="AG658" s="7"/>
     </row>
-    <row r="659" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A659" s="7" t="s">
-        <v>1162</v>
+    <row r="659" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C659" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D659" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E659" s="60" t="s">
         <v>168</v>
@@ -37423,7 +37382,7 @@
         <v>166</v>
       </c>
       <c r="U659" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V659" s="7">
@@ -37445,18 +37404,18 @@
       <c r="AF659" s="7"/>
       <c r="AG659" s="7"/>
     </row>
-    <row r="660" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A660" s="7" t="s">
-        <v>1162</v>
+    <row r="660" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C660" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D660" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E660" s="60" t="s">
         <v>168</v>
@@ -37495,7 +37454,7 @@
         <v>166</v>
       </c>
       <c r="U660" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V660" s="7">
@@ -37517,18 +37476,18 @@
       <c r="AF660" s="7"/>
       <c r="AG660" s="7"/>
     </row>
-    <row r="661" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A661" s="7" t="s">
-        <v>1162</v>
+    <row r="661" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B661" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C661" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D661" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E661" s="60" t="s">
         <v>168</v>
@@ -37567,7 +37526,7 @@
         <v>166</v>
       </c>
       <c r="U661" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V661" s="7">
@@ -37589,18 +37548,18 @@
       <c r="AF661" s="7"/>
       <c r="AG661" s="7"/>
     </row>
-    <row r="662" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A662" s="7" t="s">
-        <v>1162</v>
+    <row r="662" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D662" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E662" s="60" t="s">
         <v>168</v>
@@ -37639,7 +37598,7 @@
         <v>166</v>
       </c>
       <c r="U662" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V662" s="7">
@@ -37661,18 +37620,18 @@
       <c r="AF662" s="7"/>
       <c r="AG662" s="7"/>
     </row>
-    <row r="663" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A663" s="7" t="s">
-        <v>1162</v>
+    <row r="663" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D663" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E663" s="60" t="s">
         <v>168</v>
@@ -37711,7 +37670,7 @@
         <v>166</v>
       </c>
       <c r="U663" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V663" s="7">
@@ -37733,18 +37692,18 @@
       <c r="AF663" s="7"/>
       <c r="AG663" s="7"/>
     </row>
-    <row r="664" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A664" s="7" t="s">
-        <v>1162</v>
+    <row r="664" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C664" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D664" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E664" s="60" t="s">
         <v>168</v>
@@ -37783,7 +37742,7 @@
         <v>166</v>
       </c>
       <c r="U664" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V664" s="7">
@@ -37805,18 +37764,18 @@
       <c r="AF664" s="7"/>
       <c r="AG664" s="7"/>
     </row>
-    <row r="665" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A665" s="7" t="s">
-        <v>1162</v>
+    <row r="665" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B665" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C665" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D665" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E665" s="60" t="s">
         <v>168</v>
@@ -37855,7 +37814,7 @@
         <v>166</v>
       </c>
       <c r="U665" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V665" s="7">
@@ -37877,18 +37836,18 @@
       <c r="AF665" s="7"/>
       <c r="AG665" s="7"/>
     </row>
-    <row r="666" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A666" s="7" t="s">
-        <v>1162</v>
+    <row r="666" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C666" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D666" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E666" s="60" t="s">
         <v>168</v>
@@ -37927,7 +37886,7 @@
         <v>166</v>
       </c>
       <c r="U666" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8317799999999997E-2</v>
       </c>
       <c r="V666" s="7">
@@ -37949,18 +37908,18 @@
       <c r="AF666" s="7"/>
       <c r="AG666" s="7"/>
     </row>
-    <row r="667" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A667" s="7" t="s">
-        <v>1162</v>
+    <row r="667" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D667" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E667" s="60" t="s">
         <v>168</v>
@@ -37999,7 +37958,7 @@
         <v>166</v>
       </c>
       <c r="U667" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V667" s="7">
@@ -38021,18 +37980,18 @@
       <c r="AF667" s="7"/>
       <c r="AG667" s="7"/>
     </row>
-    <row r="668" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A668" s="7" t="s">
-        <v>1162</v>
+    <row r="668" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D668" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E668" s="60" t="s">
         <v>168</v>
@@ -38071,7 +38030,7 @@
         <v>166</v>
       </c>
       <c r="U668" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V668" s="7">
@@ -38093,18 +38052,18 @@
       <c r="AF668" s="7"/>
       <c r="AG668" s="7"/>
     </row>
-    <row r="669" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A669" s="7" t="s">
-        <v>1162</v>
+    <row r="669" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C669" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D669" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E669" s="60" t="s">
         <v>168</v>
@@ -38143,7 +38102,7 @@
         <v>166</v>
       </c>
       <c r="U669" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V669" s="7">
@@ -38167,13 +38126,13 @@
     </row>
     <row r="670" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B670" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D670" s="63" t="s">
-        <v>1224</v>
+      <c r="D670" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E670" s="55" t="s">
         <v>168</v>
@@ -38192,19 +38151,19 @@
         <v>166</v>
       </c>
       <c r="U670" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B671" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D671" s="63" t="s">
-        <v>1224</v>
+      <c r="D671" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="E671" s="55" t="s">
         <v>168</v>
@@ -38223,22 +38182,22 @@
         <v>166</v>
       </c>
       <c r="U671" s="55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A672" s="7" t="s">
-        <v>449</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B672" s="61" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C672" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D672" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E672" s="60" t="s">
         <v>168</v>
@@ -38277,7 +38236,7 @@
         <v>166</v>
       </c>
       <c r="U672" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V672" s="7">
@@ -38299,18 +38258,18 @@
       <c r="AF672" s="7"/>
       <c r="AG672" s="7"/>
     </row>
-    <row r="673" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A673" s="7" t="s">
-        <v>1162</v>
+    <row r="673" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C673" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D673" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E673" s="60" t="s">
         <v>168</v>
@@ -38349,7 +38308,7 @@
         <v>166</v>
       </c>
       <c r="U673" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V673" s="7">
@@ -38371,18 +38330,18 @@
       <c r="AF673" s="7"/>
       <c r="AG673" s="7"/>
     </row>
-    <row r="674" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A674" s="7" t="s">
-        <v>1162</v>
+    <row r="674" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C674" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D674" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E674" s="60" t="s">
         <v>168</v>
@@ -38421,7 +38380,7 @@
         <v>166</v>
       </c>
       <c r="U674" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V674" s="7">
@@ -38443,18 +38402,18 @@
       <c r="AF674" s="7"/>
       <c r="AG674" s="7"/>
     </row>
-    <row r="675" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A675" s="7" t="s">
-        <v>1162</v>
+    <row r="675" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C675" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D675" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E675" s="60" t="s">
         <v>168</v>
@@ -38493,7 +38452,7 @@
         <v>166</v>
       </c>
       <c r="U675" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V675" s="7">
@@ -38515,18 +38474,18 @@
       <c r="AF675" s="7"/>
       <c r="AG675" s="7"/>
     </row>
-    <row r="676" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A676" s="7" t="s">
-        <v>1162</v>
+    <row r="676" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C676" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D676" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E676" s="60" t="s">
         <v>168</v>
@@ -38587,18 +38546,18 @@
       <c r="AF676" s="7"/>
       <c r="AG676" s="7"/>
     </row>
-    <row r="677" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A677" s="7" t="s">
-        <v>1162</v>
+    <row r="677" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C677" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D677" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E677" s="60" t="s">
         <v>168</v>
@@ -38659,18 +38618,18 @@
       <c r="AF677" s="7"/>
       <c r="AG677" s="7"/>
     </row>
-    <row r="678" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A678" s="7" t="s">
-        <v>1162</v>
+    <row r="678" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C678" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D678" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E678" s="60" t="s">
         <v>168</v>
@@ -38731,18 +38690,18 @@
       <c r="AF678" s="7"/>
       <c r="AG678" s="7"/>
     </row>
-    <row r="679" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A679" s="7" t="s">
-        <v>1162</v>
+    <row r="679" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C679" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D679" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E679" s="60" t="s">
         <v>168</v>
@@ -38781,7 +38740,7 @@
         <v>166</v>
       </c>
       <c r="U679" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22272</v>
       </c>
       <c r="V679" s="7">
@@ -38803,18 +38762,18 @@
       <c r="AF679" s="7"/>
       <c r="AG679" s="7"/>
     </row>
-    <row r="680" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A680" s="7" t="s">
-        <v>1162</v>
+    <row r="680" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="60" t="s">
+        <v>985</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C680" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="D680" s="61" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
       <c r="E680" s="60" t="s">
         <v>168</v>
@@ -38853,7 +38812,7 @@
         <v>166</v>
       </c>
       <c r="U680" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V680" s="7">
@@ -38875,38 +38834,186 @@
       <c r="AF680" s="7"/>
       <c r="AG680" s="7"/>
     </row>
-    <row r="681" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B681" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C681" s="1" t="s">
+    <row r="681" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A681" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B681" s="63" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C681" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="D681" s="63" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E681" s="55" t="s">
+      <c r="D681" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E681" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F681" s="1">
-        <v>2200</v>
-      </c>
-      <c r="R681" s="1">
-        <v>1820.42</v>
-      </c>
-      <c r="S681" s="1">
-        <v>50</v>
-      </c>
-      <c r="T681" s="55" t="s">
+      <c r="F681" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G681" s="7">
+        <v>75</v>
+      </c>
+      <c r="H681" s="7"/>
+      <c r="I681" s="7">
+        <v>138</v>
+      </c>
+      <c r="J681" s="7"/>
+      <c r="K681" s="7"/>
+      <c r="L681" s="7"/>
+      <c r="M681" s="7"/>
+      <c r="N681" s="7"/>
+      <c r="O681" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="P681" s="7"/>
+      <c r="Q681" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="R681" s="7">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="S681" s="7">
+        <v>100</v>
+      </c>
+      <c r="T681" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="U681" s="55">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="U681" s="60">
+        <f t="shared" ref="U681:U683" si="15">V681*W681*X681/1000000</f>
+        <v>5.7790720000000004E-2</v>
+      </c>
+      <c r="V681" s="7">
+        <v>92</v>
+      </c>
+      <c r="W681" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="X681" s="7">
+        <v>30.2</v>
+      </c>
+      <c r="Y681" s="7"/>
+      <c r="Z681" s="7"/>
+      <c r="AA681" s="7"/>
+      <c r="AB681" s="7"/>
+      <c r="AC681" s="7"/>
+      <c r="AD681" s="7"/>
+      <c r="AE681" s="7"/>
+      <c r="AF681" s="7"/>
+      <c r="AG681" s="7"/>
+    </row>
+    <row r="682" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A682" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B682" s="63" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C682" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D682" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E682" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F682" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G682" s="1">
+        <v>260</v>
+      </c>
+      <c r="I682" s="1">
+        <v>139</v>
+      </c>
+      <c r="O682" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q682" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R682" s="1">
+        <v>376.87</v>
+      </c>
+      <c r="S682" s="7">
+        <v>100</v>
+      </c>
+      <c r="T682" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="U682" s="60">
+        <f t="shared" si="15"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V682" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W682" s="1">
+        <v>34</v>
+      </c>
+      <c r="X682" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A683" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B683" s="63" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C683" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D683" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E683" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F683" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G683" s="1">
+        <v>453</v>
+      </c>
+      <c r="I683" s="1">
+        <v>140</v>
+      </c>
+      <c r="O683" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q683" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R683" s="1">
+        <v>415.84</v>
+      </c>
+      <c r="S683" s="7">
+        <v>100</v>
+      </c>
+      <c r="T683" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="U683" s="60">
+        <f t="shared" si="15"/>
+        <v>9.8317799999999997E-2</v>
+      </c>
+      <c r="V683" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="W683" s="1">
+        <v>34</v>
+      </c>
+      <c r="X683" s="1">
+        <v>30.6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X681">
+  <autoFilter ref="A1:X683">
     <filterColumn colId="0">
       <filters>
         <filter val="Y"/>
@@ -39650,10 +39757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44528,6 +44635,102 @@
       <c r="M139" s="46" t="s">
         <v>1150</v>
       </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>125</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1.1791700000000001</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1.6219999999999998E-2</v>
+      </c>
+      <c r="G140" s="4">
+        <v>-1.88572E-4</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1.1914599999999999E-6</v>
+      </c>
+      <c r="I140" s="4">
+        <v>-2.6279600000000001E-9</v>
+      </c>
+      <c r="L140" s="48" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M140" s="52" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>125</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1.0058100000000001</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4.5399999999999998E-3</v>
+      </c>
+      <c r="G141" s="4">
+        <v>-1.9057999999999999E-5</v>
+      </c>
+      <c r="H141" s="4">
+        <v>4.6865600000000002E-8</v>
+      </c>
+      <c r="I141" s="4">
+        <v>-4.0493699999999997E-11</v>
+      </c>
+      <c r="L141" s="48" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M141" s="52" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>125</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.71660999999999997</v>
+      </c>
+      <c r="F142" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G142" s="4">
+        <v>-1.77587E-5</v>
+      </c>
+      <c r="H142" s="4">
+        <v>2.6705599999999999E-8</v>
+      </c>
+      <c r="I142" s="4">
+        <v>-1.4219200000000001E-11</v>
+      </c>
+      <c r="L142" s="48" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M142" s="52" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -51209,7 +51412,7 @@
         <v>407</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>99</v>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -7851,8 +7851,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E683" sqref="E683"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I681" sqref="I681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32253,7 +32253,7 @@
         <v>166</v>
       </c>
       <c r="U570" s="60">
-        <f t="shared" ref="U570:U601" si="11">V570*W570*X570/1000000</f>
+        <f t="shared" ref="U570:U587" si="11">V570*W570*X570/1000000</f>
         <v>9.5880000000000007E-2</v>
       </c>
       <c r="V570" s="7">
@@ -39757,10 +39757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44722,15 +44722,6 @@
       <c r="M142" s="52" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Capacitor!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Capacitor_EACO!$A$1:$O$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Capacitor_EACO!$A$1:$O$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Core_东磁!$A$1:$Y$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$684</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$99</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5094" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="1386">
   <si>
     <t>a0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7157,6 +7157,289 @@
   </si>
   <si>
     <t>EE91</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urms(V)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>068</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-32FO</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-3000-0.010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-32FO</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-3000-0.015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-32FO</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.022-32</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.033-32</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.047-32</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.068-44</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.10-44</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.15-44</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.22-44</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.22-57</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.33-57</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.39-57</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD-3000-0.47-57</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.68-57</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STD-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-0.047-44</t>
+    </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -7348,7 +7631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7562,6 +7845,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -53449,11 +53741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -53461,13 +53752,14 @@
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>321</v>
       </c>
@@ -53513,8 +53805,11 @@
       <c r="O1" s="56" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="56" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>405</v>
       </c>
@@ -53560,7 +53855,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>405</v>
       </c>
@@ -53606,7 +53901,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
         <v>405</v>
       </c>
@@ -53652,7 +53947,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>405</v>
       </c>
@@ -53698,7 +53993,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
         <v>405</v>
       </c>
@@ -53744,7 +54039,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>405</v>
       </c>
@@ -53790,7 +54085,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>405</v>
       </c>
@@ -53836,7 +54131,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>405</v>
       </c>
@@ -53882,7 +54177,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
         <v>405</v>
       </c>
@@ -53928,7 +54223,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>405</v>
       </c>
@@ -53974,7 +54269,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>405</v>
       </c>
@@ -54020,7 +54315,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
         <v>405</v>
       </c>
@@ -54066,7 +54361,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>405</v>
       </c>
@@ -54112,7 +54407,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="58" t="s">
         <v>406</v>
@@ -54146,11 +54441,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="32" t="s">
         <v>1009</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -54191,12 +54486,15 @@
       <c r="O16" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="72" t="s">
         <v>1010</v>
       </c>
       <c r="C17" s="59" t="s">
@@ -54237,10 +54535,15 @@
       <c r="O17" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
+      <c r="P17" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>1011</v>
       </c>
       <c r="C18" s="59" t="s">
@@ -54258,7 +54561,9 @@
       <c r="G18" s="7">
         <v>34.799999999999997</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
@@ -54279,12 +54584,15 @@
       <c r="O18" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="P18" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>1012</v>
       </c>
       <c r="C19" s="59" t="s">
@@ -54325,12 +54633,15 @@
       <c r="O19" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="62" t="s">
         <v>1007</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -54371,10 +54682,13 @@
       <c r="O20" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="57" t="s">
         <v>1013</v>
       </c>
       <c r="C21" s="59" t="s">
@@ -54413,12 +54727,15 @@
       <c r="O21" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="57" t="s">
         <v>1008</v>
       </c>
       <c r="C22" s="59" t="s">
@@ -54459,10 +54776,13 @@
       <c r="O22" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="57" t="s">
         <v>1014</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -54501,12 +54821,15 @@
       <c r="O23" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="57" t="s">
         <v>1015</v>
       </c>
       <c r="C24" s="59" t="s">
@@ -54547,12 +54870,15 @@
       <c r="O24" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="57" t="s">
         <v>1016</v>
       </c>
       <c r="C25" s="59" t="s">
@@ -54593,12 +54919,15 @@
       <c r="O25" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="62" t="s">
         <v>1026</v>
       </c>
       <c r="C26" s="59" t="s">
@@ -54639,12 +54968,15 @@
       <c r="O26" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="57" t="s">
         <v>1017</v>
       </c>
       <c r="C27" s="59" t="s">
@@ -54685,12 +55017,15 @@
       <c r="O27" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="57" t="s">
         <v>1018</v>
       </c>
       <c r="C28" s="59" t="s">
@@ -54731,10 +55066,13 @@
       <c r="O28" s="1">
         <v>560</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="57" t="s">
         <v>1019</v>
       </c>
       <c r="C29" s="59" t="s">
@@ -54773,12 +55111,15 @@
       <c r="O29" s="1">
         <v>358</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="57" t="s">
         <v>1020</v>
       </c>
       <c r="C30" s="59" t="s">
@@ -54819,12 +55160,15 @@
       <c r="O30" s="1">
         <v>435</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="57" t="s">
         <v>1021</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -54865,12 +55209,15 @@
       <c r="O31" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="57" t="s">
         <v>1022</v>
       </c>
       <c r="C32" s="59" t="s">
@@ -54911,12 +55258,15 @@
       <c r="O32" s="1">
         <v>768</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="57" t="s">
         <v>1023</v>
       </c>
       <c r="C33" s="59" t="s">
@@ -54957,31 +55307,34 @@
       <c r="O33" s="1">
         <v>960</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>1027</v>
+      <c r="P33" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>1367</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D34" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>70</v>
-      </c>
-      <c r="G34" s="7">
-        <v>4.8</v>
+        <v>3000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>104</v>
       </c>
       <c r="H34" s="1">
-        <v>175</v>
+        <v>4.3</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -54989,47 +55342,48 @@
       <c r="J34" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="K34" s="53">
-        <f>L34*M34*N34/1000000</f>
-        <v>0.45500000000000002</v>
+      <c r="K34" s="1">
+        <f t="shared" ref="K34:K36" si="2">L34*PI()*POWER(M34/2,2)/1000000</f>
+        <v>2.4632599678266853E-3</v>
       </c>
       <c r="L34" s="1">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="M34" s="1">
-        <v>50</v>
-      </c>
-      <c r="N34" s="1">
-        <v>70</v>
-      </c>
+        <v>9.9</v>
+      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>1030</v>
+        <v>19</v>
+      </c>
+      <c r="P34" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>1368</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D35" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="F35" s="7">
-        <v>70</v>
-      </c>
-      <c r="G35" s="7">
-        <v>5.2</v>
+        <v>3000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>79.400000000000006</v>
       </c>
       <c r="H35" s="1">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -55037,47 +55391,48 @@
       <c r="J35" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="K35" s="53">
-        <f>L35*M35*N35/1000000</f>
-        <v>0.45500000000000002</v>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8023324204927988E-3</v>
       </c>
       <c r="L35" s="1">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="M35" s="1">
-        <v>50</v>
-      </c>
-      <c r="N35" s="1">
-        <v>70</v>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="1">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>1029</v>
+        <v>28</v>
+      </c>
+      <c r="P35" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>1369</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D36" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="F36" s="7">
-        <v>60</v>
-      </c>
-      <c r="G36" s="7">
-        <v>5.5</v>
+        <v>3000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>75.5</v>
       </c>
       <c r="H36" s="1">
-        <v>170</v>
+        <v>5.6</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -55085,47 +55440,48 @@
       <c r="J36" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="K36" s="53">
-        <f>L36*M36*N36/1000000</f>
-        <v>0.45500000000000002</v>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5804420889339181E-3</v>
       </c>
       <c r="L36" s="1">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="M36" s="1">
-        <v>50</v>
-      </c>
-      <c r="N36" s="1">
-        <v>70</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="1">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>1028</v>
+        <v>41</v>
+      </c>
+      <c r="P36" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>1371</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D37" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="F37" s="7">
-        <v>60</v>
-      </c>
-      <c r="G37" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="H37" s="1">
         <v>5.8</v>
-      </c>
-      <c r="H37" s="1">
-        <v>170</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -55133,47 +55489,48 @@
       <c r="J37" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="K37" s="53">
-        <f>L37*M37*N37/1000000</f>
-        <v>0.45500000000000002</v>
+      <c r="K37" s="1">
+        <f>L37*PI()*POWER(M37/2,2)/1000000</f>
+        <v>4.3130297222603552E-3</v>
       </c>
       <c r="L37" s="1">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="M37" s="1">
-        <v>50</v>
-      </c>
-      <c r="N37" s="1">
-        <v>70</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="1">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="P37" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>1372</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D38" s="7">
-        <v>1500</v>
-      </c>
-      <c r="E38" s="7">
-        <v>18</v>
-      </c>
-      <c r="F38" s="7">
-        <v>55</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1.4</v>
+        <v>3000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>33.9</v>
       </c>
       <c r="H38" s="1">
-        <v>145</v>
+        <v>6.2</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -55182,42 +55539,47 @@
         <v>394</v>
       </c>
       <c r="K38" s="1">
-        <f>N38*PI()*POWER(M38/2,2)/1000000</f>
-        <v>0.2437318266489667</v>
-      </c>
-      <c r="L38" s="1"/>
+        <f>L38*PI()*POWER(M38/2,2)/1000000</f>
+        <v>6.1949693854667842E-3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>32</v>
+      </c>
       <c r="M38" s="1">
-        <v>87</v>
-      </c>
-      <c r="N38" s="1">
-        <v>41</v>
-      </c>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>15.7</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
+        <v>91</v>
+      </c>
+      <c r="P38" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>1373</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D39" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E39" s="7">
-        <v>25</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F39" s="7">
-        <v>55</v>
+        <v>6.5</v>
       </c>
       <c r="G39" s="7">
-        <v>1.8</v>
+        <v>25.7</v>
       </c>
       <c r="H39" s="1">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -55226,43 +55588,44 @@
         <v>394</v>
       </c>
       <c r="K39" s="1">
-        <f>N39*PI()*POWER(M39/2,2)/1000000</f>
-        <v>0.3031786136365196</v>
-      </c>
-      <c r="L39" s="1"/>
+        <f>L39*PI()*POWER(M39/2,2)/1000000</f>
+        <v>8.5089408703948807E-3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>32</v>
+      </c>
       <c r="M39" s="1">
-        <v>87</v>
-      </c>
-      <c r="N39" s="1">
-        <v>51</v>
-      </c>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>63</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
+        <v>129</v>
+      </c>
+      <c r="P39" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="74" t="s">
+        <v>1385</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D40" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E40" s="7">
-        <v>35</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F40" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G40" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>210</v>
-      </c>
+        <v>37.4</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1">
         <v>1</v>
       </c>
@@ -55270,42 +55633,47 @@
         <v>394</v>
       </c>
       <c r="K40" s="1">
-        <f>N40*PI()*POWER(M40/2,2)/1000000</f>
-        <v>0.38640411541909359</v>
-      </c>
-      <c r="L40" s="1"/>
+        <f>L40*PI()*POWER(M40/2,2)/1000000</f>
+        <v>7.4675343216564008E-3</v>
+      </c>
+      <c r="L40" s="1">
+        <v>44</v>
+      </c>
       <c r="M40" s="1">
-        <v>87</v>
-      </c>
-      <c r="N40" s="1">
-        <v>65</v>
-      </c>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>14.7</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1">
+        <v>75</v>
+      </c>
+      <c r="P40" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>1374</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E41" s="1">
-        <v>47</v>
-      </c>
-      <c r="F41" s="1">
-        <v>100</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.5</v>
+        <v>1157</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>8</v>
+      </c>
+      <c r="G41" s="7">
+        <v>25.1</v>
       </c>
       <c r="H41" s="1">
-        <v>280</v>
+        <v>8.5</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -55314,42 +55682,47 @@
         <v>394</v>
       </c>
       <c r="K41" s="1">
-        <f>N41*PI()*POWER(M41/2,2)/1000000</f>
-        <v>0.52973142625749392</v>
-      </c>
-      <c r="L41" s="1"/>
+        <f t="shared" ref="K41:K49" si="3">L41*PI()*POWER(M41/2,2)/1000000</f>
+        <v>1.0342719918221782E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>44</v>
+      </c>
       <c r="M41" s="1">
-        <v>115</v>
-      </c>
-      <c r="N41" s="1">
-        <v>51</v>
-      </c>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>17.3</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1">
+        <v>109</v>
+      </c>
+      <c r="P41" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>1375</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E42" s="1">
-        <v>68</v>
-      </c>
-      <c r="F42" s="1">
-        <v>105</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.6</v>
+        <v>1157</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7">
+        <v>17.399999999999999</v>
       </c>
       <c r="H42" s="1">
-        <v>310</v>
+        <v>11.5</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -55358,26 +55731,780 @@
         <v>394</v>
       </c>
       <c r="K42" s="1">
-        <f>N42*PI()*POWER(M42/2,2)/1000000</f>
+        <f t="shared" si="3"/>
+        <v>1.4807551397503591E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>44</v>
+      </c>
+      <c r="M42" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1">
+        <v>160</v>
+      </c>
+      <c r="P42" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F43" s="7">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1771582664569165E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>44</v>
+      </c>
+      <c r="M43" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1">
+        <v>240</v>
+      </c>
+      <c r="P43" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="61" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F44" s="7">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1517839801580377E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>44</v>
+      </c>
+      <c r="M44" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
+        <v>352</v>
+      </c>
+      <c r="P44" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="61" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F45" s="7">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="H45" s="1">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" ref="K45" si="4">L45*PI()*POWER(M45/2,2)/1000000</f>
+        <v>2.8204095724555508E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>57</v>
+      </c>
+      <c r="M45" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1">
+        <v>218</v>
+      </c>
+      <c r="P45" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F46" s="7">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1">
+        <v>19</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1645148565527146E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>57</v>
+      </c>
+      <c r="M46" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1">
+        <v>327</v>
+      </c>
+      <c r="P46" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F47" s="7">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" ref="K47" si="5">L47*PI()*POWER(M47/2,2)/1000000</f>
+        <v>4.9047934662593065E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>57</v>
+      </c>
+      <c r="M47" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1">
+        <v>386</v>
+      </c>
+      <c r="P47" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F48" s="7">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="H48" s="1">
+        <v>27</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8989944437849454E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>57</v>
+      </c>
+      <c r="M48" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1">
+        <v>465</v>
+      </c>
+      <c r="P48" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F49" s="7">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>30</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4322640184987155E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>57</v>
+      </c>
+      <c r="M49" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1">
+        <v>673</v>
+      </c>
+      <c r="P49" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>70</v>
+      </c>
+      <c r="G50" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="H50" s="1">
+        <v>175</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" s="53">
+        <f>L50*M50*N50/1000000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L50" s="1">
+        <v>130</v>
+      </c>
+      <c r="M50" s="1">
+        <v>50</v>
+      </c>
+      <c r="N50" s="1">
+        <v>70</v>
+      </c>
+      <c r="O50" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F51" s="7">
+        <v>70</v>
+      </c>
+      <c r="G51" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>170</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" s="53">
+        <f>L51*M51*N51/1000000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L51" s="1">
+        <v>130</v>
+      </c>
+      <c r="M51" s="1">
+        <v>50</v>
+      </c>
+      <c r="N51" s="1">
+        <v>70</v>
+      </c>
+      <c r="O51" s="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F52" s="7">
+        <v>60</v>
+      </c>
+      <c r="G52" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>170</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" s="53">
+        <f>L52*M52*N52/1000000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L52" s="1">
+        <v>130</v>
+      </c>
+      <c r="M52" s="1">
+        <v>50</v>
+      </c>
+      <c r="N52" s="1">
+        <v>70</v>
+      </c>
+      <c r="O52" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F53" s="7">
+        <v>60</v>
+      </c>
+      <c r="G53" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>170</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K53" s="53">
+        <f>L53*M53*N53/1000000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L53" s="1">
+        <v>130</v>
+      </c>
+      <c r="M53" s="1">
+        <v>50</v>
+      </c>
+      <c r="N53" s="1">
+        <v>70</v>
+      </c>
+      <c r="O53" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="7">
+        <v>18</v>
+      </c>
+      <c r="F54" s="7">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>145</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" s="1">
+        <f>N54*PI()*POWER(M54/2,2)/1000000</f>
+        <v>0.2437318266489667</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>87</v>
+      </c>
+      <c r="N54" s="1">
+        <v>41</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E55" s="7">
+        <v>25</v>
+      </c>
+      <c r="F55" s="7">
+        <v>55</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H55" s="1">
+        <v>180</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" s="1">
+        <f>N55*PI()*POWER(M55/2,2)/1000000</f>
+        <v>0.3031786136365196</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>87</v>
+      </c>
+      <c r="N55" s="1">
+        <v>51</v>
+      </c>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E56" s="7">
+        <v>35</v>
+      </c>
+      <c r="F56" s="7">
+        <v>50</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>210</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" s="1">
+        <f>N56*PI()*POWER(M56/2,2)/1000000</f>
+        <v>0.38640411541909359</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
+        <v>87</v>
+      </c>
+      <c r="N56" s="1">
+        <v>65</v>
+      </c>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="1">
+        <v>47</v>
+      </c>
+      <c r="F57" s="1">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>280</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" s="1">
+        <f>N57*PI()*POWER(M57/2,2)/1000000</f>
+        <v>0.52973142625749392</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
+        <v>115</v>
+      </c>
+      <c r="N57" s="1">
+        <v>51</v>
+      </c>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="1">
+        <v>68</v>
+      </c>
+      <c r="F58" s="1">
+        <v>105</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H58" s="1">
+        <v>310</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" s="1">
+        <f>N58*PI()*POWER(M58/2,2)/1000000</f>
         <v>0.67514789621053151</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
         <v>115</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N58" s="1">
         <v>65</v>
       </c>
-      <c r="O42" s="1"/>
+      <c r="O58" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O42">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O58"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Capacitor_EACO!$A$1:$O$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Core_东磁!$A$1:$Y$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$684</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$128</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="1391">
   <si>
     <t>a0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5742,45 +5742,6 @@
   </si>
   <si>
     <r>
-      <t>Price(RMB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/kg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/(RMB/m)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>W</t>
     </r>
     <r>
@@ -7441,6 +7402,30 @@
       <t>000-0.047-44</t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price(RMB/m)-丝包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price(RMB/kg)/(RMB/m)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ(mm)-丝包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area(cm^2/10^3)-丝包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ(mm)-漆包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price(RMB/m)-漆包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7860,7 +7845,18 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8659,10 +8655,10 @@
         <v>167</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>1048</v>
@@ -8914,7 +8910,7 @@
         <v>452</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>168</v>
@@ -14945,7 +14941,7 @@
         <v>412</v>
       </c>
       <c r="D134" s="58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E134" s="65" t="s">
         <v>168</v>
@@ -30667,13 +30663,13 @@
         <v>985</v>
       </c>
       <c r="B538" s="58" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C538" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D538" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E538" s="58" t="s">
         <v>168</v>
@@ -30739,13 +30735,13 @@
         <v>985</v>
       </c>
       <c r="B539" s="58" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C539" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D539" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E539" s="58" t="s">
         <v>168</v>
@@ -30811,13 +30807,13 @@
         <v>985</v>
       </c>
       <c r="B540" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C540" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D540" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E540" s="58" t="s">
         <v>168</v>
@@ -30883,13 +30879,13 @@
         <v>985</v>
       </c>
       <c r="B541" s="59" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C541" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D541" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E541" s="58" t="s">
         <v>168</v>
@@ -30955,13 +30951,13 @@
         <v>985</v>
       </c>
       <c r="B542" s="58" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C542" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D542" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E542" s="58" t="s">
         <v>168</v>
@@ -31027,13 +31023,13 @@
         <v>985</v>
       </c>
       <c r="B543" s="59" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C543" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D543" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E543" s="58" t="s">
         <v>168</v>
@@ -31099,13 +31095,13 @@
         <v>985</v>
       </c>
       <c r="B544" s="58" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C544" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D544" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E544" s="58" t="s">
         <v>168</v>
@@ -31171,13 +31167,13 @@
         <v>985</v>
       </c>
       <c r="B545" s="58" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C545" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D545" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E545" s="58" t="s">
         <v>168</v>
@@ -31243,13 +31239,13 @@
         <v>985</v>
       </c>
       <c r="B546" s="59" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C546" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D546" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E546" s="58" t="s">
         <v>168</v>
@@ -31315,13 +31311,13 @@
         <v>985</v>
       </c>
       <c r="B547" s="58" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C547" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D547" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E547" s="58" t="s">
         <v>168</v>
@@ -31387,13 +31383,13 @@
         <v>985</v>
       </c>
       <c r="B548" s="58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C548" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D548" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E548" s="58" t="s">
         <v>168</v>
@@ -31459,13 +31455,13 @@
         <v>985</v>
       </c>
       <c r="B549" s="58" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C549" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D549" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E549" s="58" t="s">
         <v>168</v>
@@ -31531,13 +31527,13 @@
         <v>985</v>
       </c>
       <c r="B550" s="58" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C550" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D550" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E550" s="58" t="s">
         <v>168</v>
@@ -31603,13 +31599,13 @@
         <v>985</v>
       </c>
       <c r="B551" s="58" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C551" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D551" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E551" s="58" t="s">
         <v>168</v>
@@ -31675,13 +31671,13 @@
         <v>985</v>
       </c>
       <c r="B552" s="58" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C552" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D552" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E552" s="58" t="s">
         <v>168</v>
@@ -31747,13 +31743,13 @@
         <v>985</v>
       </c>
       <c r="B553" s="58" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C553" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D553" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E553" s="58" t="s">
         <v>168</v>
@@ -31819,13 +31815,13 @@
         <v>985</v>
       </c>
       <c r="B554" s="59" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C554" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D554" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E554" s="58" t="s">
         <v>168</v>
@@ -31891,13 +31887,13 @@
         <v>985</v>
       </c>
       <c r="B555" s="58" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C555" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D555" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E555" s="58" t="s">
         <v>168</v>
@@ -31963,13 +31959,13 @@
         <v>985</v>
       </c>
       <c r="B556" s="58" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C556" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D556" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E556" s="58" t="s">
         <v>168</v>
@@ -32035,13 +32031,13 @@
         <v>985</v>
       </c>
       <c r="B557" s="59" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C557" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D557" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E557" s="58" t="s">
         <v>168</v>
@@ -32107,13 +32103,13 @@
         <v>985</v>
       </c>
       <c r="B558" s="58" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C558" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D558" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E558" s="58" t="s">
         <v>168</v>
@@ -32179,13 +32175,13 @@
         <v>985</v>
       </c>
       <c r="B559" s="59" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C559" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D559" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E559" s="58" t="s">
         <v>168</v>
@@ -32251,13 +32247,13 @@
         <v>985</v>
       </c>
       <c r="B560" s="59" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C560" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D560" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E560" s="58" t="s">
         <v>168</v>
@@ -32323,13 +32319,13 @@
         <v>985</v>
       </c>
       <c r="B561" s="58" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C561" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D561" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E561" s="58" t="s">
         <v>168</v>
@@ -32395,13 +32391,13 @@
         <v>985</v>
       </c>
       <c r="B562" s="59" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C562" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D562" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E562" s="58" t="s">
         <v>168</v>
@@ -32467,13 +32463,13 @@
         <v>985</v>
       </c>
       <c r="B563" s="58" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C563" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D563" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E563" s="58" t="s">
         <v>168</v>
@@ -32539,13 +32535,13 @@
         <v>985</v>
       </c>
       <c r="B564" s="58" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C564" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D564" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E564" s="58" t="s">
         <v>168</v>
@@ -32611,13 +32607,13 @@
         <v>985</v>
       </c>
       <c r="B565" s="58" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C565" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D565" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E565" s="58" t="s">
         <v>168</v>
@@ -32683,13 +32679,13 @@
         <v>985</v>
       </c>
       <c r="B566" s="59" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C566" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D566" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E566" s="58" t="s">
         <v>168</v>
@@ -32725,7 +32721,7 @@
         <v>2</v>
       </c>
       <c r="T566" s="59" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U566" s="58">
         <f t="shared" si="10"/>
@@ -32755,13 +32751,13 @@
         <v>985</v>
       </c>
       <c r="B567" s="58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C567" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D567" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E567" s="58" t="s">
         <v>168</v>
@@ -32827,13 +32823,13 @@
         <v>985</v>
       </c>
       <c r="B568" s="58" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C568" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D568" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E568" s="58" t="s">
         <v>168</v>
@@ -32899,13 +32895,13 @@
         <v>985</v>
       </c>
       <c r="B569" s="59" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C569" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D569" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E569" s="58" t="s">
         <v>168</v>
@@ -32971,13 +32967,13 @@
         <v>985</v>
       </c>
       <c r="B570" s="58" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C570" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D570" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E570" s="58" t="s">
         <v>168</v>
@@ -33043,13 +33039,13 @@
         <v>985</v>
       </c>
       <c r="B571" s="58" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C571" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D571" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E571" s="58" t="s">
         <v>168</v>
@@ -33115,13 +33111,13 @@
         <v>985</v>
       </c>
       <c r="B572" s="58" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C572" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D572" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E572" s="58" t="s">
         <v>168</v>
@@ -33187,13 +33183,13 @@
         <v>985</v>
       </c>
       <c r="B573" s="59" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C573" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D573" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E573" s="58" t="s">
         <v>168</v>
@@ -33259,13 +33255,13 @@
         <v>985</v>
       </c>
       <c r="B574" s="58" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C574" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D574" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E574" s="58" t="s">
         <v>168</v>
@@ -33331,13 +33327,13 @@
         <v>985</v>
       </c>
       <c r="B575" s="59" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C575" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D575" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E575" s="58" t="s">
         <v>168</v>
@@ -33403,13 +33399,13 @@
         <v>985</v>
       </c>
       <c r="B576" s="58" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C576" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D576" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E576" s="58" t="s">
         <v>168</v>
@@ -33475,13 +33471,13 @@
         <v>985</v>
       </c>
       <c r="B577" s="58" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C577" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D577" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E577" s="58" t="s">
         <v>168</v>
@@ -33547,13 +33543,13 @@
         <v>985</v>
       </c>
       <c r="B578" s="59" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C578" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D578" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E578" s="58" t="s">
         <v>168</v>
@@ -33619,13 +33615,13 @@
         <v>985</v>
       </c>
       <c r="B579" s="58" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C579" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D579" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E579" s="58" t="s">
         <v>168</v>
@@ -33691,13 +33687,13 @@
         <v>985</v>
       </c>
       <c r="B580" s="58" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C580" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D580" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E580" s="58" t="s">
         <v>168</v>
@@ -33763,13 +33759,13 @@
         <v>985</v>
       </c>
       <c r="B581" s="59" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C581" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D581" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E581" s="58" t="s">
         <v>168</v>
@@ -33835,13 +33831,13 @@
         <v>985</v>
       </c>
       <c r="B582" s="58" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C582" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D582" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E582" s="58" t="s">
         <v>168</v>
@@ -33907,13 +33903,13 @@
         <v>985</v>
       </c>
       <c r="B583" s="58" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C583" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D583" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E583" s="58" t="s">
         <v>168</v>
@@ -33979,13 +33975,13 @@
         <v>985</v>
       </c>
       <c r="B584" s="58" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C584" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D584" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E584" s="58" t="s">
         <v>168</v>
@@ -34051,13 +34047,13 @@
         <v>985</v>
       </c>
       <c r="B585" s="58" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C585" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D585" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E585" s="58" t="s">
         <v>168</v>
@@ -34123,13 +34119,13 @@
         <v>985</v>
       </c>
       <c r="B586" s="58" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C586" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D586" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E586" s="58" t="s">
         <v>168</v>
@@ -34195,13 +34191,13 @@
         <v>985</v>
       </c>
       <c r="B587" s="58" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C587" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D587" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E587" s="58" t="s">
         <v>168</v>
@@ -34265,13 +34261,13 @@
     <row r="588" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="61"/>
       <c r="B588" s="53" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C588" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D588" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E588" s="53" t="s">
         <v>1036</v>
@@ -34297,13 +34293,13 @@
     <row r="589" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="61"/>
       <c r="B589" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C589" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D589" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E589" s="53" t="s">
         <v>1036</v>
@@ -34329,13 +34325,13 @@
     <row r="590" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="61"/>
       <c r="B590" s="53" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C590" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D590" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E590" s="53" t="s">
         <v>1036</v>
@@ -34362,13 +34358,13 @@
     <row r="591" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="61"/>
       <c r="B591" s="53" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C591" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D591" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E591" s="53" t="s">
         <v>1036</v>
@@ -34394,13 +34390,13 @@
     <row r="592" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="61"/>
       <c r="B592" s="53" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C592" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D592" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E592" s="53" t="s">
         <v>1036</v>
@@ -34427,13 +34423,13 @@
     <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="61"/>
       <c r="B593" s="53" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C593" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D593" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E593" s="53" t="s">
         <v>1036</v>
@@ -34459,13 +34455,13 @@
     <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="61"/>
       <c r="B594" s="53" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C594" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D594" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E594" s="53" t="s">
         <v>1036</v>
@@ -34491,13 +34487,13 @@
     <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="61"/>
       <c r="B595" s="53" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C595" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D595" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E595" s="53" t="s">
         <v>1036</v>
@@ -34523,13 +34519,13 @@
     <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="61"/>
       <c r="B596" s="53" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C596" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D596" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E596" s="53" t="s">
         <v>1036</v>
@@ -34555,13 +34551,13 @@
     <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="61"/>
       <c r="B597" s="53" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C597" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D597" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E597" s="53" t="s">
         <v>1036</v>
@@ -34587,13 +34583,13 @@
     <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="61"/>
       <c r="B598" s="53" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C598" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D598" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E598" s="53" t="s">
         <v>1036</v>
@@ -34619,13 +34615,13 @@
     <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="61"/>
       <c r="B599" s="53" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C599" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D599" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E599" s="53" t="s">
         <v>1036</v>
@@ -34651,13 +34647,13 @@
     <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="61"/>
       <c r="B600" s="53" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C600" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D600" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E600" s="53" t="s">
         <v>1036</v>
@@ -34683,13 +34679,13 @@
     <row r="601" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="61"/>
       <c r="B601" s="53" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C601" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D601" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E601" s="53" t="s">
         <v>1036</v>
@@ -34715,13 +34711,13 @@
     <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="61"/>
       <c r="B602" s="53" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C602" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D602" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E602" s="53" t="s">
         <v>1036</v>
@@ -34747,13 +34743,13 @@
     <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="61"/>
       <c r="B603" s="53" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C603" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D603" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E603" s="53" t="s">
         <v>1036</v>
@@ -34779,13 +34775,13 @@
     <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="61"/>
       <c r="B604" s="53" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C604" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D604" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E604" s="53" t="s">
         <v>1036</v>
@@ -34811,13 +34807,13 @@
     <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="61"/>
       <c r="B605" s="53" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C605" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D605" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E605" s="53" t="s">
         <v>1036</v>
@@ -34843,13 +34839,13 @@
     <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="61"/>
       <c r="B606" s="53" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C606" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D606" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E606" s="53" t="s">
         <v>1036</v>
@@ -34875,13 +34871,13 @@
     <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="61"/>
       <c r="B607" s="53" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C607" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D607" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E607" s="53" t="s">
         <v>1036</v>
@@ -34907,13 +34903,13 @@
     <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="61"/>
       <c r="B608" s="53" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C608" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D608" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E608" s="53" t="s">
         <v>1036</v>
@@ -34939,13 +34935,13 @@
     <row r="609" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="61"/>
       <c r="B609" s="53" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C609" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D609" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E609" s="53" t="s">
         <v>1036</v>
@@ -34971,13 +34967,13 @@
     <row r="610" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="61"/>
       <c r="B610" s="53" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C610" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D610" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E610" s="53" t="s">
         <v>1036</v>
@@ -35003,13 +34999,13 @@
     <row r="611" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="61"/>
       <c r="B611" s="53" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C611" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D611" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E611" s="53" t="s">
         <v>1036</v>
@@ -35035,13 +35031,13 @@
     <row r="612" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="61"/>
       <c r="B612" s="53" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C612" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D612" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E612" s="53" t="s">
         <v>1036</v>
@@ -35067,13 +35063,13 @@
     <row r="613" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="61"/>
       <c r="B613" s="53" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C613" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D613" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E613" s="53" t="s">
         <v>1036</v>
@@ -35099,13 +35095,13 @@
     <row r="614" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="61"/>
       <c r="B614" s="53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C614" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D614" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E614" s="53" t="s">
         <v>1036</v>
@@ -35131,13 +35127,13 @@
     <row r="615" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="61"/>
       <c r="B615" s="53" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C615" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D615" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E615" s="53" t="s">
         <v>1036</v>
@@ -35163,13 +35159,13 @@
     <row r="616" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="61"/>
       <c r="B616" s="53" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C616" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D616" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E616" s="53" t="s">
         <v>1036</v>
@@ -35195,13 +35191,13 @@
     <row r="617" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="61"/>
       <c r="B617" s="53" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C617" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D617" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E617" s="53" t="s">
         <v>1036</v>
@@ -35227,13 +35223,13 @@
     <row r="618" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="61"/>
       <c r="B618" s="53" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C618" s="53" t="s">
         <v>150</v>
       </c>
       <c r="D618" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E618" s="53" t="s">
         <v>1036</v>
@@ -35261,13 +35257,13 @@
         <v>985</v>
       </c>
       <c r="B619" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D619" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E619" s="58" t="s">
         <v>168</v>
@@ -35333,13 +35329,13 @@
         <v>985</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D620" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E620" s="58" t="s">
         <v>168</v>
@@ -35405,13 +35401,13 @@
         <v>985</v>
       </c>
       <c r="B621" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D621" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E621" s="58" t="s">
         <v>168</v>
@@ -35477,13 +35473,13 @@
         <v>985</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D622" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E622" s="58" t="s">
         <v>168</v>
@@ -35549,13 +35545,13 @@
         <v>985</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D623" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E623" s="58" t="s">
         <v>168</v>
@@ -35621,13 +35617,13 @@
         <v>985</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D624" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E624" s="58" t="s">
         <v>168</v>
@@ -35693,13 +35689,13 @@
         <v>985</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D625" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E625" s="58" t="s">
         <v>168</v>
@@ -35765,13 +35761,13 @@
         <v>985</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D626" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E626" s="58" t="s">
         <v>168</v>
@@ -35837,13 +35833,13 @@
         <v>985</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D627" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E627" s="58" t="s">
         <v>168</v>
@@ -35909,13 +35905,13 @@
         <v>985</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D628" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E628" s="58" t="s">
         <v>168</v>
@@ -35981,13 +35977,13 @@
         <v>985</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D629" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E629" s="58" t="s">
         <v>168</v>
@@ -36053,13 +36049,13 @@
         <v>985</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D630" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E630" s="58" t="s">
         <v>168</v>
@@ -36125,13 +36121,13 @@
         <v>985</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D631" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E631" s="58" t="s">
         <v>168</v>
@@ -36197,13 +36193,13 @@
         <v>985</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D632" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E632" s="58" t="s">
         <v>168</v>
@@ -36269,13 +36265,13 @@
         <v>985</v>
       </c>
       <c r="B633" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D633" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E633" s="58" t="s">
         <v>168</v>
@@ -36341,13 +36337,13 @@
         <v>985</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D634" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E634" s="58" t="s">
         <v>168</v>
@@ -36413,13 +36409,13 @@
         <v>985</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D635" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E635" s="58" t="s">
         <v>168</v>
@@ -36485,13 +36481,13 @@
         <v>985</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D636" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E636" s="58" t="s">
         <v>168</v>
@@ -36557,13 +36553,13 @@
         <v>985</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D637" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E637" s="58" t="s">
         <v>168</v>
@@ -36629,13 +36625,13 @@
         <v>985</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D638" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E638" s="58" t="s">
         <v>168</v>
@@ -36701,13 +36697,13 @@
         <v>985</v>
       </c>
       <c r="B639" s="59" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D639" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E639" s="58" t="s">
         <v>168</v>
@@ -36773,13 +36769,13 @@
         <v>985</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D640" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E640" s="58" t="s">
         <v>168</v>
@@ -36845,13 +36841,13 @@
         <v>985</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D641" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E641" s="58" t="s">
         <v>168</v>
@@ -36917,13 +36913,13 @@
         <v>985</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D642" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E642" s="58" t="s">
         <v>168</v>
@@ -36989,13 +36985,13 @@
         <v>985</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D643" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E643" s="58" t="s">
         <v>168</v>
@@ -37061,13 +37057,13 @@
         <v>985</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D644" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E644" s="58" t="s">
         <v>168</v>
@@ -37133,13 +37129,13 @@
         <v>985</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D645" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E645" s="58" t="s">
         <v>168</v>
@@ -37205,13 +37201,13 @@
         <v>985</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D646" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E646" s="58" t="s">
         <v>168</v>
@@ -37274,13 +37270,13 @@
     </row>
     <row r="647" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B647" s="59" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D647" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E647" s="53" t="s">
         <v>168</v>
@@ -37308,13 +37304,13 @@
         <v>985</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D648" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E648" s="58" t="s">
         <v>168</v>
@@ -37380,13 +37376,13 @@
         <v>985</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D649" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E649" s="58" t="s">
         <v>168</v>
@@ -37452,13 +37448,13 @@
         <v>985</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D650" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E650" s="58" t="s">
         <v>168</v>
@@ -37524,13 +37520,13 @@
         <v>985</v>
       </c>
       <c r="B651" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D651" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E651" s="58" t="s">
         <v>168</v>
@@ -37596,13 +37592,13 @@
         <v>985</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D652" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E652" s="58" t="s">
         <v>168</v>
@@ -37668,13 +37664,13 @@
         <v>985</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D653" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E653" s="58" t="s">
         <v>168</v>
@@ -37740,13 +37736,13 @@
         <v>985</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D654" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E654" s="58" t="s">
         <v>168</v>
@@ -37812,13 +37808,13 @@
         <v>985</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D655" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E655" s="58" t="s">
         <v>168</v>
@@ -37884,13 +37880,13 @@
         <v>985</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D656" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E656" s="58" t="s">
         <v>168</v>
@@ -37956,13 +37952,13 @@
         <v>985</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D657" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E657" s="58" t="s">
         <v>168</v>
@@ -38028,13 +38024,13 @@
         <v>985</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D658" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E658" s="58" t="s">
         <v>168</v>
@@ -38100,13 +38096,13 @@
         <v>985</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D659" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E659" s="58" t="s">
         <v>168</v>
@@ -38172,13 +38168,13 @@
         <v>985</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D660" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E660" s="58" t="s">
         <v>168</v>
@@ -38244,13 +38240,13 @@
         <v>985</v>
       </c>
       <c r="B661" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D661" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E661" s="58" t="s">
         <v>168</v>
@@ -38316,13 +38312,13 @@
         <v>985</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D662" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E662" s="58" t="s">
         <v>168</v>
@@ -38388,13 +38384,13 @@
         <v>985</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D663" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E663" s="58" t="s">
         <v>168</v>
@@ -38460,13 +38456,13 @@
         <v>985</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D664" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E664" s="58" t="s">
         <v>168</v>
@@ -38532,13 +38528,13 @@
         <v>985</v>
       </c>
       <c r="B665" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D665" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E665" s="58" t="s">
         <v>168</v>
@@ -38604,13 +38600,13 @@
         <v>985</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D666" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E666" s="58" t="s">
         <v>168</v>
@@ -38676,13 +38672,13 @@
         <v>985</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D667" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E667" s="58" t="s">
         <v>168</v>
@@ -38748,13 +38744,13 @@
         <v>985</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D668" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E668" s="58" t="s">
         <v>168</v>
@@ -38820,13 +38816,13 @@
         <v>985</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D669" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E669" s="58" t="s">
         <v>168</v>
@@ -38889,13 +38885,13 @@
     </row>
     <row r="670" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B670" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D670" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E670" s="53" t="s">
         <v>168</v>
@@ -38920,13 +38916,13 @@
     </row>
     <row r="671" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="B671" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D671" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E671" s="53" t="s">
         <v>168</v>
@@ -38954,13 +38950,13 @@
         <v>985</v>
       </c>
       <c r="B672" s="59" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D672" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E672" s="58" t="s">
         <v>168</v>
@@ -39026,13 +39022,13 @@
         <v>985</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D673" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E673" s="58" t="s">
         <v>168</v>
@@ -39098,13 +39094,13 @@
         <v>985</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D674" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E674" s="58" t="s">
         <v>168</v>
@@ -39170,13 +39166,13 @@
         <v>985</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D675" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E675" s="58" t="s">
         <v>168</v>
@@ -39242,13 +39238,13 @@
         <v>985</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D676" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E676" s="58" t="s">
         <v>168</v>
@@ -39314,13 +39310,13 @@
         <v>985</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D677" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E677" s="58" t="s">
         <v>168</v>
@@ -39386,13 +39382,13 @@
         <v>985</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D678" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E678" s="58" t="s">
         <v>168</v>
@@ -39458,13 +39454,13 @@
         <v>985</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D679" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E679" s="58" t="s">
         <v>168</v>
@@ -39530,13 +39526,13 @@
         <v>985</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D680" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E680" s="58" t="s">
         <v>168</v>
@@ -39599,16 +39595,16 @@
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A681" s="59" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B681" s="61" t="s">
         <v>1307</v>
       </c>
-      <c r="B681" s="61" t="s">
-        <v>1308</v>
-      </c>
       <c r="C681" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D681" s="59" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E681" s="58" t="s">
         <v>168</v>
@@ -39669,16 +39665,16 @@
     </row>
     <row r="682" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A682" s="59" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B682" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D682" s="59" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E682" s="58" t="s">
         <v>168</v>
@@ -39723,16 +39719,16 @@
     </row>
     <row r="683" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A683" s="59" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B683" s="61" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D683" s="59" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E683" s="58" t="s">
         <v>1036</v>
@@ -39777,16 +39773,16 @@
     </row>
     <row r="684" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B684" s="61" t="s">
         <v>1316</v>
       </c>
-      <c r="B684" s="61" t="s">
+      <c r="C684" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D684" s="59" t="s">
         <v>1317</v>
-      </c>
-      <c r="C684" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D684" s="59" t="s">
-        <v>1318</v>
       </c>
       <c r="E684" s="58" t="s">
         <v>1036</v>
@@ -41692,7 +41688,7 @@
         <v>413</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -41721,7 +41717,7 @@
         <v>413</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -41762,7 +41758,7 @@
         <v>413</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -41803,7 +41799,7 @@
         <v>413</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -41841,7 +41837,7 @@
         <v>413</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -41876,7 +41872,7 @@
         <v>1052</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -41909,7 +41905,7 @@
         <v>1052</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -41946,7 +41942,7 @@
         <v>1053</v>
       </c>
       <c r="M9" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -41983,7 +41979,7 @@
         <v>1053</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -42018,7 +42014,7 @@
         <v>1054</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -42050,7 +42046,7 @@
         <v>67</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -42079,7 +42075,7 @@
         <v>67</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -42120,7 +42116,7 @@
         <v>67</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -42161,7 +42157,7 @@
         <v>67</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -42199,7 +42195,7 @@
         <v>67</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -42231,7 +42227,7 @@
         <v>518</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -42260,7 +42256,7 @@
         <v>518</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -42301,7 +42297,7 @@
         <v>518</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -42342,7 +42338,7 @@
         <v>518</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -42380,7 +42376,7 @@
         <v>518</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -42412,7 +42408,7 @@
         <v>645</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -42441,7 +42437,7 @@
         <v>645</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -42482,7 +42478,7 @@
         <v>645</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -42523,7 +42519,7 @@
         <v>645</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -42561,7 +42557,7 @@
         <v>645</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -42593,7 +42589,7 @@
         <v>66</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -42622,7 +42618,7 @@
         <v>66</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -42657,7 +42653,7 @@
         <v>66</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -42692,7 +42688,7 @@
         <v>66</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -42724,7 +42720,7 @@
         <v>66</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -42756,7 +42752,7 @@
         <v>71</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -42785,7 +42781,7 @@
         <v>71</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -42826,7 +42822,7 @@
         <v>71</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -42867,7 +42863,7 @@
         <v>71</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -42905,7 +42901,7 @@
         <v>71</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -42937,7 +42933,7 @@
         <v>151</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -42966,7 +42962,7 @@
         <v>151</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -43007,7 +43003,7 @@
         <v>151</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -43048,7 +43044,7 @@
         <v>151</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -43086,7 +43082,7 @@
         <v>151</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -43118,7 +43114,7 @@
         <v>152</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -43147,7 +43143,7 @@
         <v>152</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -43188,7 +43184,7 @@
         <v>152</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -43229,7 +43225,7 @@
         <v>152</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -43267,7 +43263,7 @@
         <v>152</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -43299,7 +43295,7 @@
         <v>978</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -43328,7 +43324,7 @@
         <v>978</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -43363,7 +43359,7 @@
         <v>978</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -43398,7 +43394,7 @@
         <v>978</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -43430,7 +43426,7 @@
         <v>978</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -43462,7 +43458,7 @@
         <v>153</v>
       </c>
       <c r="M52" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -43491,7 +43487,7 @@
         <v>153</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -43526,7 +43522,7 @@
         <v>153</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -43561,7 +43557,7 @@
         <v>153</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -43593,7 +43589,7 @@
         <v>153</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -43625,7 +43621,7 @@
         <v>155</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -43654,7 +43650,7 @@
         <v>155</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -43689,7 +43685,7 @@
         <v>155</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -43724,7 +43720,7 @@
         <v>155</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -43756,7 +43752,7 @@
         <v>155</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -43788,7 +43784,7 @@
         <v>156</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -43817,7 +43813,7 @@
         <v>156</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -43852,7 +43848,7 @@
         <v>156</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -43887,7 +43883,7 @@
         <v>156</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -43919,7 +43915,7 @@
         <v>156</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -43951,7 +43947,7 @@
         <v>157</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -43980,7 +43976,7 @@
         <v>157</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -44015,7 +44011,7 @@
         <v>157</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -44050,7 +44046,7 @@
         <v>157</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -44082,7 +44078,7 @@
         <v>157</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -44114,7 +44110,7 @@
         <v>158</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -44143,7 +44139,7 @@
         <v>158</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -44178,7 +44174,7 @@
         <v>158</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -44213,7 +44209,7 @@
         <v>158</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -44245,7 +44241,7 @@
         <v>158</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -44277,7 +44273,7 @@
         <v>159</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -44306,7 +44302,7 @@
         <v>159</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -44341,7 +44337,7 @@
         <v>159</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -44376,7 +44372,7 @@
         <v>159</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -44408,7 +44404,7 @@
         <v>159</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -44440,7 +44436,7 @@
         <v>154</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -44469,7 +44465,7 @@
         <v>154</v>
       </c>
       <c r="M83" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -44504,7 +44500,7 @@
         <v>154</v>
       </c>
       <c r="M84" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -44539,7 +44535,7 @@
         <v>154</v>
       </c>
       <c r="M85" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -44571,7 +44567,7 @@
         <v>154</v>
       </c>
       <c r="M86" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -44603,7 +44599,7 @@
         <v>497</v>
       </c>
       <c r="M87" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -44632,7 +44628,7 @@
         <v>497</v>
       </c>
       <c r="M88" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -44673,7 +44669,7 @@
         <v>497</v>
       </c>
       <c r="M89" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -44714,7 +44710,7 @@
         <v>497</v>
       </c>
       <c r="M90" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -44752,7 +44748,7 @@
         <v>497</v>
       </c>
       <c r="M91" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -44784,7 +44780,7 @@
         <v>455</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -44813,7 +44809,7 @@
         <v>455</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -44854,7 +44850,7 @@
         <v>455</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -44895,7 +44891,7 @@
         <v>455</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -44933,7 +44929,7 @@
         <v>455</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -44965,7 +44961,7 @@
         <v>687</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -44994,7 +44990,7 @@
         <v>687</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -45035,7 +45031,7 @@
         <v>687</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -45076,7 +45072,7 @@
         <v>687</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -45114,7 +45110,7 @@
         <v>687</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -45146,7 +45142,7 @@
         <v>465</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -45175,7 +45171,7 @@
         <v>465</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -45216,7 +45212,7 @@
         <v>465</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -45257,7 +45253,7 @@
         <v>465</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -45295,7 +45291,7 @@
         <v>465</v>
       </c>
       <c r="M106" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -45327,7 +45323,7 @@
         <v>463</v>
       </c>
       <c r="M107" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -45356,7 +45352,7 @@
         <v>463</v>
       </c>
       <c r="M108" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -45397,7 +45393,7 @@
         <v>463</v>
       </c>
       <c r="M109" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -45438,7 +45434,7 @@
         <v>463</v>
       </c>
       <c r="M110" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -45476,7 +45472,7 @@
         <v>463</v>
       </c>
       <c r="M111" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -45508,7 +45504,7 @@
         <v>450</v>
       </c>
       <c r="M112" s="50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -45540,7 +45536,7 @@
         <v>450</v>
       </c>
       <c r="M113" s="50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -45581,7 +45577,7 @@
         <v>450</v>
       </c>
       <c r="M114" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -45622,7 +45618,7 @@
         <v>450</v>
       </c>
       <c r="M115" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -45657,7 +45653,7 @@
         <v>450</v>
       </c>
       <c r="M116" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -45689,7 +45685,7 @@
         <v>451</v>
       </c>
       <c r="M117" s="50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -45721,7 +45717,7 @@
         <v>451</v>
       </c>
       <c r="M118" s="50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -45762,7 +45758,7 @@
         <v>451</v>
       </c>
       <c r="M119" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -45803,7 +45799,7 @@
         <v>451</v>
       </c>
       <c r="M120" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -45838,7 +45834,7 @@
         <v>451</v>
       </c>
       <c r="M121" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -45870,7 +45866,7 @@
         <v>454</v>
       </c>
       <c r="M122" s="50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -45902,7 +45898,7 @@
         <v>454</v>
       </c>
       <c r="M123" s="50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -45943,7 +45939,7 @@
         <v>454</v>
       </c>
       <c r="M124" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -45984,7 +45980,7 @@
         <v>454</v>
       </c>
       <c r="M125" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -46019,7 +46015,7 @@
         <v>454</v>
       </c>
       <c r="M126" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -46051,7 +46047,7 @@
         <v>453</v>
       </c>
       <c r="M127" s="50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -46083,7 +46079,7 @@
         <v>453</v>
       </c>
       <c r="M128" s="50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -46124,7 +46120,7 @@
         <v>453</v>
       </c>
       <c r="M129" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -46165,7 +46161,7 @@
         <v>453</v>
       </c>
       <c r="M130" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -46200,7 +46196,7 @@
         <v>453</v>
       </c>
       <c r="M131" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -46232,7 +46228,7 @@
         <v>1033</v>
       </c>
       <c r="M132" s="50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -46264,7 +46260,7 @@
         <v>1031</v>
       </c>
       <c r="M133" s="50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -46296,7 +46292,7 @@
         <v>1034</v>
       </c>
       <c r="M134" s="50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -46328,7 +46324,7 @@
         <v>1044</v>
       </c>
       <c r="M135" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -46357,7 +46353,7 @@
         <v>1047</v>
       </c>
       <c r="M136" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -46398,7 +46394,7 @@
         <v>1044</v>
       </c>
       <c r="M137" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -46439,7 +46435,7 @@
         <v>1044</v>
       </c>
       <c r="M138" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -46477,7 +46473,7 @@
         <v>1044</v>
       </c>
       <c r="M139" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -46503,10 +46499,10 @@
         <v>-2.6279600000000001E-9</v>
       </c>
       <c r="L140" s="46" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M140" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -46532,10 +46528,10 @@
         <v>-4.0493699999999997E-11</v>
       </c>
       <c r="L141" s="46" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="M141" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -46561,10 +46557,10 @@
         <v>-1.4219200000000001E-11</v>
       </c>
       <c r="L142" s="46" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="M142" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -46593,10 +46589,10 @@
         <v>-3.07375E-8</v>
       </c>
       <c r="L143" s="50" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M143" s="50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -46622,10 +46618,10 @@
         <v>-1.2576299999999999E-8</v>
       </c>
       <c r="L144" s="50" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M144" s="50" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -46657,10 +46653,10 @@
         <v>-2.7831000000000001E-7</v>
       </c>
       <c r="L145" s="50" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -46692,10 +46688,10 @@
         <v>-2.05543E-7</v>
       </c>
       <c r="L146" s="50" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -46708,27 +46704,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:K82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>321</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>389</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>1113</v>
+        <v>1386</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>371</v>
@@ -46760,10 +46760,25 @@
         <v>390</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" s="43" t="s">
         <v>388</v>
       </c>
@@ -46795,7 +46810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>387</v>
       </c>
@@ -46827,7 +46842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>386</v>
       </c>
@@ -46855,7 +46870,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>384</v>
       </c>
@@ -46887,7 +46902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>385</v>
       </c>
@@ -46915,7 +46930,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>383</v>
       </c>
@@ -46947,7 +46962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>382</v>
       </c>
@@ -46979,7 +46994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>381</v>
       </c>
@@ -47007,7 +47022,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>380</v>
       </c>
@@ -47039,7 +47054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>379</v>
       </c>
@@ -47066,7 +47081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
         <v>378</v>
       </c>
@@ -47098,7 +47113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>377</v>
       </c>
@@ -47125,7 +47140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="43" t="s">
         <v>376</v>
       </c>
@@ -47157,7 +47172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>375</v>
       </c>
@@ -47184,7 +47199,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
         <v>374</v>
       </c>
@@ -48153,7 +48168,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="43" t="s">
         <v>338</v>
       </c>
@@ -48185,7 +48200,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="43" t="s">
         <v>337</v>
       </c>
@@ -48217,7 +48232,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="43" t="s">
         <v>336</v>
       </c>
@@ -48249,7 +48264,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="22" t="s">
         <v>335</v>
       </c>
@@ -48277,7 +48292,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="43" t="s">
         <v>334</v>
       </c>
@@ -48309,7 +48324,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>391</v>
       </c>
@@ -48325,7 +48340,7 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" si="4"/>
-        <v>1.3854423602330987</v>
+        <v>1.6619025137490007</v>
       </c>
       <c r="G54" s="7">
         <v>0.12</v>
@@ -48334,13 +48349,29 @@
         <v>0.1</v>
       </c>
       <c r="I54" s="7">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="K54" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="7">
+        <f>PI()*POWER(M54/2,2)*10</f>
+        <v>1.6619025137490007</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>391</v>
       </c>
@@ -48356,7 +48387,7 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="4"/>
-        <v>2.0428206229967629</v>
+        <v>2.4630086404143983</v>
       </c>
       <c r="G55" s="7">
         <v>0.18</v>
@@ -48365,13 +48396,29 @@
         <v>0.1</v>
       </c>
       <c r="I55" s="7">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K55" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="7">
+        <f t="shared" ref="L55:L101" si="7">PI()*POWER(M55/2,2)*10</f>
+        <v>2.4630086404143983</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>391</v>
       </c>
@@ -48387,22 +48434,38 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" si="4"/>
-        <v>2.7339710067865171</v>
+        <v>3.2169908772759479</v>
       </c>
       <c r="G56" s="7">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H56" s="7">
         <v>0.1</v>
       </c>
       <c r="I56" s="7">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="K56" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="7">
+        <f t="shared" si="7"/>
+        <v>3.2169908772759479</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>391</v>
       </c>
@@ -48418,22 +48481,38 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" si="4"/>
-        <v>3.4211943997592851</v>
+        <v>3.8484510006474961</v>
       </c>
       <c r="G57" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="7">
         <v>0.1</v>
       </c>
       <c r="I57" s="7">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="K57" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="7">
+        <f t="shared" si="7"/>
+        <v>3.8484510006474961</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>391</v>
       </c>
@@ -48449,22 +48528,38 @@
       </c>
       <c r="E58" s="7">
         <f t="shared" si="4"/>
-        <v>4.0715040790523718</v>
+        <v>4.6566257107834712</v>
       </c>
       <c r="G58" s="7">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="H58" s="7">
         <v>0.1</v>
       </c>
       <c r="I58" s="7">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="K58" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="7">
+        <f t="shared" si="7"/>
+        <v>4.6566257107834712</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>391</v>
       </c>
@@ -48480,22 +48575,38 @@
       </c>
       <c r="E59" s="7">
         <f t="shared" si="4"/>
-        <v>4.7783624261100757</v>
+        <v>5.2810172506844406</v>
       </c>
       <c r="G59" s="7">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="H59" s="7">
         <v>0.1</v>
       </c>
       <c r="I59" s="7">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="K59" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="7">
+        <f t="shared" si="7"/>
+        <v>5.2810172506844406</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>391</v>
       </c>
@@ -48511,22 +48622,38 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" si="4"/>
-        <v>5.541769440932395</v>
+        <v>6.0821233773498395</v>
       </c>
       <c r="G60" s="7">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H60" s="7">
         <v>0.1</v>
       </c>
       <c r="I60" s="7">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K60" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="7">
+        <f t="shared" si="7"/>
+        <v>6.0821233773498395</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>391</v>
       </c>
@@ -48542,22 +48669,38 @@
       </c>
       <c r="E61" s="7">
         <f t="shared" si="4"/>
-        <v>6.9397781717798521</v>
+        <v>7.5429639612690922</v>
       </c>
       <c r="G61" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="H61" s="7">
         <v>0.1</v>
       </c>
       <c r="I61" s="7">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="K61" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="7">
+        <f t="shared" si="7"/>
+        <v>7.5429639612690922</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>391</v>
       </c>
@@ -48573,22 +48716,38 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" si="4"/>
-        <v>8.1712824919870517</v>
+        <v>8.9920235727373861</v>
       </c>
       <c r="G62" s="7">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="H62" s="7">
         <v>0.1</v>
       </c>
       <c r="I62" s="7">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K62" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="7">
+        <f t="shared" si="7"/>
+        <v>8.9920235727373861</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1.07</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="P62" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>391</v>
       </c>
@@ -48604,22 +48763,38 @@
       </c>
       <c r="E63" s="7">
         <f t="shared" si="4"/>
-        <v>9.676890771219961</v>
+        <v>10.386890710931251</v>
       </c>
       <c r="G63" s="7">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="H63" s="7">
         <v>0.1</v>
       </c>
       <c r="I63" s="7">
-        <v>1.1100000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K63" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="7">
+        <f t="shared" si="7"/>
+        <v>10.386890710931251</v>
+      </c>
+      <c r="M63" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="P63" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>391</v>
       </c>
@@ -48635,22 +48810,38 @@
       </c>
       <c r="E64" s="7">
         <f t="shared" si="4"/>
-        <v>10.386890710931251</v>
+        <v>11.122023391871265</v>
       </c>
       <c r="G64" s="7">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="H64" s="7">
         <v>0.1</v>
       </c>
       <c r="I64" s="7">
-        <v>1.1499999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="K64" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="7">
+        <f t="shared" si="7"/>
+        <v>11.122023391871265</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>391</v>
       </c>
@@ -48666,22 +48857,38 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" si="4"/>
-        <v>10.935884027146068</v>
+        <v>11.882288814039994</v>
       </c>
       <c r="G65" s="7">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H65" s="7">
         <v>0.1</v>
       </c>
       <c r="I65" s="7">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="K65" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="7">
+        <f t="shared" si="7"/>
+        <v>11.882288814039994</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="P65" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>391</v>
       </c>
@@ -48697,22 +48904,38 @@
       </c>
       <c r="E66" s="7">
         <f t="shared" si="4"/>
-        <v>12.27184630308513</v>
+        <v>13.069810837096938</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H66" s="7">
         <v>0.1</v>
       </c>
       <c r="I66" s="7">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K66" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="7">
+        <f t="shared" si="7"/>
+        <v>13.069810837096938</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P66" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>391</v>
       </c>
@@ -48728,22 +48951,38 @@
       </c>
       <c r="E67" s="7">
         <f t="shared" si="4"/>
-        <v>13.68477759903714</v>
+        <v>14.526724430199208</v>
       </c>
       <c r="G67" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H67" s="7">
         <v>0.1</v>
       </c>
       <c r="I67" s="7">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="K67" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="7">
+        <f t="shared" si="7"/>
+        <v>14.526724430199208</v>
+      </c>
+      <c r="M67" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>391</v>
       </c>
@@ -48759,22 +48998,38 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>15.174677915002095</v>
+        <v>16.060607043314416</v>
       </c>
       <c r="G68" s="7">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H68" s="7">
         <v>0.1</v>
       </c>
       <c r="I68" s="7">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="K68" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="7">
+        <f t="shared" si="7"/>
+        <v>16.060607043314416</v>
+      </c>
+      <c r="M68" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="N68" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="P68" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>391</v>
       </c>
@@ -48790,7 +49045,7 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" si="4"/>
-        <v>16.51299638543135</v>
+        <v>17.436624625586749</v>
       </c>
       <c r="G69" s="7">
         <v>1.3</v>
@@ -48799,13 +49054,29 @@
         <v>0.1</v>
       </c>
       <c r="I69" s="7">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="K69" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="7">
+        <f t="shared" si="7"/>
+        <v>17.436624625586749</v>
+      </c>
+      <c r="M69" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="P69" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>391</v>
       </c>
@@ -48821,7 +49092,7 @@
       </c>
       <c r="E70" s="7">
         <f t="shared" si="4"/>
-        <v>17.907863523625217</v>
+        <v>18.869190875623698</v>
       </c>
       <c r="G70" s="7">
         <v>1.4</v>
@@ -48830,13 +49101,29 @@
         <v>0.1</v>
       </c>
       <c r="I70" s="7">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="K70" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="7">
+        <f t="shared" si="7"/>
+        <v>18.869190875623698</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="N70" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="P70" s="7">
+        <v>1.51</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>391</v>
       </c>
@@ -48852,7 +49139,7 @@
       </c>
       <c r="E71" s="7">
         <f t="shared" si="4"/>
-        <v>19.359279329583703</v>
+        <v>20.106192982974676</v>
       </c>
       <c r="G71" s="7">
         <v>1.6</v>
@@ -48861,13 +49148,29 @@
         <v>0.1</v>
       </c>
       <c r="I71" s="7">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K71" s="7">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="7">
+        <f t="shared" si="7"/>
+        <v>20.106192982974676</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="N71" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="P71" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>391</v>
       </c>
@@ -48883,7 +49186,7 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="4"/>
-        <v>20.611989400202635</v>
+        <v>21.642431790580083</v>
       </c>
       <c r="G72" s="7">
         <v>1.7</v>
@@ -48892,13 +49195,29 @@
         <v>0.1</v>
       </c>
       <c r="I72" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="K72" s="7">
+        <v>150</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="7"/>
+        <v>21.642431790580083</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="N72" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="P72" s="7">
         <v>1.62</v>
       </c>
-      <c r="K72" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q72" s="7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>391</v>
       </c>
@@ -48914,7 +49233,7 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" si="4"/>
-        <v>21.903969378991434</v>
+        <v>22.965827695904785</v>
       </c>
       <c r="G73" s="7">
         <v>1.8</v>
@@ -48923,13 +49242,29 @@
         <v>0.1</v>
       </c>
       <c r="I73" s="7">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="K73" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="7">
+        <f t="shared" si="7"/>
+        <v>22.965827695904785</v>
+      </c>
+      <c r="M73" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="P73" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>391</v>
       </c>
@@ -48945,7 +49280,7 @@
       </c>
       <c r="E74" s="7">
         <f t="shared" si="4"/>
-        <v>24.605739061078658</v>
+        <v>25.730429231063802</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -48954,13 +49289,29 @@
         <v>0.1</v>
       </c>
       <c r="I74" s="7">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="K74" s="7">
         <v>180</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="7">
+        <f t="shared" si="7"/>
+        <v>25.730429231063802</v>
+      </c>
+      <c r="M74" s="7">
+        <v>1.81</v>
+      </c>
+      <c r="N74" s="7">
+        <v>2</v>
+      </c>
+      <c r="P74" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>391</v>
       </c>
@@ -48976,7 +49327,7 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
-        <v>27.464588375845373</v>
+        <v>28.652110398902309</v>
       </c>
       <c r="G75" s="7">
         <v>2.2000000000000002</v>
@@ -48985,13 +49336,29 @@
         <v>0.1</v>
       </c>
       <c r="I75" s="7">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K75" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="7">
+        <f t="shared" si="7"/>
+        <v>28.652110398902309</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="N75" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P75" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>391</v>
       </c>
@@ -49007,7 +49374,7 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="4"/>
-        <v>34.306977175363933</v>
+        <v>38.013271108436506</v>
       </c>
       <c r="G76" s="7">
         <v>2.8</v>
@@ -49016,13 +49383,29 @@
         <v>0.1</v>
       </c>
       <c r="I76" s="7">
-        <v>2.09</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K76" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="7">
+        <f t="shared" si="7"/>
+        <v>38.013271108436506</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N76" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="P76" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>391</v>
       </c>
@@ -49038,7 +49421,7 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" si="4"/>
-        <v>41.187065086725589</v>
+        <v>45.238934211693021</v>
       </c>
       <c r="G77" s="7">
         <v>3.3</v>
@@ -49047,13 +49430,29 @@
         <v>0.1</v>
       </c>
       <c r="I77" s="7">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="K77" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="7">
+        <f t="shared" si="7"/>
+        <v>45.238934211693021</v>
+      </c>
+      <c r="M77" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="N77" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="P77" s="7">
+        <v>2.29</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>391</v>
       </c>
@@ -49069,22 +49468,38 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" si="4"/>
-        <v>47.916356550714937</v>
+        <v>51.874763294238051</v>
       </c>
       <c r="G78" s="7">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H78" s="7">
         <v>0.1</v>
       </c>
       <c r="I78" s="7">
-        <v>2.4700000000000002</v>
+        <v>2.57</v>
       </c>
       <c r="K78" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="7">
+        <f t="shared" si="7"/>
+        <v>51.874763294238051</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="N78" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="P78" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>391</v>
       </c>
@@ -49100,22 +49515,38 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
-        <v>58.10689772079683</v>
+        <v>59.395736106932027</v>
       </c>
       <c r="G79" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H79" s="7">
         <v>0.1</v>
       </c>
       <c r="I79" s="7">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="K79" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="7">
+        <f t="shared" si="7"/>
+        <v>59.395736106932027</v>
+      </c>
+      <c r="M79" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="N79" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P79" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>391</v>
       </c>
@@ -49131,7 +49562,7 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
-        <v>65.144065264837948</v>
+        <v>66.051985541725401</v>
       </c>
       <c r="G80" s="7">
         <v>5</v>
@@ -49140,13 +49571,29 @@
         <v>0.1</v>
       </c>
       <c r="I80" s="7">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K80" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="7">
+        <f t="shared" si="7"/>
+        <v>66.051985541725401</v>
+      </c>
+      <c r="M80" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="N80" s="7">
+        <v>5</v>
+      </c>
+      <c r="P80" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>391</v>
       </c>
@@ -49162,7 +49609,7 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" si="4"/>
-        <v>72.106619983356325</v>
+        <v>73.061664150047619</v>
       </c>
       <c r="G81" s="7">
         <v>5.5</v>
@@ -49171,13 +49618,29 @@
         <v>0.1</v>
       </c>
       <c r="I81" s="7">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="K81" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="7">
+        <f t="shared" si="7"/>
+        <v>73.061664150047619</v>
+      </c>
+      <c r="M81" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="N81" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="P81" s="7">
+        <v>3.03</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>391</v>
       </c>
@@ -49193,7 +49656,7 @@
       </c>
       <c r="E82" s="7">
         <f t="shared" si="4"/>
-        <v>87.092016940979647</v>
+        <v>90.792027688745009</v>
       </c>
       <c r="G82" s="7">
         <v>6.6</v>
@@ -49202,13 +49665,29 @@
         <v>0.1</v>
       </c>
       <c r="I82" s="7">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="K82" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="7">
+        <f t="shared" si="7"/>
+        <v>90.792027688745009</v>
+      </c>
+      <c r="M82" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="N82" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="P82" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>391</v>
       </c>
@@ -49224,7 +49703,7 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" si="4"/>
-        <v>101.22290069682651</v>
+        <v>104.63467031862506</v>
       </c>
       <c r="G83" s="7">
         <v>7.7</v>
@@ -49233,13 +49712,29 @@
         <v>0.1</v>
       </c>
       <c r="I83" s="7">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="K83" s="7">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="7">
+        <f t="shared" si="7"/>
+        <v>104.63467031862506</v>
+      </c>
+      <c r="M83" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="N83" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="P83" s="7">
+        <v>3.59</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>391</v>
       </c>
@@ -49255,22 +49750,38 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="4"/>
-        <v>115.81167158193412</v>
+        <v>119.45906065275187</v>
       </c>
       <c r="G84" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="H84" s="7">
         <v>0.1</v>
       </c>
       <c r="I84" s="7">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="K84" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="7">
+        <f t="shared" si="7"/>
+        <v>119.45906065275187</v>
+      </c>
+      <c r="M84" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="N84" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="P84" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>391</v>
       </c>
@@ -49286,22 +49797,38 @@
       </c>
       <c r="E85" s="7">
         <f t="shared" si="4"/>
-        <v>130.10042036862393</v>
+        <v>135.26519869112556</v>
       </c>
       <c r="G85" s="7">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="H85" s="7">
         <v>0.1</v>
       </c>
       <c r="I85" s="7">
-        <v>4.07</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K85" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="7">
+        <f t="shared" si="7"/>
+        <v>135.26519869112556</v>
+      </c>
+      <c r="M85" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N85" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="P85" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>391</v>
       </c>
@@ -49317,22 +49844,38 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" si="4"/>
-        <v>144.54546338982976</v>
+        <v>148.61696746888211</v>
       </c>
       <c r="G86" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H86" s="7">
         <v>0.1</v>
       </c>
       <c r="I86" s="7">
-        <v>4.29</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K86" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="7">
+        <f t="shared" si="7"/>
+        <v>148.61696746888211</v>
+      </c>
+      <c r="M86" s="7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N86" s="7">
+        <v>12</v>
+      </c>
+      <c r="P86" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>391</v>
       </c>
@@ -49348,7 +49891,7 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" si="4"/>
-        <v>151.36271944811961</v>
+        <v>155.52847130677972</v>
       </c>
       <c r="G87" s="7">
         <v>13</v>
@@ -49357,13 +49900,29 @@
         <v>0.1</v>
       </c>
       <c r="I87" s="7">
-        <v>4.3899999999999997</v>
+        <v>4.45</v>
       </c>
       <c r="K87" s="7">
         <v>1050</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="7">
+        <f t="shared" si="7"/>
+        <v>155.52847130677972</v>
+      </c>
+      <c r="M87" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="N87" s="7">
+        <v>13</v>
+      </c>
+      <c r="P87" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>391</v>
       </c>
@@ -49379,22 +49938,38 @@
       </c>
       <c r="E88" s="7">
         <f t="shared" si="4"/>
-        <v>173.49445429449634</v>
+        <v>177.20546061654926</v>
       </c>
       <c r="G88" s="7">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="H88" s="7">
         <v>0.1</v>
       </c>
       <c r="I88" s="7">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="K88" s="7">
         <v>1200</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="7">
+        <f t="shared" si="7"/>
+        <v>177.20546061654926</v>
+      </c>
+      <c r="M88" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="N88" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="P88" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>391</v>
       </c>
@@ -49410,22 +49985,38 @@
       </c>
       <c r="E89" s="7">
         <f t="shared" si="4"/>
-        <v>187.80519422976118</v>
+        <v>192.44218498645978</v>
       </c>
       <c r="G89" s="7">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="H89" s="7">
         <v>0.1</v>
       </c>
       <c r="I89" s="7">
-        <v>4.8899999999999997</v>
+        <v>4.95</v>
       </c>
       <c r="K89" s="7">
         <v>1300</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="7">
+        <f t="shared" si="7"/>
+        <v>192.44218498645978</v>
+      </c>
+      <c r="M89" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="N89" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="P89" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>391</v>
       </c>
@@ -49441,7 +50032,7 @@
       </c>
       <c r="E90" s="7">
         <f t="shared" si="4"/>
-        <v>223.96099868176276</v>
+        <v>229.02210444669595</v>
       </c>
       <c r="G90" s="7">
         <v>18</v>
@@ -49450,13 +50041,29 @@
         <v>0.1</v>
       </c>
       <c r="I90" s="7">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="K90" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="7">
+        <f t="shared" si="7"/>
+        <v>229.02210444669595</v>
+      </c>
+      <c r="M90" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="N90" s="7">
+        <v>18</v>
+      </c>
+      <c r="P90" s="7">
+        <v>5.34</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>391</v>
       </c>
@@ -49472,7 +50079,7 @@
       </c>
       <c r="E91" s="7">
         <f t="shared" si="4"/>
-        <v>298.99244142561122</v>
+        <v>316.69217443593607</v>
       </c>
       <c r="G91" s="7">
         <v>24</v>
@@ -49481,13 +50088,29 @@
         <v>0.1</v>
       </c>
       <c r="I91" s="7">
-        <v>6.17</v>
+        <v>6.35</v>
       </c>
       <c r="K91" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="7">
+        <f t="shared" si="7"/>
+        <v>316.69217443593607</v>
+      </c>
+      <c r="M91" s="7">
+        <v>6.35</v>
+      </c>
+      <c r="N91" s="7">
+        <v>24</v>
+      </c>
+      <c r="P91" s="7">
+        <v>6.17</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>391</v>
       </c>
@@ -49503,22 +50126,38 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" si="4"/>
-        <v>328.77473978164238</v>
+        <v>347.32270280843659</v>
       </c>
       <c r="G92" s="7">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="H92" s="7">
         <v>0.1</v>
       </c>
       <c r="I92" s="7">
-        <v>6.47</v>
+        <v>6.65</v>
       </c>
       <c r="K92" s="7">
         <v>2200</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="7">
+        <f t="shared" si="7"/>
+        <v>347.32270280843659</v>
+      </c>
+      <c r="M92" s="7">
+        <v>6.65</v>
+      </c>
+      <c r="N92" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="P92" s="7">
+        <v>6.47</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>391</v>
       </c>
@@ -49534,7 +50173,7 @@
       </c>
       <c r="E93" s="7">
         <f t="shared" si="4"/>
-        <v>373.92806559352516</v>
+        <v>390.36252216261676</v>
       </c>
       <c r="G93" s="7">
         <v>30</v>
@@ -49543,13 +50182,29 @@
         <v>0.1</v>
       </c>
       <c r="I93" s="7">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="K93" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="7">
+        <f t="shared" si="7"/>
+        <v>390.36252216261676</v>
+      </c>
+      <c r="M93" s="7">
+        <v>7.05</v>
+      </c>
+      <c r="N93" s="7">
+        <v>30</v>
+      </c>
+      <c r="P93" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>391</v>
       </c>
@@ -49565,7 +50220,7 @@
       </c>
       <c r="E94" s="7">
         <f t="shared" si="4"/>
-        <v>447.69658809063048</v>
+        <v>471.72977189059236</v>
       </c>
       <c r="G94" s="7">
         <v>36</v>
@@ -49574,13 +50229,29 @@
         <v>0.1</v>
       </c>
       <c r="I94" s="7">
-        <v>7.55</v>
+        <v>7.75</v>
       </c>
       <c r="K94" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="7">
+        <f t="shared" si="7"/>
+        <v>471.72977189059236</v>
+      </c>
+      <c r="M94" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="N94" s="7">
+        <v>36</v>
+      </c>
+      <c r="P94" s="7">
+        <v>7.55</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>391</v>
       </c>
@@ -49596,22 +50267,38 @@
       </c>
       <c r="E95" s="7">
         <f t="shared" si="4"/>
-        <v>477.83624261100749</v>
+        <v>502.6548245743669</v>
       </c>
       <c r="G95" s="7">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="H95" s="7">
         <v>0.1</v>
       </c>
       <c r="I95" s="7">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K95" s="7">
         <v>3200</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="7">
+        <f t="shared" si="7"/>
+        <v>502.6548245743669</v>
+      </c>
+      <c r="M95" s="7">
+        <v>8</v>
+      </c>
+      <c r="N95" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="P95" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>391</v>
       </c>
@@ -49627,7 +50314,7 @@
       </c>
       <c r="E96" s="7">
         <f t="shared" si="4"/>
-        <v>522.96207948717131</v>
+        <v>547.59923447478582</v>
       </c>
       <c r="G96" s="7">
         <v>42</v>
@@ -49636,13 +50323,29 @@
         <v>0.1</v>
       </c>
       <c r="I96" s="7">
-        <v>8.16</v>
+        <v>8.35</v>
       </c>
       <c r="K96" s="7">
         <v>3500</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="7">
+        <f t="shared" si="7"/>
+        <v>547.59923447478582</v>
+      </c>
+      <c r="M96" s="7">
+        <v>8.35</v>
+      </c>
+      <c r="N96" s="7">
+        <v>42</v>
+      </c>
+      <c r="P96" s="7">
+        <v>8.16</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>391</v>
       </c>
@@ -49658,7 +50361,7 @@
       </c>
       <c r="E97" s="7">
         <f t="shared" si="4"/>
-        <v>598.5747168719339</v>
+        <v>622.11388522711889</v>
       </c>
       <c r="G97" s="7">
         <v>48</v>
@@ -49667,13 +50370,29 @@
         <v>0.1</v>
       </c>
       <c r="I97" s="7">
-        <v>8.73</v>
+        <v>8.9</v>
       </c>
       <c r="K97" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="7">
+        <f t="shared" si="7"/>
+        <v>622.11388522711889</v>
+      </c>
+      <c r="M97" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="N97" s="7">
+        <v>48</v>
+      </c>
+      <c r="P97" s="7">
+        <v>8.73</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>391</v>
       </c>
@@ -49689,7 +50408,7 @@
       </c>
       <c r="E98" s="7">
         <f t="shared" si="4"/>
-        <v>748.15144089648766</v>
+        <v>785.39816339744834</v>
       </c>
       <c r="G98" s="7">
         <v>60</v>
@@ -49698,18 +50417,34 @@
         <v>0.1</v>
       </c>
       <c r="I98" s="7">
-        <v>9.76</v>
+        <v>10</v>
       </c>
       <c r="K98" s="7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="7">
+        <f t="shared" si="7"/>
+        <v>785.39816339744834</v>
+      </c>
+      <c r="M98" s="7">
+        <v>10</v>
+      </c>
+      <c r="N98" s="7">
+        <v>60</v>
+      </c>
+      <c r="P98" s="7">
+        <v>9.76</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>391</v>
       </c>
       <c r="B99" s="58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>1067</v>
@@ -49720,7 +50455,7 @@
       </c>
       <c r="E99" s="7">
         <f t="shared" si="4"/>
-        <v>899.20235727373836</v>
+        <v>929.71036353274928</v>
       </c>
       <c r="G99" s="7">
         <v>72</v>
@@ -49729,18 +50464,34 @@
         <v>0.1</v>
       </c>
       <c r="I99" s="57">
-        <v>10.7</v>
+        <v>10.88</v>
       </c>
       <c r="K99" s="7">
         <v>6000</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="7">
+        <f t="shared" si="7"/>
+        <v>929.71036353274928</v>
+      </c>
+      <c r="M99" s="57">
+        <v>10.88</v>
+      </c>
+      <c r="N99" s="7">
+        <v>72</v>
+      </c>
+      <c r="P99" s="57">
+        <v>10.7</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>391</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>1067</v>
@@ -49751,7 +50502,7 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="4"/>
-        <v>1197.9089137678729</v>
+        <v>1227.1846303085131</v>
       </c>
       <c r="G100" s="7">
         <v>96</v>
@@ -49760,18 +50511,34 @@
         <v>0.1</v>
       </c>
       <c r="I100" s="7">
-        <v>12.35</v>
+        <v>12.5</v>
       </c>
       <c r="K100" s="7">
         <v>8000</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="7">
+        <f t="shared" si="7"/>
+        <v>1227.1846303085131</v>
+      </c>
+      <c r="M100" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="N100" s="7">
+        <v>96</v>
+      </c>
+      <c r="P100" s="7">
+        <v>12.35</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>391</v>
       </c>
       <c r="B101" s="58" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>1067</v>
@@ -49782,7 +50549,7 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" si="4"/>
-        <v>1506.5703919830703</v>
+        <v>1539.3804002589986</v>
       </c>
       <c r="G101" s="7">
         <v>120</v>
@@ -49791,15 +50558,31 @@
         <v>0.1</v>
       </c>
       <c r="I101" s="7">
-        <v>13.85</v>
+        <v>14</v>
       </c>
       <c r="K101" s="7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="7">
+        <f t="shared" si="7"/>
+        <v>1539.3804002589986</v>
+      </c>
+      <c r="M101" s="7">
+        <v>14</v>
+      </c>
+      <c r="N101" s="7">
+        <v>120</v>
+      </c>
+      <c r="P101" s="7">
+        <v>13.85</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="58" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1067</v>
@@ -49825,9 +50608,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1067</v>
@@ -49853,9 +50636,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="58" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1067</v>
@@ -49881,9 +50664,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="58" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1067</v>
@@ -49909,9 +50692,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1067</v>
@@ -49937,9 +50720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="58" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>1067</v>
@@ -49965,9 +50748,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="58" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1067</v>
@@ -49993,9 +50776,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>1067</v>
@@ -50021,9 +50804,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="58" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1067</v>
@@ -50049,9 +50832,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="58" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1067</v>
@@ -50077,9 +50860,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="58" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>1067</v>
@@ -50105,9 +50888,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="58" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>1067</v>
@@ -50133,9 +50916,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="58" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>1067</v>
@@ -50161,9 +50944,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="58" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>1067</v>
@@ -50189,9 +50972,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>1067</v>
@@ -50217,9 +51000,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="58" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>1067</v>
@@ -50245,9 +51028,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="58" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1067</v>
@@ -50273,9 +51056,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="58" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1067</v>
@@ -50301,9 +51084,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="58" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>1067</v>
@@ -50329,9 +51112,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="58" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1067</v>
@@ -50357,9 +51140,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="58" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1067</v>
@@ -50385,9 +51168,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="58" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>1067</v>
@@ -50413,9 +51196,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="58" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1067</v>
@@ -50441,9 +51224,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="58" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>1067</v>
@@ -50469,9 +51252,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="58" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>1067</v>
@@ -50497,9 +51280,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="58" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1067</v>
@@ -50525,9 +51308,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="58" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>1067</v>
@@ -50554,9 +51337,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J99">
+  <autoFilter ref="A1:J128">
     <filterColumn colId="0">
-      <customFilters and="1">
+      <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
@@ -50565,6 +51348,16 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N54:N101">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>$G54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G101">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>$G54</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -50688,14 +51481,14 @@
         <v>407</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F40" si="0">G2*J2</f>
@@ -50753,10 +51546,10 @@
         <v>1</v>
       </c>
       <c r="W2" s="71" t="s">
+        <v>1359</v>
+      </c>
+      <c r="X2" s="61" t="s">
         <v>1360</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>1361</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y40" si="4">N2*O2*P2/1000000</f>
@@ -50766,14 +51559,14 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
       <c r="B3" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E3" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
@@ -50809,10 +51602,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="71" t="s">
+        <v>1359</v>
+      </c>
+      <c r="X3" s="61" t="s">
         <v>1360</v>
-      </c>
-      <c r="X3" s="61" t="s">
-        <v>1361</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="4"/>
@@ -50824,14 +51617,14 @@
         <v>407</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
@@ -50889,10 +51682,10 @@
         <v>1</v>
       </c>
       <c r="W4" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X4" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="4"/>
@@ -50902,14 +51695,14 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
       <c r="B5" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
@@ -50945,10 +51738,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X5" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="4"/>
@@ -50960,14 +51753,14 @@
         <v>407</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
@@ -51025,10 +51818,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X6" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="4"/>
@@ -51040,14 +51833,14 @@
         <v>407</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
@@ -51105,10 +51898,10 @@
         <v>1</v>
       </c>
       <c r="W7" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X7" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="4"/>
@@ -51120,14 +51913,14 @@
         <v>407</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E8" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
@@ -51185,10 +51978,10 @@
         <v>1</v>
       </c>
       <c r="W8" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X8" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="4"/>
@@ -51200,14 +51993,14 @@
         <v>407</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
@@ -51265,10 +52058,10 @@
         <v>1</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X9" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="4"/>
@@ -51280,14 +52073,14 @@
         <v>407</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
@@ -51345,10 +52138,10 @@
         <v>1</v>
       </c>
       <c r="W10" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X10" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="4"/>
@@ -51360,14 +52153,14 @@
         <v>407</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
@@ -51425,10 +52218,10 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X11" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="4"/>
@@ -51440,14 +52233,14 @@
         <v>407</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E12" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
@@ -51505,10 +52298,10 @@
         <v>1</v>
       </c>
       <c r="W12" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X12" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="4"/>
@@ -51520,14 +52313,14 @@
         <v>407</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E13" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -51585,10 +52378,10 @@
         <v>1</v>
       </c>
       <c r="W13" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X13" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="4"/>
@@ -51600,14 +52393,14 @@
         <v>407</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
@@ -51665,10 +52458,10 @@
         <v>1</v>
       </c>
       <c r="W14" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
@@ -51680,14 +52473,14 @@
         <v>407</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
@@ -51745,10 +52538,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X15" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="4"/>
@@ -51760,14 +52553,14 @@
         <v>407</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E16" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
@@ -51825,10 +52618,10 @@
         <v>1</v>
       </c>
       <c r="W16" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X16" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="4"/>
@@ -51840,14 +52633,14 @@
         <v>407</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E17" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
@@ -51905,10 +52698,10 @@
         <v>1</v>
       </c>
       <c r="W17" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="4"/>
@@ -51920,14 +52713,14 @@
         <v>407</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
@@ -51985,10 +52778,10 @@
         <v>1</v>
       </c>
       <c r="W18" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="4"/>
@@ -52000,14 +52793,14 @@
         <v>407</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E19" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
@@ -52065,10 +52858,10 @@
         <v>1</v>
       </c>
       <c r="W19" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X19" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="4"/>
@@ -52080,14 +52873,14 @@
         <v>407</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E20" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
@@ -52145,10 +52938,10 @@
         <v>1</v>
       </c>
       <c r="W20" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X20" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="4"/>
@@ -52160,14 +52953,14 @@
         <v>407</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E21" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
@@ -52225,10 +53018,10 @@
         <v>1</v>
       </c>
       <c r="W21" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X21" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="4"/>
@@ -52240,14 +53033,14 @@
         <v>407</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E22" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
@@ -52305,10 +53098,10 @@
         <v>1</v>
       </c>
       <c r="W22" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X22" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="4"/>
@@ -52320,14 +53113,14 @@
         <v>407</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E23" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
@@ -52385,10 +53178,10 @@
         <v>1</v>
       </c>
       <c r="W23" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X23" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="4"/>
@@ -52400,14 +53193,14 @@
         <v>407</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E24" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
@@ -52465,10 +53258,10 @@
         <v>1</v>
       </c>
       <c r="W24" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X24" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="4"/>
@@ -52480,14 +53273,14 @@
         <v>407</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E25" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
@@ -52545,10 +53338,10 @@
         <v>1</v>
       </c>
       <c r="W25" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X25" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="4"/>
@@ -52560,14 +53353,14 @@
         <v>407</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E26" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
@@ -52625,10 +53418,10 @@
         <v>1</v>
       </c>
       <c r="W26" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X26" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="4"/>
@@ -52640,14 +53433,14 @@
         <v>407</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E27" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
@@ -52705,10 +53498,10 @@
         <v>1</v>
       </c>
       <c r="W27" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X27" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="4"/>
@@ -52720,14 +53513,14 @@
         <v>407</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
@@ -52785,10 +53578,10 @@
         <v>1</v>
       </c>
       <c r="W28" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X28" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="4"/>
@@ -52800,14 +53593,14 @@
         <v>407</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E29" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
@@ -52865,10 +53658,10 @@
         <v>1</v>
       </c>
       <c r="W29" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X29" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="4"/>
@@ -52880,14 +53673,14 @@
         <v>407</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E30" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
@@ -52945,10 +53738,10 @@
         <v>1</v>
       </c>
       <c r="W30" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X30" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="4"/>
@@ -52960,14 +53753,14 @@
         <v>407</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
@@ -53025,10 +53818,10 @@
         <v>1</v>
       </c>
       <c r="W31" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X31" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="4"/>
@@ -53040,14 +53833,14 @@
         <v>407</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E32" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
@@ -53105,10 +53898,10 @@
         <v>1</v>
       </c>
       <c r="W32" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X32" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="4"/>
@@ -53118,14 +53911,14 @@
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="61" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E33" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E33" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
@@ -53160,10 +53953,10 @@
         <v>1</v>
       </c>
       <c r="W33" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X33" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="4"/>
@@ -53175,14 +53968,14 @@
         <v>407</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E34" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
@@ -53240,10 +54033,10 @@
         <v>1</v>
       </c>
       <c r="W34" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X34" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" si="4"/>
@@ -53255,14 +54048,14 @@
         <v>407</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E35" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
@@ -53320,10 +54113,10 @@
         <v>1</v>
       </c>
       <c r="W35" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X35" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="4"/>
@@ -53335,14 +54128,14 @@
         <v>407</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E36" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
@@ -53400,10 +54193,10 @@
         <v>1</v>
       </c>
       <c r="W36" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="4"/>
@@ -53415,14 +54208,14 @@
         <v>407</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E37" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
@@ -53480,10 +54273,10 @@
         <v>1</v>
       </c>
       <c r="W37" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X37" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="4"/>
@@ -53495,14 +54288,14 @@
         <v>407</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E38" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
@@ -53560,10 +54353,10 @@
         <v>1</v>
       </c>
       <c r="W38" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X38" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="4"/>
@@ -53575,14 +54368,14 @@
         <v>407</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E39" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E39" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
@@ -53640,10 +54433,10 @@
         <v>1</v>
       </c>
       <c r="W39" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X39" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="4"/>
@@ -53655,14 +54448,14 @@
         <v>407</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E40" s="70" t="s">
         <v>1320</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>1321</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
@@ -53720,10 +54513,10 @@
         <v>1</v>
       </c>
       <c r="W40" s="71" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X40" s="61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="4"/>
@@ -53743,7 +54536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -53806,7 +54599,7 @@
         <v>1006</v>
       </c>
       <c r="P1" s="56" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -53817,7 +54610,7 @@
         <v>392</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D2" s="7">
         <v>900</v>
@@ -53863,7 +54656,7 @@
         <v>401</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="7">
         <v>700</v>
@@ -53909,7 +54702,7 @@
         <v>1025</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D4" s="7">
         <v>800</v>
@@ -53955,7 +54748,7 @@
         <v>400</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D5" s="7">
         <v>700</v>
@@ -54001,7 +54794,7 @@
         <v>402</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D6" s="7">
         <v>900</v>
@@ -54047,7 +54840,7 @@
         <v>395</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D7" s="7">
         <v>900</v>
@@ -54093,7 +54886,7 @@
         <v>393</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D8" s="7">
         <v>900</v>
@@ -54139,7 +54932,7 @@
         <v>403</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D9" s="7">
         <v>700</v>
@@ -54185,7 +54978,7 @@
         <v>397</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D10" s="7">
         <v>700</v>
@@ -54231,7 +55024,7 @@
         <v>398</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D11" s="7">
         <v>700</v>
@@ -54277,7 +55070,7 @@
         <v>399</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D12" s="7">
         <v>900</v>
@@ -54323,7 +55116,7 @@
         <v>1024</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D13" s="7">
         <v>700</v>
@@ -54369,7 +55162,7 @@
         <v>396</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D14" s="7">
         <v>1100</v>
@@ -54413,7 +55206,7 @@
         <v>406</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D15" s="7">
         <v>800</v>
@@ -54449,7 +55242,7 @@
         <v>1009</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D16" s="7">
         <v>2000</v>
@@ -54498,7 +55291,7 @@
         <v>1010</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D17" s="7">
         <v>2000</v>
@@ -54541,13 +55334,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B18" s="57" t="s">
         <v>1011</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D18" s="7">
         <v>2000</v>
@@ -54590,13 +55383,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B19" s="57" t="s">
         <v>1012</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D19" s="7">
         <v>2000</v>
@@ -54645,7 +55438,7 @@
         <v>1007</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D20" s="7">
         <v>2000</v>
@@ -54692,7 +55485,7 @@
         <v>1013</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D21" s="7">
         <v>2000</v>
@@ -54739,7 +55532,7 @@
         <v>1008</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="7">
         <v>2000</v>
@@ -54786,7 +55579,7 @@
         <v>1014</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D23" s="7">
         <v>2000</v>
@@ -54833,7 +55626,7 @@
         <v>1015</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D24" s="7">
         <v>2000</v>
@@ -54882,7 +55675,7 @@
         <v>1016</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D25" s="7">
         <v>2000</v>
@@ -54931,7 +55724,7 @@
         <v>1026</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D26" s="7">
         <v>2000</v>
@@ -54980,7 +55773,7 @@
         <v>1017</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D27" s="7">
         <v>2000</v>
@@ -55029,7 +55822,7 @@
         <v>1018</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D28" s="7">
         <v>2000</v>
@@ -55076,7 +55869,7 @@
         <v>1019</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D29" s="7">
         <v>2000</v>
@@ -55123,7 +55916,7 @@
         <v>1020</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D30" s="7">
         <v>2000</v>
@@ -55172,7 +55965,7 @@
         <v>1021</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D31" s="7">
         <v>2000</v>
@@ -55221,7 +56014,7 @@
         <v>1022</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D32" s="7">
         <v>2000</v>
@@ -55270,7 +56063,7 @@
         <v>1023</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D33" s="7">
         <v>2000</v>
@@ -55313,13 +56106,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D34" s="7">
         <v>3000</v>
@@ -55362,13 +56155,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D35" s="7">
         <v>3000</v>
@@ -55411,13 +56204,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D36" s="7">
         <v>3000</v>
@@ -55460,13 +56253,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D37" s="7">
         <v>3000</v>
@@ -55509,13 +56302,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D38" s="7">
         <v>3000</v>
@@ -55558,13 +56351,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D39" s="7">
         <v>3000</v>
@@ -55608,10 +56401,10 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="74" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D40" s="7">
         <v>3000</v>
@@ -55652,13 +56445,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D41" s="7">
         <v>3000</v>
@@ -55701,13 +56494,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D42" s="7">
         <v>3000</v>
@@ -55750,13 +56543,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D43" s="7">
         <v>3000</v>
@@ -55799,13 +56592,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D44" s="7">
         <v>3000</v>
@@ -55848,13 +56641,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D45" s="7">
         <v>3000</v>
@@ -55897,13 +56690,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D46" s="7">
         <v>3000</v>
@@ -55946,13 +56739,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D47" s="7">
         <v>3000</v>
@@ -55995,13 +56788,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D48" s="7">
         <v>3000</v>
@@ -56044,13 +56837,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="61" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D49" s="7">
         <v>3000</v>
@@ -56099,7 +56892,7 @@
         <v>1027</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D50" s="7">
         <v>2000</v>
@@ -56147,7 +56940,7 @@
         <v>1030</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D51" s="7">
         <v>2000</v>
@@ -56195,7 +56988,7 @@
         <v>1029</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D52" s="7">
         <v>2000</v>
@@ -56243,7 +57036,7 @@
         <v>1028</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D53" s="7">
         <v>2000</v>
@@ -56291,7 +57084,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D54" s="7">
         <v>1500</v>
@@ -56335,7 +57128,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D55" s="7">
         <v>1500</v>
@@ -56379,7 +57172,7 @@
         <v>63</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D56" s="7">
         <v>1500</v>
@@ -56423,7 +57216,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D57" s="1">
         <v>1500</v>
@@ -56467,7 +57260,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D58" s="1">
         <v>1500</v>
@@ -59319,7 +60112,7 @@
         <v>407</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>99</v>
@@ -59647,7 +60440,7 @@
         <v>407</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>1063</v>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Capacitor_EACO!$A$1:$O$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Core_东磁!$A$1:$Y$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$684</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$J$135</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="1399">
   <si>
     <t>a0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7425,6 +7425,38 @@
   </si>
   <si>
     <t>Price(RMB/m)-漆包线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Litz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/3.00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/2.80</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/4.50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/4.00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/3.50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/3.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZ-2/2.60</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -46703,11 +46735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54:I101"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46778,1926 +46809,1786 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1057</v>
+    <row r="2" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="59" t="s">
+        <v>1394</v>
       </c>
       <c r="D2" s="7">
-        <f t="shared" ref="D2:D33" si="0">PI()*POWER(H2/2,2)*10</f>
-        <v>49.087385212340521</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E33" si="1">PI()*POWER(I2/2,2)*10</f>
-        <v>53.830593216656915</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="2">1/J2</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2.6179999999999999</v>
-      </c>
-      <c r="J2" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>1057</v>
+        <f t="shared" ref="D2:D8" si="0">PI()*POWER(H2/2,2)*10</f>
+        <v>159.04312808798326</v>
+      </c>
+      <c r="G2" s="59">
+        <v>75</v>
+      </c>
+      <c r="H2" s="59">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="59" t="s">
+        <v>1395</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="0"/>
-        <v>39.408138246630372</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="1"/>
-        <v>43.558378491563332</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>60</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.355</v>
-      </c>
-      <c r="J3" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="1">
+        <v>125.66370614359172</v>
+      </c>
+      <c r="G3" s="59">
+        <v>75</v>
+      </c>
+      <c r="H3" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="59" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>35.298935055734916</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>39.232405407570184</v>
-      </c>
-      <c r="F4" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="1">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>1057</v>
+        <v>96.211275016187415</v>
+      </c>
+      <c r="G4" s="59">
+        <v>75</v>
+      </c>
+      <c r="H4" s="59">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
+        <v>1397</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>35.033030653535079</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>60</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="J5" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="1">
+        <v>80.424771931898704</v>
+      </c>
+      <c r="G5" s="59">
+        <v>70</v>
+      </c>
+      <c r="H5" s="59">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="59" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>28.352873698647883</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>31.794048627683999</v>
-      </c>
-      <c r="F6" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.012</v>
-      </c>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>1057</v>
+        <v>70.685834705770347</v>
+      </c>
+      <c r="G6" s="59">
+        <v>70</v>
+      </c>
+      <c r="H6" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
+        <v>1393</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>25.446900494077326</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>28.622116043042162</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="2"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1.909</v>
-      </c>
-      <c r="J7" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>1057</v>
+        <v>61.575216010359938</v>
+      </c>
+      <c r="G7" s="59">
+        <v>70</v>
+      </c>
+      <c r="H7" s="59">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
+        <v>1398</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>22.698006922186252</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>25.702005671530447</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="G8" s="7">
+        <v>53.092915845667505</v>
+      </c>
+      <c r="G8" s="59">
+        <v>68</v>
+      </c>
+      <c r="H8" s="59">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:D40" si="1">PI()*POWER(H9/2,2)*10</f>
+        <v>49.087385212340521</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E40" si="2">PI()*POWER(I9/2,2)*10</f>
+        <v>53.830593216656915</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F40" si="3">1/J9</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G9" s="7">
         <v>60</v>
       </c>
-      <c r="H8" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="J8" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>20.106192982974676</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>22.858510890858156</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="1">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.706</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B10" s="43" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>17.671458676442587</v>
+        <f t="shared" si="1"/>
+        <v>39.408138246630372</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>20.257272173685813</v>
+        <f t="shared" si="2"/>
+        <v>43.558378491563332</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="G10" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>1.5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I10" s="7">
-        <v>1.6060000000000001</v>
+        <v>2.355</v>
       </c>
       <c r="J10" s="7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>16.51299638543135</v>
+        <f t="shared" si="1"/>
+        <v>35.298935055734916</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>1.6393442622950821E-2</v>
+        <v>39.232405407570184</v>
+      </c>
+      <c r="F11" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G11" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="J11" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B12" s="43" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>15.393804002589984</v>
+        <f t="shared" si="1"/>
+        <v>31.415926535897931</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>17.718613982172968</v>
+        <f t="shared" si="2"/>
+        <v>35.033030653535079</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5384615384615385E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G12" s="7">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1.502</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="J12" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>14.313881527918497</v>
+        <f t="shared" si="1"/>
+        <v>28.352873698647883</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>1.4084507042253521E-2</v>
+        <v>31.794048627683999</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="J13" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.012</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B14" s="43" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>13.273228961416876</v>
+        <f t="shared" si="1"/>
+        <v>25.446900494077326</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" si="2"/>
+        <v>28.622116043042162</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.909</v>
+      </c>
+      <c r="J14" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>15.437817715666778</v>
-      </c>
-      <c r="F14" s="7">
+        <v>22.698006922186252</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
-        <v>1.2345679012345678E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="J14" s="7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>12.27184630308513</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.098901098901099E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="J15" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>25.702005671530447</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="J15" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>11.309733552923255</v>
+        <f t="shared" si="1"/>
+        <v>20.106192982974676</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>1.0416666666666666E-2</v>
+        <v>22.858510890858156</v>
+      </c>
+      <c r="F16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G16" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.706</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B17" s="43" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>10.935884027146068</v>
+        <f t="shared" si="1"/>
+        <v>17.671458676442587</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" si="2"/>
+        <v>20.257272173685813</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>57</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J17" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>12.84786517010245</v>
-      </c>
-      <c r="F17" s="7">
+        <v>16.51299638543135</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="7">
-        <v>55</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="J17" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>9.8520345616575931</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>11.632445804281632</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090905E-3</v>
-      </c>
-      <c r="G18" s="7">
-        <v>55</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="J18" s="7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="J18" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B19" s="43" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8247337639337289</v>
+        <f t="shared" si="1"/>
+        <v>15.393804002589984</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>17.718613982172968</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>54</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.502</v>
+      </c>
+      <c r="J19" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>10.513724660338308</v>
-      </c>
-      <c r="F19" s="7">
+        <v>14.313881527918497</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="G19" s="7">
-        <v>55</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1.157</v>
-      </c>
-      <c r="J19" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>7.8539816339744828</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="1"/>
-        <v>9.3999279628794863</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571426E-3</v>
-      </c>
-      <c r="G20" s="7">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="J20" s="7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="J20" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B21" s="43" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>7.0882184246619708</v>
+        <f t="shared" si="1"/>
+        <v>13.273228961416876</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5603373262076126</v>
+        <f t="shared" si="2"/>
+        <v>15.437817715666778</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666671E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="G21" s="7">
         <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="I21" s="7">
-        <v>1.044</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="J21" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7929087152245318</v>
+        <f t="shared" si="1"/>
+        <v>12.27184630308513</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>6.2500000000000003E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="G22" s="1">
         <v>55</v>
       </c>
       <c r="H22" s="1">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="J22" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3617251235193315</v>
-      </c>
-      <c r="E23" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>7.6821443698047549</v>
-      </c>
-      <c r="F23" s="7">
+        <v>11.309733552923255</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>5.8823529411764705E-3</v>
-      </c>
-      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G23" s="1">
         <v>55</v>
       </c>
-      <c r="H23" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="J23" s="7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B24" s="43" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>5.674501730546563</v>
+        <f t="shared" si="1"/>
+        <v>10.935884027146068</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9250205402896139</v>
+        <f t="shared" si="2"/>
+        <v>12.84786517010245</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="2"/>
-        <v>5.5555555555555558E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="G24" s="7">
         <v>55</v>
       </c>
       <c r="H24" s="7">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="I24" s="7">
-        <v>0.93899999999999995</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="J24" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4106079476450208</v>
-      </c>
-      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
+        <v>9.8520345616575931</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="2"/>
-        <v>5.263157894736842E-3</v>
-      </c>
-      <c r="G25" s="1">
+        <v>11.632445804281632</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="G25" s="7">
         <v>55</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="J25" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="J25" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B26" s="43" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>5.026548245743669</v>
+        <f t="shared" si="1"/>
+        <v>8.8247337639337289</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
-        <v>6.1375410717591636</v>
+        <f t="shared" si="2"/>
+        <v>10.513724660338308</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="2"/>
-        <v>4.7619047619047623E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="G26" s="7">
         <v>55</v>
       </c>
       <c r="H26" s="7">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="I26" s="7">
-        <v>0.88400000000000001</v>
+        <v>1.157</v>
       </c>
       <c r="J26" s="7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6566257107834712</v>
-      </c>
-      <c r="E27" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" si="1"/>
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="2"/>
+        <v>9.3999279628794863</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="J27" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0882184246619708</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5603373262076126</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>55</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.044</v>
+      </c>
+      <c r="J28" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7929087152245318</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>55</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J29" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3617251235193315</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="2"/>
-        <v>4.3478260869565218E-3</v>
-      </c>
-      <c r="G27" s="1">
+        <v>7.6821443698047549</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="G30" s="7">
         <v>55</v>
       </c>
-      <c r="H27" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="J27" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3008403427644266</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>55</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="J28" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>3.9591921416865365</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="1"/>
-        <v>4.8892685007634293</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="2"/>
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="G29" s="7">
-        <v>55</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="J29" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7392806559352505</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>3.4482758620689655E-3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>55</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="J30" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J30" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B31" s="43" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>3.5256523554911463</v>
+        <f t="shared" si="1"/>
+        <v>5.674501730546563</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="1"/>
-        <v>4.4060915506413183</v>
+        <f t="shared" si="2"/>
+        <v>6.9250205402896139</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="2"/>
-        <v>3.2258064516129032E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="G31" s="7">
         <v>55</v>
       </c>
       <c r="H31" s="7">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="I31" s="7">
-        <v>0.749</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="J31" s="7">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2169908772759479</v>
+        <f t="shared" si="1"/>
+        <v>5.4106079476450208</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9411764705882353E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.263157894736842E-3</v>
       </c>
       <c r="G32" s="1">
         <v>55</v>
       </c>
       <c r="H32" s="1">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="J32" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0190705400997913</v>
-      </c>
-      <c r="E33" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D33" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
+        <v>5.026548245743669</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="2"/>
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="G33" s="1">
+        <v>6.1375410717591636</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="G33" s="7">
         <v>55</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="H33" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J33" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
-        <v>353</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D53" si="3">PI()*POWER(H34/2,2)*10</f>
-        <v>2.7339710067865171</v>
+        <f t="shared" si="1"/>
+        <v>4.6566257107834712</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E128" si="4">PI()*POWER(I34/2,2)*10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F53" si="5">1/J34</f>
-        <v>2.4390243902439024E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.3478260869565218E-3</v>
       </c>
       <c r="G34" s="1">
         <v>55</v>
       </c>
       <c r="H34" s="1">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="J34" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3008403427644266</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <f t="shared" si="3"/>
-        <v>2.5517586328783093</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="5"/>
-        <v>2.2727272727272726E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G35" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.74</v>
       </c>
       <c r="J35" s="1">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9591921416865365</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8892685007634293</v>
+      </c>
+      <c r="F36" s="7">
         <f t="shared" si="3"/>
-        <v>2.3758294442772816</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1739130434782609E-3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>57</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J36" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>55</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="J36" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7392806559352505</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" si="3"/>
-        <v>2.0428206229967629</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="4"/>
+        <v>3.4482758620689655E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J37" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5256523554911463</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4060915506413183</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>55</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.749</v>
+      </c>
+      <c r="J38" s="7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2169908772759479</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9607843137254902E-3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>57</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J37" s="1">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="1">
+      <c r="F39" s="1">
         <f t="shared" si="3"/>
-        <v>1.885740990317273</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="5"/>
-        <v>1.8181818181818182E-3</v>
-      </c>
-      <c r="G38" s="1">
-        <v>57</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="J38" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D39" s="7">
-        <f t="shared" si="3"/>
-        <v>1.734944542944963</v>
-      </c>
-      <c r="E39" s="7">
-        <f t="shared" si="4"/>
-        <v>2.2564175075143336</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="5"/>
-        <v>1.6129032258064516E-3</v>
-      </c>
-      <c r="G39" s="7">
-        <v>57</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J39" s="7">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.9411764705882353E-3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="J39" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="22" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0190705400997913</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" si="3"/>
-        <v>1.5205308443374599</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4285714285714286E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="G40" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="J40" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3202543126711102</v>
+        <f t="shared" ref="D41:D60" si="4">PI()*POWER(H41/2,2)*10</f>
+        <v>2.7339710067865171</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ref="E41:E135" si="5">PI()*POWER(I41/2,2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41:F60" si="6">1/J41</f>
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>55</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="J41" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="1">
         <f t="shared" si="4"/>
+        <v>2.5517586328783093</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2727272727272726E-3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J42" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3758294442772816</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="5"/>
-        <v>1.25E-3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>60</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="J41" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782609E-3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>57</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J43" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0428206229967629</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9607843137254902E-3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="J44" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>1.885740990317273</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818182E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>57</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="J45" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>1057</v>
       </c>
-      <c r="D42" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1341149479459154</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D46" s="7">
         <f t="shared" si="4"/>
-        <v>1.5136271944811963</v>
-      </c>
-      <c r="F42" s="7">
+        <v>1.734944542944963</v>
+      </c>
+      <c r="E46" s="7">
         <f t="shared" si="5"/>
-        <v>1.0526315789473684E-3</v>
-      </c>
-      <c r="G42" s="7">
-        <v>60</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0.439</v>
-      </c>
-      <c r="J42" s="7">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" si="3"/>
-        <v>0.96211275016187403</v>
-      </c>
-      <c r="E43" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2946189166178179</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="5"/>
-        <v>9.0909090909090909E-4</v>
-      </c>
-      <c r="G43" s="7">
-        <v>60</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="J43" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D44" s="7">
-        <f t="shared" si="3"/>
-        <v>0.85529859993982127</v>
-      </c>
-      <c r="E44" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1823698111050547</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333339E-4</v>
-      </c>
-      <c r="G44" s="7">
-        <v>60</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="J44" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D45" s="7">
-        <f t="shared" si="3"/>
-        <v>0.75476763502494781</v>
-      </c>
-      <c r="E45" s="7">
-        <f t="shared" si="4"/>
-        <v>1.029217169242552</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="5"/>
-        <v>7.1428571428571429E-4</v>
-      </c>
-      <c r="G45" s="7">
-        <v>62</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="1">
-        <f t="shared" si="3"/>
-        <v>0.660519855417254</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="1">
-        <v>62</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="2:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.2564175075143336</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="6"/>
+        <v>1.6129032258064516E-3</v>
+      </c>
+      <c r="G46" s="7">
+        <v>57</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J46" s="7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="1">
-        <f t="shared" si="3"/>
-        <v>0.57255526111673982</v>
+        <f t="shared" si="4"/>
+        <v>1.5205308443374599</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>60</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="J47" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="1">
         <f t="shared" si="4"/>
+        <v>1.3202543126711102</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555556E-4</v>
-      </c>
-      <c r="G47" s="1">
-        <v>62</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D48" s="7">
-        <f t="shared" si="3"/>
-        <v>0.49087385212340517</v>
-      </c>
-      <c r="E48" s="7">
-        <f t="shared" si="4"/>
-        <v>0.69279186595125508</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="5"/>
-        <v>4.7619047619047619E-4</v>
-      </c>
-      <c r="G48" s="7">
-        <v>62</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="J48" s="7">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>60</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="J48" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B49" s="43" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="3"/>
-        <v>0.41547562843725017</v>
+        <f t="shared" si="4"/>
+        <v>1.1341149479459154</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="4"/>
-        <v>0.60262815679322823</v>
+        <f t="shared" si="5"/>
+        <v>1.5136271944811963</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="5"/>
-        <v>3.8461538461538462E-4</v>
+        <f t="shared" si="6"/>
+        <v>1.0526315789473684E-3</v>
       </c>
       <c r="G49" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H49" s="7">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="I49" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="J49" s="7">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B50" s="43" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="3"/>
-        <v>0.34636059005827469</v>
+        <f t="shared" si="4"/>
+        <v>0.96211275016187403</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="4"/>
-        <v>0.49875924968391555</v>
+        <f t="shared" si="5"/>
+        <v>1.2946189166178179</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333332E-4</v>
+        <f t="shared" si="6"/>
+        <v>9.0909090909090909E-4</v>
       </c>
       <c r="G50" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H50" s="7">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="I50" s="7">
-        <v>0.252</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="J50" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B51" s="43" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>1057</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="3"/>
-        <v>0.28352873698647885</v>
+        <f t="shared" si="4"/>
+        <v>0.85529859993982127</v>
       </c>
       <c r="E51" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1823698111050547</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="G51" s="7">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D52" s="7">
         <f t="shared" si="4"/>
-        <v>0.40828138126052954</v>
-      </c>
-      <c r="F51" s="7">
+        <v>0.75476763502494781</v>
+      </c>
+      <c r="E52" s="7">
         <f t="shared" si="5"/>
-        <v>2.5641025641025641E-4</v>
-      </c>
-      <c r="G51" s="7">
-        <v>68</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="J51" s="7">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="1">
-        <f t="shared" si="3"/>
-        <v>0.22698006922186262</v>
-      </c>
-      <c r="E52" s="1">
+        <v>1.029217169242552</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571429E-4</v>
+      </c>
+      <c r="G52" s="7">
+        <v>62</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="45"/>
+      <c r="D53" s="1">
         <f t="shared" si="4"/>
-        <v>0.33006357816777754</v>
-      </c>
-      <c r="F52" s="1" t="e">
+        <v>0.660519855417254</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="1">
-        <v>68</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D53" s="7">
-        <f t="shared" si="3"/>
-        <v>0.17671458676442586</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="G53" s="1">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="1">
         <f t="shared" si="4"/>
-        <v>0.26015528764377077</v>
-      </c>
-      <c r="F53" s="7">
+        <v>0.57255526111673982</v>
+      </c>
+      <c r="E54" s="1">
         <f t="shared" si="5"/>
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="G53" s="7">
-        <v>68</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0.182</v>
-      </c>
-      <c r="J53" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D54" s="7">
-        <f>PI()*POWER(H54/2,2)*10*K54</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="E54" s="7">
-        <f t="shared" si="4"/>
-        <v>1.6619025137490007</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="K54" s="7">
-        <v>10</v>
-      </c>
-      <c r="L54" s="7">
-        <f>PI()*POWER(M54/2,2)*10</f>
-        <v>1.6619025137490007</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>62</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1800</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1067</v>
+      <c r="B55" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>1057</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" ref="D55:D128" si="6">PI()*POWER(H55/2,2)*10*K55</f>
-        <v>1.1780972450961724</v>
+        <f t="shared" si="4"/>
+        <v>0.49087385212340517</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="4"/>
-        <v>2.4630086404143983</v>
+        <f t="shared" si="5"/>
+        <v>0.69279186595125508</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047619E-4</v>
       </c>
       <c r="G55" s="7">
-        <v>0.18</v>
+        <v>62</v>
       </c>
       <c r="H55" s="7">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I55" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K55" s="7">
-        <v>15</v>
-      </c>
-      <c r="L55" s="7">
-        <f t="shared" ref="L55:L101" si="7">PI()*POWER(M55/2,2)*10</f>
-        <v>2.4630086404143983</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>0.18</v>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2100</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B56" s="55" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>1067</v>
+      <c r="B56" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>1057</v>
       </c>
       <c r="D56" s="7">
+        <f t="shared" si="4"/>
+        <v>0.41547562843725017</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="5"/>
+        <v>0.60262815679322823</v>
+      </c>
+      <c r="F56" s="7">
         <f t="shared" si="6"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="E56" s="7">
-        <f t="shared" si="4"/>
-        <v>3.2169908772759479</v>
+        <v>3.8461538461538462E-4</v>
       </c>
       <c r="G56" s="7">
-        <v>0.24</v>
+        <v>65</v>
       </c>
       <c r="H56" s="7">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="I56" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="K56" s="7">
-        <v>20</v>
-      </c>
-      <c r="L56" s="7">
-        <f t="shared" si="7"/>
-        <v>3.2169908772759479</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="P56" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>0.23</v>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J56" s="7">
+        <v>2600</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B57" s="55" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>1067</v>
+      <c r="B57" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>1057</v>
       </c>
       <c r="D57" s="7">
+        <f t="shared" si="4"/>
+        <v>0.34636059005827469</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="5"/>
+        <v>0.49875924968391555</v>
+      </c>
+      <c r="F57" s="7">
         <f t="shared" si="6"/>
-        <v>1.9634954084936207</v>
-      </c>
-      <c r="E57" s="7">
-        <f t="shared" si="4"/>
-        <v>3.8484510006474961</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="G57" s="7">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="H57" s="7">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="I57" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="K57" s="7">
-        <v>25</v>
-      </c>
-      <c r="L57" s="7">
-        <f t="shared" si="7"/>
-        <v>3.8484510006474961</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.252</v>
+      </c>
+      <c r="J57" s="7">
+        <v>3000</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="55" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>1067</v>
+      <c r="B58" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>1057</v>
       </c>
       <c r="D58" s="7">
+        <f t="shared" si="4"/>
+        <v>0.28352873698647885</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="5"/>
+        <v>0.40828138126052954</v>
+      </c>
+      <c r="F58" s="7">
         <f t="shared" si="6"/>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="E58" s="7">
+        <v>2.5641025641025641E-4</v>
+      </c>
+      <c r="G58" s="7">
+        <v>68</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J58" s="7">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="1">
         <f t="shared" si="4"/>
-        <v>4.6566257107834712</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="K58" s="7">
-        <v>30</v>
-      </c>
-      <c r="L58" s="7">
-        <f t="shared" si="7"/>
-        <v>4.6566257107834712</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="P58" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D59" s="7">
+        <v>0.22698006922186262</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33006357816777754</v>
+      </c>
+      <c r="F59" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>2.748893571891069</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" si="4"/>
-        <v>5.2810172506844406</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="K59" s="7">
-        <v>35</v>
-      </c>
-      <c r="L59" s="7">
-        <f t="shared" si="7"/>
-        <v>5.2810172506844406</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="P59" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>0.4</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="1">
+        <v>68</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J59"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B60" s="55" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>1067</v>
+      <c r="B60" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>1057</v>
       </c>
       <c r="D60" s="7">
+        <f t="shared" si="4"/>
+        <v>0.17671458676442586</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="5"/>
+        <v>0.26015528764377077</v>
+      </c>
+      <c r="F60" s="7">
         <f t="shared" si="6"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="4"/>
-        <v>6.0821233773498395</v>
+        <v>1.6666666666666666E-4</v>
       </c>
       <c r="G60" s="7">
-        <v>0.48</v>
+        <v>68</v>
       </c>
       <c r="H60" s="7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I60" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="K60" s="7">
-        <v>40</v>
-      </c>
-      <c r="L60" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0821233773498395</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="P60" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>0.45</v>
+        <v>0.182</v>
+      </c>
+      <c r="J60" s="7">
+        <v>6000</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B61" s="55" t="s">
-        <v>1075</v>
+      <c r="B61" s="7" t="s">
+        <v>1068</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1067</v>
+        <v>1391</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="6"/>
-        <v>3.9269908169872414</v>
+        <f>PI()*POWER(H61/2,2)*10*K61</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="4"/>
-        <v>7.5429639612690922</v>
+        <f t="shared" si="5"/>
+        <v>1.6619025137490007</v>
       </c>
       <c r="G61" s="7">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="H61" s="7">
         <v>0.1</v>
       </c>
       <c r="I61" s="7">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="K61" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="7"/>
-        <v>7.5429639612690922</v>
+        <f>PI()*POWER(M61/2,2)*10</f>
+        <v>1.6619025137490007</v>
       </c>
       <c r="M61" s="7">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="N61" s="7">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="P61" s="7">
-        <v>0.94</v>
+        <v>0.42</v>
       </c>
       <c r="Q61" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -48705,46 +48596,46 @@
         <v>391</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="6"/>
-        <v>4.7123889803846897</v>
+        <f t="shared" ref="D62:D135" si="7">PI()*POWER(H62/2,2)*10*K62</f>
+        <v>1.1780972450961724</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="4"/>
-        <v>8.9920235727373861</v>
+        <f t="shared" si="5"/>
+        <v>2.4630086404143983</v>
       </c>
       <c r="G62" s="7">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="H62" s="7">
         <v>0.1</v>
       </c>
       <c r="I62" s="7">
-        <v>1.07</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K62" s="7">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="7"/>
-        <v>8.9920235727373861</v>
+        <f t="shared" ref="L62:L108" si="8">PI()*POWER(M62/2,2)*10</f>
+        <v>2.4630086404143983</v>
       </c>
       <c r="M62" s="7">
-        <v>1.07</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N62" s="7">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="P62" s="7">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="Q62" s="7">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -48752,46 +48643,46 @@
         <v>391</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="6"/>
-        <v>5.497787143782138</v>
+        <f t="shared" si="7"/>
+        <v>1.5707963267948966</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="4"/>
-        <v>10.386890710931251</v>
+        <f t="shared" si="5"/>
+        <v>3.2169908772759479</v>
       </c>
       <c r="G63" s="7">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="H63" s="7">
         <v>0.1</v>
       </c>
       <c r="I63" s="7">
-        <v>1.1499999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="K63" s="7">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="7"/>
-        <v>10.386890710931251</v>
+        <f t="shared" si="8"/>
+        <v>3.2169908772759479</v>
       </c>
       <c r="M63" s="7">
-        <v>1.1499999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="N63" s="7">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="P63" s="7">
-        <v>1.1100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="Q63" s="7">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -48799,46 +48690,46 @@
         <v>391</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="6"/>
-        <v>5.8904862254808616</v>
+        <f t="shared" si="7"/>
+        <v>1.9634954084936207</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="4"/>
-        <v>11.122023391871265</v>
+        <f t="shared" si="5"/>
+        <v>3.8484510006474961</v>
       </c>
       <c r="G64" s="7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H64" s="7">
         <v>0.1</v>
       </c>
       <c r="I64" s="7">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="K64" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="7"/>
-        <v>11.122023391871265</v>
+        <f t="shared" si="8"/>
+        <v>3.8484510006474961</v>
       </c>
       <c r="M64" s="7">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="N64" s="7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="P64" s="7">
-        <v>1.1499999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="Q64" s="7">
-        <v>0.87</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -48846,46 +48737,46 @@
         <v>391</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="6"/>
-        <v>6.2831853071795862</v>
+        <f t="shared" si="7"/>
+        <v>2.3561944901923448</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="4"/>
-        <v>11.882288814039994</v>
+        <f t="shared" si="5"/>
+        <v>4.6566257107834712</v>
       </c>
       <c r="G65" s="7">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="H65" s="7">
         <v>0.1</v>
       </c>
       <c r="I65" s="7">
-        <v>1.23</v>
+        <v>0.77</v>
       </c>
       <c r="K65" s="7">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="7"/>
-        <v>11.882288814039994</v>
+        <f t="shared" si="8"/>
+        <v>4.6566257107834712</v>
       </c>
       <c r="M65" s="7">
-        <v>1.23</v>
+        <v>0.77</v>
       </c>
       <c r="N65" s="7">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="P65" s="7">
-        <v>1.18</v>
+        <v>0.72</v>
       </c>
       <c r="Q65" s="7">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -48893,46 +48784,46 @@
         <v>391</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="6"/>
-        <v>7.0685834705770345</v>
+        <f t="shared" si="7"/>
+        <v>2.748893571891069</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="4"/>
-        <v>13.069810837096938</v>
+        <f t="shared" si="5"/>
+        <v>5.2810172506844406</v>
       </c>
       <c r="G66" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="H66" s="7">
         <v>0.1</v>
       </c>
       <c r="I66" s="7">
-        <v>1.29</v>
+        <v>0.82</v>
       </c>
       <c r="K66" s="7">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="7"/>
-        <v>13.069810837096938</v>
+        <f t="shared" si="8"/>
+        <v>5.2810172506844406</v>
       </c>
       <c r="M66" s="7">
-        <v>1.29</v>
+        <v>0.82</v>
       </c>
       <c r="N66" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="P66" s="7">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="Q66" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -48940,46 +48831,46 @@
         <v>391</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="6"/>
-        <v>7.8539816339744828</v>
+        <f t="shared" si="7"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="4"/>
-        <v>14.526724430199208</v>
+        <f t="shared" si="5"/>
+        <v>6.0821233773498395</v>
       </c>
       <c r="G67" s="7">
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="H67" s="7">
         <v>0.1</v>
       </c>
       <c r="I67" s="7">
-        <v>1.36</v>
+        <v>0.88</v>
       </c>
       <c r="K67" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="7"/>
-        <v>14.526724430199208</v>
+        <f t="shared" si="8"/>
+        <v>6.0821233773498395</v>
       </c>
       <c r="M67" s="7">
-        <v>1.36</v>
+        <v>0.88</v>
       </c>
       <c r="N67" s="7">
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="P67" s="7">
-        <v>1.32</v>
+        <v>0.84</v>
       </c>
       <c r="Q67" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -48987,46 +48878,46 @@
         <v>391</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="6"/>
-        <v>8.6393797973719302</v>
+        <f t="shared" si="7"/>
+        <v>3.9269908169872414</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="4"/>
-        <v>16.060607043314416</v>
+        <f t="shared" si="5"/>
+        <v>7.5429639612690922</v>
       </c>
       <c r="G68" s="7">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" s="7">
         <v>0.1</v>
       </c>
       <c r="I68" s="7">
-        <v>1.43</v>
+        <v>0.98</v>
       </c>
       <c r="K68" s="7">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="7"/>
-        <v>16.060607043314416</v>
+        <f t="shared" si="8"/>
+        <v>7.5429639612690922</v>
       </c>
       <c r="M68" s="7">
-        <v>1.43</v>
+        <v>0.98</v>
       </c>
       <c r="N68" s="7">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="P68" s="7">
-        <v>1.39</v>
+        <v>0.94</v>
       </c>
       <c r="Q68" s="7">
-        <v>1.2</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -49034,46 +48925,46 @@
         <v>391</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="6"/>
-        <v>9.4247779607693793</v>
+        <f t="shared" si="7"/>
+        <v>4.7123889803846897</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="4"/>
-        <v>17.436624625586749</v>
+        <f t="shared" si="5"/>
+        <v>8.9920235727373861</v>
       </c>
       <c r="G69" s="7">
-        <v>1.3</v>
+        <v>0.72</v>
       </c>
       <c r="H69" s="7">
         <v>0.1</v>
       </c>
       <c r="I69" s="7">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="K69" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="7"/>
-        <v>17.436624625586749</v>
+        <f t="shared" si="8"/>
+        <v>8.9920235727373861</v>
       </c>
       <c r="M69" s="7">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="N69" s="7">
-        <v>1.3</v>
+        <v>0.72</v>
       </c>
       <c r="P69" s="7">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="Q69" s="7">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -49081,46 +48972,46 @@
         <v>391</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="6"/>
-        <v>10.210176124166829</v>
+        <f t="shared" si="7"/>
+        <v>5.497787143782138</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="4"/>
-        <v>18.869190875623698</v>
+        <f t="shared" si="5"/>
+        <v>10.386890710931251</v>
       </c>
       <c r="G70" s="7">
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="H70" s="7">
         <v>0.1</v>
       </c>
       <c r="I70" s="7">
-        <v>1.55</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K70" s="7">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="7"/>
-        <v>18.869190875623698</v>
+        <f t="shared" si="8"/>
+        <v>10.386890710931251</v>
       </c>
       <c r="M70" s="7">
-        <v>1.55</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N70" s="7">
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="P70" s="7">
-        <v>1.51</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Q70" s="7">
-        <v>1.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -49128,46 +49019,46 @@
         <v>391</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="6"/>
-        <v>10.995574287564276</v>
+        <f t="shared" si="7"/>
+        <v>5.8904862254808616</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="4"/>
-        <v>20.106192982974676</v>
+        <f t="shared" si="5"/>
+        <v>11.122023391871265</v>
       </c>
       <c r="G71" s="7">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H71" s="7">
         <v>0.1</v>
       </c>
       <c r="I71" s="7">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="K71" s="7">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="7"/>
-        <v>20.106192982974676</v>
+        <f t="shared" si="8"/>
+        <v>11.122023391871265</v>
       </c>
       <c r="M71" s="7">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="N71" s="7">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="P71" s="7">
-        <v>1.57</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q71" s="7">
-        <v>1.6</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -49175,46 +49066,46 @@
         <v>391</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="6"/>
-        <v>11.780972450961723</v>
+        <f t="shared" si="7"/>
+        <v>6.2831853071795862</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="4"/>
-        <v>21.642431790580083</v>
+        <f t="shared" si="5"/>
+        <v>11.882288814039994</v>
       </c>
       <c r="G72" s="7">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="H72" s="7">
         <v>0.1</v>
       </c>
       <c r="I72" s="7">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="K72" s="7">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="7"/>
-        <v>21.642431790580083</v>
+        <f t="shared" si="8"/>
+        <v>11.882288814039994</v>
       </c>
       <c r="M72" s="7">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="N72" s="7">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="P72" s="7">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="Q72" s="7">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -49222,46 +49113,46 @@
         <v>391</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="6"/>
-        <v>12.566370614359172</v>
+        <f t="shared" si="7"/>
+        <v>7.0685834705770345</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="4"/>
-        <v>22.965827695904785</v>
+        <f t="shared" si="5"/>
+        <v>13.069810837096938</v>
       </c>
       <c r="G73" s="7">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H73" s="7">
         <v>0.1</v>
       </c>
       <c r="I73" s="7">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="K73" s="7">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="7"/>
-        <v>22.965827695904785</v>
+        <f t="shared" si="8"/>
+        <v>13.069810837096938</v>
       </c>
       <c r="M73" s="7">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="N73" s="7">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P73" s="7">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q73" s="7">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -49269,46 +49160,46 @@
         <v>391</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="6"/>
-        <v>14.137166941154069</v>
+        <f t="shared" si="7"/>
+        <v>7.8539816339744828</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="4"/>
-        <v>25.730429231063802</v>
+        <f t="shared" si="5"/>
+        <v>14.526724430199208</v>
       </c>
       <c r="G74" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H74" s="7">
         <v>0.1</v>
       </c>
       <c r="I74" s="7">
-        <v>1.81</v>
+        <v>1.36</v>
       </c>
       <c r="K74" s="7">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="7"/>
-        <v>25.730429231063802</v>
+        <f t="shared" si="8"/>
+        <v>14.526724430199208</v>
       </c>
       <c r="M74" s="7">
-        <v>1.81</v>
+        <v>1.36</v>
       </c>
       <c r="N74" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="P74" s="7">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="Q74" s="7">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -49316,46 +49207,46 @@
         <v>391</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="6"/>
-        <v>15.707963267948966</v>
+        <f t="shared" si="7"/>
+        <v>8.6393797973719302</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="4"/>
-        <v>28.652110398902309</v>
+        <f t="shared" si="5"/>
+        <v>16.060607043314416</v>
       </c>
       <c r="G75" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="H75" s="7">
         <v>0.1</v>
       </c>
       <c r="I75" s="7">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="K75" s="7">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="7"/>
-        <v>28.652110398902309</v>
+        <f t="shared" si="8"/>
+        <v>16.060607043314416</v>
       </c>
       <c r="M75" s="7">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="N75" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="P75" s="7">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q75" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -49363,46 +49254,46 @@
         <v>391</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="6"/>
-        <v>19.634954084936208</v>
+        <f t="shared" si="7"/>
+        <v>9.4247779607693793</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="4"/>
-        <v>38.013271108436506</v>
+        <f t="shared" si="5"/>
+        <v>17.436624625586749</v>
       </c>
       <c r="G76" s="7">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H76" s="7">
         <v>0.1</v>
       </c>
       <c r="I76" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="K76" s="7">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="7"/>
-        <v>38.013271108436506</v>
+        <f t="shared" si="8"/>
+        <v>17.436624625586749</v>
       </c>
       <c r="M76" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="N76" s="7">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="P76" s="7">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
       <c r="Q76" s="7">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -49410,46 +49301,46 @@
         <v>391</v>
       </c>
       <c r="B77" s="55" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="6"/>
-        <v>23.561944901923447</v>
+        <f t="shared" si="7"/>
+        <v>10.210176124166829</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="4"/>
-        <v>45.238934211693021</v>
+        <f t="shared" si="5"/>
+        <v>18.869190875623698</v>
       </c>
       <c r="G77" s="7">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H77" s="7">
         <v>0.1</v>
       </c>
       <c r="I77" s="7">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="K77" s="7">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="7"/>
-        <v>45.238934211693021</v>
+        <f t="shared" si="8"/>
+        <v>18.869190875623698</v>
       </c>
       <c r="M77" s="7">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="N77" s="7">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="P77" s="7">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="Q77" s="7">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -49457,46 +49348,46 @@
         <v>391</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="6"/>
-        <v>27.488935718910689</v>
+        <f t="shared" si="7"/>
+        <v>10.995574287564276</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="4"/>
-        <v>51.874763294238051</v>
+        <f t="shared" si="5"/>
+        <v>20.106192982974676</v>
       </c>
       <c r="G78" s="7">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H78" s="7">
         <v>0.1</v>
       </c>
       <c r="I78" s="7">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="K78" s="7">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="7"/>
-        <v>51.874763294238051</v>
+        <f t="shared" si="8"/>
+        <v>20.106192982974676</v>
       </c>
       <c r="M78" s="7">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="N78" s="7">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="P78" s="7">
-        <v>2.4700000000000002</v>
+        <v>1.57</v>
       </c>
       <c r="Q78" s="7">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -49504,46 +49395,46 @@
         <v>391</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="6"/>
-        <v>31.415926535897931</v>
+        <f t="shared" si="7"/>
+        <v>11.780972450961723</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="4"/>
-        <v>59.395736106932027</v>
+        <f t="shared" si="5"/>
+        <v>21.642431790580083</v>
       </c>
       <c r="G79" s="7">
-        <v>4.4000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="H79" s="7">
         <v>0.1</v>
       </c>
       <c r="I79" s="7">
-        <v>2.75</v>
+        <v>1.66</v>
       </c>
       <c r="K79" s="7">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="7"/>
-        <v>59.395736106932027</v>
+        <f t="shared" si="8"/>
+        <v>21.642431790580083</v>
       </c>
       <c r="M79" s="7">
-        <v>2.75</v>
+        <v>1.66</v>
       </c>
       <c r="N79" s="7">
-        <v>4.4000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="P79" s="7">
-        <v>2.72</v>
+        <v>1.62</v>
       </c>
       <c r="Q79" s="7">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -49551,46 +49442,46 @@
         <v>391</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="6"/>
-        <v>35.342917352885173</v>
+        <f t="shared" si="7"/>
+        <v>12.566370614359172</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="4"/>
-        <v>66.051985541725401</v>
+        <f t="shared" si="5"/>
+        <v>22.965827695904785</v>
       </c>
       <c r="G80" s="7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H80" s="7">
         <v>0.1</v>
       </c>
       <c r="I80" s="7">
-        <v>2.9</v>
+        <v>1.71</v>
       </c>
       <c r="K80" s="7">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="7"/>
-        <v>66.051985541725401</v>
+        <f t="shared" si="8"/>
+        <v>22.965827695904785</v>
       </c>
       <c r="M80" s="7">
-        <v>2.9</v>
+        <v>1.71</v>
       </c>
       <c r="N80" s="7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="P80" s="7">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="Q80" s="7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -49598,46 +49489,46 @@
         <v>391</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="6"/>
-        <v>39.269908169872416</v>
+        <f t="shared" si="7"/>
+        <v>14.137166941154069</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="4"/>
-        <v>73.061664150047619</v>
+        <f t="shared" si="5"/>
+        <v>25.730429231063802</v>
       </c>
       <c r="G81" s="7">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H81" s="7">
         <v>0.1</v>
       </c>
       <c r="I81" s="7">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="K81" s="7">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="7"/>
-        <v>73.061664150047619</v>
+        <f t="shared" si="8"/>
+        <v>25.730429231063802</v>
       </c>
       <c r="M81" s="7">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="N81" s="7">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="P81" s="7">
-        <v>3.03</v>
+        <v>1.77</v>
       </c>
       <c r="Q81" s="7">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -49645,46 +49536,46 @@
         <v>391</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="6"/>
-        <v>47.123889803846893</v>
+        <f t="shared" si="7"/>
+        <v>15.707963267948966</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="4"/>
-        <v>90.792027688745009</v>
+        <f t="shared" si="5"/>
+        <v>28.652110398902309</v>
       </c>
       <c r="G82" s="7">
-        <v>6.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H82" s="7">
         <v>0.1</v>
       </c>
       <c r="I82" s="7">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="K82" s="7">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="7"/>
-        <v>90.792027688745009</v>
+        <f t="shared" si="8"/>
+        <v>28.652110398902309</v>
       </c>
       <c r="M82" s="7">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="N82" s="7">
-        <v>6.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P82" s="7">
-        <v>3.33</v>
+        <v>1.87</v>
       </c>
       <c r="Q82" s="7">
-        <v>6.6</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -49692,46 +49583,46 @@
         <v>391</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="6"/>
-        <v>54.977871437821378</v>
+        <f t="shared" si="7"/>
+        <v>19.634954084936208</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="4"/>
-        <v>104.63467031862506</v>
+        <f t="shared" si="5"/>
+        <v>38.013271108436506</v>
       </c>
       <c r="G83" s="7">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H83" s="7">
         <v>0.1</v>
       </c>
       <c r="I83" s="7">
-        <v>3.65</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K83" s="7">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="7"/>
-        <v>104.63467031862506</v>
+        <f t="shared" si="8"/>
+        <v>38.013271108436506</v>
       </c>
       <c r="M83" s="7">
-        <v>3.65</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N83" s="7">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="P83" s="7">
-        <v>3.59</v>
+        <v>2.09</v>
       </c>
       <c r="Q83" s="7">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -49739,46 +49630,46 @@
         <v>391</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="6"/>
-        <v>62.831853071795862</v>
+        <f t="shared" si="7"/>
+        <v>23.561944901923447</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="4"/>
-        <v>119.45906065275187</v>
+        <f t="shared" si="5"/>
+        <v>45.238934211693021</v>
       </c>
       <c r="G84" s="7">
-        <v>9.6</v>
+        <v>3.3</v>
       </c>
       <c r="H84" s="7">
         <v>0.1</v>
       </c>
       <c r="I84" s="7">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="K84" s="7">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="7"/>
-        <v>119.45906065275187</v>
+        <f t="shared" si="8"/>
+        <v>45.238934211693021</v>
       </c>
       <c r="M84" s="7">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="N84" s="7">
-        <v>9.6</v>
+        <v>3.3</v>
       </c>
       <c r="P84" s="7">
-        <v>3.84</v>
+        <v>2.29</v>
       </c>
       <c r="Q84" s="7">
-        <v>8.8000000000000007</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -49786,46 +49677,46 @@
         <v>391</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="6"/>
-        <v>70.685834705770347</v>
+        <f t="shared" si="7"/>
+        <v>27.488935718910689</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="4"/>
-        <v>135.26519869112556</v>
+        <f t="shared" si="5"/>
+        <v>51.874763294238051</v>
       </c>
       <c r="G85" s="7">
-        <v>10.8</v>
+        <v>3.9</v>
       </c>
       <c r="H85" s="7">
         <v>0.1</v>
       </c>
       <c r="I85" s="7">
-        <v>4.1500000000000004</v>
+        <v>2.57</v>
       </c>
       <c r="K85" s="7">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="7"/>
-        <v>135.26519869112556</v>
+        <f t="shared" si="8"/>
+        <v>51.874763294238051</v>
       </c>
       <c r="M85" s="7">
-        <v>4.1500000000000004</v>
+        <v>2.57</v>
       </c>
       <c r="N85" s="7">
-        <v>10.8</v>
+        <v>3.9</v>
       </c>
       <c r="P85" s="7">
-        <v>4.07</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="Q85" s="7">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -49833,46 +49724,46 @@
         <v>391</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="6"/>
-        <v>78.539816339744831</v>
+        <f t="shared" si="7"/>
+        <v>31.415926535897931</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="4"/>
-        <v>148.61696746888211</v>
+        <f t="shared" si="5"/>
+        <v>59.395736106932027</v>
       </c>
       <c r="G86" s="7">
-        <v>12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H86" s="7">
         <v>0.1</v>
       </c>
       <c r="I86" s="7">
-        <v>4.3499999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="K86" s="7">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="7"/>
-        <v>148.61696746888211</v>
+        <f t="shared" si="8"/>
+        <v>59.395736106932027</v>
       </c>
       <c r="M86" s="7">
-        <v>4.3499999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="N86" s="7">
-        <v>12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P86" s="7">
-        <v>4.29</v>
+        <v>2.72</v>
       </c>
       <c r="Q86" s="7">
-        <v>11</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -49880,46 +49771,46 @@
         <v>391</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="6"/>
-        <v>82.466807156732074</v>
+        <f t="shared" si="7"/>
+        <v>35.342917352885173</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
-        <v>155.52847130677972</v>
+        <f t="shared" si="5"/>
+        <v>66.051985541725401</v>
       </c>
       <c r="G87" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H87" s="7">
         <v>0.1</v>
       </c>
       <c r="I87" s="7">
-        <v>4.45</v>
+        <v>2.9</v>
       </c>
       <c r="K87" s="7">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="7"/>
-        <v>155.52847130677972</v>
+        <f t="shared" si="8"/>
+        <v>66.051985541725401</v>
       </c>
       <c r="M87" s="7">
-        <v>4.45</v>
+        <v>2.9</v>
       </c>
       <c r="N87" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P87" s="7">
-        <v>4.3899999999999997</v>
+        <v>2.88</v>
       </c>
       <c r="Q87" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -49927,46 +49818,46 @@
         <v>391</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="6"/>
-        <v>94.247779607693786</v>
+        <f t="shared" si="7"/>
+        <v>39.269908169872416</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="4"/>
-        <v>177.20546061654926</v>
+        <f t="shared" si="5"/>
+        <v>73.061664150047619</v>
       </c>
       <c r="G88" s="7">
-        <v>14.4</v>
+        <v>5.5</v>
       </c>
       <c r="H88" s="7">
         <v>0.1</v>
       </c>
       <c r="I88" s="7">
-        <v>4.75</v>
+        <v>3.05</v>
       </c>
       <c r="K88" s="7">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="7"/>
-        <v>177.20546061654926</v>
+        <f t="shared" si="8"/>
+        <v>73.061664150047619</v>
       </c>
       <c r="M88" s="7">
-        <v>4.75</v>
+        <v>3.05</v>
       </c>
       <c r="N88" s="7">
-        <v>14.4</v>
+        <v>5.5</v>
       </c>
       <c r="P88" s="7">
-        <v>4.7</v>
+        <v>3.03</v>
       </c>
       <c r="Q88" s="7">
-        <v>14</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -49974,46 +49865,46 @@
         <v>391</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="6"/>
-        <v>102.10176124166827</v>
+        <f t="shared" si="7"/>
+        <v>47.123889803846893</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="4"/>
-        <v>192.44218498645978</v>
+        <f t="shared" si="5"/>
+        <v>90.792027688745009</v>
       </c>
       <c r="G89" s="7">
-        <v>15.6</v>
+        <v>6.6</v>
       </c>
       <c r="H89" s="7">
         <v>0.1</v>
       </c>
       <c r="I89" s="7">
-        <v>4.95</v>
+        <v>3.4</v>
       </c>
       <c r="K89" s="7">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="L89" s="7">
-        <f t="shared" si="7"/>
-        <v>192.44218498645978</v>
+        <f t="shared" si="8"/>
+        <v>90.792027688745009</v>
       </c>
       <c r="M89" s="7">
-        <v>4.95</v>
+        <v>3.4</v>
       </c>
       <c r="N89" s="7">
-        <v>15.6</v>
+        <v>6.6</v>
       </c>
       <c r="P89" s="7">
-        <v>4.8899999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="Q89" s="7">
-        <v>15</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -50021,46 +49912,46 @@
         <v>391</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="6"/>
-        <v>117.80972450961724</v>
+        <f t="shared" si="7"/>
+        <v>54.977871437821378</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="4"/>
-        <v>229.02210444669595</v>
+        <f t="shared" si="5"/>
+        <v>104.63467031862506</v>
       </c>
       <c r="G90" s="7">
-        <v>18</v>
+        <v>7.7</v>
       </c>
       <c r="H90" s="7">
         <v>0.1</v>
       </c>
       <c r="I90" s="7">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="K90" s="7">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="7"/>
-        <v>229.02210444669595</v>
+        <f t="shared" si="8"/>
+        <v>104.63467031862506</v>
       </c>
       <c r="M90" s="7">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="N90" s="7">
-        <v>18</v>
+        <v>7.7</v>
       </c>
       <c r="P90" s="7">
-        <v>5.34</v>
+        <v>3.59</v>
       </c>
       <c r="Q90" s="7">
-        <v>18</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -50068,46 +49959,46 @@
         <v>391</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="6"/>
-        <v>157.07963267948966</v>
+        <f t="shared" si="7"/>
+        <v>62.831853071795862</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="4"/>
-        <v>316.69217443593607</v>
+        <f t="shared" si="5"/>
+        <v>119.45906065275187</v>
       </c>
       <c r="G91" s="7">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="H91" s="7">
         <v>0.1</v>
       </c>
       <c r="I91" s="7">
-        <v>6.35</v>
+        <v>3.9</v>
       </c>
       <c r="K91" s="7">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="7"/>
-        <v>316.69217443593607</v>
+        <f t="shared" si="8"/>
+        <v>119.45906065275187</v>
       </c>
       <c r="M91" s="7">
-        <v>6.35</v>
+        <v>3.9</v>
       </c>
       <c r="N91" s="7">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="P91" s="7">
-        <v>6.17</v>
+        <v>3.84</v>
       </c>
       <c r="Q91" s="7">
-        <v>24</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -50115,46 +50006,46 @@
         <v>391</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="6"/>
-        <v>172.78759594743863</v>
+        <f t="shared" si="7"/>
+        <v>70.685834705770347</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="4"/>
-        <v>347.32270280843659</v>
+        <f t="shared" si="5"/>
+        <v>135.26519869112556</v>
       </c>
       <c r="G92" s="7">
-        <v>26.4</v>
+        <v>10.8</v>
       </c>
       <c r="H92" s="7">
         <v>0.1</v>
       </c>
       <c r="I92" s="7">
-        <v>6.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K92" s="7">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L92" s="7">
-        <f t="shared" si="7"/>
-        <v>347.32270280843659</v>
+        <f t="shared" si="8"/>
+        <v>135.26519869112556</v>
       </c>
       <c r="M92" s="7">
-        <v>6.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N92" s="7">
-        <v>26.4</v>
+        <v>10.8</v>
       </c>
       <c r="P92" s="7">
-        <v>6.47</v>
+        <v>4.07</v>
       </c>
       <c r="Q92" s="7">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -50162,46 +50053,46 @@
         <v>391</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="6"/>
-        <v>196.34954084936206</v>
+        <f t="shared" si="7"/>
+        <v>78.539816339744831</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="4"/>
-        <v>390.36252216261676</v>
+        <f t="shared" si="5"/>
+        <v>148.61696746888211</v>
       </c>
       <c r="G93" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H93" s="7">
         <v>0.1</v>
       </c>
       <c r="I93" s="7">
-        <v>7.05</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K93" s="7">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" si="7"/>
-        <v>390.36252216261676</v>
+        <f t="shared" si="8"/>
+        <v>148.61696746888211</v>
       </c>
       <c r="M93" s="7">
-        <v>7.05</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="N93" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P93" s="7">
-        <v>6.9</v>
+        <v>4.29</v>
       </c>
       <c r="Q93" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -50209,46 +50100,46 @@
         <v>391</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="6"/>
-        <v>235.61944901923448</v>
+        <f t="shared" si="7"/>
+        <v>82.466807156732074</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="4"/>
-        <v>471.72977189059236</v>
+        <f t="shared" si="5"/>
+        <v>155.52847130677972</v>
       </c>
       <c r="G94" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H94" s="7">
         <v>0.1</v>
       </c>
       <c r="I94" s="7">
-        <v>7.75</v>
+        <v>4.45</v>
       </c>
       <c r="K94" s="7">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="7"/>
-        <v>471.72977189059236</v>
+        <f t="shared" si="8"/>
+        <v>155.52847130677972</v>
       </c>
       <c r="M94" s="7">
-        <v>7.75</v>
+        <v>4.45</v>
       </c>
       <c r="N94" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="P94" s="7">
-        <v>7.55</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="Q94" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -50256,46 +50147,46 @@
         <v>391</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="6"/>
-        <v>251.32741228718345</v>
+        <f t="shared" si="7"/>
+        <v>94.247779607693786</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="4"/>
-        <v>502.6548245743669</v>
+        <f t="shared" si="5"/>
+        <v>177.20546061654926</v>
       </c>
       <c r="G95" s="7">
-        <v>38.4</v>
+        <v>14.4</v>
       </c>
       <c r="H95" s="7">
         <v>0.1</v>
       </c>
       <c r="I95" s="7">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="K95" s="7">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="L95" s="7">
-        <f t="shared" si="7"/>
-        <v>502.6548245743669</v>
+        <f t="shared" si="8"/>
+        <v>177.20546061654926</v>
       </c>
       <c r="M95" s="7">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N95" s="7">
-        <v>38.4</v>
+        <v>14.4</v>
       </c>
       <c r="P95" s="7">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q95" s="7">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -50303,46 +50194,46 @@
         <v>391</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="6"/>
-        <v>274.88935718910687</v>
+        <f t="shared" si="7"/>
+        <v>102.10176124166827</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="4"/>
-        <v>547.59923447478582</v>
+        <f t="shared" si="5"/>
+        <v>192.44218498645978</v>
       </c>
       <c r="G96" s="7">
-        <v>42</v>
+        <v>15.6</v>
       </c>
       <c r="H96" s="7">
         <v>0.1</v>
       </c>
       <c r="I96" s="7">
-        <v>8.35</v>
+        <v>4.95</v>
       </c>
       <c r="K96" s="7">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L96" s="7">
-        <f t="shared" si="7"/>
-        <v>547.59923447478582</v>
+        <f t="shared" si="8"/>
+        <v>192.44218498645978</v>
       </c>
       <c r="M96" s="7">
-        <v>8.35</v>
+        <v>4.95</v>
       </c>
       <c r="N96" s="7">
-        <v>42</v>
+        <v>15.6</v>
       </c>
       <c r="P96" s="7">
-        <v>8.16</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="Q96" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -50350,46 +50241,46 @@
         <v>391</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="6"/>
-        <v>314.15926535897933</v>
+        <f t="shared" si="7"/>
+        <v>117.80972450961724</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="4"/>
-        <v>622.11388522711889</v>
+        <f t="shared" si="5"/>
+        <v>229.02210444669595</v>
       </c>
       <c r="G97" s="7">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H97" s="7">
         <v>0.1</v>
       </c>
       <c r="I97" s="7">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="K97" s="7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="7"/>
-        <v>622.11388522711889</v>
+        <f t="shared" si="8"/>
+        <v>229.02210444669595</v>
       </c>
       <c r="M97" s="7">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="N97" s="7">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="P97" s="7">
-        <v>8.73</v>
+        <v>5.34</v>
       </c>
       <c r="Q97" s="7">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -50397,965 +50288,1289 @@
         <v>391</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="6"/>
-        <v>392.69908169872411</v>
+        <f t="shared" si="7"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="4"/>
-        <v>785.39816339744834</v>
+        <f t="shared" si="5"/>
+        <v>316.69217443593607</v>
       </c>
       <c r="G98" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H98" s="7">
         <v>0.1</v>
       </c>
       <c r="I98" s="7">
-        <v>10</v>
+        <v>6.35</v>
       </c>
       <c r="K98" s="7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="7"/>
-        <v>785.39816339744834</v>
+        <f t="shared" si="8"/>
+        <v>316.69217443593607</v>
       </c>
       <c r="M98" s="7">
-        <v>10</v>
+        <v>6.35</v>
       </c>
       <c r="N98" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P98" s="7">
-        <v>9.76</v>
+        <v>6.17</v>
       </c>
       <c r="Q98" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="58" t="s">
-        <v>1114</v>
+      <c r="B99" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="6"/>
-        <v>471.23889803846896</v>
+        <f t="shared" si="7"/>
+        <v>172.78759594743863</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="4"/>
-        <v>929.71036353274928</v>
+        <f t="shared" si="5"/>
+        <v>347.32270280843659</v>
       </c>
       <c r="G99" s="7">
-        <v>72</v>
+        <v>26.4</v>
       </c>
       <c r="H99" s="7">
         <v>0.1</v>
       </c>
-      <c r="I99" s="57">
-        <v>10.88</v>
+      <c r="I99" s="7">
+        <v>6.65</v>
       </c>
       <c r="K99" s="7">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="7"/>
-        <v>929.71036353274928</v>
-      </c>
-      <c r="M99" s="57">
-        <v>10.88</v>
+        <f t="shared" si="8"/>
+        <v>347.32270280843659</v>
+      </c>
+      <c r="M99" s="7">
+        <v>6.65</v>
       </c>
       <c r="N99" s="7">
-        <v>72</v>
-      </c>
-      <c r="P99" s="57">
-        <v>10.7</v>
+        <v>26.4</v>
+      </c>
+      <c r="P99" s="7">
+        <v>6.47</v>
       </c>
       <c r="Q99" s="7">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B100" s="58" t="s">
-        <v>1115</v>
+      <c r="B100" s="55" t="s">
+        <v>1107</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="6"/>
-        <v>628.31853071795865</v>
+        <f t="shared" si="7"/>
+        <v>196.34954084936206</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="4"/>
-        <v>1227.1846303085131</v>
+        <f t="shared" si="5"/>
+        <v>390.36252216261676</v>
       </c>
       <c r="G100" s="7">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H100" s="7">
         <v>0.1</v>
       </c>
       <c r="I100" s="7">
-        <v>12.5</v>
+        <v>7.05</v>
       </c>
       <c r="K100" s="7">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="7"/>
-        <v>1227.1846303085131</v>
+        <f t="shared" si="8"/>
+        <v>390.36252216261676</v>
       </c>
       <c r="M100" s="7">
-        <v>12.5</v>
+        <v>7.05</v>
       </c>
       <c r="N100" s="7">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="P100" s="7">
-        <v>12.35</v>
+        <v>6.9</v>
       </c>
       <c r="Q100" s="7">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B101" s="58" t="s">
-        <v>1116</v>
+      <c r="B101" s="55" t="s">
+        <v>1108</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="6"/>
-        <v>785.39816339744823</v>
+        <f t="shared" si="7"/>
+        <v>235.61944901923448</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="4"/>
-        <v>1539.3804002589986</v>
+        <f t="shared" si="5"/>
+        <v>471.72977189059236</v>
       </c>
       <c r="G101" s="7">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H101" s="7">
         <v>0.1</v>
       </c>
       <c r="I101" s="7">
-        <v>14</v>
+        <v>7.75</v>
       </c>
       <c r="K101" s="7">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="7"/>
-        <v>1539.3804002589986</v>
+        <f t="shared" si="8"/>
+        <v>471.72977189059236</v>
       </c>
       <c r="M101" s="7">
-        <v>14</v>
+        <v>7.75</v>
       </c>
       <c r="N101" s="7">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="P101" s="7">
-        <v>13.85</v>
+        <v>7.55</v>
       </c>
       <c r="Q101" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="58" t="s">
-        <v>1117</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" s="55" t="s">
+        <v>1109</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="6"/>
-        <v>1.5707963267948966</v>
+        <f t="shared" si="7"/>
+        <v>251.32741228718345</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="4"/>
-        <v>2.642079421669016</v>
+        <f t="shared" si="5"/>
+        <v>502.6548245743669</v>
       </c>
       <c r="G102" s="7">
-        <v>0.24</v>
+        <v>38.4</v>
       </c>
       <c r="H102" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I102" s="7">
-        <v>0.57999999999999996</v>
+        <v>8</v>
       </c>
       <c r="K102" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="58" t="s">
-        <v>1118</v>
+        <v>3200</v>
+      </c>
+      <c r="L102" s="7">
+        <f t="shared" si="8"/>
+        <v>502.6548245743669</v>
+      </c>
+      <c r="M102" s="7">
+        <v>8</v>
+      </c>
+      <c r="N102" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="P102" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>1110</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="6"/>
-        <v>1.8849555921538759</v>
+        <f t="shared" si="7"/>
+        <v>274.88935718910687</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="4"/>
-        <v>3.2169908772759479</v>
+        <f t="shared" si="5"/>
+        <v>547.59923447478582</v>
       </c>
       <c r="G103" s="7">
-        <v>0.28000000000000003</v>
+        <v>42</v>
       </c>
       <c r="H103" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I103" s="7">
-        <v>0.64</v>
+        <v>8.35</v>
       </c>
       <c r="K103" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="58" t="s">
-        <v>1119</v>
+        <v>3500</v>
+      </c>
+      <c r="L103" s="7">
+        <f t="shared" si="8"/>
+        <v>547.59923447478582</v>
+      </c>
+      <c r="M103" s="7">
+        <v>8.35</v>
+      </c>
+      <c r="N103" s="7">
+        <v>42</v>
+      </c>
+      <c r="P103" s="7">
+        <v>8.16</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" s="55" t="s">
+        <v>1111</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="6"/>
-        <v>2.1991148575128552</v>
+        <f t="shared" si="7"/>
+        <v>314.15926535897933</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="4"/>
-        <v>3.6316811075498019</v>
+        <f t="shared" si="5"/>
+        <v>622.11388522711889</v>
       </c>
       <c r="G104" s="7">
-        <v>0.32</v>
+        <v>48</v>
       </c>
       <c r="H104" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I104" s="7">
-        <v>0.68</v>
+        <v>8.9</v>
       </c>
       <c r="K104" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="58" t="s">
-        <v>1120</v>
+        <v>4000</v>
+      </c>
+      <c r="L104" s="7">
+        <f t="shared" si="8"/>
+        <v>622.11388522711889</v>
+      </c>
+      <c r="M104" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="N104" s="7">
+        <v>48</v>
+      </c>
+      <c r="P104" s="7">
+        <v>8.73</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>1112</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="6"/>
-        <v>2.5132741228718345</v>
+        <f t="shared" si="7"/>
+        <v>392.69908169872411</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
-        <v>4.1853868127450014</v>
+        <f t="shared" si="5"/>
+        <v>785.39816339744834</v>
       </c>
       <c r="G105" s="7">
-        <v>0.36</v>
+        <v>60</v>
       </c>
       <c r="H105" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I105" s="7">
-        <v>0.73</v>
+        <v>10</v>
       </c>
       <c r="K105" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="L105" s="7">
+        <f t="shared" si="8"/>
+        <v>785.39816339744834</v>
+      </c>
+      <c r="M105" s="7">
+        <v>10</v>
+      </c>
+      <c r="N105" s="7">
+        <v>60</v>
+      </c>
+      <c r="P105" s="7">
+        <v>9.76</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B106" s="58" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="6"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="7"/>
+        <v>471.23889803846896</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
-        <v>5.2810172506844406</v>
+        <f t="shared" si="5"/>
+        <v>929.71036353274928</v>
       </c>
       <c r="G106" s="7">
-        <v>0.4</v>
+        <v>72</v>
       </c>
       <c r="H106" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I106" s="7">
-        <v>0.82</v>
+        <v>0.1</v>
+      </c>
+      <c r="I106" s="57">
+        <v>10.88</v>
       </c>
       <c r="K106" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="L106" s="7">
+        <f t="shared" si="8"/>
+        <v>929.71036353274928</v>
+      </c>
+      <c r="M106" s="57">
+        <v>10.88</v>
+      </c>
+      <c r="N106" s="7">
+        <v>72</v>
+      </c>
+      <c r="P106" s="57">
+        <v>10.7</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B107" s="58" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="6"/>
-        <v>4.3982297150257104</v>
+        <f t="shared" si="7"/>
+        <v>628.31853071795865</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="4"/>
-        <v>7.3898113194065909</v>
+        <f t="shared" si="5"/>
+        <v>1227.1846303085131</v>
       </c>
       <c r="G107" s="7">
-        <v>0.55000000000000004</v>
+        <v>96</v>
       </c>
       <c r="H107" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I107" s="7">
-        <v>0.97</v>
+        <v>12.5</v>
       </c>
       <c r="K107" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="L107" s="7">
+        <f t="shared" si="8"/>
+        <v>1227.1846303085131</v>
+      </c>
+      <c r="M107" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="N107" s="7">
+        <v>96</v>
+      </c>
+      <c r="P107" s="7">
+        <v>12.35</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="B108" s="58" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="6"/>
-        <v>4.7123889803846897</v>
+        <f t="shared" si="7"/>
+        <v>785.39816339744823</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
-        <v>7.8539816339744828</v>
+        <f t="shared" si="5"/>
+        <v>1539.3804002589986</v>
       </c>
       <c r="G108" s="7">
-        <v>0.6</v>
+        <v>120</v>
       </c>
       <c r="H108" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I108" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K108" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="L108" s="7">
+        <f t="shared" si="8"/>
+        <v>1539.3804002589986</v>
+      </c>
+      <c r="M108" s="7">
+        <v>14</v>
+      </c>
+      <c r="N108" s="7">
+        <v>120</v>
+      </c>
+      <c r="P108" s="7">
+        <v>13.85</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B109" s="58" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="6"/>
-        <v>5.026548245743669</v>
+        <f t="shared" si="7"/>
+        <v>1.5707963267948966</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="4"/>
-        <v>8.4948665353068016</v>
+        <f t="shared" si="5"/>
+        <v>2.642079421669016</v>
       </c>
       <c r="G109" s="7">
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
       <c r="H109" s="7">
         <v>0.2</v>
       </c>
       <c r="I109" s="7">
-        <v>1.04</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K109" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B110" s="58" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="6"/>
-        <v>6.2831853071795862</v>
+        <f t="shared" si="7"/>
+        <v>1.8849555921538759</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="4"/>
-        <v>10.568317686676064</v>
+        <f t="shared" si="5"/>
+        <v>3.2169908772759479</v>
       </c>
       <c r="G110" s="7">
-        <v>0.8</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H110" s="7">
         <v>0.2</v>
       </c>
       <c r="I110" s="7">
-        <v>1.1599999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="K110" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B111" s="58" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="6"/>
-        <v>7.8539816339744828</v>
+        <f t="shared" si="7"/>
+        <v>2.1991148575128552</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="4"/>
-        <v>13.069810837096938</v>
+        <f t="shared" si="5"/>
+        <v>3.6316811075498019</v>
       </c>
       <c r="G111" s="7">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="H111" s="7">
         <v>0.2</v>
       </c>
       <c r="I111" s="7">
-        <v>1.29</v>
+        <v>0.68</v>
       </c>
       <c r="K111" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B112" s="58" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="6"/>
-        <v>9.4247779607693793</v>
+        <f t="shared" si="7"/>
+        <v>2.5132741228718345</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="4"/>
-        <v>16.51299638543135</v>
+        <f t="shared" si="5"/>
+        <v>4.1853868127450014</v>
       </c>
       <c r="G112" s="7">
-        <v>1.2</v>
+        <v>0.36</v>
       </c>
       <c r="H112" s="7">
         <v>0.2</v>
       </c>
       <c r="I112" s="7">
-        <v>1.45</v>
+        <v>0.73</v>
       </c>
       <c r="K112" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="58" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="6"/>
-        <v>10.995574287564276</v>
+        <f t="shared" si="7"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="4"/>
-        <v>18.385385606970868</v>
+        <f t="shared" si="5"/>
+        <v>5.2810172506844406</v>
       </c>
       <c r="G113" s="7">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H113" s="7">
         <v>0.2</v>
       </c>
       <c r="I113" s="7">
-        <v>1.53</v>
+        <v>0.82</v>
       </c>
       <c r="K113" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="58" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="6"/>
-        <v>12.566370614359172</v>
+        <f t="shared" si="7"/>
+        <v>4.3982297150257104</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="4"/>
-        <v>21.124069002737762</v>
+        <f t="shared" si="5"/>
+        <v>7.3898113194065909</v>
       </c>
       <c r="G114" s="7">
-        <v>1.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H114" s="7">
         <v>0.2</v>
       </c>
       <c r="I114" s="7">
-        <v>1.64</v>
+        <v>0.97</v>
       </c>
       <c r="K114" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="58" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="6"/>
-        <v>14.137166941154069</v>
+        <f t="shared" si="7"/>
+        <v>4.7123889803846897</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="4"/>
-        <v>23.778714795021145</v>
+        <f t="shared" si="5"/>
+        <v>7.8539816339744828</v>
       </c>
       <c r="G115" s="7">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H115" s="7">
         <v>0.2</v>
       </c>
       <c r="I115" s="7">
-        <v>1.74</v>
+        <v>1</v>
       </c>
       <c r="K115" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="58" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="6"/>
-        <v>15.707963267948966</v>
+        <f t="shared" si="7"/>
+        <v>5.026548245743669</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="4"/>
-        <v>26.302199094017148</v>
+        <f t="shared" si="5"/>
+        <v>8.4948665353068016</v>
       </c>
       <c r="G116" s="7">
-        <v>2</v>
+        <v>0.65</v>
       </c>
       <c r="H116" s="7">
         <v>0.2</v>
       </c>
       <c r="I116" s="7">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="K116" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="58" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="6"/>
-        <v>18.849555921538759</v>
+        <f t="shared" si="7"/>
+        <v>6.2831853071795862</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="4"/>
-        <v>31.415926535897931</v>
+        <f t="shared" si="5"/>
+        <v>10.568317686676064</v>
       </c>
       <c r="G117" s="7">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" s="7">
         <v>0.2</v>
       </c>
       <c r="I117" s="7">
-        <v>2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K117" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="58" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="6"/>
-        <v>21.991148575128552</v>
+        <f t="shared" si="7"/>
+        <v>7.8539816339744828</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="4"/>
-        <v>36.643536711471349</v>
+        <f t="shared" si="5"/>
+        <v>13.069810837096938</v>
       </c>
       <c r="G118" s="7">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H118" s="7">
         <v>0.2</v>
       </c>
       <c r="I118" s="7">
-        <v>2.16</v>
+        <v>1.29</v>
       </c>
       <c r="K118" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="58" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="6"/>
-        <v>25.132741228718345</v>
+        <f t="shared" si="7"/>
+        <v>9.4247779607693793</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="4"/>
-        <v>41.909631397051243</v>
+        <f t="shared" si="5"/>
+        <v>16.51299638543135</v>
       </c>
       <c r="G119" s="7">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H119" s="7">
         <v>0.2</v>
       </c>
       <c r="I119" s="7">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
       <c r="K119" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="58" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="6"/>
-        <v>28.274333882308138</v>
+        <f t="shared" si="7"/>
+        <v>10.995574287564276</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="4"/>
-        <v>47.143524757931843</v>
+        <f t="shared" si="5"/>
+        <v>18.385385606970868</v>
       </c>
       <c r="G120" s="7">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H120" s="7">
         <v>0.2</v>
       </c>
       <c r="I120" s="7">
-        <v>2.4500000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="K120" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="58" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="6"/>
-        <v>31.415926535897931</v>
+        <f t="shared" si="7"/>
+        <v>12.566370614359172</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="4"/>
-        <v>52.685294198864213</v>
+        <f t="shared" si="5"/>
+        <v>21.124069002737762</v>
       </c>
       <c r="G121" s="7">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H121" s="7">
         <v>0.2</v>
       </c>
       <c r="I121" s="7">
-        <v>2.59</v>
+        <v>1.64</v>
       </c>
       <c r="K121" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="58" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="6"/>
-        <v>37.699111843077517</v>
+        <f t="shared" si="7"/>
+        <v>14.137166941154069</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="4"/>
-        <v>62.901753508338238</v>
+        <f t="shared" si="5"/>
+        <v>23.778714795021145</v>
       </c>
       <c r="G122" s="7">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H122" s="7">
         <v>0.2</v>
       </c>
       <c r="I122" s="7">
-        <v>2.83</v>
+        <v>1.74</v>
       </c>
       <c r="K122" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="58" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="6"/>
-        <v>47.123889803846893</v>
+        <f t="shared" si="7"/>
+        <v>15.707963267948966</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="4"/>
-        <v>78.923876041646182</v>
+        <f t="shared" si="5"/>
+        <v>26.302199094017148</v>
       </c>
       <c r="G123" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H123" s="7">
         <v>0.2</v>
       </c>
       <c r="I123" s="7">
-        <v>3.17</v>
+        <v>1.83</v>
       </c>
       <c r="K123" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="58" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="6"/>
-        <v>62.831853071795862</v>
+        <f t="shared" si="7"/>
+        <v>18.849555921538759</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="4"/>
-        <v>108.68653944359251</v>
+        <f t="shared" si="5"/>
+        <v>31.415926535897931</v>
       </c>
       <c r="G124" s="7">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H124" s="7">
         <v>0.2</v>
       </c>
       <c r="I124" s="7">
-        <v>3.72</v>
+        <v>2</v>
       </c>
       <c r="K124" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="58" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="6"/>
-        <v>78.539816339744831</v>
+        <f t="shared" si="7"/>
+        <v>21.991148575128552</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="4"/>
-        <v>135.91786456490883</v>
+        <f t="shared" si="5"/>
+        <v>36.643536711471349</v>
       </c>
       <c r="G125" s="7">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="H125" s="7">
         <v>0.2</v>
       </c>
       <c r="I125" s="7">
-        <v>4.16</v>
+        <v>2.16</v>
       </c>
       <c r="K125" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="58" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="6"/>
-        <v>94.247779607693786</v>
+        <f t="shared" si="7"/>
+        <v>25.132741228718345</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="4"/>
-        <v>163.31255250421179</v>
+        <f t="shared" si="5"/>
+        <v>41.909631397051243</v>
       </c>
       <c r="G126" s="7">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="H126" s="7">
         <v>0.2</v>
       </c>
       <c r="I126" s="7">
-        <v>4.5599999999999996</v>
+        <v>2.31</v>
       </c>
       <c r="K126" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="58" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="6"/>
-        <v>100.53096491487338</v>
+        <f t="shared" si="7"/>
+        <v>28.274333882308138</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="4"/>
-        <v>174.23351396625333</v>
+        <f t="shared" si="5"/>
+        <v>47.143524757931843</v>
       </c>
       <c r="G127" s="7">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="H127" s="7">
         <v>0.2</v>
       </c>
       <c r="I127" s="7">
-        <v>4.71</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K127" s="7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="58" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="6"/>
-        <v>201.06192982974676</v>
+        <f t="shared" si="7"/>
+        <v>31.415926535897931</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="4"/>
-        <v>348.36806776391859</v>
+        <f t="shared" si="5"/>
+        <v>52.685294198864213</v>
       </c>
       <c r="G128" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H128" s="7">
         <v>0.2</v>
       </c>
       <c r="I128" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="K128" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D129" s="7">
+        <f t="shared" si="7"/>
+        <v>37.699111843077517</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="5"/>
+        <v>62.901753508338238</v>
+      </c>
+      <c r="G129" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="K129" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="58" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D130" s="7">
+        <f t="shared" si="7"/>
+        <v>47.123889803846893</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" si="5"/>
+        <v>78.923876041646182</v>
+      </c>
+      <c r="G130" s="7">
+        <v>6</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I130" s="7">
+        <v>3.17</v>
+      </c>
+      <c r="K130" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="58" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D131" s="7">
+        <f t="shared" si="7"/>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="5"/>
+        <v>108.68653944359251</v>
+      </c>
+      <c r="G131" s="7">
+        <v>8</v>
+      </c>
+      <c r="H131" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I131" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="K131" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="58" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D132" s="7">
+        <f t="shared" si="7"/>
+        <v>78.539816339744831</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="5"/>
+        <v>135.91786456490883</v>
+      </c>
+      <c r="G132" s="7">
+        <v>10</v>
+      </c>
+      <c r="H132" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I132" s="7">
+        <v>4.16</v>
+      </c>
+      <c r="K132" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D133" s="7">
+        <f t="shared" si="7"/>
+        <v>94.247779607693786</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="5"/>
+        <v>163.31255250421179</v>
+      </c>
+      <c r="G133" s="7">
+        <v>12</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I133" s="7">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K133" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="58" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D134" s="7">
+        <f t="shared" si="7"/>
+        <v>100.53096491487338</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="5"/>
+        <v>174.23351396625333</v>
+      </c>
+      <c r="G134" s="7">
+        <v>13</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I134" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="K134" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D135" s="7">
+        <f t="shared" si="7"/>
+        <v>201.06192982974676</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="5"/>
+        <v>348.36806776391859</v>
+      </c>
+      <c r="G135" s="7">
+        <v>25</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I135" s="7">
         <v>6.66</v>
       </c>
-      <c r="K128" s="7">
+      <c r="K135" s="7">
         <v>640</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J128">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:J135">
     <sortState ref="A2:J53">
       <sortCondition descending="1" ref="D2:D53"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N54:N101">
+  <conditionalFormatting sqref="N61:N108">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>$G54</formula>
+      <formula>$G61</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G101">
+  <conditionalFormatting sqref="G61:G108">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>$G54</formula>
+      <formula>$G61</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -7648,7 +7648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7861,6 +7861,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8633,32 +8636,31 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG684"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G537" sqref="G537"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O537" sqref="O537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="5.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.375" style="1" customWidth="1"/>
+    <col min="22" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8834,9 +8836,15 @@
       </c>
       <c r="Y2" s="55"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AA2" s="7">
+        <v>6300</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>880</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>37</v>
+      </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -8914,9 +8922,15 @@
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
+      <c r="AA3" s="7">
+        <v>19300</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>2570</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>120</v>
+      </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -8994,9 +9008,15 @@
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AA4" s="7">
+        <v>38000</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>90</v>
+      </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -9074,9 +9094,15 @@
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
+      <c r="AA5" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>2500</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>80</v>
+      </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -14849,9 +14875,16 @@
       </c>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
-      <c r="AA131" s="7"/>
-      <c r="AB131" s="7"/>
-      <c r="AC131" s="7"/>
+      <c r="AA131" s="7">
+        <v>2800</v>
+      </c>
+      <c r="AB131" s="72">
+        <f>AC131*1.8</f>
+        <v>180</v>
+      </c>
+      <c r="AC131" s="7">
+        <v>100</v>
+      </c>
       <c r="AD131" s="7"/>
       <c r="AE131" s="7"/>
       <c r="AF131" s="7"/>
@@ -15029,9 +15062,16 @@
       </c>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
-      <c r="AA134" s="7"/>
-      <c r="AB134" s="7"/>
-      <c r="AC134" s="7"/>
+      <c r="AA134" s="7">
+        <v>6300</v>
+      </c>
+      <c r="AB134" s="72">
+        <f>AC134*1.8</f>
+        <v>486</v>
+      </c>
+      <c r="AC134" s="7">
+        <v>270</v>
+      </c>
       <c r="AD134" s="7"/>
       <c r="AE134" s="7"/>
       <c r="AF134" s="7"/>
@@ -15614,9 +15654,16 @@
       </c>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
-      <c r="AA146" s="7"/>
-      <c r="AB146" s="7"/>
-      <c r="AC146" s="7"/>
+      <c r="AA146" s="7">
+        <v>14000</v>
+      </c>
+      <c r="AB146" s="72">
+        <f>AC146*1.8</f>
+        <v>900</v>
+      </c>
+      <c r="AC146" s="7">
+        <v>500</v>
+      </c>
       <c r="AD146" s="7"/>
       <c r="AE146" s="7"/>
       <c r="AF146" s="7"/>
@@ -16226,9 +16273,16 @@
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
-      <c r="AA159" s="7"/>
-      <c r="AB159" s="7"/>
-      <c r="AC159" s="7"/>
+      <c r="AA159" s="7">
+        <v>19000</v>
+      </c>
+      <c r="AB159" s="72">
+        <f>AC159*1.8</f>
+        <v>1458</v>
+      </c>
+      <c r="AC159" s="7">
+        <v>810</v>
+      </c>
       <c r="AD159" s="7"/>
       <c r="AE159" s="7"/>
       <c r="AF159" s="7"/>
@@ -18740,9 +18794,16 @@
       </c>
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
-      <c r="AA214" s="7"/>
-      <c r="AB214" s="7"/>
-      <c r="AC214" s="7"/>
+      <c r="AA214" s="7">
+        <v>12000</v>
+      </c>
+      <c r="AB214" s="72">
+        <f>AC214*1.8</f>
+        <v>738</v>
+      </c>
+      <c r="AC214" s="7">
+        <v>410</v>
+      </c>
       <c r="AD214" s="7"/>
       <c r="AE214" s="7"/>
       <c r="AF214" s="7"/>
@@ -18868,9 +18929,16 @@
       </c>
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
-      <c r="AA216" s="7"/>
-      <c r="AB216" s="7"/>
-      <c r="AC216" s="7"/>
+      <c r="AA216" s="7">
+        <v>18000</v>
+      </c>
+      <c r="AB216" s="72">
+        <f>AC216*1.8</f>
+        <v>1044</v>
+      </c>
+      <c r="AC216" s="7">
+        <v>580</v>
+      </c>
       <c r="AD216" s="7"/>
       <c r="AE216" s="7"/>
       <c r="AF216" s="7"/>
@@ -20284,9 +20352,16 @@
       </c>
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
-      <c r="AA247" s="7"/>
-      <c r="AB247" s="7"/>
-      <c r="AC247" s="7"/>
+      <c r="AA247" s="7">
+        <v>81000</v>
+      </c>
+      <c r="AB247" s="72">
+        <f>AC247*1.8</f>
+        <v>4680</v>
+      </c>
+      <c r="AC247" s="7">
+        <v>2600</v>
+      </c>
       <c r="AD247" s="7"/>
       <c r="AE247" s="7"/>
       <c r="AF247" s="7"/>
@@ -20946,9 +21021,16 @@
       </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
-      <c r="AA261" s="7"/>
-      <c r="AB261" s="7"/>
-      <c r="AC261" s="7"/>
+      <c r="AA261" s="7">
+        <v>69000</v>
+      </c>
+      <c r="AB261" s="72">
+        <f>AC261*1.8</f>
+        <v>1890</v>
+      </c>
+      <c r="AC261" s="7">
+        <v>1050</v>
+      </c>
       <c r="AD261" s="7"/>
       <c r="AE261" s="7"/>
       <c r="AF261" s="7"/>
@@ -21560,9 +21642,16 @@
       </c>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
-      <c r="AA274" s="7"/>
-      <c r="AB274" s="7"/>
-      <c r="AC274" s="7"/>
+      <c r="AA274" s="7">
+        <v>185000</v>
+      </c>
+      <c r="AB274" s="72">
+        <f>AC274*1.8</f>
+        <v>5580</v>
+      </c>
+      <c r="AC274" s="7">
+        <v>3100</v>
+      </c>
       <c r="AD274" s="7"/>
       <c r="AE274" s="7"/>
       <c r="AF274" s="7"/>
@@ -39858,6 +39947,15 @@
       </c>
       <c r="X684" s="1">
         <v>4.83</v>
+      </c>
+      <c r="AA684" s="1">
+        <v>2360</v>
+      </c>
+      <c r="AB684" s="1">
+        <v>230</v>
+      </c>
+      <c r="AC684" s="1">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -46728,7 +46826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -49821,7 +49919,7 @@
         <v>1057</v>
       </c>
       <c r="D77" s="7">
-        <f>PI()*POWER(H77/2,2)*10</f>
+        <f t="shared" ref="D77:D108" si="3">PI()*POWER(H77/2,2)*10</f>
         <v>159.04312808798326</v>
       </c>
       <c r="E77" s="56"/>
@@ -49844,7 +49942,7 @@
         <v>1057</v>
       </c>
       <c r="D78" s="7">
-        <f>PI()*POWER(H78/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>125.66370614359172</v>
       </c>
       <c r="E78" s="56"/>
@@ -49867,7 +49965,7 @@
         <v>1057</v>
       </c>
       <c r="D79" s="7">
-        <f>PI()*POWER(H79/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>96.211275016187415</v>
       </c>
       <c r="E79" s="56"/>
@@ -49890,7 +49988,7 @@
         <v>1057</v>
       </c>
       <c r="D80" s="7">
-        <f>PI()*POWER(H80/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>80.424771931898704</v>
       </c>
       <c r="E80" s="56"/>
@@ -49913,7 +50011,7 @@
         <v>1057</v>
       </c>
       <c r="D81" s="7">
-        <f>PI()*POWER(H81/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>70.685834705770347</v>
       </c>
       <c r="E81" s="56"/>
@@ -49936,7 +50034,7 @@
         <v>1057</v>
       </c>
       <c r="D82" s="7">
-        <f>PI()*POWER(H82/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>61.575216010359938</v>
       </c>
       <c r="E82" s="56"/>
@@ -49959,7 +50057,7 @@
         <v>1057</v>
       </c>
       <c r="D83" s="7">
-        <f>PI()*POWER(H83/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>53.092915845667505</v>
       </c>
       <c r="E83" s="56"/>
@@ -49984,15 +50082,15 @@
         <v>1057</v>
       </c>
       <c r="D84" s="7">
-        <f>PI()*POWER(H84/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>49.087385212340521</v>
       </c>
       <c r="E84" s="7">
-        <f>PI()*POWER(I84/2,2)*10</f>
+        <f t="shared" ref="E84:E115" si="4">PI()*POWER(I84/2,2)*10</f>
         <v>53.830593216656915</v>
       </c>
       <c r="F84" s="7">
-        <f>1/J84</f>
+        <f t="shared" ref="F84:F115" si="5">1/J84</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="G84" s="7">
@@ -50019,15 +50117,15 @@
         <v>1057</v>
       </c>
       <c r="D85" s="7">
-        <f>PI()*POWER(H85/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>39.408138246630372</v>
       </c>
       <c r="E85" s="7">
-        <f>PI()*POWER(I85/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>43.558378491563332</v>
       </c>
       <c r="F85" s="7">
-        <f>1/J85</f>
+        <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="G85" s="7">
@@ -50052,15 +50150,15 @@
         <v>1057</v>
       </c>
       <c r="D86" s="1">
-        <f>PI()*POWER(H86/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>35.298935055734916</v>
       </c>
       <c r="E86" s="1">
-        <f>PI()*POWER(I86/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>39.232405407570184</v>
       </c>
       <c r="F86" s="1" t="e">
-        <f>1/J86</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G86" s="1">
@@ -50085,15 +50183,15 @@
         <v>1057</v>
       </c>
       <c r="D87" s="7">
-        <f>PI()*POWER(H87/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>31.415926535897931</v>
       </c>
       <c r="E87" s="7">
-        <f>PI()*POWER(I87/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>35.033030653535079</v>
       </c>
       <c r="F87" s="7">
-        <f>1/J87</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G87" s="7">
@@ -50118,15 +50216,15 @@
         <v>1057</v>
       </c>
       <c r="D88" s="1">
-        <f>PI()*POWER(H88/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>28.352873698647883</v>
       </c>
       <c r="E88" s="1">
-        <f>PI()*POWER(I88/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>31.794048627683999</v>
       </c>
       <c r="F88" s="1" t="e">
-        <f>1/J88</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G88" s="1">
@@ -50151,15 +50249,15 @@
         <v>1057</v>
       </c>
       <c r="D89" s="7">
-        <f>PI()*POWER(H89/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>25.446900494077326</v>
       </c>
       <c r="E89" s="7">
-        <f>PI()*POWER(I89/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>28.622116043042162</v>
       </c>
       <c r="F89" s="7">
-        <f>1/J89</f>
+        <f t="shared" si="5"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="G89" s="7">
@@ -50186,15 +50284,15 @@
         <v>1057</v>
       </c>
       <c r="D90" s="7">
-        <f>PI()*POWER(H90/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>22.698006922186252</v>
       </c>
       <c r="E90" s="7">
-        <f>PI()*POWER(I90/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>25.702005671530447</v>
       </c>
       <c r="F90" s="7">
-        <f>1/J90</f>
+        <f t="shared" si="5"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="G90" s="7">
@@ -50219,15 +50317,15 @@
         <v>1057</v>
       </c>
       <c r="D91" s="1">
-        <f>PI()*POWER(H91/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>20.106192982974676</v>
       </c>
       <c r="E91" s="1">
-        <f>PI()*POWER(I91/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>22.858510890858156</v>
       </c>
       <c r="F91" s="1" t="e">
-        <f>1/J91</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G91" s="1">
@@ -50252,15 +50350,15 @@
         <v>1057</v>
       </c>
       <c r="D92" s="7">
-        <f>PI()*POWER(H92/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>17.671458676442587</v>
       </c>
       <c r="E92" s="7">
-        <f>PI()*POWER(I92/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>20.257272173685813</v>
       </c>
       <c r="F92" s="7">
-        <f>1/J92</f>
+        <f t="shared" si="5"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="G92" s="7">
@@ -50285,15 +50383,15 @@
         <v>1057</v>
       </c>
       <c r="D93" s="1">
-        <f>PI()*POWER(H93/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>16.51299638543135</v>
       </c>
       <c r="E93" s="1">
-        <f>PI()*POWER(I93/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <f>1/J93</f>
+        <f t="shared" si="5"/>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="G93" s="1">
@@ -50318,15 +50416,15 @@
         <v>1057</v>
       </c>
       <c r="D94" s="7">
-        <f>PI()*POWER(H94/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>15.393804002589984</v>
       </c>
       <c r="E94" s="7">
-        <f>PI()*POWER(I94/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>17.718613982172968</v>
       </c>
       <c r="F94" s="7">
-        <f>1/J94</f>
+        <f t="shared" si="5"/>
         <v>1.5384615384615385E-2</v>
       </c>
       <c r="G94" s="7">
@@ -50351,15 +50449,15 @@
         <v>1057</v>
       </c>
       <c r="D95" s="1">
-        <f>PI()*POWER(H95/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>14.313881527918497</v>
       </c>
       <c r="E95" s="1">
-        <f>PI()*POWER(I95/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f>1/J95</f>
+        <f t="shared" si="5"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="G95" s="1">
@@ -50384,15 +50482,15 @@
         <v>1057</v>
       </c>
       <c r="D96" s="7">
-        <f>PI()*POWER(H96/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>13.273228961416876</v>
       </c>
       <c r="E96" s="7">
-        <f>PI()*POWER(I96/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>15.437817715666778</v>
       </c>
       <c r="F96" s="7">
-        <f>1/J96</f>
+        <f t="shared" si="5"/>
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="G96" s="7">
@@ -50417,15 +50515,15 @@
         <v>1057</v>
       </c>
       <c r="D97" s="1">
-        <f>PI()*POWER(H97/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>12.27184630308513</v>
       </c>
       <c r="E97" s="1">
-        <f>PI()*POWER(I97/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f>1/J97</f>
+        <f t="shared" si="5"/>
         <v>1.098901098901099E-2</v>
       </c>
       <c r="G97" s="1">
@@ -50448,15 +50546,15 @@
         <v>1057</v>
       </c>
       <c r="D98" s="1">
-        <f>PI()*POWER(H98/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>11.309733552923255</v>
       </c>
       <c r="E98" s="1">
-        <f>PI()*POWER(I98/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f>1/J98</f>
+        <f t="shared" si="5"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G98" s="1">
@@ -50481,15 +50579,15 @@
         <v>1057</v>
       </c>
       <c r="D99" s="7">
-        <f>PI()*POWER(H99/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>10.935884027146068</v>
       </c>
       <c r="E99" s="7">
-        <f>PI()*POWER(I99/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>12.84786517010245</v>
       </c>
       <c r="F99" s="7">
-        <f>1/J99</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="G99" s="7">
@@ -50516,15 +50614,15 @@
         <v>1057</v>
       </c>
       <c r="D100" s="7">
-        <f>PI()*POWER(H100/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>9.8520345616575931</v>
       </c>
       <c r="E100" s="7">
-        <f>PI()*POWER(I100/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>11.632445804281632</v>
       </c>
       <c r="F100" s="7">
-        <f>1/J100</f>
+        <f t="shared" si="5"/>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="G100" s="7">
@@ -50551,15 +50649,15 @@
         <v>1057</v>
       </c>
       <c r="D101" s="7">
-        <f>PI()*POWER(H101/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>8.8247337639337289</v>
       </c>
       <c r="E101" s="7">
-        <f>PI()*POWER(I101/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>10.513724660338308</v>
       </c>
       <c r="F101" s="7">
-        <f>1/J101</f>
+        <f t="shared" si="5"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G101" s="7">
@@ -50586,15 +50684,15 @@
         <v>1057</v>
       </c>
       <c r="D102" s="7">
-        <f>PI()*POWER(H102/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>7.8539816339744828</v>
       </c>
       <c r="E102" s="7">
-        <f>PI()*POWER(I102/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>9.3999279628794863</v>
       </c>
       <c r="F102" s="7">
-        <f>1/J102</f>
+        <f t="shared" si="5"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="G102" s="7">
@@ -50621,15 +50719,15 @@
         <v>1057</v>
       </c>
       <c r="D103" s="7">
-        <f>PI()*POWER(H103/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>7.0882184246619708</v>
       </c>
       <c r="E103" s="7">
-        <f>PI()*POWER(I103/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>8.5603373262076126</v>
       </c>
       <c r="F103" s="7">
-        <f>1/J103</f>
+        <f t="shared" si="5"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="G103" s="7">
@@ -50654,15 +50752,15 @@
         <v>1057</v>
       </c>
       <c r="D104" s="1">
-        <f>PI()*POWER(H104/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>6.7929087152245318</v>
       </c>
       <c r="E104" s="1">
-        <f>PI()*POWER(I104/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <f>1/J104</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="G104" s="1">
@@ -50687,15 +50785,15 @@
         <v>1057</v>
       </c>
       <c r="D105" s="7">
-        <f>PI()*POWER(H105/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>6.3617251235193315</v>
       </c>
       <c r="E105" s="7">
-        <f>PI()*POWER(I105/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>7.6821443698047549</v>
       </c>
       <c r="F105" s="7">
-        <f>1/J105</f>
+        <f t="shared" si="5"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="G105" s="7">
@@ -50722,15 +50820,15 @@
         <v>1057</v>
       </c>
       <c r="D106" s="7">
-        <f>PI()*POWER(H106/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>5.674501730546563</v>
       </c>
       <c r="E106" s="7">
-        <f>PI()*POWER(I106/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>6.9250205402896139</v>
       </c>
       <c r="F106" s="7">
-        <f>1/J106</f>
+        <f t="shared" si="5"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="G106" s="7">
@@ -50755,15 +50853,15 @@
         <v>1057</v>
       </c>
       <c r="D107" s="1">
-        <f>PI()*POWER(H107/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>5.4106079476450208</v>
       </c>
       <c r="E107" s="1">
-        <f>PI()*POWER(I107/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <f>1/J107</f>
+        <f t="shared" si="5"/>
         <v>5.263157894736842E-3</v>
       </c>
       <c r="G107" s="1">
@@ -50788,15 +50886,15 @@
         <v>1057</v>
       </c>
       <c r="D108" s="7">
-        <f>PI()*POWER(H108/2,2)*10</f>
+        <f t="shared" si="3"/>
         <v>5.026548245743669</v>
       </c>
       <c r="E108" s="7">
-        <f>PI()*POWER(I108/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>6.1375410717591636</v>
       </c>
       <c r="F108" s="7">
-        <f>1/J108</f>
+        <f t="shared" si="5"/>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="G108" s="7">
@@ -50821,15 +50919,15 @@
         <v>1057</v>
       </c>
       <c r="D109" s="1">
-        <f>PI()*POWER(H109/2,2)*10</f>
+        <f t="shared" ref="D109:D135" si="6">PI()*POWER(H109/2,2)*10</f>
         <v>4.6566257107834712</v>
       </c>
       <c r="E109" s="1">
-        <f>PI()*POWER(I109/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <f>1/J109</f>
+        <f t="shared" si="5"/>
         <v>4.3478260869565218E-3</v>
       </c>
       <c r="G109" s="1">
@@ -50852,15 +50950,15 @@
         <v>1057</v>
       </c>
       <c r="D110" s="1">
-        <f>PI()*POWER(H110/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>4.3008403427644266</v>
       </c>
       <c r="E110" s="1">
-        <f>PI()*POWER(I110/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <f>1/J110</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G110" s="1">
@@ -50885,15 +50983,15 @@
         <v>1057</v>
       </c>
       <c r="D111" s="7">
-        <f>PI()*POWER(H111/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>3.9591921416865365</v>
       </c>
       <c r="E111" s="7">
-        <f>PI()*POWER(I111/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>4.8892685007634293</v>
       </c>
       <c r="F111" s="7">
-        <f>1/J111</f>
+        <f t="shared" si="5"/>
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="G111" s="7">
@@ -50918,15 +51016,15 @@
         <v>1057</v>
       </c>
       <c r="D112" s="1">
-        <f>PI()*POWER(H112/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>3.7392806559352505</v>
       </c>
       <c r="E112" s="1">
-        <f>PI()*POWER(I112/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <f>1/J112</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689655E-3</v>
       </c>
       <c r="G112" s="1">
@@ -50951,15 +51049,15 @@
         <v>1057</v>
       </c>
       <c r="D113" s="7">
-        <f>PI()*POWER(H113/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>3.5256523554911463</v>
       </c>
       <c r="E113" s="7">
-        <f>PI()*POWER(I113/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>4.4060915506413183</v>
       </c>
       <c r="F113" s="7">
-        <f>1/J113</f>
+        <f t="shared" si="5"/>
         <v>3.2258064516129032E-3</v>
       </c>
       <c r="G113" s="7">
@@ -50984,15 +51082,15 @@
         <v>1057</v>
       </c>
       <c r="D114" s="1">
-        <f>PI()*POWER(H114/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>3.2169908772759479</v>
       </c>
       <c r="E114" s="1">
-        <f>PI()*POWER(I114/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <f>1/J114</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-3</v>
       </c>
       <c r="G114" s="1">
@@ -51015,15 +51113,15 @@
         <v>1057</v>
       </c>
       <c r="D115" s="1">
-        <f>PI()*POWER(H115/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>3.0190705400997913</v>
       </c>
       <c r="E115" s="1">
-        <f>PI()*POWER(I115/2,2)*10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <f>1/J115</f>
+        <f t="shared" si="5"/>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="G115" s="1">
@@ -51046,15 +51144,15 @@
         <v>1057</v>
       </c>
       <c r="D116" s="1">
-        <f>PI()*POWER(H116/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>2.7339710067865171</v>
       </c>
       <c r="E116" s="1">
-        <f>PI()*POWER(I116/2,2)*10</f>
+        <f t="shared" ref="E116:E135" si="7">PI()*POWER(I116/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <f>1/J116</f>
+        <f t="shared" ref="F116:F135" si="8">1/J116</f>
         <v>2.4390243902439024E-3</v>
       </c>
       <c r="G116" s="1">
@@ -51077,15 +51175,15 @@
         <v>1057</v>
       </c>
       <c r="D117" s="1">
-        <f>PI()*POWER(H117/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>2.5517586328783093</v>
       </c>
       <c r="E117" s="1">
-        <f>PI()*POWER(I117/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f>1/J117</f>
+        <f t="shared" si="8"/>
         <v>2.2727272727272726E-3</v>
       </c>
       <c r="G117" s="1">
@@ -51108,15 +51206,15 @@
         <v>1057</v>
       </c>
       <c r="D118" s="1">
-        <f>PI()*POWER(H118/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>2.3758294442772816</v>
       </c>
       <c r="E118" s="1">
-        <f>PI()*POWER(I118/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <f>1/J118</f>
+        <f t="shared" si="8"/>
         <v>2.1739130434782609E-3</v>
       </c>
       <c r="G118" s="1">
@@ -51139,15 +51237,15 @@
         <v>1057</v>
       </c>
       <c r="D119" s="1">
-        <f>PI()*POWER(H119/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>2.0428206229967629</v>
       </c>
       <c r="E119" s="1">
-        <f>PI()*POWER(I119/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="1">
-        <f>1/J119</f>
+        <f t="shared" si="8"/>
         <v>1.9607843137254902E-3</v>
       </c>
       <c r="G119" s="1">
@@ -51170,15 +51268,15 @@
         <v>1057</v>
       </c>
       <c r="D120" s="1">
-        <f>PI()*POWER(H120/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>1.885740990317273</v>
       </c>
       <c r="E120" s="1">
-        <f>PI()*POWER(I120/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="1">
-        <f>1/J120</f>
+        <f t="shared" si="8"/>
         <v>1.8181818181818182E-3</v>
       </c>
       <c r="G120" s="1">
@@ -51203,15 +51301,15 @@
         <v>1057</v>
       </c>
       <c r="D121" s="7">
-        <f>PI()*POWER(H121/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>1.734944542944963</v>
       </c>
       <c r="E121" s="7">
-        <f>PI()*POWER(I121/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>2.2564175075143336</v>
       </c>
       <c r="F121" s="7">
-        <f>1/J121</f>
+        <f t="shared" si="8"/>
         <v>1.6129032258064516E-3</v>
       </c>
       <c r="G121" s="7">
@@ -51236,15 +51334,15 @@
         <v>1057</v>
       </c>
       <c r="D122" s="1">
-        <f>PI()*POWER(H122/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>1.5205308443374599</v>
       </c>
       <c r="E122" s="1">
-        <f>PI()*POWER(I122/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <f>1/J122</f>
+        <f t="shared" si="8"/>
         <v>1.4285714285714286E-3</v>
       </c>
       <c r="G122" s="1">
@@ -51267,15 +51365,15 @@
         <v>1057</v>
       </c>
       <c r="D123" s="1">
-        <f>PI()*POWER(H123/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>1.3202543126711102</v>
       </c>
       <c r="E123" s="1">
-        <f>PI()*POWER(I123/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f>1/J123</f>
+        <f t="shared" si="8"/>
         <v>1.25E-3</v>
       </c>
       <c r="G123" s="1">
@@ -51300,15 +51398,15 @@
         <v>1057</v>
       </c>
       <c r="D124" s="7">
-        <f>PI()*POWER(H124/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>1.1341149479459154</v>
       </c>
       <c r="E124" s="7">
-        <f>PI()*POWER(I124/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>1.5136271944811963</v>
       </c>
       <c r="F124" s="7">
-        <f>1/J124</f>
+        <f t="shared" si="8"/>
         <v>1.0526315789473684E-3</v>
       </c>
       <c r="G124" s="7">
@@ -51335,15 +51433,15 @@
         <v>1057</v>
       </c>
       <c r="D125" s="7">
-        <f>PI()*POWER(H125/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.96211275016187403</v>
       </c>
       <c r="E125" s="7">
-        <f>PI()*POWER(I125/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>1.2946189166178179</v>
       </c>
       <c r="F125" s="7">
-        <f>1/J125</f>
+        <f t="shared" si="8"/>
         <v>9.0909090909090909E-4</v>
       </c>
       <c r="G125" s="7">
@@ -51370,15 +51468,15 @@
         <v>1057</v>
       </c>
       <c r="D126" s="7">
-        <f>PI()*POWER(H126/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.85529859993982127</v>
       </c>
       <c r="E126" s="7">
-        <f>PI()*POWER(I126/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>1.1823698111050547</v>
       </c>
       <c r="F126" s="7">
-        <f>1/J126</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333339E-4</v>
       </c>
       <c r="G126" s="7">
@@ -51405,15 +51503,15 @@
         <v>1057</v>
       </c>
       <c r="D127" s="7">
-        <f>PI()*POWER(H127/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.75476763502494781</v>
       </c>
       <c r="E127" s="7">
-        <f>PI()*POWER(I127/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>1.029217169242552</v>
       </c>
       <c r="F127" s="7">
-        <f>1/J127</f>
+        <f t="shared" si="8"/>
         <v>7.1428571428571429E-4</v>
       </c>
       <c r="G127" s="7">
@@ -51438,15 +51536,15 @@
         <v>1057</v>
       </c>
       <c r="D128" s="1">
-        <f>PI()*POWER(H128/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.660519855417254</v>
       </c>
       <c r="E128" s="1">
-        <f>PI()*POWER(I128/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" s="1" t="e">
-        <f>1/J128</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G128" s="1">
@@ -51467,15 +51565,15 @@
         <v>1057</v>
       </c>
       <c r="D129" s="1">
-        <f>PI()*POWER(H129/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.57255526111673982</v>
       </c>
       <c r="E129" s="1">
-        <f>PI()*POWER(I129/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <f>1/J129</f>
+        <f t="shared" si="8"/>
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="G129" s="1">
@@ -51500,15 +51598,15 @@
         <v>1057</v>
       </c>
       <c r="D130" s="7">
-        <f>PI()*POWER(H130/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.49087385212340517</v>
       </c>
       <c r="E130" s="7">
-        <f>PI()*POWER(I130/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.69279186595125508</v>
       </c>
       <c r="F130" s="7">
-        <f>1/J130</f>
+        <f t="shared" si="8"/>
         <v>4.7619047619047619E-4</v>
       </c>
       <c r="G130" s="7">
@@ -51535,15 +51633,15 @@
         <v>1057</v>
       </c>
       <c r="D131" s="7">
-        <f>PI()*POWER(H131/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.41547562843725017</v>
       </c>
       <c r="E131" s="7">
-        <f>PI()*POWER(I131/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.60262815679322823</v>
       </c>
       <c r="F131" s="7">
-        <f>1/J131</f>
+        <f t="shared" si="8"/>
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G131" s="7">
@@ -51570,15 +51668,15 @@
         <v>1057</v>
       </c>
       <c r="D132" s="7">
-        <f>PI()*POWER(H132/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.34636059005827469</v>
       </c>
       <c r="E132" s="7">
-        <f>PI()*POWER(I132/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.49875924968391555</v>
       </c>
       <c r="F132" s="7">
-        <f>1/J132</f>
+        <f t="shared" si="8"/>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="G132" s="7">
@@ -51605,15 +51703,15 @@
         <v>1057</v>
       </c>
       <c r="D133" s="7">
-        <f>PI()*POWER(H133/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.28352873698647885</v>
       </c>
       <c r="E133" s="7">
-        <f>PI()*POWER(I133/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.40828138126052954</v>
       </c>
       <c r="F133" s="7">
-        <f>1/J133</f>
+        <f t="shared" si="8"/>
         <v>2.5641025641025641E-4</v>
       </c>
       <c r="G133" s="7">
@@ -51638,15 +51736,15 @@
         <v>1057</v>
       </c>
       <c r="D134" s="1">
-        <f>PI()*POWER(H134/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.22698006922186262</v>
       </c>
       <c r="E134" s="1">
-        <f>PI()*POWER(I134/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.33006357816777754</v>
       </c>
       <c r="F134" s="1" t="e">
-        <f>1/J134</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G134" s="1">
@@ -51671,15 +51769,15 @@
         <v>1057</v>
       </c>
       <c r="D135" s="7">
-        <f>PI()*POWER(H135/2,2)*10</f>
+        <f t="shared" si="6"/>
         <v>0.17671458676442586</v>
       </c>
       <c r="E135" s="7">
-        <f>PI()*POWER(I135/2,2)*10</f>
+        <f t="shared" si="7"/>
         <v>0.26015528764377077</v>
       </c>
       <c r="F135" s="7">
-        <f>1/J135</f>
+        <f t="shared" si="8"/>
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="G135" s="7">

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -7648,7 +7648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7861,9 +7861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8636,31 +8633,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG684"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O537" sqref="O537"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G537" sqref="G537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.375" style="1" customWidth="1"/>
-    <col min="22" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.75" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="10.875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8836,15 +8834,9 @@
       </c>
       <c r="Y2" s="55"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="7">
-        <v>6300</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>880</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>37</v>
-      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -8922,15 +8914,9 @@
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="7">
-        <v>19300</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>2570</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>120</v>
-      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -9008,15 +8994,9 @@
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7">
-        <v>38000</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>1500</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>90</v>
-      </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -9094,15 +9074,9 @@
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7">
-        <v>20000</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>2500</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>80</v>
-      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -14875,16 +14849,9 @@
       </c>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
-      <c r="AA131" s="7">
-        <v>2800</v>
-      </c>
-      <c r="AB131" s="72">
-        <f>AC131*1.8</f>
-        <v>180</v>
-      </c>
-      <c r="AC131" s="7">
-        <v>100</v>
-      </c>
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+      <c r="AC131" s="7"/>
       <c r="AD131" s="7"/>
       <c r="AE131" s="7"/>
       <c r="AF131" s="7"/>
@@ -15062,16 +15029,9 @@
       </c>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
-      <c r="AA134" s="7">
-        <v>6300</v>
-      </c>
-      <c r="AB134" s="72">
-        <f>AC134*1.8</f>
-        <v>486</v>
-      </c>
-      <c r="AC134" s="7">
-        <v>270</v>
-      </c>
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
+      <c r="AC134" s="7"/>
       <c r="AD134" s="7"/>
       <c r="AE134" s="7"/>
       <c r="AF134" s="7"/>
@@ -15654,16 +15614,9 @@
       </c>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
-      <c r="AA146" s="7">
-        <v>14000</v>
-      </c>
-      <c r="AB146" s="72">
-        <f>AC146*1.8</f>
-        <v>900</v>
-      </c>
-      <c r="AC146" s="7">
-        <v>500</v>
-      </c>
+      <c r="AA146" s="7"/>
+      <c r="AB146" s="7"/>
+      <c r="AC146" s="7"/>
       <c r="AD146" s="7"/>
       <c r="AE146" s="7"/>
       <c r="AF146" s="7"/>
@@ -16273,16 +16226,9 @@
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
-      <c r="AA159" s="7">
-        <v>19000</v>
-      </c>
-      <c r="AB159" s="72">
-        <f>AC159*1.8</f>
-        <v>1458</v>
-      </c>
-      <c r="AC159" s="7">
-        <v>810</v>
-      </c>
+      <c r="AA159" s="7"/>
+      <c r="AB159" s="7"/>
+      <c r="AC159" s="7"/>
       <c r="AD159" s="7"/>
       <c r="AE159" s="7"/>
       <c r="AF159" s="7"/>
@@ -18794,16 +18740,9 @@
       </c>
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
-      <c r="AA214" s="7">
-        <v>12000</v>
-      </c>
-      <c r="AB214" s="72">
-        <f>AC214*1.8</f>
-        <v>738</v>
-      </c>
-      <c r="AC214" s="7">
-        <v>410</v>
-      </c>
+      <c r="AA214" s="7"/>
+      <c r="AB214" s="7"/>
+      <c r="AC214" s="7"/>
       <c r="AD214" s="7"/>
       <c r="AE214" s="7"/>
       <c r="AF214" s="7"/>
@@ -18929,16 +18868,9 @@
       </c>
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
-      <c r="AA216" s="7">
-        <v>18000</v>
-      </c>
-      <c r="AB216" s="72">
-        <f>AC216*1.8</f>
-        <v>1044</v>
-      </c>
-      <c r="AC216" s="7">
-        <v>580</v>
-      </c>
+      <c r="AA216" s="7"/>
+      <c r="AB216" s="7"/>
+      <c r="AC216" s="7"/>
       <c r="AD216" s="7"/>
       <c r="AE216" s="7"/>
       <c r="AF216" s="7"/>
@@ -20352,16 +20284,9 @@
       </c>
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
-      <c r="AA247" s="7">
-        <v>81000</v>
-      </c>
-      <c r="AB247" s="72">
-        <f>AC247*1.8</f>
-        <v>4680</v>
-      </c>
-      <c r="AC247" s="7">
-        <v>2600</v>
-      </c>
+      <c r="AA247" s="7"/>
+      <c r="AB247" s="7"/>
+      <c r="AC247" s="7"/>
       <c r="AD247" s="7"/>
       <c r="AE247" s="7"/>
       <c r="AF247" s="7"/>
@@ -21021,16 +20946,9 @@
       </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
-      <c r="AA261" s="7">
-        <v>69000</v>
-      </c>
-      <c r="AB261" s="72">
-        <f>AC261*1.8</f>
-        <v>1890</v>
-      </c>
-      <c r="AC261" s="7">
-        <v>1050</v>
-      </c>
+      <c r="AA261" s="7"/>
+      <c r="AB261" s="7"/>
+      <c r="AC261" s="7"/>
       <c r="AD261" s="7"/>
       <c r="AE261" s="7"/>
       <c r="AF261" s="7"/>
@@ -21642,16 +21560,9 @@
       </c>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
-      <c r="AA274" s="7">
-        <v>185000</v>
-      </c>
-      <c r="AB274" s="72">
-        <f>AC274*1.8</f>
-        <v>5580</v>
-      </c>
-      <c r="AC274" s="7">
-        <v>3100</v>
-      </c>
+      <c r="AA274" s="7"/>
+      <c r="AB274" s="7"/>
+      <c r="AC274" s="7"/>
       <c r="AD274" s="7"/>
       <c r="AE274" s="7"/>
       <c r="AF274" s="7"/>
@@ -39947,15 +39858,6 @@
       </c>
       <c r="X684" s="1">
         <v>4.83</v>
-      </c>
-      <c r="AA684" s="1">
-        <v>2360</v>
-      </c>
-      <c r="AB684" s="1">
-        <v>230</v>
-      </c>
-      <c r="AC684" s="1">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -46826,7 +46728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -49919,7 +49821,7 @@
         <v>1057</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" ref="D77:D108" si="3">PI()*POWER(H77/2,2)*10</f>
+        <f>PI()*POWER(H77/2,2)*10</f>
         <v>159.04312808798326</v>
       </c>
       <c r="E77" s="56"/>
@@ -49942,7 +49844,7 @@
         <v>1057</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H78/2,2)*10</f>
         <v>125.66370614359172</v>
       </c>
       <c r="E78" s="56"/>
@@ -49965,7 +49867,7 @@
         <v>1057</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H79/2,2)*10</f>
         <v>96.211275016187415</v>
       </c>
       <c r="E79" s="56"/>
@@ -49988,7 +49890,7 @@
         <v>1057</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H80/2,2)*10</f>
         <v>80.424771931898704</v>
       </c>
       <c r="E80" s="56"/>
@@ -50011,7 +49913,7 @@
         <v>1057</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H81/2,2)*10</f>
         <v>70.685834705770347</v>
       </c>
       <c r="E81" s="56"/>
@@ -50034,7 +49936,7 @@
         <v>1057</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H82/2,2)*10</f>
         <v>61.575216010359938</v>
       </c>
       <c r="E82" s="56"/>
@@ -50057,7 +49959,7 @@
         <v>1057</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H83/2,2)*10</f>
         <v>53.092915845667505</v>
       </c>
       <c r="E83" s="56"/>
@@ -50082,15 +49984,15 @@
         <v>1057</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H84/2,2)*10</f>
         <v>49.087385212340521</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" ref="E84:E115" si="4">PI()*POWER(I84/2,2)*10</f>
+        <f>PI()*POWER(I84/2,2)*10</f>
         <v>53.830593216656915</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" ref="F84:F115" si="5">1/J84</f>
+        <f>1/J84</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="G84" s="7">
@@ -50117,15 +50019,15 @@
         <v>1057</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H85/2,2)*10</f>
         <v>39.408138246630372</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I85/2,2)*10</f>
         <v>43.558378491563332</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J85</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="G85" s="7">
@@ -50150,15 +50052,15 @@
         <v>1057</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H86/2,2)*10</f>
         <v>35.298935055734916</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I86/2,2)*10</f>
         <v>39.232405407570184</v>
       </c>
       <c r="F86" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>1/J86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G86" s="1">
@@ -50183,15 +50085,15 @@
         <v>1057</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H87/2,2)*10</f>
         <v>31.415926535897931</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I87/2,2)*10</f>
         <v>35.033030653535079</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J87</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G87" s="7">
@@ -50216,15 +50118,15 @@
         <v>1057</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H88/2,2)*10</f>
         <v>28.352873698647883</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I88/2,2)*10</f>
         <v>31.794048627683999</v>
       </c>
       <c r="F88" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>1/J88</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G88" s="1">
@@ -50249,15 +50151,15 @@
         <v>1057</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H89/2,2)*10</f>
         <v>25.446900494077326</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I89/2,2)*10</f>
         <v>28.622116043042162</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J89</f>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="G89" s="7">
@@ -50284,15 +50186,15 @@
         <v>1057</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H90/2,2)*10</f>
         <v>22.698006922186252</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I90/2,2)*10</f>
         <v>25.702005671530447</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J90</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="G90" s="7">
@@ -50317,15 +50219,15 @@
         <v>1057</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H91/2,2)*10</f>
         <v>20.106192982974676</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I91/2,2)*10</f>
         <v>22.858510890858156</v>
       </c>
       <c r="F91" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>1/J91</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G91" s="1">
@@ -50350,15 +50252,15 @@
         <v>1057</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H92/2,2)*10</f>
         <v>17.671458676442587</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I92/2,2)*10</f>
         <v>20.257272173685813</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J92</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="G92" s="7">
@@ -50383,15 +50285,15 @@
         <v>1057</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H93/2,2)*10</f>
         <v>16.51299638543135</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I93/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J93</f>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="G93" s="1">
@@ -50416,15 +50318,15 @@
         <v>1057</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H94/2,2)*10</f>
         <v>15.393804002589984</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I94/2,2)*10</f>
         <v>17.718613982172968</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J94</f>
         <v>1.5384615384615385E-2</v>
       </c>
       <c r="G94" s="7">
@@ -50449,15 +50351,15 @@
         <v>1057</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H95/2,2)*10</f>
         <v>14.313881527918497</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I95/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J95</f>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="G95" s="1">
@@ -50482,15 +50384,15 @@
         <v>1057</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H96/2,2)*10</f>
         <v>13.273228961416876</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I96/2,2)*10</f>
         <v>15.437817715666778</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J96</f>
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="G96" s="7">
@@ -50515,15 +50417,15 @@
         <v>1057</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H97/2,2)*10</f>
         <v>12.27184630308513</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I97/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J97</f>
         <v>1.098901098901099E-2</v>
       </c>
       <c r="G97" s="1">
@@ -50546,15 +50448,15 @@
         <v>1057</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H98/2,2)*10</f>
         <v>11.309733552923255</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I98/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J98</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G98" s="1">
@@ -50579,15 +50481,15 @@
         <v>1057</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H99/2,2)*10</f>
         <v>10.935884027146068</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I99/2,2)*10</f>
         <v>12.84786517010245</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J99</f>
         <v>0.01</v>
       </c>
       <c r="G99" s="7">
@@ -50614,15 +50516,15 @@
         <v>1057</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H100/2,2)*10</f>
         <v>9.8520345616575931</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I100/2,2)*10</f>
         <v>11.632445804281632</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J100</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="G100" s="7">
@@ -50649,15 +50551,15 @@
         <v>1057</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H101/2,2)*10</f>
         <v>8.8247337639337289</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I101/2,2)*10</f>
         <v>10.513724660338308</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J101</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G101" s="7">
@@ -50684,15 +50586,15 @@
         <v>1057</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H102/2,2)*10</f>
         <v>7.8539816339744828</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I102/2,2)*10</f>
         <v>9.3999279628794863</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J102</f>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="G102" s="7">
@@ -50719,15 +50621,15 @@
         <v>1057</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H103/2,2)*10</f>
         <v>7.0882184246619708</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I103/2,2)*10</f>
         <v>8.5603373262076126</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J103</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="G103" s="7">
@@ -50752,15 +50654,15 @@
         <v>1057</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H104/2,2)*10</f>
         <v>6.7929087152245318</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I104/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J104</f>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="G104" s="1">
@@ -50785,15 +50687,15 @@
         <v>1057</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H105/2,2)*10</f>
         <v>6.3617251235193315</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I105/2,2)*10</f>
         <v>7.6821443698047549</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J105</f>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="G105" s="7">
@@ -50820,15 +50722,15 @@
         <v>1057</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H106/2,2)*10</f>
         <v>5.674501730546563</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I106/2,2)*10</f>
         <v>6.9250205402896139</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J106</f>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="G106" s="7">
@@ -50853,15 +50755,15 @@
         <v>1057</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H107/2,2)*10</f>
         <v>5.4106079476450208</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I107/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J107</f>
         <v>5.263157894736842E-3</v>
       </c>
       <c r="G107" s="1">
@@ -50886,15 +50788,15 @@
         <v>1057</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="3"/>
+        <f>PI()*POWER(H108/2,2)*10</f>
         <v>5.026548245743669</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I108/2,2)*10</f>
         <v>6.1375410717591636</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J108</f>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="G108" s="7">
@@ -50919,15 +50821,15 @@
         <v>1057</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" ref="D109:D135" si="6">PI()*POWER(H109/2,2)*10</f>
+        <f>PI()*POWER(H109/2,2)*10</f>
         <v>4.6566257107834712</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I109/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J109</f>
         <v>4.3478260869565218E-3</v>
       </c>
       <c r="G109" s="1">
@@ -50950,15 +50852,15 @@
         <v>1057</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H110/2,2)*10</f>
         <v>4.3008403427644266</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I110/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J110</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G110" s="1">
@@ -50983,15 +50885,15 @@
         <v>1057</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H111/2,2)*10</f>
         <v>3.9591921416865365</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I111/2,2)*10</f>
         <v>4.8892685007634293</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J111</f>
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="G111" s="7">
@@ -51016,15 +50918,15 @@
         <v>1057</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H112/2,2)*10</f>
         <v>3.7392806559352505</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I112/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J112</f>
         <v>3.4482758620689655E-3</v>
       </c>
       <c r="G112" s="1">
@@ -51049,15 +50951,15 @@
         <v>1057</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H113/2,2)*10</f>
         <v>3.5256523554911463</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I113/2,2)*10</f>
         <v>4.4060915506413183</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" si="5"/>
+        <f>1/J113</f>
         <v>3.2258064516129032E-3</v>
       </c>
       <c r="G113" s="7">
@@ -51082,15 +50984,15 @@
         <v>1057</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H114/2,2)*10</f>
         <v>3.2169908772759479</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I114/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J114</f>
         <v>2.9411764705882353E-3</v>
       </c>
       <c r="G114" s="1">
@@ -51113,15 +51015,15 @@
         <v>1057</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H115/2,2)*10</f>
         <v>3.0190705400997913</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="4"/>
+        <f>PI()*POWER(I115/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="5"/>
+        <f>1/J115</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="G115" s="1">
@@ -51144,15 +51046,15 @@
         <v>1057</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H116/2,2)*10</f>
         <v>2.7339710067865171</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" ref="E116:E135" si="7">PI()*POWER(I116/2,2)*10</f>
+        <f>PI()*POWER(I116/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" ref="F116:F135" si="8">1/J116</f>
+        <f>1/J116</f>
         <v>2.4390243902439024E-3</v>
       </c>
       <c r="G116" s="1">
@@ -51175,15 +51077,15 @@
         <v>1057</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H117/2,2)*10</f>
         <v>2.5517586328783093</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I117/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J117</f>
         <v>2.2727272727272726E-3</v>
       </c>
       <c r="G117" s="1">
@@ -51206,15 +51108,15 @@
         <v>1057</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H118/2,2)*10</f>
         <v>2.3758294442772816</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I118/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J118</f>
         <v>2.1739130434782609E-3</v>
       </c>
       <c r="G118" s="1">
@@ -51237,15 +51139,15 @@
         <v>1057</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H119/2,2)*10</f>
         <v>2.0428206229967629</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I119/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J119</f>
         <v>1.9607843137254902E-3</v>
       </c>
       <c r="G119" s="1">
@@ -51268,15 +51170,15 @@
         <v>1057</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H120/2,2)*10</f>
         <v>1.885740990317273</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I120/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J120</f>
         <v>1.8181818181818182E-3</v>
       </c>
       <c r="G120" s="1">
@@ -51301,15 +51203,15 @@
         <v>1057</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H121/2,2)*10</f>
         <v>1.734944542944963</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I121/2,2)*10</f>
         <v>2.2564175075143336</v>
       </c>
       <c r="F121" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J121</f>
         <v>1.6129032258064516E-3</v>
       </c>
       <c r="G121" s="7">
@@ -51334,15 +51236,15 @@
         <v>1057</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H122/2,2)*10</f>
         <v>1.5205308443374599</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I122/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J122</f>
         <v>1.4285714285714286E-3</v>
       </c>
       <c r="G122" s="1">
@@ -51365,15 +51267,15 @@
         <v>1057</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H123/2,2)*10</f>
         <v>1.3202543126711102</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I123/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J123</f>
         <v>1.25E-3</v>
       </c>
       <c r="G123" s="1">
@@ -51398,15 +51300,15 @@
         <v>1057</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H124/2,2)*10</f>
         <v>1.1341149479459154</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I124/2,2)*10</f>
         <v>1.5136271944811963</v>
       </c>
       <c r="F124" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J124</f>
         <v>1.0526315789473684E-3</v>
       </c>
       <c r="G124" s="7">
@@ -51433,15 +51335,15 @@
         <v>1057</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H125/2,2)*10</f>
         <v>0.96211275016187403</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I125/2,2)*10</f>
         <v>1.2946189166178179</v>
       </c>
       <c r="F125" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J125</f>
         <v>9.0909090909090909E-4</v>
       </c>
       <c r="G125" s="7">
@@ -51468,15 +51370,15 @@
         <v>1057</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H126/2,2)*10</f>
         <v>0.85529859993982127</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I126/2,2)*10</f>
         <v>1.1823698111050547</v>
       </c>
       <c r="F126" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J126</f>
         <v>8.3333333333333339E-4</v>
       </c>
       <c r="G126" s="7">
@@ -51503,15 +51405,15 @@
         <v>1057</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H127/2,2)*10</f>
         <v>0.75476763502494781</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I127/2,2)*10</f>
         <v>1.029217169242552</v>
       </c>
       <c r="F127" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J127</f>
         <v>7.1428571428571429E-4</v>
       </c>
       <c r="G127" s="7">
@@ -51536,15 +51438,15 @@
         <v>1057</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H128/2,2)*10</f>
         <v>0.660519855417254</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I128/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F128" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>1/J128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G128" s="1">
@@ -51565,15 +51467,15 @@
         <v>1057</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H129/2,2)*10</f>
         <v>0.57255526111673982</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I129/2,2)*10</f>
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="8"/>
+        <f>1/J129</f>
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="G129" s="1">
@@ -51598,15 +51500,15 @@
         <v>1057</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H130/2,2)*10</f>
         <v>0.49087385212340517</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I130/2,2)*10</f>
         <v>0.69279186595125508</v>
       </c>
       <c r="F130" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J130</f>
         <v>4.7619047619047619E-4</v>
       </c>
       <c r="G130" s="7">
@@ -51633,15 +51535,15 @@
         <v>1057</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H131/2,2)*10</f>
         <v>0.41547562843725017</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I131/2,2)*10</f>
         <v>0.60262815679322823</v>
       </c>
       <c r="F131" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J131</f>
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G131" s="7">
@@ -51668,15 +51570,15 @@
         <v>1057</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H132/2,2)*10</f>
         <v>0.34636059005827469</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I132/2,2)*10</f>
         <v>0.49875924968391555</v>
       </c>
       <c r="F132" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J132</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="G132" s="7">
@@ -51703,15 +51605,15 @@
         <v>1057</v>
       </c>
       <c r="D133" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H133/2,2)*10</f>
         <v>0.28352873698647885</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I133/2,2)*10</f>
         <v>0.40828138126052954</v>
       </c>
       <c r="F133" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J133</f>
         <v>2.5641025641025641E-4</v>
       </c>
       <c r="G133" s="7">
@@ -51736,15 +51638,15 @@
         <v>1057</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H134/2,2)*10</f>
         <v>0.22698006922186262</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I134/2,2)*10</f>
         <v>0.33006357816777754</v>
       </c>
       <c r="F134" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>1/J134</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G134" s="1">
@@ -51769,15 +51671,15 @@
         <v>1057</v>
       </c>
       <c r="D135" s="7">
-        <f t="shared" si="6"/>
+        <f>PI()*POWER(H135/2,2)*10</f>
         <v>0.17671458676442586</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="7"/>
+        <f>PI()*POWER(I135/2,2)*10</f>
         <v>0.26015528764377077</v>
       </c>
       <c r="F135" s="7">
-        <f t="shared" si="8"/>
+        <f>1/J135</f>
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="G135" s="7">

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Capacitor!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Capacitor_EACO!$A$1:$O$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Core_东磁!$A$1:$Y$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$684</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$1:$X$683</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wire!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5673" uniqueCount="1437">
   <si>
     <t>a0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6867,10 +6867,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IKW40N120T2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7458,6 +7454,135 @@
   <si>
     <t>QZ-2/2.60</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKW08T120</t>
+  </si>
+  <si>
+    <t>IKW15T120</t>
+  </si>
+  <si>
+    <t>IKW15N120BH6</t>
+  </si>
+  <si>
+    <t>IHW15N120E1</t>
+  </si>
+  <si>
+    <t>IKW15N120H3</t>
+  </si>
+  <si>
+    <t>IKW15N120T2</t>
+  </si>
+  <si>
+    <t>IHW15N120R3</t>
+  </si>
+  <si>
+    <t>IHW20N120R5</t>
+  </si>
+  <si>
+    <t>IKW25T120</t>
+  </si>
+  <si>
+    <t>IHW25N120E1</t>
+  </si>
+  <si>
+    <t>IKW25N120H3</t>
+  </si>
+  <si>
+    <t>IKW25N120T2</t>
+  </si>
+  <si>
+    <t>IRG7PH35UD</t>
+  </si>
+  <si>
+    <t>IHW30N120R5</t>
+  </si>
+  <si>
+    <t>IKQ40N120CH3</t>
+  </si>
+  <si>
+    <t>IKY40N120CS6</t>
+  </si>
+  <si>
+    <t>IKW40T120</t>
+  </si>
+  <si>
+    <t>IKY40N120CH3</t>
+  </si>
+  <si>
+    <t>IKW40N120H3</t>
+  </si>
+  <si>
+    <t>IKY50N120CH3</t>
+  </si>
+  <si>
+    <t>IKQ50N120CH3</t>
+  </si>
+  <si>
+    <t>IKQ50N120CT2</t>
+  </si>
+  <si>
+    <t>IKY75N120CH3</t>
+  </si>
+  <si>
+    <t>IKQ75N120CT2</t>
+  </si>
+  <si>
+    <t>IKQ75N120CS6</t>
+  </si>
+  <si>
+    <t>IKQ75N120CH3</t>
+  </si>
+  <si>
+    <t>IKY75N120CS6</t>
+  </si>
+  <si>
+    <t>IKQ40N120CH3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKQ40N120CT2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKY40N120CS6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHW40N120R5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKW40T120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKY40N120CH3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKW40N120CS6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKW40N120CS6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7648,7 +7773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7865,6 +7990,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8634,10 +8762,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AG684"/>
+  <dimension ref="A1:AG714"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O537" sqref="O537"/>
+      <selection activeCell="AA707" sqref="AA707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39753,7 +39881,7 @@
         <v>166</v>
       </c>
       <c r="U681" s="55">
-        <f t="shared" ref="U681:U684" si="15">V681*W681*X681/1000000</f>
+        <f t="shared" ref="U681:U683" si="15">V681*W681*X681/1000000</f>
         <v>5.7790720000000004E-2</v>
       </c>
       <c r="V681" s="7">
@@ -39883,18 +40011,15 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="684" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A684" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B684" s="58" t="s">
-        <v>1316</v>
+    <row r="684" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B684" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C684" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D684" s="56" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E684" s="55" t="s">
         <v>1036</v>
@@ -39903,63 +40028,1092 @@
         <v>1200</v>
       </c>
       <c r="G684" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B685" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C685" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D685" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E685" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F685" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G685" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="686" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B686" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C686" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D686" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E686" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F686" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G686" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="687" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B687" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C687" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D687" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E687" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F687" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G687" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="688" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B688" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C688" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D688" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E688" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F688" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G688" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="689" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B689" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C689" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D689" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E689" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F689" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G689" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="690" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B690" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C690" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D690" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E690" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F690" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G690" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="691" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B691" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C691" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D691" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E691" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F691" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G691" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="692" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B692" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C692" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D692" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E692" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F692" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G692" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B693" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C693" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D693" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E693" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F693" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G693" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="694" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B694" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C694" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D694" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E694" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F694" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G694" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="695" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B695" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C695" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D695" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E695" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F695" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G695" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="696" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B696" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C696" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D696" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E696" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F696" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G696" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="697" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B697" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C697" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D697" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E697" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F697" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G697" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="698" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B698" s="58" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C698" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D698" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E698" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F698" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G698" s="1">
         <v>40</v>
       </c>
-      <c r="H684" s="1">
+      <c r="H698" s="1">
+        <v>145</v>
+      </c>
+      <c r="I698" s="1">
+        <v>146</v>
+      </c>
+      <c r="J698" s="1">
+        <v>147</v>
+      </c>
+      <c r="K698" s="1">
+        <v>148</v>
+      </c>
+      <c r="M698" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O698" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q698" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R698" s="1">
+        <v>45</v>
+      </c>
+      <c r="S698" s="1">
+        <v>100</v>
+      </c>
+      <c r="T698" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U698" s="1">
+        <f t="shared" ref="U698:U706" si="16">V698*W698*X698/1000000</f>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V698" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W698" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X698" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA698" s="1">
+        <v>2385</v>
+      </c>
+      <c r="AB698" s="1">
+        <v>235</v>
+      </c>
+      <c r="AC698" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="699" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A699" s="58" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B699" s="58" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C699" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D699" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E699" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F699" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G699" s="1">
+        <v>40</v>
+      </c>
+      <c r="H699" s="1">
+        <v>149</v>
+      </c>
+      <c r="I699" s="1">
+        <v>150</v>
+      </c>
+      <c r="J699" s="1">
+        <v>151</v>
+      </c>
+      <c r="K699" s="1">
+        <v>152</v>
+      </c>
+      <c r="M699" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O699" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q699" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R699" s="1">
+        <v>49</v>
+      </c>
+      <c r="S699" s="1">
+        <v>100</v>
+      </c>
+      <c r="T699" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U699" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V699" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W699" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X699" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA699" s="1">
+        <v>2385</v>
+      </c>
+      <c r="AB699" s="1">
+        <v>235</v>
+      </c>
+      <c r="AC699" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="700" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A700" s="58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B700" s="58" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C700" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D700" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E700" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F700" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G700" s="1">
+        <v>40</v>
+      </c>
+      <c r="H700" s="1">
+        <v>153</v>
+      </c>
+      <c r="I700" s="1">
+        <v>154</v>
+      </c>
+      <c r="J700" s="1">
+        <v>155</v>
+      </c>
+      <c r="K700" s="1">
+        <v>156</v>
+      </c>
+      <c r="M700" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O700" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="Q700" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R700" s="1">
+        <v>49.55</v>
+      </c>
+      <c r="S700" s="1">
+        <v>100</v>
+      </c>
+      <c r="T700" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U700" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V700" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W700" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X700" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA700" s="1">
+        <v>2700</v>
+      </c>
+      <c r="AB700" s="1">
+        <v>185</v>
+      </c>
+      <c r="AC700" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="701" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A701" s="58"/>
+      <c r="B701" s="58" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C701" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D701" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E701" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F701" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G701" s="1">
+        <v>40</v>
+      </c>
+      <c r="M701" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="O701" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Q701" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R701" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="S701" s="1">
+        <v>100</v>
+      </c>
+      <c r="T701" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U701" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V701" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W701" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X701" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA701" s="1">
+        <v>2370</v>
+      </c>
+      <c r="AB701" s="1">
+        <v>70</v>
+      </c>
+      <c r="AC701" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="702" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A702" s="58" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B702" s="58" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C702" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D702" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E702" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F702" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G702" s="1">
+        <v>40</v>
+      </c>
+      <c r="H702" s="1">
+        <v>157</v>
+      </c>
+      <c r="I702" s="1">
+        <v>158</v>
+      </c>
+      <c r="J702" s="1">
+        <v>159</v>
+      </c>
+      <c r="K702" s="1">
+        <v>160</v>
+      </c>
+      <c r="M702" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="O702" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="Q702" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R702" s="1">
+        <v>50.24</v>
+      </c>
+      <c r="S702" s="1">
+        <v>100</v>
+      </c>
+      <c r="T702" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U702" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V702" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W702" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X702" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA702" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AB702" s="1">
+        <v>130</v>
+      </c>
+      <c r="AC702" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="703" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B703" s="58" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C703" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D703" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E703" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F703" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G703" s="1">
+        <v>40</v>
+      </c>
+      <c r="H703" s="1">
         <v>141</v>
       </c>
-      <c r="I684" s="1">
+      <c r="I703" s="1">
         <v>142</v>
       </c>
-      <c r="J684" s="1">
+      <c r="J703" s="38">
         <v>143</v>
       </c>
-      <c r="K684" s="1">
+      <c r="K703" s="38">
         <v>144</v>
       </c>
-      <c r="M684" s="1">
+      <c r="M703" s="1">
         <v>0.31</v>
       </c>
-      <c r="O684" s="1">
+      <c r="O703" s="1">
         <v>0.53</v>
       </c>
-      <c r="Q684" s="60">
+      <c r="Q703" s="60">
         <v>0.1</v>
       </c>
-      <c r="R684" s="1">
+      <c r="R703" s="1">
         <v>45.84</v>
       </c>
-      <c r="S684" s="1">
+      <c r="S703" s="1">
         <v>100</v>
       </c>
-      <c r="T684" s="55" t="s">
+      <c r="T703" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="U684" s="1">
-        <f t="shared" si="15"/>
-        <v>1.5772848E-3</v>
-      </c>
-      <c r="V684" s="1">
-        <v>20.8</v>
-      </c>
-      <c r="W684" s="1">
+      <c r="U703" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V703" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W703" s="1">
         <v>15.7</v>
       </c>
-      <c r="X684" s="1">
-        <v>4.83</v>
-      </c>
-      <c r="AA684" s="1">
+      <c r="X703" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA703" s="1">
         <v>2360</v>
       </c>
-      <c r="AB684" s="1">
+      <c r="AB703" s="1">
         <v>230</v>
       </c>
-      <c r="AC684" s="1">
+      <c r="AC703" s="1">
         <v>125</v>
       </c>
     </row>
+    <row r="704" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A704" s="58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B704" s="58" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C704" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D704" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E704" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F704" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G704" s="1">
+        <v>40</v>
+      </c>
+      <c r="H704" s="1">
+        <v>161</v>
+      </c>
+      <c r="I704" s="1">
+        <v>162</v>
+      </c>
+      <c r="J704" s="1">
+        <v>163</v>
+      </c>
+      <c r="K704" s="1">
+        <v>164</v>
+      </c>
+      <c r="M704" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O704" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q704" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R704" s="1">
+        <v>46.15</v>
+      </c>
+      <c r="S704" s="1">
+        <v>100</v>
+      </c>
+      <c r="T704" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U704" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V704" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W704" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X704" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA704" s="1">
+        <v>2385</v>
+      </c>
+      <c r="AB704" s="1">
+        <v>235</v>
+      </c>
+      <c r="AC704" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="705" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A705" s="58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B705" s="58" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C705" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D705" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E705" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F705" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G705" s="1">
+        <v>40</v>
+      </c>
+      <c r="H705" s="1">
+        <v>165</v>
+      </c>
+      <c r="I705" s="1">
+        <v>166</v>
+      </c>
+      <c r="J705" s="1">
+        <v>167</v>
+      </c>
+      <c r="K705" s="1">
+        <v>168</v>
+      </c>
+      <c r="M705" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O705" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="Q705" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R705" s="1">
+        <v>42.14</v>
+      </c>
+      <c r="S705" s="1">
+        <v>100</v>
+      </c>
+      <c r="T705" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U705" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V705" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W705" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X705" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA705" s="1">
+        <v>2700</v>
+      </c>
+      <c r="AB705" s="1">
+        <v>185</v>
+      </c>
+      <c r="AC705" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="706" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A706" s="58" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C706" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D706" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E706" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F706" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G706" s="1">
+        <v>40</v>
+      </c>
+      <c r="H706" s="1">
+        <v>169</v>
+      </c>
+      <c r="I706" s="1">
+        <v>170</v>
+      </c>
+      <c r="J706" s="1">
+        <v>171</v>
+      </c>
+      <c r="K706" s="1">
+        <v>172</v>
+      </c>
+      <c r="M706" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="O706" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q706" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="R706" s="1">
+        <v>39.44</v>
+      </c>
+      <c r="S706" s="1">
+        <v>100</v>
+      </c>
+      <c r="T706" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U706" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6078369999999998E-3</v>
+      </c>
+      <c r="V706" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="W706" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="X706" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA706" s="1">
+        <v>2330</v>
+      </c>
+      <c r="AB706" s="1">
+        <v>185</v>
+      </c>
+      <c r="AC706" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="707" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B707" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C707" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D707" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E707" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F707" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G707" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="708" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B708" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C708" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D708" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E708" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F708" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G708" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="709" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B709" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C709" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D709" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E709" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F709" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G709" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="710" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B710" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C710" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D710" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E710" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F710" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G710" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="711" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B711" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C711" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D711" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E711" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F711" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G711" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="712" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B712" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C712" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D712" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E712" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F712" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G712" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="713" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B713" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C713" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D713" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E713" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F713" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G713" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="714" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B714" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C714" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D714" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E714" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F714" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G714" s="1">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X684">
+  <autoFilter ref="A1:X683">
     <filterColumn colId="0">
       <filters>
         <filter val="Y"/>
@@ -41717,10 +42871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="O169" sqref="O169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46710,7 +47864,7 @@
         <v>-3.07375E-8</v>
       </c>
       <c r="L143" s="47" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M143" s="47" t="s">
         <v>1144</v>
@@ -46739,7 +47893,7 @@
         <v>-1.2576299999999999E-8</v>
       </c>
       <c r="L144" s="47" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M144" s="47" t="s">
         <v>1145</v>
@@ -46758,23 +47912,23 @@
       <c r="D145" s="1">
         <v>600</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="38">
         <v>0</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="38">
         <v>0.13325000000000001</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="38">
         <v>-2.14E-3</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="73">
         <v>5.2024400000000003E-5</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145" s="73">
         <v>-2.7831000000000001E-7</v>
       </c>
       <c r="L145" s="47" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M145" s="47" t="s">
         <v>1146</v>
@@ -46793,25 +47947,950 @@
       <c r="D146" s="1">
         <v>600</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="38">
         <v>0</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="38">
         <v>0.14313999999999999</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="38">
         <v>-2.3500000000000001E-3</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="73">
         <v>3.6432900000000001E-5</v>
       </c>
-      <c r="I146" s="4">
+      <c r="I146" s="73">
         <v>-2.05543E-7</v>
       </c>
       <c r="L146" s="47" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M146" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>175</v>
+      </c>
+      <c r="C147" s="1">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.61955000000000005</v>
+      </c>
+      <c r="F147" s="1">
+        <v>6.9849999999999995E-2</v>
+      </c>
+      <c r="G147" s="4">
+        <v>-7.1339400000000001E-4</v>
+      </c>
+      <c r="H147" s="4">
+        <v>6.2662500000000004E-6</v>
+      </c>
+      <c r="I147" s="4">
+        <v>-1.14467E-8</v>
+      </c>
+      <c r="L147" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M147" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
+        <v>175</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.68437999999999999</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.12997</v>
+      </c>
+      <c r="G148" s="1">
+        <v>-1.48E-3</v>
+      </c>
+      <c r="H148" s="4">
+        <v>1.0514699999999999E-5</v>
+      </c>
+      <c r="I148" s="4">
+        <v>-2.6912599999999999E-8</v>
+      </c>
+      <c r="L148" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M148" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>175</v>
+      </c>
+      <c r="C149" s="1">
+        <v>15</v>
+      </c>
+      <c r="D149" s="1">
+        <v>600</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.16886999999999999</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0.1074</v>
+      </c>
+      <c r="G149" s="1">
+        <v>-1.6299999999999999E-3</v>
+      </c>
+      <c r="H149" s="4">
+        <v>5.4861699999999997E-5</v>
+      </c>
+      <c r="I149" s="4">
+        <v>-2.3688299999999999E-7</v>
+      </c>
+      <c r="L149" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M149" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>175</v>
+      </c>
+      <c r="C150" s="1">
+        <v>15</v>
+      </c>
+      <c r="D150" s="1">
+        <v>600</v>
+      </c>
+      <c r="E150" s="4">
+        <v>9.8989999999999995E-2</v>
+      </c>
+      <c r="F150" s="4">
+        <v>6.8729999999999999E-2</v>
+      </c>
+      <c r="G150" s="4">
+        <v>-2.9904399999999999E-4</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1.10082E-6</v>
+      </c>
+      <c r="I150" s="4">
+        <v>5.6363100000000004E-9</v>
+      </c>
+      <c r="L150" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M150" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
+        <v>175</v>
+      </c>
+      <c r="C151" s="1">
+        <v>15</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.51937</v>
+      </c>
+      <c r="F151" s="1">
+        <v>6.0220000000000003E-2</v>
+      </c>
+      <c r="G151" s="4">
+        <v>-4.9017500000000003E-4</v>
+      </c>
+      <c r="H151" s="4">
+        <v>3.0572799999999998E-6</v>
+      </c>
+      <c r="I151" s="4">
+        <v>4.6922999999999996E-9</v>
+      </c>
+      <c r="L151" s="47" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M151" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>175</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="F152" s="1">
+        <v>5.1860000000000003E-2</v>
+      </c>
+      <c r="G152" s="4">
+        <v>-5.9145300000000003E-4</v>
+      </c>
+      <c r="H152" s="4">
+        <v>4.3194700000000003E-6</v>
+      </c>
+      <c r="I152" s="4">
+        <v>-1.1278500000000001E-8</v>
+      </c>
+      <c r="L152" s="47" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M152" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>175</v>
+      </c>
+      <c r="C153" s="1">
+        <v>15</v>
+      </c>
+      <c r="D153" s="1">
+        <v>600</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1.14012</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.13356999999999999</v>
+      </c>
+      <c r="G153" s="4">
+        <v>-3.5500000000000002E-3</v>
+      </c>
+      <c r="H153" s="4">
+        <v>1.15951E-4</v>
+      </c>
+      <c r="I153" s="4">
+        <v>-7.1334899999999999E-7</v>
+      </c>
+      <c r="L153" s="47" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M153" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>175</v>
+      </c>
+      <c r="C154" s="1">
+        <v>15</v>
+      </c>
+      <c r="D154" s="1">
+        <v>600</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1.4813499999999999</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.11396000000000001</v>
+      </c>
+      <c r="G154" s="4">
+        <v>-7.5619399999999996E-4</v>
+      </c>
+      <c r="H154" s="4">
+        <v>-1.8845299999999999E-6</v>
+      </c>
+      <c r="I154" s="4">
+        <v>5.6874600000000003E-8</v>
+      </c>
+      <c r="L154" s="47" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M154" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>175</v>
+      </c>
+      <c r="C155" s="1">
+        <v>15</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="F155" s="1">
+        <v>6.0290000000000003E-2</v>
+      </c>
+      <c r="G155" s="4">
+        <v>-6.0926600000000002E-4</v>
+      </c>
+      <c r="H155" s="4">
+        <v>4.7211100000000003E-6</v>
+      </c>
+      <c r="I155" s="4">
+        <v>-1.30423E-8</v>
+      </c>
+      <c r="L155" s="47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M155" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
+        <v>175</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.64083999999999997</v>
+      </c>
+      <c r="F156" s="1">
+        <v>6.5079999999999999E-2</v>
+      </c>
+      <c r="G156" s="4">
+        <v>-7.7332400000000004E-4</v>
+      </c>
+      <c r="H156" s="4">
+        <v>5.90846E-6</v>
+      </c>
+      <c r="I156" s="4">
+        <v>-1.63602E-8</v>
+      </c>
+      <c r="L156" s="47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M156" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
+        <v>175</v>
+      </c>
+      <c r="C157" s="1">
+        <v>15</v>
+      </c>
+      <c r="D157" s="1">
+        <v>600</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.21718999999999999</v>
+      </c>
+      <c r="F157" s="1">
+        <v>4.5310000000000003E-2</v>
+      </c>
+      <c r="G157" s="4">
+        <v>6.4935499999999995E-5</v>
+      </c>
+      <c r="H157" s="4">
+        <v>-2.6628499999999998E-6</v>
+      </c>
+      <c r="I157" s="4">
+        <v>2.53346E-8</v>
+      </c>
+      <c r="L157" s="47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M157" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
+        <v>175</v>
+      </c>
+      <c r="C158" s="1">
+        <v>15</v>
+      </c>
+      <c r="D158" s="1">
+        <v>600</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.18476000000000001</v>
+      </c>
+      <c r="F158" s="1">
+        <v>7.7740000000000004E-2</v>
+      </c>
+      <c r="G158" s="4">
+        <v>-3.8870899999999999E-4</v>
+      </c>
+      <c r="H158" s="4">
+        <v>4.4727700000000002E-6</v>
+      </c>
+      <c r="I158" s="4">
+        <v>-1.68767E-8</v>
+      </c>
+      <c r="L158" s="47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M158" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>150</v>
+      </c>
+      <c r="C159" s="1">
+        <v>15</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.56191000000000002</v>
+      </c>
+      <c r="F159" s="1">
+        <v>6.6339999999999996E-2</v>
+      </c>
+      <c r="G159" s="4">
+        <v>-9.47115E-4</v>
+      </c>
+      <c r="H159" s="4">
+        <v>1.0155200000000001E-5</v>
+      </c>
+      <c r="I159" s="4">
+        <v>-3.1856999999999999E-8</v>
+      </c>
+      <c r="L159" s="47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M159" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>150</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.54507000000000005</v>
+      </c>
+      <c r="F160" s="1">
+        <v>5.3539999999999997E-2</v>
+      </c>
+      <c r="G160" s="4">
+        <v>-8.4698300000000005E-4</v>
+      </c>
+      <c r="H160" s="4">
+        <v>8.7034200000000001E-6</v>
+      </c>
+      <c r="I160" s="4">
+        <v>-3.3748699999999997E-8</v>
+      </c>
+      <c r="L160" s="47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M160" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>150</v>
+      </c>
+      <c r="C161" s="1">
+        <v>15</v>
+      </c>
+      <c r="D161" s="1">
+        <v>600</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0.82943999999999996</v>
+      </c>
+      <c r="F161" s="1">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="H161" s="4">
+        <v>-1.14332E-6</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1.9510000000000001E-8</v>
+      </c>
+      <c r="L161" s="47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M161" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
+        <v>150</v>
+      </c>
+      <c r="C162" s="1">
+        <v>15</v>
+      </c>
+      <c r="D162" s="1">
+        <v>600</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.11602</v>
+      </c>
+      <c r="G162" s="4">
+        <v>3.8232000000000001E-4</v>
+      </c>
+      <c r="H162" s="4">
+        <v>-5.7178800000000002E-6</v>
+      </c>
+      <c r="I162" s="4">
+        <v>2.9499300000000001E-8</v>
+      </c>
+      <c r="L162" s="47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M162" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
+        <v>175</v>
+      </c>
+      <c r="C163" s="1">
+        <v>15</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="F163" s="1">
+        <v>6.8830000000000002E-2</v>
+      </c>
+      <c r="G163" s="4">
+        <v>-6.8393900000000005E-4</v>
+      </c>
+      <c r="H163" s="4">
+        <v>5.9714500000000002E-6</v>
+      </c>
+      <c r="I163" s="4">
+        <v>-1.07627E-8</v>
+      </c>
+      <c r="L163" s="47" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M163" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
+        <v>175</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.59377000000000002</v>
+      </c>
+      <c r="F164" s="1">
+        <v>4.9860000000000002E-2</v>
+      </c>
+      <c r="G164" s="4">
+        <v>-5.5446599999999999E-4</v>
+      </c>
+      <c r="H164" s="4">
+        <v>4.1146000000000004E-6</v>
+      </c>
+      <c r="I164" s="4">
+        <v>-1.10359E-8</v>
+      </c>
+      <c r="L164" s="47" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M164" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1">
+        <v>175</v>
+      </c>
+      <c r="C165" s="1">
+        <v>15</v>
+      </c>
+      <c r="D165" s="1">
+        <v>600</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="F165" s="1">
+        <v>5.0529999999999999E-2</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1.41E-3</v>
+      </c>
+      <c r="H165" s="4">
+        <v>-5.4749300000000001E-5</v>
+      </c>
+      <c r="I165" s="4">
+        <v>7.3612300000000003E-7</v>
+      </c>
+      <c r="L165" s="47" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M165" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
+        <v>175</v>
+      </c>
+      <c r="C166" s="1">
+        <v>15</v>
+      </c>
+      <c r="D166" s="1">
+        <v>600</v>
+      </c>
+      <c r="E166" s="1">
+        <v>5.067E-2</v>
+      </c>
+      <c r="F166" s="1">
+        <v>6.7760000000000001E-2</v>
+      </c>
+      <c r="G166" s="4">
+        <v>-3.44113E-4</v>
+      </c>
+      <c r="H166" s="4">
+        <v>3.2991400000000001E-6</v>
+      </c>
+      <c r="I166" s="4">
+        <v>-1.47645E-8</v>
+      </c>
+      <c r="L166" s="47" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M166" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1">
+        <v>175</v>
+      </c>
+      <c r="C167" s="1">
+        <v>15</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.65046000000000004</v>
+      </c>
+      <c r="F167" s="1">
+        <v>6.6030000000000005E-2</v>
+      </c>
+      <c r="G167" s="4">
+        <v>-8.3242199999999998E-4</v>
+      </c>
+      <c r="H167" s="4">
+        <v>7.5235400000000003E-6</v>
+      </c>
+      <c r="I167" s="4">
+        <v>-2.3971200000000001E-8</v>
+      </c>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M167" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>175</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.69028</v>
+      </c>
+      <c r="F168" s="1">
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="G168" s="4">
+        <v>-6.7566600000000001E-4</v>
+      </c>
+      <c r="H168" s="4">
+        <v>5.0533600000000004E-6</v>
+      </c>
+      <c r="I168" s="4">
+        <v>-1.3915399999999999E-8</v>
+      </c>
+      <c r="K168" s="47"/>
+      <c r="L168" s="47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M168" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>175</v>
+      </c>
+      <c r="C169" s="1">
+        <v>15</v>
+      </c>
+      <c r="D169" s="1">
+        <v>600</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.22369</v>
+      </c>
+      <c r="F169" s="1">
+        <v>5.7360000000000001E-2</v>
+      </c>
+      <c r="G169" s="4">
+        <v>7.4286800000000004E-4</v>
+      </c>
+      <c r="H169" s="4">
+        <v>-2.8972699999999998E-6</v>
+      </c>
+      <c r="I169" s="4">
+        <v>1.17096E-8</v>
+      </c>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M169" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
+        <v>175</v>
+      </c>
+      <c r="C170" s="1">
+        <v>15</v>
+      </c>
+      <c r="D170" s="1">
+        <v>600</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0.13613</v>
+      </c>
+      <c r="F170" s="1">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="G170" s="4">
+        <v>-9.5472099999999996E-4</v>
+      </c>
+      <c r="H170" s="4">
+        <v>1.5530299999999999E-5</v>
+      </c>
+      <c r="I170" s="4">
+        <v>-8.5984900000000007E-8</v>
+      </c>
+      <c r="K170" s="47"/>
+      <c r="L170" s="47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M170" s="47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1">
+        <v>175</v>
+      </c>
+      <c r="C171" s="1">
+        <v>15</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0.79632000000000003</v>
+      </c>
+      <c r="F171" s="4">
+        <v>3.5549999999999998E-2</v>
+      </c>
+      <c r="G171" s="4">
+        <v>6.6352100000000003E-4</v>
+      </c>
+      <c r="H171" s="4">
+        <v>-1.47032E-5</v>
+      </c>
+      <c r="I171" s="4">
+        <v>8.8147199999999999E-8</v>
+      </c>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M171" s="47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
+        <v>175</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0.61939</v>
+      </c>
+      <c r="F172" s="4">
+        <v>9.1579999999999995E-2</v>
+      </c>
+      <c r="G172" s="4">
+        <v>-1.8600000000000001E-3</v>
+      </c>
+      <c r="H172" s="4">
+        <v>2.4677799999999999E-5</v>
+      </c>
+      <c r="I172" s="4">
+        <v>-1.19184E-7</v>
+      </c>
+      <c r="K172" s="47"/>
+      <c r="L172" s="47" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M172" s="47" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>175</v>
+      </c>
+      <c r="C173" s="1">
+        <v>15</v>
+      </c>
+      <c r="D173" s="1">
+        <v>600</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.59338000000000002</v>
+      </c>
+      <c r="F173" s="4">
+        <v>6.9510000000000002E-2</v>
+      </c>
+      <c r="G173" s="4">
+        <v>1.0000099999999999E-4</v>
+      </c>
+      <c r="H173" s="4">
+        <v>2.9397300000000001E-5</v>
+      </c>
+      <c r="I173" s="4">
+        <v>-1.6476E-7</v>
+      </c>
+      <c r="K173" s="47"/>
+      <c r="L173" s="47" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M173" s="47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1">
+        <v>175</v>
+      </c>
+      <c r="C174" s="1">
+        <v>15</v>
+      </c>
+      <c r="D174" s="1">
+        <v>600</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.33385999999999999</v>
+      </c>
+      <c r="F174" s="4">
+        <v>6.8610000000000004E-2</v>
+      </c>
+      <c r="G174" s="4">
+        <v>-3.4116399999999997E-4</v>
+      </c>
+      <c r="H174" s="4">
+        <v>4.2388799999999996E-6</v>
+      </c>
+      <c r="I174" s="4">
+        <v>-1.8602E-8</v>
+      </c>
+      <c r="K174" s="47"/>
+      <c r="L174" s="47" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M174" s="47" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -46868,7 +48947,7 @@
         <v>389</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>371</v>
@@ -46883,19 +48962,19 @@
         <v>1113</v>
       </c>
       <c r="L1" s="53" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P1" s="53" t="s">
         <v>1388</v>
       </c>
-      <c r="M1" s="53" t="s">
-        <v>1387</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>1385</v>
-      </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>1389</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -46906,7 +48985,7 @@
         <v>1068</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D2" s="7">
         <f>PI()*POWER(H2/2,2)*10*K2</f>
@@ -49913,7 +51992,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="56" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C77" s="55" t="s">
         <v>1057</v>
@@ -49936,7 +52015,7 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="56" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C78" s="55" t="s">
         <v>1057</v>
@@ -49959,7 +52038,7 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="56" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>1057</v>
@@ -49982,7 +52061,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="56" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C80" s="55" t="s">
         <v>1057</v>
@@ -50005,7 +52084,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="56" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>1057</v>
@@ -50028,7 +52107,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C82" s="55" t="s">
         <v>1057</v>
@@ -50051,7 +52130,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="56" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C83" s="55" t="s">
         <v>1057</v>
@@ -54947,7 +57026,7 @@
         <v>407</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>1063</v>
@@ -55105,14 +57184,14 @@
         <v>407</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E42" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" ref="F42:F80" si="5">G42*J42</f>
@@ -55170,10 +57249,10 @@
         <v>1</v>
       </c>
       <c r="W42" s="68" t="s">
+        <v>1358</v>
+      </c>
+      <c r="X42" s="58" t="s">
         <v>1359</v>
-      </c>
-      <c r="X42" s="58" t="s">
-        <v>1360</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" ref="Y42:Y80" si="9">N42*O42*P42/1000000</f>
@@ -55183,14 +57262,14 @@
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="58" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E43" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E43" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
@@ -55226,10 +57305,10 @@
         <v>1</v>
       </c>
       <c r="W43" s="68" t="s">
+        <v>1358</v>
+      </c>
+      <c r="X43" s="58" t="s">
         <v>1359</v>
-      </c>
-      <c r="X43" s="58" t="s">
-        <v>1360</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="9"/>
@@ -55241,14 +57320,14 @@
         <v>407</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E44" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
@@ -55306,10 +57385,10 @@
         <v>1</v>
       </c>
       <c r="W44" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X44" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="9"/>
@@ -55319,14 +57398,14 @@
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E45" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E45" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
@@ -55362,10 +57441,10 @@
         <v>1</v>
       </c>
       <c r="W45" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X45" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="9"/>
@@ -55377,14 +57456,14 @@
         <v>407</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E46" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
@@ -55442,10 +57521,10 @@
         <v>1</v>
       </c>
       <c r="W46" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X46" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="9"/>
@@ -55457,14 +57536,14 @@
         <v>407</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E47" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E47" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
@@ -55522,10 +57601,10 @@
         <v>1</v>
       </c>
       <c r="W47" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X47" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="9"/>
@@ -55537,14 +57616,14 @@
         <v>407</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E48" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
@@ -55602,10 +57681,10 @@
         <v>1</v>
       </c>
       <c r="W48" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X48" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="9"/>
@@ -55617,14 +57696,14 @@
         <v>407</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E49" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
@@ -55682,10 +57761,10 @@
         <v>1</v>
       </c>
       <c r="W49" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X49" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="9"/>
@@ -55697,14 +57776,14 @@
         <v>407</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E50" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E50" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
@@ -55762,10 +57841,10 @@
         <v>1</v>
       </c>
       <c r="W50" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X50" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="9"/>
@@ -55777,14 +57856,14 @@
         <v>407</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E51" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E51" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
@@ -55842,10 +57921,10 @@
         <v>1</v>
       </c>
       <c r="W51" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X51" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="9"/>
@@ -55857,14 +57936,14 @@
         <v>407</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E52" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
@@ -55922,10 +58001,10 @@
         <v>1</v>
       </c>
       <c r="W52" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X52" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="9"/>
@@ -55937,14 +58016,14 @@
         <v>407</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E53" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E53" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="5"/>
@@ -56002,10 +58081,10 @@
         <v>1</v>
       </c>
       <c r="W53" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X53" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="9"/>
@@ -56017,14 +58096,14 @@
         <v>407</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E54" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E54" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="5"/>
@@ -56082,10 +58161,10 @@
         <v>1</v>
       </c>
       <c r="W54" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X54" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="9"/>
@@ -56097,14 +58176,14 @@
         <v>407</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E55" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="5"/>
@@ -56162,10 +58241,10 @@
         <v>1</v>
       </c>
       <c r="W55" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X55" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="9"/>
@@ -56177,14 +58256,14 @@
         <v>407</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E56" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E56" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="5"/>
@@ -56242,10 +58321,10 @@
         <v>1</v>
       </c>
       <c r="W56" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X56" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y56" s="1">
         <f t="shared" si="9"/>
@@ -56257,14 +58336,14 @@
         <v>407</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E57" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E57" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="5"/>
@@ -56322,10 +58401,10 @@
         <v>1</v>
       </c>
       <c r="W57" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X57" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" si="9"/>
@@ -56337,14 +58416,14 @@
         <v>407</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E58" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F58" s="7">
         <f t="shared" si="5"/>
@@ -56402,10 +58481,10 @@
         <v>1</v>
       </c>
       <c r="W58" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X58" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" si="9"/>
@@ -56417,14 +58496,14 @@
         <v>407</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E59" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E59" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="5"/>
@@ -56482,10 +58561,10 @@
         <v>1</v>
       </c>
       <c r="W59" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X59" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y59" s="1">
         <f t="shared" si="9"/>
@@ -56497,14 +58576,14 @@
         <v>407</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E60" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="5"/>
@@ -56562,10 +58641,10 @@
         <v>1</v>
       </c>
       <c r="W60" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X60" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y60" s="1">
         <f t="shared" si="9"/>
@@ -56577,14 +58656,14 @@
         <v>407</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E61" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="5"/>
@@ -56642,10 +58721,10 @@
         <v>1</v>
       </c>
       <c r="W61" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X61" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" si="9"/>
@@ -56657,14 +58736,14 @@
         <v>407</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E62" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E62" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="5"/>
@@ -56722,10 +58801,10 @@
         <v>1</v>
       </c>
       <c r="W62" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X62" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="9"/>
@@ -56737,14 +58816,14 @@
         <v>407</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E63" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E63" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="5"/>
@@ -56802,10 +58881,10 @@
         <v>1</v>
       </c>
       <c r="W63" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X63" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" si="9"/>
@@ -56817,14 +58896,14 @@
         <v>407</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E64" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E64" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="5"/>
@@ -56882,10 +58961,10 @@
         <v>1</v>
       </c>
       <c r="W64" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X64" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="9"/>
@@ -56897,14 +58976,14 @@
         <v>407</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E65" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E65" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="5"/>
@@ -56962,10 +59041,10 @@
         <v>1</v>
       </c>
       <c r="W65" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X65" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y65" s="1">
         <f t="shared" si="9"/>
@@ -56977,14 +59056,14 @@
         <v>407</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E66" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E66" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F66" s="7">
         <f t="shared" si="5"/>
@@ -57042,10 +59121,10 @@
         <v>1</v>
       </c>
       <c r="W66" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X66" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" si="9"/>
@@ -57057,14 +59136,14 @@
         <v>407</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E67" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E67" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F67" s="7">
         <f t="shared" si="5"/>
@@ -57122,10 +59201,10 @@
         <v>1</v>
       </c>
       <c r="W67" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X67" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="9"/>
@@ -57137,14 +59216,14 @@
         <v>407</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E68" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F68" s="7">
         <f t="shared" si="5"/>
@@ -57202,10 +59281,10 @@
         <v>1</v>
       </c>
       <c r="W68" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X68" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" si="9"/>
@@ -57217,14 +59296,14 @@
         <v>407</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E69" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F69" s="7">
         <f t="shared" si="5"/>
@@ -57282,10 +59361,10 @@
         <v>1</v>
       </c>
       <c r="W69" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X69" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y69" s="1">
         <f t="shared" si="9"/>
@@ -57297,14 +59376,14 @@
         <v>407</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E70" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="5"/>
@@ -57362,10 +59441,10 @@
         <v>1</v>
       </c>
       <c r="W70" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X70" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y70" s="1">
         <f t="shared" si="9"/>
@@ -57377,14 +59456,14 @@
         <v>407</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E71" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E71" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="5"/>
@@ -57442,10 +59521,10 @@
         <v>1</v>
       </c>
       <c r="W71" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X71" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y71" s="1">
         <f t="shared" si="9"/>
@@ -57457,14 +59536,14 @@
         <v>407</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E72" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" si="5"/>
@@ -57522,10 +59601,10 @@
         <v>1</v>
       </c>
       <c r="W72" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X72" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" si="9"/>
@@ -57535,14 +59614,14 @@
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="50"/>
       <c r="B73" s="58" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E73" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E73" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="5"/>
@@ -57577,10 +59656,10 @@
         <v>1</v>
       </c>
       <c r="W73" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X73" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" si="9"/>
@@ -57592,14 +59671,14 @@
         <v>407</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E74" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E74" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F74" s="7">
         <f t="shared" si="5"/>
@@ -57657,10 +59736,10 @@
         <v>1</v>
       </c>
       <c r="W74" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X74" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y74" s="1">
         <f t="shared" si="9"/>
@@ -57672,14 +59751,14 @@
         <v>407</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E75" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E75" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="5"/>
@@ -57737,10 +59816,10 @@
         <v>1</v>
       </c>
       <c r="W75" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X75" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" si="9"/>
@@ -57752,14 +59831,14 @@
         <v>407</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E76" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E76" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="5"/>
@@ -57817,10 +59896,10 @@
         <v>1</v>
       </c>
       <c r="W76" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X76" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" si="9"/>
@@ -57832,14 +59911,14 @@
         <v>407</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E77" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E77" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="5"/>
@@ -57897,10 +59976,10 @@
         <v>1</v>
       </c>
       <c r="W77" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X77" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" si="9"/>
@@ -57912,14 +59991,14 @@
         <v>407</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E78" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E78" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="5"/>
@@ -57977,10 +60056,10 @@
         <v>1</v>
       </c>
       <c r="W78" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X78" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="9"/>
@@ -57992,14 +60071,14 @@
         <v>407</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E79" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E79" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="5"/>
@@ -58057,10 +60136,10 @@
         <v>1</v>
       </c>
       <c r="W79" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X79" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y79" s="1">
         <f t="shared" si="9"/>
@@ -58072,14 +60151,14 @@
         <v>407</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E80" s="67" t="s">
         <v>1319</v>
-      </c>
-      <c r="E80" s="67" t="s">
-        <v>1320</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="5"/>
@@ -58137,10 +60216,10 @@
         <v>1</v>
       </c>
       <c r="W80" s="68" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X80" s="58" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y80" s="1">
         <f t="shared" si="9"/>
@@ -58223,7 +60302,7 @@
         <v>1006</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -58958,7 +61037,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>1011</v>
@@ -59007,7 +61086,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>1012</v>
@@ -59730,10 +61809,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>1156</v>
@@ -59779,10 +61858,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C35" s="56" t="s">
         <v>1156</v>
@@ -59828,10 +61907,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C36" s="56" t="s">
         <v>1156</v>
@@ -59877,10 +61956,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C37" s="56" t="s">
         <v>1156</v>
@@ -59926,10 +62005,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C38" s="56" t="s">
         <v>1156</v>
@@ -59975,10 +62054,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C39" s="56" t="s">
         <v>1156</v>
@@ -60025,7 +62104,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="71" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C40" s="56" t="s">
         <v>1156</v>
@@ -60069,10 +62148,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C41" s="56" t="s">
         <v>1156</v>
@@ -60118,10 +62197,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C42" s="56" t="s">
         <v>1156</v>
@@ -60167,10 +62246,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C43" s="56" t="s">
         <v>1156</v>
@@ -60216,10 +62295,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="58" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C44" s="56" t="s">
         <v>1156</v>
@@ -60265,10 +62344,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C45" s="56" t="s">
         <v>1156</v>
@@ -60314,10 +62393,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C46" s="56" t="s">
         <v>1156</v>
@@ -60363,10 +62442,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="58" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C47" s="56" t="s">
         <v>1156</v>
@@ -60412,10 +62491,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C48" s="56" t="s">
         <v>1156</v>
@@ -60461,10 +62540,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C49" s="56" t="s">
         <v>1156</v>
@@ -64064,7 +66143,7 @@
         <v>407</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>1063</v>

--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Switch" sheetId="1" r:id="rId1"/>
@@ -6830,6 +6830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6851,6 +6852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6867,6 +6869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6883,6 +6886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6926,6 +6930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6953,6 +6958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6980,6 +6986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7007,6 +7014,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7050,6 +7058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7085,6 +7094,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7449,6 +7459,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -41725,8 +41736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46765,19 +46776,19 @@
         <v>600</v>
       </c>
       <c r="E145" s="34">
-        <v>0</v>
+        <v>0.31229000000000001</v>
       </c>
       <c r="F145" s="34">
-        <v>0.13325000000000001</v>
-      </c>
-      <c r="G145" s="34">
-        <v>-2.14E-3</v>
+        <v>9.0230000000000005E-2</v>
+      </c>
+      <c r="G145" s="69">
+        <v>-3.4715100000000002E-4</v>
       </c>
       <c r="H145" s="69">
-        <v>5.2024400000000003E-5</v>
+        <v>2.3215999999999999E-5</v>
       </c>
       <c r="I145" s="69">
-        <v>-2.7831000000000001E-7</v>
+        <v>-1.2043500000000001E-7</v>
       </c>
       <c r="L145" s="43" t="s">
         <v>1296</v>
@@ -46800,19 +46811,19 @@
         <v>600</v>
       </c>
       <c r="E146" s="34">
-        <v>0</v>
+        <v>0.60731000000000002</v>
       </c>
       <c r="F146" s="34">
-        <v>0.14313999999999999</v>
-      </c>
-      <c r="G146" s="34">
-        <v>-2.3500000000000001E-3</v>
+        <v>5.7439999999999998E-2</v>
+      </c>
+      <c r="G146" s="69">
+        <v>1.24E-3</v>
       </c>
       <c r="H146" s="69">
-        <v>3.6432900000000001E-5</v>
+        <v>-2.14438E-5</v>
       </c>
       <c r="I146" s="69">
-        <v>-2.05543E-7</v>
+        <v>1.1106300000000001E-7</v>
       </c>
       <c r="L146" s="43" t="s">
         <v>1296</v>
@@ -46846,6 +46857,7 @@
       <c r="I147" s="4">
         <v>-1.14467E-8</v>
       </c>
+      <c r="J147" s="4"/>
       <c r="L147" s="43" t="s">
         <v>1393</v>
       </c>
@@ -46875,6 +46887,7 @@
       <c r="I148" s="4">
         <v>-2.6912599999999999E-8</v>
       </c>
+      <c r="J148" s="4"/>
       <c r="L148" s="43" t="s">
         <v>1393</v>
       </c>
@@ -46910,6 +46923,7 @@
       <c r="I149" s="4">
         <v>-2.3688299999999999E-7</v>
       </c>
+      <c r="J149" s="4"/>
       <c r="L149" s="43" t="s">
         <v>1393</v>
       </c>
@@ -53151,7 +53165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
